--- a/outputs/failed_lo_mappings.xlsx
+++ b/outputs/failed_lo_mappings.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mappings" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Suggested Verbs" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +459,11 @@
           <t>Verbs Identified</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Suggested Verbs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,6 +490,11 @@
           <t>[('discern', 'Verb not mapped'), ('propose', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[('change', 'Applying'), ('justify', 'Creating'), ('give', 'Understanding'), ('apply', 'Applying'), ('describe', 'Understanding')]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,12 +517,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>[('identify', 'Understanding'), ('provide', 'Verb not mapped'), ('analyse', 'Analysing'), ('use', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[('describe', 'Understanding'), ('apply', 'Applying'), ('define', 'Remembering'), ('generate', 'Creating'), ('organise', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -546,6 +560,11 @@
           <t>[('identify', 'Understanding'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[('perform', 'Creating'), ('identify', 'Understanding'), ('adopt', 'Evaluating'), ('support', 'Evaluating'), ('devise', 'Evaluating')]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,6 +595,11 @@
           <t>[('determine', 'Verb not mapped'), ('include', 'Verb not mapped'), ('embody', 'Verb not mapped'), ('propose', 'Verb not mapped'), ('use', 'Applying')]</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[('describe', 'Understanding'), ('apply', 'Applying'), ('define', 'Remembering'), ('generate', 'Creating'), ('organise', 'Evaluating')]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,6 +630,11 @@
           <t>[('identify', 'Unistructural'), ('select', 'Multistructural'), ('derive', 'Relational')]</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[('summarise', 'Relational'), ('differentiate', 'Relational'), ('mitigate', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('describe', 'Multistructural')]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,6 +665,11 @@
           <t>[('discuss', 'Relational'), ('write', 'Unistructural')]</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[('sequence', 'Multistructural'), ('generate', 'Extended Abstract'), ('describe', 'Multistructural'), ('summarise', 'Relational'), ('differentiate', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -666,6 +700,11 @@
           <t>[('engage', 'Extended Abstract')]</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[('review', 'Extended Abstract'), ('discuss', 'Relational'), ('address', 'Relational'), ('demonstrate', 'Extended Abstract'), ('value', 'Extended Abstract')]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -696,6 +735,11 @@
           <t>[('discuss', 'Relational'), ('integrate', 'Extended Abstract')]</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[('mitigate', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('address', 'Relational'), ('prove', 'Relational'), ('create', 'Extended Abstract')]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -726,6 +770,11 @@
           <t>[('define', 'Remembering'), ('use', 'Applying'), ('discern', 'Verb not mapped'), ('solve', 'Applying'), ('decompose', 'Verb not mapped'), ('use', 'Applying'), ('describe', 'Understanding')]</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[('define', 'Remembering'), ('justify', 'Creating'), ('change', 'Applying'), ('rate', 'Evaluating'), ('characterise', 'Understanding')]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -756,6 +805,11 @@
           <t>[('select', 'Evaluating'), ('solve', 'Applying'), ('contain', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[('produce', 'Creating'), ('state', 'Remembering'), ('back', 'Applying'), ('act', 'Applying'), ('perform', 'Creating')]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -786,6 +840,11 @@
           <t>[('propose', 'Multistructural'), ('give', 'Verb not mapped'), ('evaluate', 'Extended Abstract')]</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[('prove', 'Relational'), ('contrast', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('compare', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -816,6 +875,11 @@
           <t>[('identify', 'Unistructural'), ('reflect', 'Extended Abstract'), ('contribute', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[('reflect', 'Extended Abstract'), ('conduct', 'Relational'), ('evaluate', 'Extended Abstract'), ('relate', 'Relational'), ('use', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -842,6 +906,11 @@
           <t>[('determine', 'Verb not mapped'), ('inform', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[('act', 'Applying'), ('summarise', 'Understanding'), ('rate', 'Evaluating'), ('change', 'Applying'), ('generate', 'Creating')]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -872,6 +941,11 @@
           <t>[('determine', 'Verb not mapped'), ('involve', 'Verb not mapped'), ('use', 'Applying'), ('solve', 'Applying')]</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[('design', 'Creating'), ('justify', 'Creating'), ('apply', 'Applying'), ('change', 'Applying'), ('develop', 'Creating')]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -902,6 +976,11 @@
           <t>[('identify', 'Unistructural'), ('develop', 'Verb not mapped'), ('validate', 'Verb not mapped'), ('convey', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[('summarise', 'Relational'), ('compare', 'Relational'), ('synthesise', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('organise', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -932,6 +1011,11 @@
           <t>[('identify', 'Unistructural'), ('reflect', 'Extended Abstract'), ('contribute', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[('reflect', 'Extended Abstract'), ('conduct', 'Relational'), ('evaluate', 'Extended Abstract'), ('relate', 'Relational'), ('use', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -958,6 +1042,11 @@
           <t>[('determine', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[('perform', 'Creating'), ('identify', 'Understanding'), ('adopt', 'Evaluating'), ('support', 'Evaluating'), ('devise', 'Evaluating')]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -988,6 +1077,11 @@
           <t>[('evaluate', 'Extended Abstract')]</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[('prove', 'Relational'), ('contrast', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('compare', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1018,6 +1112,11 @@
           <t>[('analyse', 'Relational'), ('determine', 'Multistructural')]</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[('report', 'Multistructural'), ('identify', 'Unistructural'), ('compare', 'Relational'), ('define', 'Multistructural'), ('prove', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1048,6 +1147,11 @@
           <t>[('work', 'Verb not mapped'), ('analyse', 'Relational'), ('write', 'Unistructural')]</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[('sequence', 'Multistructural'), ('generate', 'Extended Abstract'), ('describe', 'Multistructural'), ('summarise', 'Relational'), ('differentiate', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1078,6 +1182,11 @@
           <t>[('apply', 'Applying'), ('orient', 'Verb not mapped'), ('design', 'Creating'), ('use', 'Applying')]</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[('describe', 'Understanding'), ('apply', 'Applying'), ('define', 'Remembering'), ('generate', 'Creating'), ('organise', 'Evaluating')]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1108,6 +1217,11 @@
           <t>[('prove', 'Evaluating'), ('analyse', 'Analysing')]</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>[('implement', 'Applying'), ('perform', 'Creating'), ('evaluate', 'Evaluating'), ('compare', 'Understanding'), ('describe', 'Understanding')]</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1138,6 +1252,11 @@
           <t>[('compare', 'Understanding'), ('contrast', 'Analysing'), ('use', 'Applying')]</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[('describe', 'Understanding'), ('apply', 'Applying'), ('define', 'Remembering'), ('generate', 'Creating'), ('organise', 'Evaluating')]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1164,6 +1283,11 @@
           <t>[('develop', 'Verb not mapped'), ('implement', 'Verb not mapped'), ('solve', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>[('design', 'Extended Abstract'), ('propose', 'Multistructural'), ('justify', 'Extended Abstract'), ('apply', 'Relational'), ('select', 'Multistructural')]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1194,6 +1318,11 @@
           <t>[('identify', 'Unistructural'), ('include', 'Verb not mapped'), ('select', 'Multistructural'), ('give', 'Verb not mapped'), ('achieve', 'Verb not mapped'), ('document', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[('generate', 'Extended Abstract'), ('sequence', 'Multistructural'), ('address', 'Relational'), ('mitigate', 'Extended Abstract'), ('organise', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1224,6 +1353,11 @@
           <t>[('perform', 'Verb not mapped'), ('use', 'Relational'), ('base', 'Verb not mapped'), ('base', 'Verb not mapped'), ('utilise', 'Verb not mapped'), ('automate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[('identify', 'Unistructural'), ('address', 'Relational'), ('integrate', 'Extended Abstract'), ('report', 'Multistructural'), ('mitigate', 'Extended Abstract')]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1254,6 +1388,11 @@
           <t>[('perform', 'Verb not mapped'), ('use', 'Relational'), ('trace', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>[('address', 'Relational'), ('generate', 'Extended Abstract'), ('sequence', 'Multistructural'), ('mitigate', 'Extended Abstract'), ('contrast', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1284,6 +1423,11 @@
           <t>[('select', 'Multistructural'), ('collect', 'Verb not mapped'), ('include', 'Verb not mapped'), ('analyse', 'Relational'), ('make', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Extended Abstract'), ('differentiate', 'Relational'), ('derive', 'Relational'), ('conduct', 'Relational'), ('function', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1314,6 +1458,11 @@
           <t>[('explain', 'Understanding'), ('analyse', 'Analysing')]</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[('implement', 'Applying'), ('perform', 'Creating'), ('evaluate', 'Evaluating'), ('compare', 'Understanding'), ('describe', 'Understanding')]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1344,6 +1493,11 @@
           <t>[('explain', 'Understanding'), ('analyse', 'Analysing')]</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[('implement', 'Applying'), ('perform', 'Creating'), ('evaluate', 'Evaluating'), ('compare', 'Understanding'), ('describe', 'Understanding')]</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1374,6 +1528,11 @@
           <t>[('model', 'Verb not mapped'), ('design', 'Organisation'), ('use', 'Receiving')]</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[('describe', 'Receiving'), ('guide', 'Valuing'), ('organise', 'Organisation'), ('allow', 'Responding'), ('justify', 'Valuing')]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1404,6 +1563,11 @@
           <t>[('analyse', 'Analysing'), ('design', 'Creating'), ('refactor', 'Verb not mapped'), ('take', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>[('make', 'Creating'), ('discuss', 'Understanding'), ('perform', 'Creating'), ('generate', 'Creating'), ('produce', 'Creating')]</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1430,6 +1594,11 @@
           <t>[('take', 'Verb not mapped'), ('develop', 'Verb not mapped'), ('follow', 'Verb not mapped'), ('orient', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>[('describe', 'Multistructural'), ('generate', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('discuss', 'Relational'), ('sequence', 'Multistructural')]</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1460,6 +1629,11 @@
           <t>[('select', 'Receiving'), ('use', 'Receiving'), ('incremente', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>[('allow', 'Responding'), ('choose', 'Receiving'), ('relay', 'Responding'), ('respond', 'Responding'), ('change', 'Characterisation')]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1490,6 +1664,11 @@
           <t>[('evaluate', 'Extended Abstract'), ('apply', 'Relational'), ('design', 'Extended Abstract')]</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[('design', 'Extended Abstract'), ('apply', 'Relational'), ('select', 'Multistructural'), ('propose', 'Multistructural'), ('review', 'Extended Abstract')]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1520,6 +1699,11 @@
           <t>[('describe', 'Multistructural'), ('base', 'Verb not mapped'), ('apply', 'Relational'), ('achieve', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[('review', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('engage', 'Extended Abstract'), ('manage', 'Relational'), ('identify', 'Unistructural')]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1550,6 +1734,11 @@
           <t>[('apply', 'Relational'), ('engage', 'Extended Abstract'), ('determine', 'Multistructural')]</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[('report', 'Multistructural'), ('identify', 'Unistructural'), ('compare', 'Relational'), ('define', 'Multistructural'), ('prove', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1580,6 +1769,11 @@
           <t>[('plan', 'Extended Abstract'), ('manage', 'Relational')]</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>[('organise', 'Relational'), ('plan', 'Extended Abstract'), ('manage', 'Relational'), ('describe', 'Multistructural'), ('identify', 'Unistructural')]</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1610,6 +1804,11 @@
           <t>[('compare', 'Understanding'), ('analyse', 'Analysing'), ('determine', 'Verb not mapped'), ('require', 'Verb not mapped'), ('support', 'Evaluating')]</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[('make', 'Creating'), ('characterise', 'Understanding'), ('generate', 'Creating'), ('report', 'Understanding'), ('rate', 'Evaluating')]</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1640,6 +1839,11 @@
           <t>[('deliberate', 'Extended Abstract'), ('occur', 'Verb not mapped'), ('identify', 'Unistructural'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>[('conduct', 'Relational'), ('evaluate', 'Extended Abstract'), ('differentiate', 'Relational'), ('derive', 'Relational'), ('function', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1666,6 +1870,11 @@
           <t>[('develop', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>[('select', 'Multistructural'), ('apply', 'Relational'), ('design', 'Extended Abstract'), ('differentiate', 'Relational'), ('use', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1692,6 +1901,11 @@
           <t>[('implement', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Extended Abstract'), ('differentiate', 'Relational'), ('derive', 'Relational'), ('function', 'Relational'), ('write', 'Unistructural')]</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1722,6 +1936,11 @@
           <t>[('manage', 'Organisation'), ('meet', 'Receiving'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>[('perform', 'Characterisation'), ('identify', 'Receiving'), ('adopt', 'Valuing'), ('support', 'Valuing'), ('allow', 'Responding')]</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1748,6 +1967,11 @@
           <t>[('develop', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>[('select', 'Multistructural'), ('apply', 'Relational'), ('design', 'Extended Abstract'), ('differentiate', 'Relational'), ('use', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1778,6 +2002,11 @@
           <t>[('analyse', 'Analysing'), ('apply', 'Applying')]</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[('justify', 'Creating'), ('summarise', 'Understanding'), ('back', 'Applying'), ('describe', 'Understanding'), ('generate', 'Creating')]</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1808,6 +2037,11 @@
           <t>[('analyse', 'Analysing'), ('implement', 'Applying'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>[('perform', 'Creating'), ('identify', 'Understanding'), ('adopt', 'Evaluating'), ('support', 'Evaluating'), ('devise', 'Evaluating')]</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1838,6 +2072,11 @@
           <t>[('analyse', 'Analysing'), ('implement', 'Applying'), ('base', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>[('perform', 'Creating'), ('identify', 'Understanding'), ('adopt', 'Evaluating'), ('support', 'Evaluating'), ('devise', 'Evaluating')]</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1868,6 +2107,11 @@
           <t>[('implement', 'Verb not mapped'), ('evaluate', 'Extended Abstract'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Extended Abstract'), ('differentiate', 'Relational'), ('derive', 'Relational'), ('function', 'Relational'), ('write', 'Unistructural')]</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1898,6 +2142,11 @@
           <t>[('design', 'Extended Abstract'), ('implement', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>[('function', 'Relational'), ('evaluate', 'Extended Abstract'), ('analyse', 'Relational'), ('derive', 'Relational'), ('apply', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1928,6 +2177,11 @@
           <t>[('select', 'Multistructural'), ('use', 'Relational'), ('manage', 'Relational'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>[('identify', 'Unistructural'), ('address', 'Relational'), ('integrate', 'Extended Abstract'), ('report', 'Multistructural'), ('mitigate', 'Extended Abstract')]</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1950,12 +2204,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>[('identify', 'Unistructural'), ('include', 'Verb not mapped'), ('devise', 'Verb not mapped'), ('adopt', 'Verb not mapped'), ('monitor', 'Verb not mapped'), ('mitigate', 'Extended Abstract')]</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>[('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('integrate', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('characterise', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -1988,6 +2247,11 @@
           <t>[('choose', 'Verb not mapped'), ('follow', 'Verb not mapped'), ('justify', 'Extended Abstract')]</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>[('describe', 'Multistructural'), ('generate', 'Extended Abstract'), ('derive', 'Relational'), ('apply', 'Relational'), ('appreciate', 'Relational')]</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2014,70 +2278,81 @@
           <t>[('include', 'Verb not mapped'), ('ensure', 'Verb not mapped'), ('communicate', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>[('justify', 'Extended Abstract'), ('engage', 'Extended Abstract'), ('report', 'Multistructural'), ('address', 'Relational'), ('generate', 'Extended Abstract')]</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Produce internal documentation of a sufficient quality to support project development activities (including specification, analysis, design, testing) and address relevant security and other risks</t>
+          <t>Communicate effectively with a diverse range of project stakeholders, including clients, end users, and supervisors</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Creating</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[('produce', 'Creating'), ('support', 'Evaluating'), ('include', 'Verb not mapped'), ('address', 'Verb not mapped')]</t>
+          <t>[('communicate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>[('identify', 'Unistructural'), ('address', 'Relational'), ('integrate', 'Extended Abstract'), ('report', 'Multistructural'), ('mitigate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Communicate effectively with a diverse range of project stakeholders, including clients, end users, and supervisors</t>
+          <t>Verify systematically that internal and external project deliverables meet agreed quality standards, such as functionality, security and usability</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[('communicate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('verify', 'Verb not mapped'), ('meet', 'Verb not mapped'), ('agree', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>[('generate', 'Creating'), ('rate', 'Evaluating'), ('perform', 'Creating'), ('prove', 'Evaluating'), ('make', 'Creating')]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Verify systematically that internal and external project deliverables meet agreed quality standards, such as functionality, security and usability</t>
+          <t>Research relevant and reliable literature to evaluate the state of the field.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2090,50 +2365,64 @@
           <t>Evaluating</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[('verify', 'Verb not mapped'), ('meet', 'Verb not mapped'), ('agree', 'Verb not mapped')]</t>
+          <t>[('research', 'Analysing'), ('evaluate', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>[('perform', 'Creating'), ('state', 'Remembering'), ('back', 'Applying'), ('prove', 'Evaluating'), ('contrast', 'Analysing')]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Research relevant and reliable literature to evaluate the state of the field.</t>
+          <t>Analyse a problem and evaluate the potential of a solution or experiment.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t xml:space="preserve">Extended abstract </t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[('research', 'Analysing'), ('evaluate', 'Evaluating')]</t>
+          <t>[('analyse', 'Relational'), ('evaluate', 'Extended Abstract')]</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>[('prove', 'Relational'), ('contrast', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('compare', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Analyse a problem and evaluate the potential of a solution or experiment.</t>
+          <t>Appraise a complex engineering problem and investigate it using appropriate research methods and techniques.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2153,223 +2442,263 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[('analyse', 'Relational'), ('evaluate', 'Extended Abstract')]</t>
+          <t>[('appraise', 'Extended Abstract'), ('investigate', 'Verb not mapped'), ('use', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>[('describe', 'Multistructural'), ('apply', 'Relational'), ('define', 'Multistructural'), ('reduce', 'Relational'), ('derive', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Appraise a complex engineering problem and investigate it using appropriate research methods and techniques.</t>
+          <t>Integrate foundational and discipline-specific knowledge to solve complex open-ended problems.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Extended abstract </t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[('appraise', 'Extended Abstract'), ('investigate', 'Verb not mapped'), ('use', 'Relational')]</t>
+          <t>[('integrate', 'Evaluating'), ('solve', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>[('design', 'Creating'), ('review', 'Remembering'), ('justify', 'Creating'), ('apply', 'Applying'), ('change', 'Applying')]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Integrate foundational and discipline-specific knowledge to solve complex open-ended problems.</t>
+          <t>Plan the scope and requirements of a research project or experiment, responding to changing requirements and potential interdisciplinary inputs.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Organisation/Characterisation</t>
+          <t>Extended abstract</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[('integrate', 'Organisation'), ('solve', 'Characterisation')]</t>
+          <t>[('plan', 'Extended Abstract'), ('respond', 'Verb not mapped'), ('change', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>[('generate', 'Extended Abstract'), ('justify', 'Extended Abstract'), ('address', 'Relational'), ('describe', 'Multistructural'), ('summarise', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Plan the scope and requirements of a research project or experiment, responding to changing requirements and potential interdisciplinary inputs.</t>
+          <t>Generate research and technical outputs by applying appropriate techniques, resources and modern engineering tools to a complex open-ended engineering problem.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Extended abstract</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[('plan', 'Organisation'), ('respond', 'Responding'), ('change', 'Characterisation')]</t>
+          <t>[('generate', 'Extended Abstract'), ('apply', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>[('justify', 'Extended Abstract'), ('summarise', 'Relational'), ('describe', 'Multistructural'), ('generate', 'Extended Abstract'), ('apply', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Generate research and technical outputs by applying appropriate techniques, resources and modern engineering tools to a complex open-ended engineering problem.</t>
+          <t>Demonstrate consideration of the ethics and norms which guide engineering practice, including professionalism, innovation and creativity.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('apply', 'Relational')]</t>
+          <t>[('demonstrate', 'Valuing'), ('guide', 'Valuing'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>[('perform', 'Characterisation'), ('identify', 'Receiving'), ('adopt', 'Valuing'), ('support', 'Valuing'), ('allow', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Demonstrate consideration of the ethics and norms which guide engineering practice, including professionalism, innovation and creativity.</t>
+          <t>Assess the social, health, safety, legal, cultural, commercial and political impacts of the identified project, as appropriate.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Extended abstract</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Valuing'), ('guide', 'Valuing'), ('include', 'Verb not mapped')]</t>
+          <t>[('assess', 'Extended Abstract'), ('identify', 'Unistructural')]</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>[('address', 'Relational'), ('synthesise', 'Extended Abstract'), ('determine', 'Multistructural'), ('discuss', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Assess the social, health, safety, legal, cultural, commercial and political impacts of the identified project, as appropriate.</t>
+          <t>Synthesise the progress and outputs of your project through professional engineering reports and presentations to a range of audiences including the community and industry.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Unistructural</t>
-        </is>
-      </c>
+          <t>Creating</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[('assess', 'Extended Abstract'), ('identify', 'Unistructural')]</t>
+          <t>[('synthesise', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>[('perform', 'Creating'), ('identify', 'Understanding'), ('adopt', 'Evaluating'), ('support', 'Evaluating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Synthesise the progress and outputs of your project through professional engineering reports and presentations to a range of audiences including the community and industry.</t>
+          <t>Engage with project collaborators to achieve research outcomes using effective self and/or team management, review and improvement practices. (Applicable to the Clayton-based course)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>Extended abstract</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[('synthesise', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('engage', 'Extended Abstract'), ('achieve', 'Verb not mapped'), ('use', 'Relational'), ('base', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Extended Abstract'), ('differentiate', 'Relational'), ('derive', 'Relational'), ('function', 'Relational'), ('write', 'Unistructural')]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Engage with project collaborators to achieve research outcomes using effective self and/or team management, review and improvement practices. (Applicable to the Clayton-based course)</t>
+          <t>identify and explain big data concepts and technologies;</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2379,27 +2708,32 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[('engage', 'Extended Abstract'), ('achieve', 'Verb not mapped'), ('use', 'Relational'), ('base', 'Verb not mapped')]</t>
+          <t>[('identify', 'Unistructural'), ('explain', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>[('characterise', 'Relational'), ('describe', 'Multistructural'), ('sequence', 'Multistructural'), ('mitigate', 'Extended Abstract'), ('discuss', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>identify and explain big data concepts and technologies;</t>
+          <t>write and interpret parallel database processing algorithms and methods;</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2419,17 +2753,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('explain', 'Relational')]</t>
+          <t>[('write', 'Unistructural'), ('interpret', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>[('summarise', 'Relational'), ('compute', 'Relational'), ('generate', 'Extended Abstract'), ('reduce', 'Relational'), ('write', 'Unistructural')]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>write and interpret parallel database processing algorithms and methods;</t>
+          <t>use and evaluate streaming methods in big data processing;</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2439,57 +2778,67 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>Extended abstract</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>Relational</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Unistructural</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[('write', 'Unistructural'), ('interpret', 'Relational')]</t>
+          <t>[('use', 'Relational'), ('evaluate', 'Extended Abstract')]</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>[('prove', 'Relational'), ('contrast', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('compare', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>use and evaluate streaming methods in big data processing;</t>
+          <t>use big data streaming technologies.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Recieving</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[('use', 'Relational'), ('evaluate', 'Extended Abstract')]</t>
+          <t>[('use', 'Receiving'), ('stream', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>[('describe', 'Receiving'), ('guide', 'Valuing'), ('organise', 'Organisation'), ('allow', 'Responding'), ('justify', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>use big data streaming technologies.</t>
+          <t>be responsible and effective global citizens who engage in an internationalised world by being able to demonstrate cross cultural competencies and empathy whilst acting ethically and sustainably</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2499,27 +2848,32 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Characterisation</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[('use', 'Receiving'), ('stream', 'Verb not mapped')]</t>
+          <t>[('engage', 'Verb not mapped'), ('demonstrate', 'Valuing'), ('act', 'Characterisation')]</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>[('allow', 'Responding'), ('guide', 'Valuing'), ('consider', 'Organisation'), ('object', 'Characterisation'), ('compare', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>be responsible and effective global citizens who engage in an internationalised world by being able to demonstrate cross cultural competencies and empathy whilst acting ethically and sustainably</t>
+          <t>demonstrate broad knowledge and technical capabilities driven by an entrepreneurial mindset across a variety of domains including but not limited to the business, professional and public policy communities that we serve</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2529,17 +2883,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>Characterisation</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Valuing</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[('engage', 'Verb not mapped'), ('demonstrate', 'Valuing'), ('act', 'Characterisation')]</t>
+          <t>[('demonstrate', 'Valuing'), ('drive', 'Verb not mapped'), ('include', 'Verb not mapped'), ('limit', 'Verb not mapped'), ('serve', 'Characterisation')]</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>[('allow', 'Responding'), ('study', 'Valuing'), ('delay', 'Valuing'), ('organise', 'Organisation'), ('consider', 'Organisation')]</t>
         </is>
       </c>
     </row>
@@ -2572,6 +2931,11 @@
           <t>[('understand', 'Verb not mapped'), ('test', 'Organisation'), ('relate', 'Organisation')]</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>[('change', 'Characterisation'), ('establish', 'Organisation'), ('investigate', 'Organisation'), ('delay', 'Valuing'), ('allow', 'Responding')]</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2602,6 +2966,11 @@
           <t>[('develop', 'Verb not mapped'), ('manage', 'Organisation'), ('work', 'Valuing'), ('start', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>[('relay', 'Responding'), ('allow', 'Responding'), ('study', 'Valuing'), ('organise', 'Organisation'), ('choose', 'Receiving')]</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2632,6 +3001,11 @@
           <t>[('consider', 'Organisation'), ('create', 'Verb not mapped'), ('challenge', 'Characterisation'), ('integrate', 'Organisation'), ('accommodate', 'Verb not mapped'), ('differ', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>[('challenge', 'Characterisation'), ('allow', 'Responding'), ('consider', 'Organisation'), ('organise', 'Organisation'), ('act', 'Characterisation')]</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2649,13 +3023,18 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
           <t>[('reflect', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>[('contribute', 'Valuing'), ('lead', 'Organisation'), ('identify', 'Receiving'), ('choose', 'Receiving'), ('relay', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -2688,6 +3067,11 @@
           <t>[('describe', 'Receiving')]</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>[('allow', 'Responding'), ('relay', 'Responding'), ('follow', 'Receiving'), ('guide', 'Valuing'), ('justify', 'Valuing')]</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2705,13 +3089,18 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
           <t>[('determine', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>[('report', 'Valuing'), ('identify', 'Receiving'), ('compare', 'Organisation'), ('respond', 'Responding'), ('agree', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -2740,6 +3129,11 @@
           <t>[('comprehend', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>[('delay', 'Valuing'), ('guide', 'Valuing'), ('respond', 'Responding'), ('act', 'Characterisation'), ('lead', 'Organisation')]</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2767,6 +3161,11 @@
           <t>[('assess', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>[('agree', 'Responding'), ('discuss', 'Responding'), ('study', 'Valuing'), ('lead', 'Organisation'), ('adopt', 'Valuing')]</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2797,6 +3196,11 @@
           <t>[('describe', 'Receiving')]</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>[('allow', 'Responding'), ('relay', 'Responding'), ('follow', 'Receiving'), ('guide', 'Valuing'), ('justify', 'Valuing')]</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2828,6 +3232,11 @@
           <t>[('apply', 'Verb not mapped'), ('learn', 'Verb not mapped'), ('design', 'Organisation')]</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>[('select', 'Receiving'), ('solve', 'Characterisation'), ('propose', 'Characterisation'), ('justify', 'Valuing'), ('describe', 'Receiving')]</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2858,6 +3267,11 @@
           <t>[('integrate', 'Organisation'), ('evaluate', 'Valuing'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>[('perform', 'Characterisation'), ('identify', 'Receiving'), ('adopt', 'Valuing'), ('support', 'Valuing'), ('allow', 'Responding')]</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2884,14 +3298,19 @@
           <t>[('apply', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>[('perform', 'Characterisation'), ('identify', 'Receiving'), ('adopt', 'Valuing'), ('support', 'Valuing'), ('allow', 'Responding')]</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Identify the elements of the project life cycle, including plan, control, and organise and allocate resources.</t>
+          <t>Evaluate and apply the basic tools and techniques to plan, organise and manage a project.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2901,27 +3320,32 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[('identify', 'Receiving'), ('include', 'Verb not mapped'), ('plan', 'Organisation'), ('control', 'Verb not mapped'), ('organise', 'Verb not mapped'), ('allocate', 'Verb not mapped')]</t>
+          <t>[('evaluate', 'Valuing'), ('apply', 'Verb not mapped'), ('plan', 'Organisation'), ('organise', 'Organisation'), ('manage', 'Organisation')]</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>[('manage', 'Organisation'), ('organise', 'Organisation'), ('follow', 'Receiving'), ('work', 'Valuing'), ('support', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Evaluate and apply the basic tools and techniques to plan, organise and manage a project.</t>
+          <t>Identify strategic constraints in managing the scope, time, cost and quality components.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2931,27 +3355,32 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Recieving</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Valuing'), ('apply', 'Verb not mapped'), ('plan', 'Organisation'), ('organise', 'Verb not mapped'), ('manage', 'Organisation')]</t>
+          <t>[('identify', 'Receiving'), ('manage', 'Organisation')]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>[('organise', 'Organisation'), ('follow', 'Receiving'), ('work', 'Valuing'), ('support', 'Valuing'), ('plan', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Identify strategic constraints in managing the scope, time, cost and quality components.</t>
+          <t>Discuss professional responsibility, occupational health and safety and ethical conduct.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2961,27 +3390,32 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[('identify', 'Receiving'), ('manage', 'Organisation')]</t>
+          <t>[('discuss', 'Responding')]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>[('allow', 'Responding'), ('respond', 'Responding'), ('relay', 'Responding'), ('lead', 'Organisation'), ('establish', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Discuss professional responsibility, occupational health and safety and ethical conduct.</t>
+          <t>Describe the purpose of enterprise architectures and the underlying principles of their design;</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2991,27 +3425,32 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[('discuss', 'Responding')]</t>
+          <t>[('describe', 'Receiving'), ('underlie', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>[('perform', 'Characterisation'), ('allow', 'Responding'), ('agree', 'Responding'), ('consider', 'Organisation'), ('describe', 'Receiving')]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Describe the purpose of enterprise architectures and the underlying principles of their design;</t>
+          <t>Describe into the need for sound data, information and technology governance strategies;</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3021,7 +3460,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Recieving</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3031,17 +3470,23 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('underlie', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>[('allow', 'Responding'), ('relay', 'Responding'), ('follow', 'Receiving'), ('guide', 'Valuing'), ('justify', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Describe into the need for sound data, information and technology governance strategies;</t>
+          <t xml:space="preserve">
+Describe the steps involved in various manufacturing processes for production at scale, including their strengths and limitations.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3051,7 +3496,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3061,18 +3506,23 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving')]</t>
+          <t>[('describe', 'Receiving'), ('involve', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>[('perform', 'Characterisation'), ('identify', 'Receiving'), ('adopt', 'Valuing'), ('support', 'Valuing'), ('allow', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Explain the alignment of an organisation's IT strategy, platforms and systems with the overall organisational strategy and management functions</t>
+Select appropriate part manufacturing processes while balancing functional requirements, performance, cost and sustainability.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3082,28 +3532,33 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Valuing, organisation</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[('explain', 'Valuing')]</t>
+          <t>[('select', 'Receiving'), ('balance', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>[('act', 'Characterisation'), ('change', 'Characterisation'), ('present', 'Responding'), ('monitor', 'Valuing'), ('query', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Describe the steps involved in various manufacturing processes for production at scale, including their strengths and limitations.</t>
+Identify and carry out the necessary steps to conduct a small-scale production run and then reflect on the outcomes.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3123,18 +3578,23 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('involve', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('identify', 'Receiving'), ('carry', 'Verb not mapped'), ('conduct', 'Verb not mapped'), ('reflect', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>[('contribute', 'Valuing'), ('guide', 'Valuing'), ('respond', 'Responding'), ('synthesise', 'Organisation'), ('allow', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Select appropriate part manufacturing processes while balancing functional requirements, performance, cost and sustainability.</t>
+Evaluate the functionality and performance of these programs using software development tools.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3144,7 +3604,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3154,18 +3614,23 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[('select', 'Receiving'), ('balance', 'Verb not mapped')]</t>
+          <t>[('evaluate', 'Valuing'), ('use', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>[('describe', 'Receiving'), ('guide', 'Valuing'), ('organise', 'Organisation'), ('allow', 'Responding'), ('justify', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Identify and carry out the necessary steps to conduct a small-scale production run and then reflect on the outcomes.</t>
+Describe the operation of computer arithmetic, assemblers and compilers, a RISC processor datapath and solve related problems.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3185,18 +3650,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[('identify', 'Receiving'), ('carry', 'Verb not mapped'), ('conduct', 'Verb not mapped'), ('reflect', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving'), ('solve', 'Characterisation')]</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>[('practise', 'Characterisation'), ('manage', 'Organisation'), ('design', 'Organisation'), ('propose', 'Characterisation'), ('justify', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Evaluate the functionality and performance of these programs using software development tools.</t>
+          <t>Solve real-world engineering problems by designing ladder logic diagrams for programmable logic controllers (PLC) using components such as normally open contacts, normally closed contacts, relays, timers and counters.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3206,7 +3675,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Characterisation</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3216,18 +3685,23 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Valuing'), ('use', 'Receiving')]</t>
+          <t>[('solve', 'Characterisation'), ('design', 'Organisation'), ('use', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>[('describe', 'Receiving'), ('guide', 'Valuing'), ('organise', 'Organisation'), ('allow', 'Responding'), ('justify', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Describe the operation of computer arithmetic, assemblers and compilers, a RISC processor datapath and solve related problems.</t>
+Evaluate the various NDT methods for flaw detection and damage assessment and be able to identify the appropriate technique for a given scenario.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3237,7 +3711,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3247,17 +3721,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('solve', 'Characterisation')]</t>
+          <t>[('evaluate', 'Valuing'), ('identify', 'Receiving'), ('give', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>[('justify', 'Valuing'), ('change', 'Characterisation'), ('select', 'Receiving'), ('prepare', 'Organisation'), ('respond', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Solve real-world engineering problems by designing ladder logic diagrams for programmable logic controllers (PLC) using components such as normally open contacts, normally closed contacts, relays, timers and counters.</t>
+          <t>Solve engineering problems related to design and operation of bioreactors.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3267,28 +3746,32 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Characterisation, Organization</t>
+          <t>Characterisation</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[('solve', 'Characterisation'), ('design', 'Organisation'), ('use', 'Receiving')]</t>
+          <t>[('solve', 'Characterisation'), ('relate', 'Organisation')]</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>[('change', 'Characterisation'), ('establish', 'Organisation'), ('investigate', 'Organisation'), ('delay', 'Valuing'), ('allow', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Relate the capabilities and limitations of established NDT techniques to their respective basic working principles.</t>
+          <t>Operate bioreactor and evaluate the performance of cell growth under different operating conditions.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3298,28 +3781,33 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[('relate', 'Organisation'), ('establish', 'Organisation')]</t>
+          <t>[('operate', 'Verb not mapped'), ('evaluate', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>[('perform', 'Characterisation'), ('present', 'Responding'), ('agree', 'Responding'), ('allow', 'Responding'), ('delay', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Evaluate the various NDT methods for flaw detection and damage assessment and be able to identify the appropriate technique for a given scenario.</t>
+Simulate cameras using projective and multi-view geometry to design model-based vision systems and algorithms that extract 3D and rotational information from images, alongside methods for image registration and stitching.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3329,7 +3817,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Valuing, Responding</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3339,17 +3827,23 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Valuing'), ('identify', 'Receiving'), ('give', 'Receiving')]</t>
+          <t>[('simulate', 'Verb not mapped'), ('use', 'Receiving'), ('design', 'Organisation'), ('base', 'Verb not mapped'), ('extract', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>[('guide', 'Valuing'), ('act', 'Characterisation'), ('integrate', 'Organisation'), ('write', 'Responding'), ('agree', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Relate bioprocess organisms and their nutrient requirement to bioprocess considerations.</t>
+          <t xml:space="preserve">
+Demonstrate the development, training and deployment of computer vision algorithms using a high-level programming language.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3359,27 +3853,33 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[('relate', 'Organisation')]</t>
+          <t>[('demonstrate', 'Valuing'), ('use', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>[('describe', 'Receiving'), ('guide', 'Valuing'), ('organise', 'Organisation'), ('allow', 'Responding'), ('justify', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Solve engineering problems related to design and operation of bioreactors.</t>
+          <t xml:space="preserve">
+Identify the limits of human visual and aural perception, and how they can be exploited for bit rate reduction.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3389,27 +3889,33 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Characterisation</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[('solve', 'Characterisation'), ('relate', 'Organisation')]</t>
+          <t>[('identify', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>[('agree', 'Responding'), ('act', 'Characterisation'), ('perform', 'Characterisation'), ('delay', 'Valuing'), ('allow', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Operate bioreactor and evaluate the performance of cell growth under different operating conditions.</t>
+          <t xml:space="preserve">
+Describe the structure of modern multimedia compression systems, and how they exploit the characteristics of both the media itself and human consumers of the media.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3419,28 +3925,32 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Responding, Valuing</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[('operate', 'Verb not mapped'), ('evaluate', 'Valuing')]</t>
+          <t>[('describe', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>[('agree', 'Responding'), ('act', 'Characterisation'), ('perform', 'Characterisation'), ('delay', 'Valuing'), ('allow', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Simulate cameras using projective and multi-view geometry to design model-based vision systems and algorithms that extract 3D and rotational information from images, alongside methods for image registration and stitching.</t>
+          <t>Compute the end-to-end delay performance of modern Internet protocols supporting media streaming, and relate this to service requirements for on-demand and communicative multimedia services.</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3450,27 +3960,33 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[('simulate', 'Verb not mapped'), ('use', 'Receiving'), ('design', 'Organisation'), ('base', 'Verb not mapped'), ('extract', 'Verb not mapped')]</t>
+          <t>[('compute', 'Verb not mapped'), ('support', 'Valuing'), ('relate', 'Organisation')]</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>[('change', 'Characterisation'), ('establish', 'Organisation'), ('investigate', 'Organisation'), ('delay', 'Valuing'), ('allow', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Design ethical machine learning solutions to problems in computer vision, such as image classification, 3D reconstruction and pose estimation, object detection and semantic segmentation, by critically appraising information and publications.</t>
+          <t xml:space="preserve">
+Describe concepts and fundamentals of deep learning, such as the backpropagation algorithm and adversarial learning.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3480,28 +3996,33 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[('design', 'Organisation'), ('appraise', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>[('allow', 'Responding'), ('relay', 'Responding'), ('follow', 'Receiving'), ('guide', 'Valuing'), ('justify', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Demonstrate the development, training and deployment of computer vision algorithms using a high-level programming language.</t>
+Demonstrate the training and deployment of neural networks using a high level programming language.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3522,17 +4043,22 @@
       <c r="F105" t="inlineStr">
         <is>
           <t>[('demonstrate', 'Valuing'), ('use', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>[('describe', 'Receiving'), ('guide', 'Valuing'), ('organise', 'Organisation'), ('allow', 'Responding'), ('justify', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Identify the limits of human visual and aural perception, and how they can be exploited for bit rate reduction.</t>
+Appraise critically the sources of information and contents of scientific publications and choose relevant information.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3552,18 +4078,23 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[('identify', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
+          <t>[('appraise', 'Verb not mapped'), ('choose', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>[('adopt', 'Valuing'), ('respond', 'Responding'), ('act', 'Characterisation'), ('allow', 'Responding'), ('perform', 'Characterisation')]</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Describe the structure of modern multimedia compression systems, and how they exploit the characteristics of both the media itself and human consumers of the media.</t>
+Select suitable electronic components and develop simple MEMS or Organic electronic device based systems, evaluate structural and material properties of Micro/Nano devices through simulation studies</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3583,17 +4114,23 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
+          <t>[('select', 'Receiving'), ('develop', 'Verb not mapped'), ('base', 'Verb not mapped'), ('evaluate', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>[('perform', 'Characterisation'), ('present', 'Responding'), ('agree', 'Responding'), ('allow', 'Responding'), ('delay', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Compute the end-to-end delay performance of modern Internet protocols supporting media streaming, and relate this to service requirements for on-demand and communicative multimedia services.</t>
+          <t xml:space="preserve">
+Summarise fundamentals of nanotechnology and propose research opportunities in designing Micro technologies</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3603,1757 +4140,58 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[('compute', 'Verb not mapped'), ('support', 'Valuing'), ('relate', 'Organisation')]</t>
+          <t>[('summarise', 'Verb not mapped'), ('propose', 'Characterisation'), ('design', 'Organisation')]</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>[('select', 'Receiving'), ('solve', 'Characterisation'), ('propose', 'Characterisation'), ('design', 'Organisation'), ('justify', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-As part of a team, research and investigate an area of interest beyond lecture material, involving software simulations and analysis of results.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>[('research', 'Verb not mapped'), ('investigate', 'Organisation'), ('involve', 'Verb not mapped')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Describe concepts and fundamentals of deep learning, such as the backpropagation algorithm and adversarial learning.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>[('describe', 'Receiving')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Design deep learning solutions to problems in computer vision, natural language processing and signal processing. Examples are image classification, object detection, sequence modelling and filter design.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>[('design', 'Organisation')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Demonstrate the training and deployment of neural networks using a high level programming language.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>[('demonstrate', 'Valuing'), ('use', 'Receiving')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Appraise critically the sources of information and contents of scientific publications and choose relevant information.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>[('appraise', 'Verb not mapped'), ('choose', 'Receiving')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Design and develop simple MEMS devices, organic electronic devices (such as Organic Light Emitting Diode) and theoretical models involving multi physics</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>[('design', 'Organisation'), ('develop', 'Verb not mapped'), ('involve', 'Verb not mapped')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Select suitable electronic components and develop simple MEMS or Organic electronic device based systems, evaluate structural and material properties of Micro/Nano devices through simulation studies</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Responding, Valuing</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>[('select', 'Receiving'), ('develop', 'Verb not mapped'), ('base', 'Verb not mapped'), ('evaluate', 'Valuing')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Summarise fundamentals of nanotechnology and propose research opportunities in designing Micro technologies</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>[('summarise', 'Verb not mapped'), ('propose', 'Characterisation'), ('design', 'Organisation')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B117" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Design and implement a system to solve a given complex engineering problem in the field of Intelligent lighting control using the knowledge of SSL.</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>[('design', 'Organisation'), ('implement', 'Verb not mapped'), ('solve', 'Characterisation'), ('give', 'Receiving'), ('use', 'Receiving')]</t>
         </is>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Conduct experiments to investigate various relationships in photometry, radiometry, colour quality, the energy consumption of light sources and the implementation of IoT-based lighting control.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>[('conduct', 'Verb not mapped'), ('investigate', 'Organisation'), ('base', 'Verb not mapped')]</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B118"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Suggested Verbs</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Empty DataFrame
-Columns: [Level]
-Index: []</t>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>[('describe', 'Receiving'), ('guide', 'Valuing'), ('organise', 'Organisation'), ('allow', 'Responding'), ('justify', 'Valuing')]</t>
         </is>
       </c>
     </row>

--- a/outputs/failed_lo_mappings.xlsx
+++ b/outputs/failed_lo_mappings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,856 +471,829 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Discern fundamental chemical, materials, mechanical and environmental engineering knowledge, principles and concepts to propose solutions to a humanitarian engineering problem.</t>
+          <t>be critical and creative thinkers who are able to communicate effectively and perceptively to a variety of key stakeholders</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('discern', 'Verb not mapped'), ('propose', 'Verb not mapped')]</t>
+          <t>[('communicate', 'Responding')]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[('change', 'Applying'), ('justify', 'Creating'), ('give', 'Understanding'), ('apply', 'Applying'), ('describe', 'Understanding')]</t>
+          <t>[('justify', 'Valuing'), ('work', 'Valuing'), ('collaborate', 'Organisation'), ('demonstrate', 'Valuing'), ('report', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Identify design requirements from a provided brief and analyse potential solutions using first principles of mathematics and natural and engineering sciences.</t>
+          <t>demonstrate broad knowledge and technical capabilities driven by an entrepreneurial mindset across a variety of domains including but not limited to the business, professional and public policy communities that we serve</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Analysing</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Applying</t>
-        </is>
-      </c>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('provide', 'Verb not mapped'), ('analyse', 'Analysing'), ('use', 'Applying')]</t>
+          <t>[('demonstrate', 'Valuing'), ('drive', 'Verb not mapped'), ('include', 'Verb not mapped'), ('limit', 'Verb not mapped'), ('serve', 'Characterisation')]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('apply', 'Applying'), ('define', 'Remembering'), ('generate', 'Creating'), ('organise', 'Evaluating')]</t>
+          <t>[('prepare', 'Organisation'), ('discuss', 'Responding'), ('collaborate', 'Organisation'), ('relay', 'Responding'), ('lead', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Identify societal, health, safety, legal and cultural issues relevant to your project including the Indigenous context, and your consequent responsibilities as an engineer.</t>
+          <t>understand and be able to test critical issues relating to problem-solution fit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Remembering</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('include', 'Verb not mapped')]</t>
+          <t>[('understand', 'Verb not mapped'), ('test', 'Organisation'), ('relate', 'Organisation')]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[('perform', 'Creating'), ('identify', 'Understanding'), ('adopt', 'Evaluating'), ('support', 'Evaluating'), ('devise', 'Evaluating')]</t>
+          <t>[('establish', 'Organisation'), ('allow', 'Responding'), ('perform', 'Characterisation'), ('support', 'Valuing'), ('study', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Determine appropriate principles of sustainable design and development, including embodied energy, renewable materials, availability, costs, etc, of a proposed solution using a systems approach to design.</t>
+          <t>develop and manage effective ways of working in a start-up team.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('determine', 'Verb not mapped'), ('include', 'Verb not mapped'), ('embody', 'Verb not mapped'), ('propose', 'Verb not mapped'), ('use', 'Applying')]</t>
+          <t>[('develop', 'Verb not mapped'), ('manage', 'Organisation'), ('work', 'Valuing'), ('start', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('apply', 'Applying'), ('define', 'Remembering'), ('generate', 'Creating'), ('organise', 'Evaluating')]</t>
+          <t>[('collaborate', 'Organisation'), ('monitor', 'Valuing'), ('act', 'Characterisation'), ('respond', 'Responding'), ('discuss', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Identify, select and derive fundamental mathematical techniques from linear algebra, multi-variable calculus and ordinary differential equations that are essential to engineering applications.</t>
+          <t>critically research and explore complex challenges to create and communicate innovative and informed ideas or solutions</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Unistructural</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Relational</t>
-        </is>
-      </c>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('select', 'Multistructural'), ('derive', 'Relational')]</t>
+          <t>[('research', 'Verb not mapped'), ('explore', 'Verb not mapped'), ('create', 'Verb not mapped'), ('communicate', 'Responding')]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[('summarise', 'Relational'), ('differentiate', 'Relational'), ('mitigate', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('describe', 'Multistructural')]</t>
+          <t>[('relay', 'Responding'), ('evaluate', 'Valuing'), ('verify', 'Characterisation'), ('propose', 'Characterisation'), ('design', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Discuss best practices in the presentation of written mathematical arguments.</t>
+          <t>be an empathetic and global citizen who considers and creates value that is holistic and ethical, by challenging, integrating and accommodating differing world views</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Characterisation</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('discuss', 'Relational'), ('write', 'Unistructural')]</t>
+          <t>[('consider', 'Organisation'), ('create', 'Verb not mapped'), ('challenge', 'Characterisation'), ('integrate', 'Organisation'), ('accommodate', 'Verb not mapped'), ('differ', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[('sequence', 'Multistructural'), ('generate', 'Extended Abstract'), ('describe', 'Multistructural'), ('summarise', 'Relational'), ('differentiate', 'Relational')]</t>
+          <t>[('guide', 'Valuing'), ('establish', 'Organisation'), ('discuss', 'Responding'), ('perform', 'Characterisation'), ('monitor', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Engage in team discussion on the application of mathematics.</t>
+          <t>demonstrate broad technical and soft skills aligned to innovation, to deliver value to people, businesses and society</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Multistructural</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Extended Abstract</t>
-        </is>
-      </c>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('engage', 'Extended Abstract')]</t>
+          <t>[('demonstrate', 'Valuing'), ('align', 'Verb not mapped'), ('deliver', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[('review', 'Extended Abstract'), ('discuss', 'Relational'), ('address', 'Relational'), ('demonstrate', 'Extended Abstract'), ('value', 'Extended Abstract')]</t>
+          <t>[('lead', 'Organisation'), ('guide', 'Valuing'), ('relay', 'Responding'), ('challenge', 'Characterisation'), ('collaborate', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Discuss requirements of a smart system from component to integrated perspective.</t>
+          <t>communicate and rationalise a point of view that is evidence-based, persuasive and compelling.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Multistructural</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Extended Abstract</t>
-        </is>
-      </c>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('discuss', 'Relational'), ('integrate', 'Extended Abstract')]</t>
+          <t>[('communicate', 'Responding'), ('rationalise', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('address', 'Relational'), ('prove', 'Relational'), ('create', 'Extended Abstract')]</t>
+          <t>[('adopt', 'Valuing'), ('collaborate', 'Organisation'), ('perform', 'Characterisation'), ('act', 'Characterisation'), ('respond', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Define programs using Python, discern problem-solving strategies in decomposing problems using algorithms and describe software engineering processes.</t>
+          <t>Relate bioprocess organisms and their nutrient requirement to bioprocess considerations.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Understanding</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Applying</t>
-        </is>
-      </c>
+          <t>Perception</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('define', 'Remembering'), ('use', 'Applying'), ('discern', 'Verb not mapped'), ('solve', 'Applying'), ('decompose', 'Verb not mapped'), ('use', 'Applying'), ('describe', 'Understanding')]</t>
+          <t>[('relate', 'Perception')]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[('define', 'Remembering'), ('justify', 'Creating'), ('change', 'Applying'), ('rate', 'Evaluating'), ('characterise', 'Understanding')]</t>
+          <t>[('trace', 'Guided Response'), ('differentiate', 'Perception'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('change', 'Adaptation')]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Select fundamental circuit analysis techniques to solve problems in circuits that contain common electrical and electronic components.</t>
+          <t>Operate bioreactor and evaluate the performance of cell growth under different operating conditions.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Responding, Valuing</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('select', 'Evaluating'), ('solve', 'Applying'), ('contain', 'Verb not mapped')]</t>
+          <t>[('operate', 'Verb not mapped'), ('evaluate', 'Valuing')]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[('produce', 'Creating'), ('state', 'Remembering'), ('back', 'Applying'), ('act', 'Applying'), ('perform', 'Creating')]</t>
+          <t>[('compare', 'Organisation'), ('respond', 'Responding'), ('prepare', 'Organisation'), ('adopt', 'Valuing'), ('follow', 'Receiving')]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Propose a design solution in response to a given scenario through requirements and functional analysis, evaluate that solution from an integrated system perspective.</t>
+          <t>Describe the overall architecture of an autonomous vehicle (AV) system.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Recieving</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('propose', 'Multistructural'), ('give', 'Verb not mapped'), ('evaluate', 'Extended Abstract')]</t>
+          <t>[('describe', 'Receiving')]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[('prove', 'Relational'), ('contrast', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('compare', 'Relational')]</t>
+          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('compare', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
+          <t xml:space="preserve">
+Apply learned concepts to design algorithms for different functionalities of the AV system, such as localisation, perception, planning and control.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('reflect', 'Extended Abstract'), ('contribute', 'Verb not mapped')]</t>
+          <t>[('apply', 'Verb not mapped'), ('learn', 'Verb not mapped'), ('design', 'Organisation')]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[('reflect', 'Extended Abstract'), ('conduct', 'Relational'), ('evaluate', 'Extended Abstract'), ('relate', 'Relational'), ('use', 'Relational')]</t>
+          <t>[('order', 'Organisation'), ('propose', 'Characterisation'), ('follow', 'Receiving'), ('describe', 'Receiving'), ('change', 'Characterisation')]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Determine the strength of structural materials to inform engineering designs with considerations to performance, cost, sustainability and societal impact.</t>
+          <t>Integrate and evaluate the AV system including testing and validation of algorithms and decision-making of the system.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('determine', 'Verb not mapped'), ('inform', 'Verb not mapped')]</t>
+          <t>[('integrate', 'Organisation'), ('evaluate', 'Valuing'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[('act', 'Applying'), ('summarise', 'Understanding'), ('rate', 'Evaluating'), ('change', 'Applying'), ('generate', 'Creating')]</t>
+          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Determine the steady-state performance of simple systems involving levers, gears, springs and pulleys using appropriate engineering problem-solving methodologies.</t>
+          <t>Effectively communicate findings, insights or professional recommendations to specialist and/or non-specialist audiences.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Applying</t>
-        </is>
-      </c>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('determine', 'Verb not mapped'), ('involve', 'Verb not mapped'), ('use', 'Applying'), ('solve', 'Applying')]</t>
+          <t>[('communicate', 'Responding')]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[('design', 'Creating'), ('justify', 'Creating'), ('apply', 'Applying'), ('change', 'Applying'), ('develop', 'Creating')]</t>
+          <t>[('justify', 'Valuing'), ('work', 'Valuing'), ('collaborate', 'Organisation'), ('demonstrate', 'Valuing'), ('report', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Identify appropriate engineering tools and techniques to develop, validate and convey designs and solutions.</t>
+          <t>Identify and calculate the loads to which a bridge is subjected, according to first principles and relevant codes of practice.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Mechanism</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('develop', 'Verb not mapped'), ('validate', 'Verb not mapped'), ('convey', 'Verb not mapped')]</t>
+          <t>[('identify', 'Perception'), ('calculate', 'Verb not mapped'), ('subject', 'Verb not mapped'), ('accord', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[('summarise', 'Relational'), ('compare', 'Relational'), ('synthesise', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('organise', 'Relational')]</t>
+          <t>[('trace', 'Guided Response'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('choose', 'Perception'), ('organise', 'Mechanism')]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
+          <t>Determine the structural behaviour various bridge types quantitatively and qualitatively using relevant hand- and computer-based methods.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Unistructural</t>
-        </is>
-      </c>
+          <t>Complex Overt Response</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('reflect', 'Extended Abstract'), ('contribute', 'Verb not mapped')]</t>
+          <t>[('determine', 'Verb not mapped'), ('use', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[('reflect', 'Extended Abstract'), ('conduct', 'Relational'), ('evaluate', 'Extended Abstract'), ('relate', 'Relational'), ('use', 'Relational')]</t>
+          <t>[('trace', 'Guided Response'), ('construct', 'Mechanism'), ('explain', 'Set'), ('change', 'Adaptation'), ('describe', 'Perception')]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Determine appropriate basic abstract data types, including; stacks, queues, lists, binary trees, priority queues, heaps and hash tables; for specific contexts;</t>
+          <t>Design prestressed concrete beams for service and strength requirements.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>Mechanism</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Origination</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[('determine', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('design', 'Origination'), ('prestresse', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[('perform', 'Creating'), ('identify', 'Understanding'), ('adopt', 'Evaluating'), ('support', 'Evaluating'), ('devise', 'Evaluating')]</t>
+          <t>[('change', 'Adaptation'), ('state', 'Set'), ('trace', 'Guided Response'), ('choose', 'Perception'), ('respond', 'Guided Response')]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Theoretically and experimentally evaluate different implementations of basic abstract data types;</t>
+          <t>Describe the reliability basis for limit state design and its use in bridge assessment, including descriptions of the basic variables</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Complex Overt Response</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Extended Abstract')]</t>
+          <t>[('describe', 'Perception'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[('prove', 'Relational'), ('contrast', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('compare', 'Relational')]</t>
+          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('organise', 'Mechanism')]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Analyse the efficiency of algorithms by determining their best-case and worst-case big-O time complexity;</t>
+          <t>Discuss bridge inspection and management procedures, including levels of assessment and condition rating approaches.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Relational</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Multistructural</t>
-        </is>
-      </c>
+          <t>Complex Overt Response</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[('analyse', 'Relational'), ('determine', 'Multistructural')]</t>
+          <t>[('discuss', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[('report', 'Multistructural'), ('identify', 'Unistructural'), ('compare', 'Relational'), ('define', 'Multistructural'), ('prove', 'Relational')]</t>
+          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('organise', 'Mechanism')]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Work in teams to analyse algorithms and write programs.</t>
+          <t>Work effectively in a bridge design team and communicate engineering designs.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Complex Overt Response</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[('work', 'Verb not mapped'), ('analyse', 'Relational'), ('write', 'Unistructural')]</t>
+          <t>[('work', 'Guided Response'), ('communicate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[('sequence', 'Multistructural'), ('generate', 'Extended Abstract'), ('describe', 'Multistructural'), ('summarise', 'Relational'), ('differentiate', 'Relational')]</t>
+          <t>[('describe', 'Perception'), ('identify', 'Perception'), ('differentiate', 'Perception'), ('work', 'Guided Response'), ('construct', 'Mechanism')]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Iteratively apply object-oriented design principles to design small to medium-size software systems, using standard software engineering notations, namely UML class diagrams and UML interaction diagrams.</t>
+          <t>Apply project evaluation techniques including the triple bottom line against the overall business model.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Applying</t>
-        </is>
-      </c>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[('apply', 'Applying'), ('orient', 'Verb not mapped'), ('design', 'Creating'), ('use', 'Applying')]</t>
+          <t>[('apply', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('apply', 'Applying'), ('define', 'Remembering'), ('generate', 'Creating'), ('organise', 'Evaluating')]</t>
+          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('design', 'Origination')]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Prove correctness of programs, analyse their space and time complexities;</t>
+          <t>Identify the elements of the project life cycle, including plan, control, and organise and allocate resources.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Complex Overt Response</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[('prove', 'Evaluating'), ('analyse', 'Analysing')]</t>
+          <t>[('identify', 'Perception'), ('include', 'Verb not mapped'), ('plan', 'Verb not mapped'), ('control', 'Verb not mapped'), ('organise', 'Mechanism'), ('allocate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[('implement', 'Applying'), ('perform', 'Creating'), ('evaluate', 'Evaluating'), ('compare', 'Understanding'), ('describe', 'Understanding')]</t>
+          <t>[('organise', 'Mechanism'), ('respond', 'Guided Response'), ('trace', 'Guided Response'), ('heat', 'Mechanism'), ('state', 'Set')]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Compare and contrast various abstract data types and use them appropriately;</t>
+          <t>Evaluate and apply the basic tools and techniques to plan, organise and manage a project.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[('compare', 'Understanding'), ('contrast', 'Analysing'), ('use', 'Applying')]</t>
+          <t>[('evaluate', 'Valuing'), ('apply', 'Verb not mapped'), ('plan', 'Organisation'), ('organise', 'Organisation'), ('manage', 'Organisation')]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('apply', 'Applying'), ('define', 'Remembering'), ('generate', 'Creating'), ('organise', 'Evaluating')]</t>
+          <t>[('organise', 'Organisation'), ('manage', 'Organisation'), ('plan', 'Organisation'), ('respond', 'Responding'), ('query', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Develop and implement algorithms to solve computational problems.</t>
+          <t>Identify strategic constraints in managing the scope, time, cost and quality components.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Relational</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>Recieving</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[('develop', 'Verb not mapped'), ('implement', 'Verb not mapped'), ('solve', 'Verb not mapped')]</t>
+          <t>[('identify', 'Receiving'), ('manage', 'Organisation')]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[('design', 'Extended Abstract'), ('propose', 'Multistructural'), ('justify', 'Extended Abstract'), ('apply', 'Relational'), ('select', 'Multistructural')]</t>
+          <t>[('organise', 'Organisation'), ('plan', 'Organisation'), ('respond', 'Responding'), ('query', 'Valuing'), ('agree', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Identify appropriate quality goals for a moderately-sized software development project, including human aspects and security concerns, select an appropriate quality assurance strategy to give confidence that these quality goals can be achieved, and document this strategy appropriately in the context of a software process model;</t>
+          <t>Discuss professional responsibility, occupational health and safety and ethical conduct.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Multistructural</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Unistructural</t>
-        </is>
-      </c>
+          <t>Perception</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('include', 'Verb not mapped'), ('select', 'Multistructural'), ('give', 'Verb not mapped'), ('achieve', 'Verb not mapped'), ('document', 'Verb not mapped')]</t>
+          <t>[('discuss', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('sequence', 'Multistructural'), ('address', 'Relational'), ('mitigate', 'Extended Abstract'), ('organise', 'Relational')]</t>
+          <t>[('respond', 'Guided Response'), ('trace', 'Guided Response'), ('organise', 'Mechanism'), ('differentiate', 'Perception'), ('state', 'Set')]</t>
         </is>
       </c>
     </row>
@@ -1330,32 +1303,33 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Perform systematic, automated unit testing on source code modules, using both specification-based and code-based approaches, utilising automated testing frameworks, including faking and mocking tools;</t>
+          <t xml:space="preserve">
+Describe the operation of computer arithmetic, assemblers and compilers, a RISC processor datapath and solve related problems.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[('perform', 'Verb not mapped'), ('use', 'Relational'), ('base', 'Verb not mapped'), ('base', 'Verb not mapped'), ('utilise', 'Verb not mapped'), ('automate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving'), ('solve', 'Characterisation')]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('address', 'Relational'), ('integrate', 'Extended Abstract'), ('report', 'Multistructural'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('compare', 'Organisation'), ('object', 'Characterisation')]</t>
         </is>
       </c>
     </row>
@@ -1365,147 +1339,146 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Perform integration and system testing on a moderately-sized software system, using continuous integration frameworks and tracing tests back to requirements;</t>
+          <t>Solve real-world engineering problems by designing ladder logic diagrams for programmable logic controllers (PLC) using components such as normally open contacts, normally closed contacts, relays, timers and counters.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Characterisation, Organization</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[('perform', 'Verb not mapped'), ('use', 'Relational'), ('trace', 'Verb not mapped')]</t>
+          <t>[('solve', 'Characterisation'), ('design', 'Organisation'), ('use', 'Receiving')]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[('address', 'Relational'), ('generate', 'Extended Abstract'), ('sequence', 'Multistructural'), ('mitigate', 'Extended Abstract'), ('contrast', 'Relational')]</t>
+          <t>[('explain', 'Valuing'), ('verify', 'Characterisation'), ('relay', 'Responding'), ('change', 'Characterisation'), ('consider', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Select appropriate tools to collect metrics, including test coverage, reliability, and design quality metrics, to analyse the quality of a software development project, and make recommendations based on the results;</t>
+          <t xml:space="preserve">
+Simulate cameras using projective and multi-view geometry to design model-based vision systems and algorithms that extract 3D and rotational information from images, alongside methods for image registration and stitching.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[('select', 'Multistructural'), ('collect', 'Verb not mapped'), ('include', 'Verb not mapped'), ('analyse', 'Relational'), ('make', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
+          <t>[('simulate', 'Verb not mapped'), ('use', 'Receiving'), ('design', 'Organisation'), ('base', 'Verb not mapped'), ('extract', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Extended Abstract'), ('differentiate', 'Relational'), ('derive', 'Relational'), ('conduct', 'Relational'), ('function', 'Relational')]</t>
+          <t>[('object', 'Characterisation'), ('relay', 'Responding'), ('consider', 'Organisation'), ('adopt', 'Valuing'), ('act', 'Characterisation')]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Explain and analyse key processor components;</t>
+          <t>Design ethical machine learning solutions to problems in computer vision, such as image classification, 3D reconstruction and pose estimation, object detection and semantic segmentation, by critically appraising information and publications.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[('explain', 'Understanding'), ('analyse', 'Analysing')]</t>
+          <t>[('design', 'Organisation'), ('appraise', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[('implement', 'Applying'), ('perform', 'Creating'), ('evaluate', 'Evaluating'), ('compare', 'Understanding'), ('describe', 'Understanding')]</t>
+          <t>[('choose', 'Receiving'), ('change', 'Characterisation'), ('investigate', 'Organisation'), ('object', 'Characterisation'), ('verify', 'Characterisation')]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Explain and analyse computer organisation;</t>
+          <t xml:space="preserve">
+Demonstrate the development, training and deployment of computer vision algorithms using a high-level programming language.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Understanding</t>
-        </is>
-      </c>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[('explain', 'Understanding'), ('analyse', 'Analysing')]</t>
+          <t>[('demonstrate', 'Valuing'), ('use', 'Receiving')]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[('implement', 'Applying'), ('perform', 'Creating'), ('evaluate', 'Evaluating'), ('compare', 'Understanding'), ('describe', 'Understanding')]</t>
+          <t>[('explain', 'Valuing'), ('verify', 'Characterisation'), ('relay', 'Responding'), ('change', 'Characterisation'), ('consider', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Model and design flexible software at the architectural level using various tools and techniques from the requirements;</t>
+          <t xml:space="preserve">
+Identify the limits of human visual and aural perception, and how they can be exploited for bit rate reduction.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1515,7 +1488,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1525,395 +1498,410 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[('model', 'Verb not mapped'), ('design', 'Organisation'), ('use', 'Receiving')]</t>
+          <t>[('identify', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('guide', 'Valuing'), ('organise', 'Organisation'), ('allow', 'Responding'), ('justify', 'Valuing')]</t>
+          <t>[('relay', 'Responding'), ('discuss', 'Responding'), ('agree', 'Responding'), ('monitor', 'Valuing'), ('guide', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Analyse, design, and refactor software systems taking into consideration various quality attributes and requirements</t>
+          <t xml:space="preserve">
+Describe the structure of modern multimedia compression systems, and how they exploit the characteristics of both the media itself and human consumers of the media.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('design', 'Creating'), ('refactor', 'Verb not mapped'), ('take', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[('make', 'Creating'), ('discuss', 'Understanding'), ('perform', 'Creating'), ('generate', 'Creating'), ('produce', 'Creating')]</t>
+          <t>[('relay', 'Responding'), ('discuss', 'Responding'), ('agree', 'Responding'), ('monitor', 'Valuing'), ('guide', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Take requirements for systems and develop software designs and architectures following object-oriented principles;</t>
+          <t xml:space="preserve">
+Explain how media can be characterised and described, including methods that allow similarities to be automatically identified (e.g. music matching services).</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Relational</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Perception</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[('take', 'Verb not mapped'), ('develop', 'Verb not mapped'), ('follow', 'Verb not mapped'), ('orient', 'Verb not mapped')]</t>
+          <t>[('explain', 'Set'), ('characterise', 'Verb not mapped'), ('describe', 'Perception'), ('include', 'Verb not mapped'), ('allow', 'Verb not mapped'), ('identify', 'Perception')]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[('describe', 'Multistructural'), ('generate', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('discuss', 'Relational'), ('sequence', 'Multistructural')]</t>
+          <t>[('choose', 'Perception'), ('identify', 'Perception'), ('trace', 'Guided Response'), ('change', 'Adaptation'), ('organise', 'Mechanism')]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Select and use appropriate tools for iteratively incrementing the design and architecture of the system;</t>
+          <t>Compute the end-to-end delay performance of modern Internet protocols supporting media streaming, and relate this to service requirements for on-demand and communicative multimedia services.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
+          <t>Perception</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[('select', 'Receiving'), ('use', 'Receiving'), ('incremente', 'Verb not mapped')]</t>
+          <t>[('compute', 'Verb not mapped'), ('support', 'Verb not mapped'), ('relate', 'Perception')]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[('allow', 'Responding'), ('choose', 'Receiving'), ('relay', 'Responding'), ('respond', 'Responding'), ('change', 'Characterisation')]</t>
+          <t>[('relate', 'Perception'), ('trace', 'Guided Response'), ('differentiate', 'Perception'), ('follow', 'Guided Response'), ('heat', 'Mechanism')]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Evaluate and apply appropriate design patterns, frameworks and architectures in designing software;</t>
+          <t xml:space="preserve">
+As part of a team, research and investigate an area of interest beyond lecture material, involving software simulations and analysis of results.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Extended Abstract'), ('apply', 'Relational'), ('design', 'Extended Abstract')]</t>
+          <t>[('research', 'Verb not mapped'), ('investigate', 'Organisation'), ('involve', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[('design', 'Extended Abstract'), ('apply', 'Relational'), ('select', 'Multistructural'), ('propose', 'Multistructural'), ('review', 'Extended Abstract')]</t>
+          <t>[('guide', 'Valuing'), ('relay', 'Responding'), ('consider', 'Organisation'), ('study', 'Valuing'), ('complete', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Describe industry-standard team-based project management methodologies and apply them across a multi-functional team to achieve optimal project progress</t>
+          <t xml:space="preserve">
+Describe concepts and fundamentals of deep learning, such as the backpropagation algorithm and adversarial learning.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[('describe', 'Multistructural'), ('base', 'Verb not mapped'), ('apply', 'Relational'), ('achieve', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving')]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[('review', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('engage', 'Extended Abstract'), ('manage', 'Relational'), ('identify', 'Unistructural')]</t>
+          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('compare', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Apply soft skills when engaging stakeholders in a consistent and professional manner to determine functional and non-functional requirements</t>
+          <t xml:space="preserve">
+Design deep learning solutions to problems in computer vision, natural language processing and signal processing. Examples are image classification, object detection, sequence modelling and filter design.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[('apply', 'Relational'), ('engage', 'Extended Abstract'), ('determine', 'Multistructural')]</t>
+          <t>[('design', 'Organisation')]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[('report', 'Multistructural'), ('identify', 'Unistructural'), ('compare', 'Relational'), ('define', 'Multistructural'), ('prove', 'Relational')]</t>
+          <t>[('order', 'Organisation'), ('propose', 'Characterisation'), ('follow', 'Receiving'), ('describe', 'Receiving'), ('change', 'Characterisation')]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Plan and manage the full range of activities in a software engineering project in accordance with the development methodology</t>
+          <t xml:space="preserve">
+Demonstrate the training and deployment of neural networks using a high level programming language.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Relational</t>
-        </is>
-      </c>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[('plan', 'Extended Abstract'), ('manage', 'Relational')]</t>
+          <t>[('demonstrate', 'Valuing'), ('use', 'Receiving')]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[('organise', 'Relational'), ('plan', 'Extended Abstract'), ('manage', 'Relational'), ('describe', 'Multistructural'), ('identify', 'Unistructural')]</t>
+          <t>[('explain', 'Valuing'), ('verify', 'Characterisation'), ('relay', 'Responding'), ('change', 'Characterisation'), ('consider', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Compare and analyse appropriate industry-standard technologies to determine the optimal combination of software required to support project development</t>
+          <t xml:space="preserve">
+Appraise critically the sources of information and contents of scientific publications and choose relevant information.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[('compare', 'Understanding'), ('analyse', 'Analysing'), ('determine', 'Verb not mapped'), ('require', 'Verb not mapped'), ('support', 'Evaluating')]</t>
+          <t>[('appraise', 'Verb not mapped'), ('choose', 'Receiving')]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[('make', 'Creating'), ('characterise', 'Understanding'), ('generate', 'Creating'), ('report', 'Understanding'), ('rate', 'Evaluating')]</t>
+          <t>[('adopt', 'Valuing'), ('change', 'Characterisation'), ('agree', 'Responding'), ('monitor', 'Valuing'), ('compare', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Deliberate professional issues occurring within the development and deployment of software applications, and identify appropriate actions based on human factors, relevant law and industry codes of ethical behaviour.</t>
+          <t xml:space="preserve">
+Design and develop simple MEMS devices, organic electronic devices (such as Organic Light Emitting Diode) and theoretical models involving multi physics</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[('deliberate', 'Extended Abstract'), ('occur', 'Verb not mapped'), ('identify', 'Unistructural'), ('base', 'Verb not mapped')]</t>
+          <t>[('design', 'Organisation'), ('develop', 'Verb not mapped'), ('involve', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[('conduct', 'Relational'), ('evaluate', 'Extended Abstract'), ('differentiate', 'Relational'), ('derive', 'Relational'), ('function', 'Relational')]</t>
+          <t>[('guide', 'Valuing'), ('relay', 'Responding'), ('consider', 'Organisation'), ('study', 'Valuing'), ('complete', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Develop a sound relational database design;</t>
+          <t xml:space="preserve">
+Select suitable electronic components and develop simple MEMS or Organic electronic device based systems, evaluate structural and material properties of Micro/Nano devices through simulation studies</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>Responding, Valuing</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[('develop', 'Verb not mapped')]</t>
+          <t>[('select', 'Receiving'), ('develop', 'Verb not mapped'), ('base', 'Verb not mapped'), ('evaluate', 'Valuing')]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[('select', 'Multistructural'), ('apply', 'Relational'), ('design', 'Extended Abstract'), ('differentiate', 'Relational'), ('use', 'Relational')]</t>
+          <t>[('compare', 'Organisation'), ('respond', 'Responding'), ('prepare', 'Organisation'), ('adopt', 'Valuing'), ('follow', 'Receiving')]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Implement a relational database based on a sound database design;</t>
+          <t xml:space="preserve">
+Summarise fundamentals of nanotechnology and propose research opportunities in designing Micro technologies</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[('implement', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
+          <t>[('summarise', 'Verb not mapped'), ('propose', 'Characterisation'), ('design', 'Organisation')]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Extended Abstract'), ('differentiate', 'Relational'), ('derive', 'Relational'), ('function', 'Relational'), ('write', 'Unistructural')]</t>
+          <t>[('order', 'Organisation'), ('design', 'Organisation'), ('propose', 'Characterisation'), ('follow', 'Receiving'), ('describe', 'Receiving')]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Manage data that meets user requirements, including queries and transactions;</t>
+          <t xml:space="preserve">
+Design and implement a system to solve a given complex engineering problem in the field of Intelligent lighting control using the knowledge of SSL.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1923,7 +1911,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1933,364 +1921,350 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[('manage', 'Organisation'), ('meet', 'Receiving'), ('include', 'Verb not mapped')]</t>
+          <t>[('design', 'Organisation'), ('implement', 'Verb not mapped'), ('solve', 'Characterisation'), ('give', 'Receiving'), ('use', 'Receiving')]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[('perform', 'Characterisation'), ('identify', 'Receiving'), ('adopt', 'Valuing'), ('support', 'Valuing'), ('allow', 'Responding')]</t>
+          <t>[('explain', 'Valuing'), ('verify', 'Characterisation'), ('relay', 'Responding'), ('change', 'Characterisation'), ('consider', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Develop programming structures within a database backend.</t>
+          <t xml:space="preserve">
+Conduct experiments to investigate various relationships in photometry, radiometry, colour quality, the energy consumption of light sources and the implementation of IoT-based lighting control.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[('develop', 'Verb not mapped')]</t>
+          <t>[('conduct', 'Verb not mapped'), ('investigate', 'Organisation'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[('select', 'Multistructural'), ('apply', 'Relational'), ('design', 'Extended Abstract'), ('differentiate', 'Relational'), ('use', 'Relational')]</t>
+          <t>[('change', 'Characterisation'), ('follow', 'Receiving'), ('consider', 'Organisation'), ('challenge', 'Characterisation'), ('compare', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Analyse critically and apply the ISO reference and Internet models;</t>
+          <t>describe the concepts of EIA, ERA and EMS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Recieving</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('apply', 'Applying')]</t>
+          <t>[('describe', 'Receiving')]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[('justify', 'Creating'), ('summarise', 'Understanding'), ('back', 'Applying'), ('describe', 'Understanding'), ('generate', 'Creating')]</t>
+          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('compare', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Analyse critically and implement the fundamentals and technologies of the network layer, including packet-switching and queueing concepts;</t>
+          <t>determine the role of these assessments and management systems in society, especially the relevant environmental legislation, policies, codes of practice and local/international standards</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Analysing</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Applying</t>
-        </is>
-      </c>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('implement', 'Applying'), ('include', 'Verb not mapped')]</t>
+          <t>[('determine', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[('perform', 'Creating'), ('identify', 'Understanding'), ('adopt', 'Evaluating'), ('support', 'Evaluating'), ('devise', 'Evaluating')]</t>
+          <t>[('lead', 'Organisation'), ('compare', 'Organisation'), ('agree', 'Responding'), ('discuss', 'Responding'), ('organise', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Analyse critically and implement designs based on the functions and architectures of cabled and wireless LAN and WAN, including ALOHA and CSMA/CD/CA models;</t>
+          <t>comprehend the government, industry and community perspectives on engineering projects</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Analysing</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Applying</t>
-        </is>
-      </c>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('implement', 'Applying'), ('base', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('comprehend', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[('perform', 'Creating'), ('identify', 'Understanding'), ('adopt', 'Evaluating'), ('support', 'Evaluating'), ('devise', 'Evaluating')]</t>
+          <t>[('relay', 'Responding'), ('monitor', 'Valuing'), ('act', 'Characterisation'), ('adopt', 'Valuing'), ('complete', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Implement and evaluate system level designs based on LAN architecture for organisational requirements.</t>
+          <t xml:space="preserve">
+assess various types of environmental impact assessment, risk evaluation and environmental management system methodologies</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Relational</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Extended Abstract</t>
-        </is>
-      </c>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[('implement', 'Verb not mapped'), ('evaluate', 'Extended Abstract'), ('base', 'Verb not mapped')]</t>
+          <t>[('assess', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Extended Abstract'), ('differentiate', 'Relational'), ('derive', 'Relational'), ('function', 'Relational'), ('write', 'Unistructural')]</t>
+          <t>[('change', 'Characterisation'), ('compare', 'Organisation'), ('agree', 'Responding'), ('respond', 'Responding'), ('investigate', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Design and implement a software system of a quality acceptable to an external client;</t>
+          <t>Apply theoretical engineering knowledge outside of the classroom.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Relational</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Extended Abstract</t>
-        </is>
-      </c>
+          <t>Guided Response</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[('design', 'Extended Abstract'), ('implement', 'Verb not mapped')]</t>
+          <t>[('apply', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[('function', 'Relational'), ('evaluate', 'Extended Abstract'), ('analyse', 'Relational'), ('derive', 'Relational'), ('apply', 'Relational')]</t>
+          <t>[('create', 'Origination'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('describe', 'Perception'), ('respond', 'Guided Response')]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Select and use appropriate tools, techniques and strategies to manage project resources, including time and personnel;</t>
+          <t>Demonstrate understanding of engineering practice expectations and observe health and safety rules during professional practice experiences.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Multistructural</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Relational</t>
-        </is>
-      </c>
+          <t>Guided Response</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[('select', 'Multistructural'), ('use', 'Relational'), ('manage', 'Relational'), ('include', 'Verb not mapped')]</t>
+          <t>[('demonstrate', 'Verb not mapped'), ('observe', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('address', 'Relational'), ('integrate', 'Extended Abstract'), ('report', 'Multistructural'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('respond', 'Guided Response'), ('trace', 'Guided Response'), ('choose', 'Perception'), ('heat', 'Mechanism'), ('create', 'Origination')]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Identify potential sources of risk, including ethical risk, and devise and adopt appropriate strategies to monitor and mitigate these risks;</t>
+          <t>Value engineering ethical principles and responsibilities and satisfy professional standards for assigned engineering tasks.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Relational</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Extended Abstract</t>
-        </is>
-      </c>
+          <t>Guided Response</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('include', 'Verb not mapped'), ('devise', 'Verb not mapped'), ('adopt', 'Verb not mapped'), ('monitor', 'Verb not mapped'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('value', 'Verb not mapped'), ('satisfy', 'Verb not mapped'), ('assign', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('integrate', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('characterise', 'Relational')]</t>
+          <t>[('trace', 'Guided Response'), ('change', 'Adaptation'), ('heat', 'Mechanism'), ('respond', 'Guided Response'), ('choose', 'Perception')]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Choose and follow a software development methodology that is appropriate to the team, project and client, and justify this methodology;</t>
+          <t>Demonstrate an ability to work independently and to collaborate with colleagues on common tasks effectively.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Complete Overt Response</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[('choose', 'Verb not mapped'), ('follow', 'Verb not mapped'), ('justify', 'Extended Abstract')]</t>
+          <t>[('demonstrate', 'Verb not mapped'), ('work', 'Guided Response'), ('collaborate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[('describe', 'Multistructural'), ('generate', 'Extended Abstract'), ('derive', 'Relational'), ('apply', 'Relational'), ('appreciate', 'Relational')]</t>
+          <t>[('respond', 'Guided Response'), ('trace', 'Guided Response'), ('heat', 'Mechanism'), ('change', 'Adaptation'), ('work', 'Guided Response')]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Elicit functional and non-functional requirements, including human aspects requirements, from client representatives and ensure that these are communicated to team members and other stakeholders in an appropriate form</t>
+          <t>Identify, select and derive fundamental mathematical techniques from linear algebra, multi-variable calculus and ordinary differential equations that are essential to engineering applications.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Relational</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>Remembering</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[('include', 'Verb not mapped'), ('ensure', 'Verb not mapped'), ('communicate', 'Verb not mapped')]</t>
+          <t>[('identify', 'Understanding'), ('select', 'Evaluating'), ('derive', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[('justify', 'Extended Abstract'), ('engage', 'Extended Abstract'), ('report', 'Multistructural'), ('address', 'Relational'), ('generate', 'Extended Abstract')]</t>
+          <t>[('order', 'Remembering'), ('summarise', 'Understanding'), ('adopt', 'Evaluating'), ('prepare', 'Applying'), ('compute', 'Applying')]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Communicate effectively with a diverse range of project stakeholders, including clients, end users, and supervisors</t>
+          <t>Discuss best practices in the presentation of written mathematical arguments.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2303,56 +2277,60 @@
           <t>Multistructural</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Unistructural</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[('communicate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('discuss', 'Relational'), ('write', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('address', 'Relational'), ('integrate', 'Extended Abstract'), ('report', 'Multistructural'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('generate', 'Extended Abstract'), ('conduct', 'Relational'), ('report', 'Multistructural'), ('reduce', 'Relational'), ('engage', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Verify systematically that internal and external project deliverables meet agreed quality standards, such as functionality, security and usability</t>
+          <t>Engage in team discussion on the application of mathematics.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[('verify', 'Verb not mapped'), ('meet', 'Verb not mapped'), ('agree', 'Verb not mapped')]</t>
+          <t>[('engage', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[('generate', 'Creating'), ('rate', 'Evaluating'), ('perform', 'Creating'), ('prove', 'Evaluating'), ('make', 'Creating')]</t>
+          <t>[('generate', 'Extended Abstract'), ('value', 'Extended Abstract'), ('define', 'Multistructural'), ('satisfy', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Research relevant and reliable literature to evaluate the state of the field.</t>
+          <t>Determine the strength of structural materials to inform engineering designs with considerations to performance, cost, sustainability and societal impact.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2365,64 +2343,60 @@
           <t>Evaluating</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Analysing</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[('research', 'Analysing'), ('evaluate', 'Evaluating')]</t>
+          <t>[('determine', 'Verb not mapped'), ('inform', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[('perform', 'Creating'), ('state', 'Remembering'), ('back', 'Applying'), ('prove', 'Evaluating'), ('contrast', 'Analysing')]</t>
+          <t>[('discuss', 'Understanding'), ('perform', 'Creating'), ('prepare', 'Applying'), ('adopt', 'Evaluating'), ('value', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Analyse a problem and evaluate the potential of a solution or experiment.</t>
+          <t>Determine the steady-state performance of simple systems involving levers, gears, springs and pulleys using appropriate engineering problem-solving methodologies.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Extended abstract </t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[('analyse', 'Relational'), ('evaluate', 'Extended Abstract')]</t>
+          <t>[('determine', 'Verb not mapped'), ('involve', 'Verb not mapped'), ('use', 'Applying'), ('solve', 'Applying')]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[('prove', 'Relational'), ('contrast', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('compare', 'Relational')]</t>
+          <t>[('translate', 'Understanding'), ('structure', 'Analysing'), ('explain', 'Understanding'), ('calculate', 'Applying'), ('list', 'Remembering')]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Appraise a complex engineering problem and investigate it using appropriate research methods and techniques.</t>
+          <t>Propose concept designs that solve engineering problems and justify finalised design with considerations of key variables, assumptions and system boundaries.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2432,67 +2406,67 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Extended abstract </t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[('appraise', 'Extended Abstract'), ('investigate', 'Verb not mapped'), ('use', 'Relational')]</t>
+          <t>[('propose', 'Multistructural'), ('solve', 'Verb not mapped'), ('justify', 'Extended Abstract'), ('finalise', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[('describe', 'Multistructural'), ('apply', 'Relational'), ('define', 'Multistructural'), ('reduce', 'Relational'), ('derive', 'Relational')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('create', 'Extended Abstract'), ('simulate', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('define', 'Multistructural')]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Integrate foundational and discipline-specific knowledge to solve complex open-ended problems.</t>
+          <t>Identify appropriate engineering tools and techniques to develop, validate and convey designs and solutions.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[('integrate', 'Evaluating'), ('solve', 'Applying')]</t>
+          <t>[('identify', 'Unistructural'), ('develop', 'Verb not mapped'), ('validate', 'Verb not mapped'), ('convey', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[('design', 'Creating'), ('review', 'Remembering'), ('justify', 'Creating'), ('apply', 'Applying'), ('change', 'Applying')]</t>
+          <t>[('generate', 'Extended Abstract'), ('value', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('sequence', 'Multistructural'), ('order', 'Unistructural')]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Plan the scope and requirements of a research project or experiment, responding to changing requirements and potential interdisciplinary inputs.</t>
+          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2502,137 +2476,133 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[('plan', 'Extended Abstract'), ('respond', 'Verb not mapped'), ('change', 'Verb not mapped')]</t>
+          <t>[('identify', 'Unistructural'), ('reflect', 'Extended Abstract'), ('contribute', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('justify', 'Extended Abstract'), ('address', 'Relational'), ('describe', 'Multistructural'), ('summarise', 'Relational')]</t>
+          <t>[('conduct', 'Relational'), ('reflect', 'Extended Abstract'), ('identify', 'Unistructural'), ('satisfy', 'Relational'), ('determine', 'Multistructural')]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Generate research and technical outputs by applying appropriate techniques, resources and modern engineering tools to a complex open-ended engineering problem.</t>
+          <t>Discern fundamental chemical, materials, mechanical and environmental engineering knowledge, principles and concepts to propose solutions to a humanitarian engineering problem.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Relational</t>
-        </is>
-      </c>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('apply', 'Relational')]</t>
+          <t>[('discern', 'Verb not mapped'), ('propose', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[('justify', 'Extended Abstract'), ('summarise', 'Relational'), ('describe', 'Multistructural'), ('generate', 'Extended Abstract'), ('apply', 'Relational')]</t>
+          <t>[('summarise', 'Understanding'), ('research', 'Analysing'), ('change', 'Applying'), ('apply', 'Applying'), ('calculate', 'Applying')]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Demonstrate consideration of the ethics and norms which guide engineering practice, including professionalism, innovation and creativity.</t>
+          <t>Identify design requirements from a provided brief and analyse potential solutions using first principles of mathematics and natural and engineering sciences.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Valuing'), ('guide', 'Valuing'), ('include', 'Verb not mapped')]</t>
+          <t>[('identify', 'Unistructural'), ('provide', 'Verb not mapped'), ('analyse', 'Relational'), ('use', 'Relational')]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[('perform', 'Characterisation'), ('identify', 'Receiving'), ('adopt', 'Valuing'), ('support', 'Valuing'), ('allow', 'Responding')]</t>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Assess the social, health, safety, legal, cultural, commercial and political impacts of the identified project, as appropriate.</t>
+          <t>Identify societal, health, safety, legal and cultural issues relevant to your project including the Indigenous context, and your consequent responsibilities as an engineer.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Remembering</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[('assess', 'Extended Abstract'), ('identify', 'Unistructural')]</t>
+          <t>[('identify', 'Understanding'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[('address', 'Relational'), ('synthesise', 'Extended Abstract'), ('determine', 'Multistructural'), ('discuss', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating'), ('discuss', 'Understanding')]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Synthesise the progress and outputs of your project through professional engineering reports and presentations to a range of audiences including the community and industry.</t>
+          <t>Determine appropriate principles of sustainable design and development, including embodied energy, renewable materials, availability, costs, etc, of a proposed solution using a systems approach to design.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2642,98 +2612,94 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[('synthesise', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('determine', 'Verb not mapped'), ('include', 'Verb not mapped'), ('embody', 'Verb not mapped'), ('propose', 'Verb not mapped'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[('perform', 'Creating'), ('identify', 'Understanding'), ('adopt', 'Evaluating'), ('support', 'Evaluating'), ('devise', 'Evaluating')]</t>
+          <t>[('construct', 'Creating'), ('translate', 'Understanding'), ('structure', 'Analysing'), ('explain', 'Understanding'), ('calculate', 'Applying')]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Engage with project collaborators to achieve research outcomes using effective self and/or team management, review and improvement practices. (Applicable to the Clayton-based course)</t>
+          <t>Discern the ethical considerations of working with diverse communities and stakeholders, and demonstrate your commitment to the Engineers Australia Code of Ethics and/or the Board of Engineers Malaysia Code of Professional Conduct, and established norms of professional conduct throughout your project.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Relational</t>
-        </is>
-      </c>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[('engage', 'Extended Abstract'), ('achieve', 'Verb not mapped'), ('use', 'Relational'), ('base', 'Verb not mapped')]</t>
+          <t>[('discern', 'Verb not mapped'), ('work', 'Verb not mapped'), ('demonstrate', 'Applying'), ('establish', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Extended Abstract'), ('differentiate', 'Relational'), ('derive', 'Relational'), ('function', 'Relational'), ('write', 'Unistructural')]</t>
+          <t>[('define', 'Remembering'), ('discuss', 'Understanding'), ('produce', 'Creating'), ('generate', 'Creating'), ('prepare', 'Applying')]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>identify and explain big data concepts and technologies;</t>
+          <t>Describe the principles of team norms, collaboration and dynamics, define your professional goals and discern the practices that lead to successful teamwork in a multicultural context.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Remembering</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('explain', 'Relational')]</t>
+          <t>[('describe', 'Understanding'), ('define', 'Remembering'), ('discern', 'Verb not mapped'), ('lead', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[('characterise', 'Relational'), ('describe', 'Multistructural'), ('sequence', 'Multistructural'), ('mitigate', 'Extended Abstract'), ('discuss', 'Relational')]</t>
+          <t>[('compare', 'Understanding'), ('act', 'Applying'), ('value', 'Evaluating'), ('generate', 'Creating'), ('monitor', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>write and interpret parallel database processing algorithms and methods;</t>
+          <t>Discuss requirements of a smart system from component to integrated perspective.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2743,704 +2709,694 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Relational</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Unistructural</t>
-        </is>
-      </c>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[('write', 'Unistructural'), ('interpret', 'Relational')]</t>
+          <t>[('discuss', 'Relational'), ('integrate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[('summarise', 'Relational'), ('compute', 'Relational'), ('generate', 'Extended Abstract'), ('reduce', 'Relational'), ('write', 'Unistructural')]</t>
+          <t>[('discuss', 'Relational'), ('integrate', 'Extended Abstract'), ('define', 'Multistructural'), ('synthesise', 'Extended Abstract'), ('value', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>use and evaluate streaming methods in big data processing;</t>
+          <t>Select fundamental circuit analysis techniques to solve problems in circuits that contain common electrical and electronic components.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[('use', 'Relational'), ('evaluate', 'Extended Abstract')]</t>
+          <t>[('select', 'Evaluating'), ('solve', 'Applying'), ('contain', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[('prove', 'Relational'), ('contrast', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('compare', 'Relational')]</t>
+          <t>[('order', 'Remembering'), ('compute', 'Applying'), ('summarise', 'Understanding'), ('create', 'Creating'), ('characterise', 'Understanding')]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>use big data streaming technologies.</t>
+          <t>Propose a design solution in response to a given scenario through requirements and functional analysis, evaluate that solution from an integrated system perspective.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[('use', 'Receiving'), ('stream', 'Verb not mapped')]</t>
+          <t>[('propose', 'Multistructural'), ('give', 'Verb not mapped'), ('evaluate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('guide', 'Valuing'), ('organise', 'Organisation'), ('allow', 'Responding'), ('justify', 'Valuing')]</t>
+          <t>[('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('satisfy', 'Relational'), ('assess', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>be responsible and effective global citizens who engage in an internationalised world by being able to demonstrate cross cultural competencies and empathy whilst acting ethically and sustainably</t>
+          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Characterisation</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[('engage', 'Verb not mapped'), ('demonstrate', 'Valuing'), ('act', 'Characterisation')]</t>
+          <t>[('identify', 'Unistructural'), ('reflect', 'Extended Abstract'), ('contribute', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[('allow', 'Responding'), ('guide', 'Valuing'), ('consider', 'Organisation'), ('object', 'Characterisation'), ('compare', 'Organisation')]</t>
+          <t>[('conduct', 'Relational'), ('reflect', 'Extended Abstract'), ('identify', 'Unistructural'), ('satisfy', 'Relational'), ('determine', 'Multistructural')]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>demonstrate broad knowledge and technical capabilities driven by an entrepreneurial mindset across a variety of domains including but not limited to the business, professional and public policy communities that we serve</t>
+          <t>Prove correctness of programs, analyse their space and time complexities;</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Characterisation</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Valuing'), ('drive', 'Verb not mapped'), ('include', 'Verb not mapped'), ('limit', 'Verb not mapped'), ('serve', 'Characterisation')]</t>
+          <t>[('prove', 'Evaluating'), ('analyse', 'Analysing')]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[('allow', 'Responding'), ('study', 'Valuing'), ('delay', 'Valuing'), ('organise', 'Organisation'), ('consider', 'Organisation')]</t>
+          <t>[('complete', 'Applying'), ('rate', 'Evaluating'), ('change', 'Applying'), ('compare', 'Understanding'), ('prepare', 'Applying')]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>understand and be able to test critical issues relating to problem-solution fit</t>
+          <t>Compare and contrast various abstract data types and use them appropriately;</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[('understand', 'Verb not mapped'), ('test', 'Organisation'), ('relate', 'Organisation')]</t>
+          <t>[('compare', 'Understanding'), ('contrast', 'Analysing'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[('change', 'Characterisation'), ('establish', 'Organisation'), ('investigate', 'Organisation'), ('delay', 'Valuing'), ('allow', 'Responding')]</t>
+          <t>[('construct', 'Creating'), ('translate', 'Understanding'), ('structure', 'Analysing'), ('explain', 'Understanding'), ('calculate', 'Applying')]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>develop and manage effective ways of working in a start-up team.</t>
+          <t>Develop and implement algorithms to solve computational problems.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Valuing</t>
-        </is>
-      </c>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[('develop', 'Verb not mapped'), ('manage', 'Organisation'), ('work', 'Valuing'), ('start', 'Verb not mapped')]</t>
+          <t>[('develop', 'Verb not mapped'), ('implement', 'Verb not mapped'), ('solve', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('allow', 'Responding'), ('study', 'Valuing'), ('organise', 'Organisation'), ('choose', 'Receiving')]</t>
+          <t>[('function', 'Relational'), ('interpret', 'Relational'), ('analyse', 'Relational'), ('use', 'Relational'), ('differentiate', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>be an empathetic and global citizen who considers and creates value that is holistic and ethical, by challenging, integrating and accommodating differing world views</t>
+          <t>Translate problem statements into algorithms and implement them in a high level programming language;</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Characterisation</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[('consider', 'Organisation'), ('create', 'Verb not mapped'), ('challenge', 'Characterisation'), ('integrate', 'Organisation'), ('accommodate', 'Verb not mapped'), ('differ', 'Verb not mapped')]</t>
+          <t>[('translate', 'Relational'), ('implement', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[('challenge', 'Characterisation'), ('allow', 'Responding'), ('consider', 'Organisation'), ('organise', 'Organisation'), ('act', 'Characterisation')]</t>
+          <t>[('function', 'Relational'), ('engage', 'Extended Abstract'), ('report', 'Multistructural'), ('identify', 'Unistructural'), ('review', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Reflect on teamwork, project management, leadership and conflict resolution in the context of group projects and activities.</t>
+          <t>Determine appropriate basic abstract data types, including; stacks, queues, lists, binary trees, priority queues, heaps and hash tables; for specific contexts;</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[('reflect', 'Verb not mapped')]</t>
+          <t>[('determine', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[('contribute', 'Valuing'), ('lead', 'Organisation'), ('identify', 'Receiving'), ('choose', 'Receiving'), ('relay', 'Responding')]</t>
+          <t>[('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating'), ('discuss', 'Understanding')]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>describe the concepts of EIA, ERA and EMS</t>
+          <t>Theoretically and experimentally evaluate different implementations of basic abstract data types;</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving')]</t>
+          <t>[('evaluate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[('allow', 'Responding'), ('relay', 'Responding'), ('follow', 'Receiving'), ('guide', 'Valuing'), ('justify', 'Valuing')]</t>
+          <t>[('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('satisfy', 'Relational'), ('assess', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>determine the role of these assessments and management systems in society, especially the relevant environmental legislation, policies, codes of practice and local/international standards</t>
+          <t>Analyse the efficiency of algorithms by determining their best-case and worst-case big-O time complexity;</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[('determine', 'Verb not mapped')]</t>
+          <t>[('analyse', 'Relational'), ('determine', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[('report', 'Valuing'), ('identify', 'Receiving'), ('compare', 'Organisation'), ('respond', 'Responding'), ('agree', 'Responding')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('contrast', 'Relational'), ('define', 'Multistructural'), ('compare', 'Relational'), ('sequence', 'Multistructural')]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>comprehend the government, industry and community perspectives on engineering projects</t>
+          <t>Work in teams to analyse algorithms and write programs.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Unistructural</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[('comprehend', 'Verb not mapped')]</t>
+          <t>[('work', 'Verb not mapped'), ('analyse', 'Relational'), ('write', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[('delay', 'Valuing'), ('guide', 'Valuing'), ('respond', 'Responding'), ('act', 'Characterisation'), ('lead', 'Organisation')]</t>
+          <t>[('generate', 'Extended Abstract'), ('report', 'Multistructural'), ('reduce', 'Relational'), ('engage', 'Extended Abstract'), ('design', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-assess various types of environmental impact assessment, risk evaluation and environmental management system methodologies</t>
+          <t>Iteratively apply object-oriented design principles to design small to medium-size software systems, using standard software engineering notations, namely UML class diagrams and UML interaction diagrams.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[('assess', 'Verb not mapped')]</t>
+          <t>[('apply', 'Applying'), ('orient', 'Verb not mapped'), ('design', 'Creating'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[('agree', 'Responding'), ('discuss', 'Responding'), ('study', 'Valuing'), ('lead', 'Organisation'), ('adopt', 'Valuing')]</t>
+          <t>[('construct', 'Creating'), ('translate', 'Understanding'), ('structure', 'Analysing'), ('explain', 'Understanding'), ('calculate', 'Applying')]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Describe the overall architecture of an autonomous vehicle (AV) system.</t>
+          <t>Identify appropriate quality goals for a moderately-sized software development project, including human aspects and security concerns, select an appropriate quality assurance strategy to give confidence that these quality goals can be achieved, and document this strategy appropriately in the context of a software process model;</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving')]</t>
+          <t>[('identify', 'Unistructural'), ('include', 'Verb not mapped'), ('select', 'Multistructural'), ('give', 'Verb not mapped'), ('achieve', 'Verb not mapped'), ('document', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[('allow', 'Responding'), ('relay', 'Responding'), ('follow', 'Receiving'), ('guide', 'Valuing'), ('justify', 'Valuing')]</t>
+          <t>[('generate', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('compare', 'Relational'), ('appreciate', 'Relational'), ('evaluate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Apply learned concepts to design algorithms for different functionalities of the AV system, such as localisation, perception, planning and control.</t>
+          <t>Perform systematic, automated unit testing on source code modules, using both specification-based and code-based approaches, utilising automated testing frameworks, including faking and mocking tools;</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[('apply', 'Verb not mapped'), ('learn', 'Verb not mapped'), ('design', 'Organisation')]</t>
+          <t>[('perform', 'Verb not mapped'), ('use', 'Relational'), ('base', 'Verb not mapped'), ('base', 'Verb not mapped'), ('utilise', 'Verb not mapped'), ('automate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[('select', 'Receiving'), ('solve', 'Characterisation'), ('propose', 'Characterisation'), ('justify', 'Valuing'), ('describe', 'Receiving')]</t>
+          <t>[('integrate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('discuss', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Integrate and evaluate the AV system including testing and validation of algorithms and decision-making of the system.</t>
+          <t>Perform integration and system testing on a moderately-sized software system, using continuous integration frameworks and tracing tests back to requirements;</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Valuing</t>
-        </is>
-      </c>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[('integrate', 'Organisation'), ('evaluate', 'Valuing'), ('include', 'Verb not mapped')]</t>
+          <t>[('perform', 'Verb not mapped'), ('use', 'Relational'), ('trace', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[('perform', 'Characterisation'), ('identify', 'Receiving'), ('adopt', 'Valuing'), ('support', 'Valuing'), ('allow', 'Responding')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('sequence', 'Multistructural'), ('define', 'Multistructural'), ('transfer', 'Relational'), ('characterise', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Apply project evaluation techniques including the triple bottom line against the overall business model.</t>
+          <t>Select appropriate tools to collect metrics, including test coverage, reliability, and design quality metrics, to analyse the quality of a software development project, and make recommendations based on the results;</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[('apply', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('select', 'Multistructural'), ('collect', 'Verb not mapped'), ('include', 'Verb not mapped'), ('analyse', 'Relational'), ('make', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[('perform', 'Characterisation'), ('identify', 'Receiving'), ('adopt', 'Valuing'), ('support', 'Valuing'), ('allow', 'Responding')]</t>
+          <t>[('appraise', 'Extended Abstract'), ('conclude', 'Relational'), ('interpret', 'Relational'), ('summarise', 'Relational'), ('partition', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Evaluate and apply the basic tools and techniques to plan, organise and manage a project.</t>
+          <t>Model and design flexible software at the architectural level using various tools and techniques from the requirements;</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Valuing'), ('apply', 'Verb not mapped'), ('plan', 'Organisation'), ('organise', 'Organisation'), ('manage', 'Organisation')]</t>
+          <t>[('model', 'Verb not mapped'), ('design', 'Extended Abstract'), ('use', 'Relational')]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[('manage', 'Organisation'), ('organise', 'Organisation'), ('follow', 'Receiving'), ('work', 'Valuing'), ('support', 'Valuing')]</t>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Identify strategic constraints in managing the scope, time, cost and quality components.</t>
+          <t>Analyse, design, and refactor software systems taking into consideration various quality attributes and requirements</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[('identify', 'Receiving'), ('manage', 'Organisation')]</t>
+          <t>[('analyse', 'Analysing'), ('design', 'Creating'), ('refactor', 'Verb not mapped'), ('take', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[('organise', 'Organisation'), ('follow', 'Receiving'), ('work', 'Valuing'), ('support', 'Valuing'), ('plan', 'Organisation')]</t>
+          <t>[('back', 'Applying'), ('perform', 'Creating'), ('compare', 'Understanding'), ('adopt', 'Evaluating'), ('produce', 'Creating')]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Discuss professional responsibility, occupational health and safety and ethical conduct.</t>
+          <t>Take requirements for systems and develop software designs and architectures following object-oriented principles;</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[('discuss', 'Responding')]</t>
+          <t>[('take', 'Verb not mapped'), ('develop', 'Verb not mapped'), ('follow', 'Verb not mapped'), ('orient', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[('allow', 'Responding'), ('respond', 'Responding'), ('relay', 'Responding'), ('lead', 'Organisation'), ('establish', 'Organisation')]</t>
+          <t>[('characterise', 'Relational'), ('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('integrate', 'Extended Abstract'), ('evaluate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Describe the purpose of enterprise architectures and the underlying principles of their design;</t>
+          <t>Select and use appropriate tools for iteratively incrementing the design and architecture of the system;</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('underlie', 'Verb not mapped')]</t>
+          <t>[('select', 'Perception'), ('use', 'Verb not mapped'), ('incremente', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[('perform', 'Characterisation'), ('allow', 'Responding'), ('agree', 'Responding'), ('consider', 'Organisation'), ('describe', 'Receiving')]</t>
+          <t>[('trace', 'Guided Response'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('change', 'Adaptation'), ('choose', 'Perception')]</t>
         </is>
       </c>
     </row>
@@ -3450,748 +3406,2049 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Describe into the need for sound data, information and technology governance strategies;</t>
+          <t>Evaluate and apply appropriate design patterns, frameworks and architectures in designing software;</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving')]</t>
+          <t>[('evaluate', 'Extended Abstract'), ('apply', 'Relational'), ('design', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[('allow', 'Responding'), ('relay', 'Responding'), ('follow', 'Receiving'), ('guide', 'Valuing'), ('justify', 'Valuing')]</t>
+          <t>[('summarise', 'Relational'), ('order', 'Unistructural'), ('propose', 'Multistructural'), ('design', 'Extended Abstract'), ('apply', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Justify design decisions in the context of a project and effectively communicate these decisions to project stakeholders</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Origination</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>[('justify', 'Verb not mapped'), ('communicate', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>[('identify', 'Perception'), ('describe', 'Perception'), ('differentiate', 'Perception'), ('work', 'Guided Response'), ('make', 'Origination')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Explain and analyse key processor components;</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>[('explain', 'Understanding'), ('analyse', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>[('complete', 'Applying'), ('rate', 'Evaluating'), ('change', 'Applying'), ('compare', 'Understanding'), ('prepare', 'Applying')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Explain and analyse computer organisation;</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>[('explain', 'Understanding'), ('analyse', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>[('complete', 'Applying'), ('rate', 'Evaluating'), ('change', 'Applying'), ('compare', 'Understanding'), ('prepare', 'Applying')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Use simulator programs to model computer system components.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>[('use', 'Relational'), ('model', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>[('differentiate', 'Relational'), ('derive', 'Relational'), ('summarise', 'Relational'), ('function', 'Relational'), ('reduce', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Describe industry-standard team-based project management methodologies and apply them across a multi-functional team to achieve optimal project progress</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>[('describe', 'Multistructural'), ('base', 'Verb not mapped'), ('apply', 'Relational'), ('achieve', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>[('generate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('report', 'Multistructural'), ('formulate', 'Relational'), ('organise', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Apply soft skills when engaging stakeholders in a consistent and professional manner to determine functional and non-functional requirements</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>[('apply', 'Relational'), ('engage', 'Extended Abstract'), ('determine', 'Multistructural')]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>[('mitigate', 'Extended Abstract'), ('contrast', 'Relational'), ('define', 'Multistructural'), ('compare', 'Relational'), ('sequence', 'Multistructural')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Plan and manage the full range of activities in a software engineering project in accordance with the development methodology</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Extended abstract</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>[('plan', 'Extended Abstract'), ('manage', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>[('organise', 'Relational'), ('plan', 'Extended Abstract'), ('manage', 'Relational'), ('generate', 'Extended Abstract'), ('discuss', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Compare and analyse appropriate industry-standard technologies to determine the optimal combination of software required to support project development</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>[('compare', 'Organisation'), ('analyse', 'Verb not mapped'), ('determine', 'Verb not mapped'), ('require', 'Verb not mapped'), ('support', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>[('follow', 'Receiving'), ('support', 'Valuing'), ('agree', 'Responding'), ('perform', 'Characterisation'), ('test', 'Organisation')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Deliberate professional issues occurring within the development and deployment of software applications, and identify appropriate actions based on human factors, relevant law and industry codes of ethical behaviour.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Extended abstract</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Unistructural</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>[('deliberate', 'Extended Abstract'), ('occur', 'Verb not mapped'), ('identify', 'Unistructural'), ('base', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>[('assess', 'Extended Abstract'), ('address', 'Relational'), ('identify', 'Unistructural'), ('review', 'Extended Abstract'), ('define', 'Multistructural')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Develop a sound relational database design;</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>[('develop', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>[('derive', 'Relational'), ('create', 'Extended Abstract'), ('define', 'Multistructural'), ('generate', 'Extended Abstract'), ('synthesise', 'Extended Abstract')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Implement a relational database based on a sound database design;</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>[('implement', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>[('construct', 'Relational'), ('use', 'Relational'), ('propose', 'Multistructural'), ('differentiate', 'Relational'), ('summarise', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Manage data that meets user requirements, including queries and transactions;</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>[('manage', 'Organisation'), ('meet', 'Receiving'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Develop programming structures within a database backend.</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Extended abstract</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>[('develop', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>[('derive', 'Relational'), ('create', 'Extended Abstract'), ('define', 'Multistructural'), ('generate', 'Extended Abstract'), ('synthesise', 'Extended Abstract')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Design and implement a software system of a quality acceptable to an external client;</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Extended Abstract</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>[('design', 'Extended Abstract'), ('implement', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>[('function', 'Relational'), ('design', 'Extended Abstract'), ('analyse', 'Relational'), ('construct', 'Relational'), ('use', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Select and use appropriate tools, techniques and strategies to manage project resources, including time and personnel;</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>[('select', 'Receiving'), ('use', 'Receiving'), ('manage', 'Organisation'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Identify potential sources of risk, including ethical risk, and devise and adopt appropriate strategies to monitor and mitigate these risks;</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Unistructural</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>[('identify', 'Unistructural'), ('include', 'Verb not mapped'), ('devise', 'Verb not mapped'), ('adopt', 'Verb not mapped'), ('monitor', 'Verb not mapped'), ('mitigate', 'Extended Abstract')]</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>[('mitigate', 'Extended Abstract'), ('define', 'Multistructural'), ('satisfy', 'Relational'), ('compare', 'Relational'), ('determine', 'Multistructural')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Choose and follow a software development methodology that is appropriate to the team, project and client, and justify this methodology;</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Extended Abstract</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>[('choose', 'Verb not mapped'), ('follow', 'Verb not mapped'), ('justify', 'Extended Abstract')]</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>[('generate', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('report', 'Multistructural'), ('order', 'Unistructural'), ('compare', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Elicit functional and non-functional requirements, including human aspects requirements, from client representatives and ensure that these are communicated to team members and other stakeholders in an appropriate form</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>[('include', 'Verb not mapped'), ('ensure', 'Verb not mapped'), ('communicate', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Extended Abstract'), ('characterise', 'Relational'), ('appreciate', 'Relational'), ('assess', 'Extended Abstract'), ('differentiate', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Produce internal documentation of a sufficient quality to support project development activities (including specification, analysis, design, testing) and address relevant security and other risks</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Creating</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>[('produce', 'Creating'), ('support', 'Evaluating'), ('include', 'Verb not mapped'), ('address', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>[('adopt', 'Evaluating'), ('monitor', 'Evaluating'), ('devise', 'Evaluating'), ('perform', 'Creating'), ('choose', 'Applying')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Communicate effectively with a diverse range of project stakeholders, including clients, end users, and supervisors</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>[('communicate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('discuss', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Verify systematically that internal and external project deliverables meet agreed quality standards, such as functionality, security and usability</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>[('verify', 'Verb not mapped'), ('meet', 'Verb not mapped'), ('agree', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>[('devise', 'Evaluating'), ('generate', 'Creating'), ('adopt', 'Evaluating'), ('discuss', 'Understanding'), ('rate', 'Evaluating')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Set achievable and measurable goals;</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>[('set', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>[('trace', 'Guided Response'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('differentiate', 'Perception'), ('state', 'Set')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Develop and practice professional skills and attitudes including: initiative, communication, time-management and teamwork skills in a business environment;</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Complete Overt Response</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>[('develop', 'Verb not mapped'), ('practice', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('organise', 'Mechanism')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Develop solutions to business problems using information technology and other techniques;</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>[('develop', 'Verb not mapped'), ('use', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>[('trace', 'Guided Response'), ('construct', 'Mechanism'), ('explain', 'Set'), ('change', 'Adaptation'), ('describe', 'Perception')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Prepare documentation and written reports of a professional standard;</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Guided Response</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>[('prepare', 'Verb not mapped'), ('write', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>[('respond', 'Guided Response'), ('change', 'Adaptation'), ('trace', 'Guided Response'), ('differentiate', 'Perception'), ('relate', 'Perception')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Address performance improvement opportunities identified by industry supervisors and self-assess opportunities for personal development;</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Guided Response</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Perception</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>[('address', 'Verb not mapped'), ('identify', 'Perception'), ('assess', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>[('change', 'Adaptation'), ('respond', 'Guided Response'), ('identify', 'Perception'), ('state', 'Set'), ('choose', 'Perception')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Develop information technology skills (such as business process modelling, performance enhancement of installed software, updating current software and developing new software) in a complex, corporate business environment;</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Complete Overt Response</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[('develop', 'Verb not mapped'), ('instal', 'Verb not mapped'), ('update', 'Verb not mapped'), ('develop', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>[('trace', 'Guided Response'), ('change', 'Adaptation'), ('create', 'Origination'), ('follow', 'Guided Response'), ('select', 'Perception')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Apply engineering synthesis and design processes in a business and information technology environment;</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Originiation</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>[('apply', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>[('create', 'Origination'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('describe', 'Perception'), ('respond', 'Guided Response')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Evaluate and critique the engineering approaches undertaken during the conduct and management of the projects.</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Verb not mapped'), ('critique', 'Verb not mapped'), ('undertake', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>[('trace', 'Guided Response'), ('heat', 'Mechanism'), ('state', 'Set'), ('respond', 'Guided Response'), ('choose', 'Perception')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Analyse critically and apply the ISO reference and Internet models;</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Analysing'), ('apply', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('order', 'Remembering'), ('compute', 'Applying'), ('conclude', 'Creating')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Implement programs using internet working concepts, IP addressing, IPC and socket-level interface;</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>[('implement', 'Verb not mapped'), ('use', 'Relational'), ('work', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>[('satisfy', 'Relational'), ('engage', 'Extended Abstract'), ('define', 'Multistructural'), ('generate', 'Extended Abstract'), ('discern', 'Multistructural')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Analyse critically and implement the fundamentals and technologies of the network layer, including packet-switching and queueing concepts;</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Analysing'), ('implement', 'Applying'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating'), ('discuss', 'Understanding')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Analyse critically and implement designs based on the functions and architectures of cabled and wireless LAN and WAN, including ALOHA and CSMA/CD/CA models;</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Analysing'), ('implement', 'Applying'), ('base', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating'), ('discuss', 'Understanding')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Implement and evaluate system level designs based on LAN architecture for organisational requirements.</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Extended Abstract</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>[('implement', 'Verb not mapped'), ('evaluate', 'Extended Abstract'), ('base', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>[('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('satisfy', 'Relational'), ('assess', 'Extended Abstract')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Research relevant and reliable literature to evaluate the state of the field.</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>[('research', 'Analysing'), ('evaluate', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>[('compare', 'Understanding'), ('back', 'Applying'), ('prepare', 'Applying'), ('adopt', 'Evaluating'), ('change', 'Applying')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Analyse a problem and evaluate the potential of a solution or experiment.</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Extended abstract </t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Relational'), ('evaluate', 'Extended Abstract')]</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>[('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('satisfy', 'Relational'), ('assess', 'Extended Abstract')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Appraise a complex engineering problem and investigate it using appropriate research methods and techniques.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Extended abstract </t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Extended Abstract</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>[('appraise', 'Extended Abstract'), ('investigate', 'Verb not mapped'), ('use', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Integrate foundational and discipline-specific knowledge to solve complex open-ended problems.</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Extended abstract</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Extended Abstract'), ('solve', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>[('discuss', 'Relational'), ('define', 'Multistructural'), ('value', 'Extended Abstract'), ('satisfy', 'Relational'), ('sequence', 'Multistructural')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Plan the scope and requirements of a research project or experiment, responding to changing requirements and potential interdisciplinary inputs.</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>[('plan', 'Organisation'), ('respond', 'Responding'), ('change', 'Characterisation')]</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>[('change', 'Characterisation'), ('respond', 'Responding'), ('order', 'Organisation'), ('compare', 'Organisation'), ('prepare', 'Organisation')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Generate research and technical outputs by applying appropriate techniques, resources and modern engineering tools to a complex open-ended engineering problem.</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Extended abstract</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>[('generate', 'Extended Abstract'), ('apply', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>[('create', 'Extended Abstract'), ('summarise', 'Relational'), ('derive', 'Relational'), ('order', 'Unistructural'), ('compute', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Demonstrate consideration of the ethics and norms which guide engineering practice, including professionalism, innovation and creativity.</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Extended abstract</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>[('demonstrate', 'Extended Abstract'), ('guide', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('discuss', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Assess the social, health, safety, legal, cultural, commercial and political impacts of the identified project, as appropriate.</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Extended abstract</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Unistructural</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>[('assess', 'Extended Abstract'), ('identify', 'Unistructural')]</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>[('identify', 'Unistructural'), ('assess', 'Extended Abstract'), ('address', 'Relational'), ('review', 'Extended Abstract'), ('define', 'Multistructural')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Synthesise the progress and outputs of your project through professional engineering reports and presentations to a range of audiences including the community and industry.</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>[('synthesise', 'Organisation'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Engage with project collaborators to achieve research outcomes using effective self and/or team management, review and improvement practices. (Applicable to the Clayton-based course)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Extended abstract</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>[('engage', 'Extended Abstract'), ('achieve', 'Verb not mapped'), ('use', 'Relational'), ('base', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Describe the purpose of enterprise architectures and the underlying principles of their design;</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>[('describe', 'Receiving'), ('underlie', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>[('delay', 'Valuing'), ('establish', 'Organisation'), ('guide', 'Valuing'), ('follow', 'Receiving'), ('relay', 'Responding')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Describe into the need for sound data, information and technology governance strategies;</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Recieving</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>[('describe', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('compare', 'Organisation')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Explain the alignment of an organisation's IT strategy, platforms and systems with the overall organisational strategy and management functions</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Valuing, organisation</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>[('explain', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>[('describe', 'Receiving'), ('relay', 'Responding'), ('allow', 'Responding'), ('compare', 'Organisation'), ('object', 'Characterisation')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>identify and explain big data concepts and technologies;</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Unistructural</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>[('identify', 'Unistructural'), ('explain', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>[('describe', 'Multistructural'), ('discern', 'Multistructural'), ('characterise', 'Relational'), ('simulate', 'Extended Abstract'), ('conduct', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>write and interpret parallel database processing algorithms and methods;</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Unistructural</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>[('write', 'Unistructural'), ('interpret', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>[('summarise', 'Relational'), ('derive', 'Relational'), ('order', 'Unistructural'), ('compute', 'Relational'), ('conclude', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>use big data streaming technologies.</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>[('use', 'Relational'), ('stream', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Describe the steps involved in various manufacturing processes for production at scale, including their strengths and limitations.</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>Responding</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>[('describe', 'Receiving'), ('involve', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>[('perform', 'Characterisation'), ('identify', 'Receiving'), ('adopt', 'Valuing'), ('support', 'Valuing'), ('allow', 'Responding')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B91" t="inlineStr">
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Select appropriate part manufacturing processes while balancing functional requirements, performance, cost and sustainability.</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>Responding</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>[('select', 'Receiving'), ('balance', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>[('act', 'Characterisation'), ('change', 'Characterisation'), ('present', 'Responding'), ('monitor', 'Valuing'), ('query', 'Valuing')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B92" t="inlineStr">
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>[('discuss', 'Responding'), ('agree', 'Responding'), ('choose', 'Receiving'), ('prepare', 'Organisation'), ('delay', 'Valuing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Identify and carry out the necessary steps to conduct a small-scale production run and then reflect on the outcomes.</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>Responding</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>[('identify', 'Receiving'), ('carry', 'Verb not mapped'), ('conduct', 'Verb not mapped'), ('reflect', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>[('contribute', 'Valuing'), ('guide', 'Valuing'), ('respond', 'Responding'), ('synthesise', 'Organisation'), ('allow', 'Responding')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B93" t="inlineStr">
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>[('propose', 'Characterisation'), ('contribute', 'Valuing'), ('explain', 'Valuing'), ('design', 'Organisation'), ('observe', 'Receiving')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Evaluate the functionality and performance of these programs using software development tools.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
+Relate the capabilities and limitations of established NDT techniques to their respective basic working principles.</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>[('evaluate', 'Valuing'), ('use', 'Receiving')]</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>[('describe', 'Receiving'), ('guide', 'Valuing'), ('organise', 'Organisation'), ('allow', 'Responding'), ('justify', 'Valuing')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Describe the operation of computer arithmetic, assemblers and compilers, a RISC processor datapath and solve related problems.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>[('describe', 'Receiving'), ('solve', 'Characterisation')]</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>[('practise', 'Characterisation'), ('manage', 'Organisation'), ('design', 'Organisation'), ('propose', 'Characterisation'), ('justify', 'Valuing')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Solve real-world engineering problems by designing ladder logic diagrams for programmable logic controllers (PLC) using components such as normally open contacts, normally closed contacts, relays, timers and counters.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Characterisation</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>[('solve', 'Characterisation'), ('design', 'Organisation'), ('use', 'Receiving')]</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>[('describe', 'Receiving'), ('guide', 'Valuing'), ('organise', 'Organisation'), ('allow', 'Responding'), ('justify', 'Valuing')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B96" t="inlineStr">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>[('relate', 'Organisation'), ('establish', 'Organisation')]</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>[('guide', 'Valuing'), ('discuss', 'Responding'), ('collaborate', 'Organisation'), ('delay', 'Valuing'), ('prepare', 'Organisation')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Evaluate the various NDT methods for flaw detection and damage assessment and be able to identify the appropriate technique for a given scenario.</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Valuing, Responding</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Valuing'), ('identify', 'Receiving'), ('give', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>[('allow', 'Responding'), ('follow', 'Receiving'), ('respond', 'Responding'), ('change', 'Characterisation'), ('select', 'Receiving')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Communicate the result and analysis both in oral and written form.</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>[('communicate', 'Responding')]</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>[('justify', 'Valuing'), ('work', 'Valuing'), ('collaborate', 'Organisation'), ('demonstrate', 'Valuing'), ('report', 'Valuing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Reflect on teamwork, project management, leadership and conflict resolution in the context of group projects and activities.</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>[('reflect', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>[('contribute', 'Valuing'), ('lead', 'Organisation'), ('identify', 'Receiving'), ('relay', 'Responding'), ('discuss', 'Responding')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Demonstrate an understanding of smart manufacturing through project development.</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
         <is>
           <t>Valuing</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>[('evaluate', 'Valuing'), ('identify', 'Receiving'), ('give', 'Receiving')]</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>[('justify', 'Valuing'), ('change', 'Characterisation'), ('select', 'Receiving'), ('prepare', 'Organisation'), ('respond', 'Responding')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Solve engineering problems related to design and operation of bioreactors.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Characterisation</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>[('solve', 'Characterisation'), ('relate', 'Organisation')]</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>[('change', 'Characterisation'), ('establish', 'Organisation'), ('investigate', 'Organisation'), ('delay', 'Valuing'), ('allow', 'Responding')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Operate bioreactor and evaluate the performance of cell growth under different operating conditions.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>[('operate', 'Verb not mapped'), ('evaluate', 'Valuing')]</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>[('perform', 'Characterisation'), ('present', 'Responding'), ('agree', 'Responding'), ('allow', 'Responding'), ('delay', 'Valuing')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B99" t="inlineStr">
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>[('demonstrate', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>[('collaborate', 'Organisation'), ('work', 'Valuing'), ('act', 'Characterisation'), ('monitor', 'Valuing'), ('adopt', 'Valuing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B148" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Simulate cameras using projective and multi-view geometry to design model-based vision systems and algorithms that extract 3D and rotational information from images, alongside methods for image registration and stitching.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>[('simulate', 'Verb not mapped'), ('use', 'Receiving'), ('design', 'Organisation'), ('base', 'Verb not mapped'), ('extract', 'Verb not mapped')]</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>[('guide', 'Valuing'), ('act', 'Characterisation'), ('integrate', 'Organisation'), ('write', 'Responding'), ('agree', 'Responding')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B100" t="inlineStr">
+Design, construct and debug a small microprocessor system that is capable of interfacing to a series of different inputs and outputs.</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Origination</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Mechanism</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>[('design', 'Origination'), ('construct', 'Mechanism'), ('debug', 'Verb not mapped'), ('interface', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>[('change', 'Adaptation'), ('respond', 'Guided Response'), ('trace', 'Guided Response'), ('describe', 'Perception'), ('heat', 'Mechanism')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Demonstrate the development, training and deployment of computer vision algorithms using a high-level programming language.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>[('demonstrate', 'Valuing'), ('use', 'Receiving')]</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>[('describe', 'Receiving'), ('guide', 'Valuing'), ('organise', 'Organisation'), ('allow', 'Responding'), ('justify', 'Valuing')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Identify the limits of human visual and aural perception, and how they can be exploited for bit rate reduction.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>[('identify', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>[('agree', 'Responding'), ('act', 'Characterisation'), ('perform', 'Characterisation'), ('delay', 'Valuing'), ('allow', 'Responding')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Describe the structure of modern multimedia compression systems, and how they exploit the characteristics of both the media itself and human consumers of the media.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>[('describe', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>[('agree', 'Responding'), ('act', 'Characterisation'), ('perform', 'Characterisation'), ('delay', 'Valuing'), ('allow', 'Responding')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Compute the end-to-end delay performance of modern Internet protocols supporting media streaming, and relate this to service requirements for on-demand and communicative multimedia services.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>[('compute', 'Verb not mapped'), ('support', 'Valuing'), ('relate', 'Organisation')]</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>[('change', 'Characterisation'), ('establish', 'Organisation'), ('investigate', 'Organisation'), ('delay', 'Valuing'), ('allow', 'Responding')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Describe concepts and fundamentals of deep learning, such as the backpropagation algorithm and adversarial learning.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>[('describe', 'Receiving')]</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>[('allow', 'Responding'), ('relay', 'Responding'), ('follow', 'Receiving'), ('guide', 'Valuing'), ('justify', 'Valuing')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Demonstrate the training and deployment of neural networks using a high level programming language.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>[('demonstrate', 'Valuing'), ('use', 'Receiving')]</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>[('describe', 'Receiving'), ('guide', 'Valuing'), ('organise', 'Organisation'), ('allow', 'Responding'), ('justify', 'Valuing')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Appraise critically the sources of information and contents of scientific publications and choose relevant information.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>[('appraise', 'Verb not mapped'), ('choose', 'Receiving')]</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>[('adopt', 'Valuing'), ('respond', 'Responding'), ('act', 'Characterisation'), ('allow', 'Responding'), ('perform', 'Characterisation')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Select suitable electronic components and develop simple MEMS or Organic electronic device based systems, evaluate structural and material properties of Micro/Nano devices through simulation studies</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>[('select', 'Receiving'), ('develop', 'Verb not mapped'), ('base', 'Verb not mapped'), ('evaluate', 'Valuing')]</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>[('perform', 'Characterisation'), ('present', 'Responding'), ('agree', 'Responding'), ('allow', 'Responding'), ('delay', 'Valuing')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Summarise fundamentals of nanotechnology and propose research opportunities in designing Micro technologies</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>[('summarise', 'Verb not mapped'), ('propose', 'Characterisation'), ('design', 'Organisation')]</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>[('select', 'Receiving'), ('solve', 'Characterisation'), ('propose', 'Characterisation'), ('design', 'Organisation'), ('justify', 'Valuing')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Design and implement a system to solve a given complex engineering problem in the field of Intelligent lighting control using the knowledge of SSL.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>[('design', 'Organisation'), ('implement', 'Verb not mapped'), ('solve', 'Characterisation'), ('give', 'Receiving'), ('use', 'Receiving')]</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>[('describe', 'Receiving'), ('guide', 'Valuing'), ('organise', 'Organisation'), ('allow', 'Responding'), ('justify', 'Valuing')]</t>
+Construct appropriate software and test processes to produce industry-ready products.</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Guided Response</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Mechanism</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>[('construct', 'Mechanism'), ('produce', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>[('follow', 'Guided Response'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('trace', 'Guided Response'), ('choose', 'Perception')]</t>
         </is>
       </c>
     </row>

--- a/outputs/failed_lo_mappings.xlsx
+++ b/outputs/failed_lo_mappings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,11 +467,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>be critical and creative thinkers who are able to communicate effectively and perceptively to a variety of key stakeholders</t>
+          <t>be responsible and effective global citizens who engage in an internationalised world by being able to demonstrate cross cultural competencies and empathy whilst acting ethically and sustainably</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,18 +481,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>Characterisation</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('communicate', 'Responding')]</t>
+          <t>[('engage', 'Verb not mapped'), ('demonstrate', 'Valuing'), ('act', 'Characterisation')]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[('justify', 'Valuing'), ('work', 'Valuing'), ('collaborate', 'Organisation'), ('demonstrate', 'Valuing'), ('report', 'Valuing')]</t>
+          <t>[('monitor', 'Valuing'), ('prepare', 'Organisation'), ('relay', 'Responding'), ('collaborate', 'Organisation'), ('generate', 'Organisation')]</t>
         </is>
       </c>
     </row>
@@ -515,7 +519,11 @@
           <t>Valuing</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Characterisation</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>[('demonstrate', 'Valuing'), ('drive', 'Verb not mapped'), ('include', 'Verb not mapped'), ('limit', 'Verb not mapped'), ('serve', 'Characterisation')]</t>
@@ -523,7 +531,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[('prepare', 'Organisation'), ('discuss', 'Responding'), ('collaborate', 'Organisation'), ('relay', 'Responding'), ('lead', 'Organisation')]</t>
+          <t>[('prepare', 'Organisation'), ('discuss', 'Responding'), ('collaborate', 'Organisation'), ('relay', 'Responding'), ('generate', 'Organisation')]</t>
         </is>
       </c>
     </row>
@@ -583,27 +591,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('develop', 'Verb not mapped'), ('manage', 'Organisation'), ('work', 'Valuing'), ('start', 'Verb not mapped')]</t>
+          <t>[('develop', 'Organisation'), ('manage', 'Organisation'), ('work', 'Valuing'), ('start', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[('collaborate', 'Organisation'), ('monitor', 'Valuing'), ('act', 'Characterisation'), ('respond', 'Responding'), ('discuss', 'Responding')]</t>
+          <t>[('collaborate', 'Organisation'), ('monitor', 'Valuing'), ('act', 'Characterisation'), ('generate', 'Organisation'), ('respond', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>critically research and explore complex challenges to create and communicate innovative and informed ideas or solutions</t>
+          <t>be an empathetic and global citizen who considers and creates value that is holistic and ethical, by challenging, integrating and accommodating differing world views</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,28 +621,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>Characterisation</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('research', 'Verb not mapped'), ('explore', 'Verb not mapped'), ('create', 'Verb not mapped'), ('communicate', 'Responding')]</t>
+          <t>[('consider', 'Organisation'), ('create', 'Verb not mapped'), ('challenge', 'Characterisation'), ('integrate', 'Organisation'), ('accommodate', 'Verb not mapped'), ('differ', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('evaluate', 'Valuing'), ('verify', 'Characterisation'), ('propose', 'Characterisation'), ('design', 'Organisation')]</t>
+          <t>[('guide', 'Valuing'), ('establish', 'Organisation'), ('discuss', 'Responding'), ('perform', 'Characterisation'), ('monitor', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>be an empathetic and global citizen who considers and creates value that is holistic and ethical, by challenging, integrating and accommodating differing world views</t>
+          <t>Relate bioprocess organisms and their nutrient requirement to bioprocess considerations.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +656,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Characterisation</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -654,22 +666,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('consider', 'Organisation'), ('create', 'Verb not mapped'), ('challenge', 'Characterisation'), ('integrate', 'Organisation'), ('accommodate', 'Verb not mapped'), ('differ', 'Verb not mapped')]</t>
+          <t>[('relate', 'Organisation')]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[('guide', 'Valuing'), ('establish', 'Organisation'), ('discuss', 'Responding'), ('perform', 'Characterisation'), ('monitor', 'Valuing')]</t>
+          <t>[('establish', 'Organisation'), ('allow', 'Responding'), ('perform', 'Characterisation'), ('support', 'Valuing'), ('study', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>demonstrate broad technical and soft skills aligned to innovation, to deliver value to people, businesses and society</t>
+          <t>Operate bioreactor and evaluate the performance of cell growth under different operating conditions.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,28 +691,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Responding, Valuing</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Valuing</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Valuing'), ('align', 'Verb not mapped'), ('deliver', 'Verb not mapped')]</t>
+          <t>[('operate', 'Verb not mapped'), ('evaluate', 'Valuing')]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[('lead', 'Organisation'), ('guide', 'Valuing'), ('relay', 'Responding'), ('challenge', 'Characterisation'), ('collaborate', 'Organisation')]</t>
+          <t>[('compare', 'Organisation'), ('respond', 'Responding'), ('prepare', 'Organisation'), ('adopt', 'Valuing'), ('follow', 'Receiving')]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>communicate and rationalise a point of view that is evidence-based, persuasive and compelling.</t>
+          <t>Describe the overall architecture of an autonomous vehicle (AV) system.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -710,59 +726,68 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>Recieving</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('communicate', 'Responding'), ('rationalise', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving')]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[('adopt', 'Valuing'), ('collaborate', 'Organisation'), ('perform', 'Characterisation'), ('act', 'Characterisation'), ('respond', 'Responding')]</t>
+          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('characterise', 'Characterisation')]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Relate bioprocess organisms and their nutrient requirement to bioprocess considerations.</t>
+          <t xml:space="preserve">
+Apply learned concepts to design algorithms for different functionalities of the AV system, such as localisation, perception, planning and control.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Perception</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('relate', 'Perception')]</t>
+          <t>[('apply', 'Verb not mapped'), ('learn', 'Verb not mapped'), ('design', 'Organisation')]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('differentiate', 'Perception'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('change', 'Adaptation')]</t>
+          <t>[('order', 'Organisation'), ('propose', 'Characterisation'), ('follow', 'Receiving'), ('describe', 'Receiving'), ('change', 'Characterisation')]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Operate bioreactor and evaluate the performance of cell growth under different operating conditions.</t>
+          <t>Integrate and evaluate the AV system including testing and validation of algorithms and decision-making of the system.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -772,7 +797,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Responding, Valuing</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -782,159 +807,158 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('operate', 'Verb not mapped'), ('evaluate', 'Valuing')]</t>
+          <t>[('integrate', 'Organisation'), ('evaluate', 'Valuing'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[('compare', 'Organisation'), ('respond', 'Responding'), ('prepare', 'Organisation'), ('adopt', 'Valuing'), ('follow', 'Receiving')]</t>
+          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Describe the overall architecture of an autonomous vehicle (AV) system.</t>
+          <t>Identify and calculate the loads to which a bridge is subjected, according to first principles and relevant codes of practice.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Mechanism</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving')]</t>
+          <t>[('identify', 'Perception'), ('calculate', 'Verb not mapped'), ('subject', 'Verb not mapped'), ('accord', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('compare', 'Organisation')]</t>
+          <t>[('trace', 'Guided Response'), ('prepare', 'Set'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('perform', 'Complex Overt Response')]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Apply learned concepts to design algorithms for different functionalities of the AV system, such as localisation, perception, planning and control.</t>
+          <t>Determine the structural behaviour various bridge types quantitatively and qualitatively using relevant hand- and computer-based methods.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
+          <t>Complex Overt Response</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('apply', 'Verb not mapped'), ('learn', 'Verb not mapped'), ('design', 'Organisation')]</t>
+          <t>[('determine', 'Verb not mapped'), ('use', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[('order', 'Organisation'), ('propose', 'Characterisation'), ('follow', 'Receiving'), ('describe', 'Receiving'), ('change', 'Characterisation')]</t>
+          <t>[('trace', 'Guided Response'), ('construct', 'Mechanism'), ('explain', 'Set'), ('change', 'Adaptation'), ('describe', 'Perception')]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Integrate and evaluate the AV system including testing and validation of algorithms and decision-making of the system.</t>
+          <t>Design prestressed concrete beams for service and strength requirements.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Mechanism</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('integrate', 'Organisation'), ('evaluate', 'Valuing'), ('include', 'Verb not mapped')]</t>
+          <t>[('design', 'Origination'), ('prestresse', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
+          <t>[('change', 'Adaptation'), ('state', 'Set'), ('trace', 'Guided Response'), ('choose', 'Perception'), ('respond', 'Guided Response')]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Effectively communicate findings, insights or professional recommendations to specialist and/or non-specialist audiences.</t>
+          <t>Describe the reliability basis for limit state design and its use in bridge assessment, including descriptions of the basic variables</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>Complex Overt Response</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Perception</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('communicate', 'Responding')]</t>
+          <t>[('describe', 'Perception'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[('justify', 'Valuing'), ('work', 'Valuing'), ('collaborate', 'Organisation'), ('demonstrate', 'Valuing'), ('report', 'Valuing')]</t>
+          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('operate', 'Complex Overt Response')]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Identify and calculate the loads to which a bridge is subjected, according to first principles and relevant codes of practice.</t>
+          <t>Discuss bridge inspection and management procedures, including levels of assessment and condition rating approaches.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -944,32 +968,28 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mechanism</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Perception</t>
-        </is>
-      </c>
+          <t>Complex Overt Response</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('identify', 'Perception'), ('calculate', 'Verb not mapped'), ('subject', 'Verb not mapped'), ('accord', 'Verb not mapped')]</t>
+          <t>[('discuss', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('choose', 'Perception'), ('organise', 'Mechanism')]</t>
+          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('operate', 'Complex Overt Response')]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Determine the structural behaviour various bridge types quantitatively and qualitatively using relevant hand- and computer-based methods.</t>
+          <t>Work effectively in a bridge design team and communicate engineering designs.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -982,25 +1002,29 @@
           <t>Complex Overt Response</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Guided Response</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[('determine', 'Verb not mapped'), ('use', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
+          <t>[('work', 'Guided Response'), ('communicate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('construct', 'Mechanism'), ('explain', 'Set'), ('change', 'Adaptation'), ('describe', 'Perception')]</t>
+          <t>[('describe', 'Perception'), ('identify', 'Perception'), ('differentiate', 'Perception'), ('work', 'Guided Response'), ('construct', 'Mechanism')]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Design prestressed concrete beams for service and strength requirements.</t>
+          <t>Apply project evaluation techniques including the triple bottom line against the overall business model.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1010,32 +1034,28 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mechanism</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Origination</t>
-        </is>
-      </c>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[('design', 'Origination'), ('prestresse', 'Verb not mapped')]</t>
+          <t>[('apply', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[('change', 'Adaptation'), ('state', 'Set'), ('trace', 'Guided Response'), ('choose', 'Perception'), ('respond', 'Guided Response')]</t>
+          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('design', 'Origination')]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Describe the reliability basis for limit state design and its use in bridge assessment, including descriptions of the basic variables</t>
+          <t>Identify the elements of the project life cycle, including plan, control, and organise and allocate resources.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1050,93 +1070,97 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Mechanism</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[('describe', 'Perception'), ('include', 'Verb not mapped')]</t>
+          <t>[('identify', 'Perception'), ('include', 'Verb not mapped'), ('plan', 'Verb not mapped'), ('control', 'Verb not mapped'), ('organise', 'Mechanism'), ('allocate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('organise', 'Mechanism')]</t>
+          <t>[('organise', 'Mechanism'), ('respond', 'Guided Response'), ('operate', 'Complex Overt Response'), ('trace', 'Guided Response'), ('heat', 'Mechanism')]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Discuss bridge inspection and management procedures, including levels of assessment and condition rating approaches.</t>
+          <t>Evaluate and apply the basic tools and techniques to plan, organise and manage a project.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Complex Overt Response</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[('discuss', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('evaluate', 'Valuing'), ('apply', 'Verb not mapped'), ('plan', 'Organisation'), ('organise', 'Organisation'), ('manage', 'Organisation')]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('organise', 'Mechanism')]</t>
+          <t>[('organise', 'Organisation'), ('manage', 'Organisation'), ('plan', 'Organisation'), ('respond', 'Responding'), ('query', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Work effectively in a bridge design team and communicate engineering designs.</t>
+          <t>Identify strategic constraints in managing the scope, time, cost and quality components.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Complex Overt Response</t>
+          <t>Recieving</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[('work', 'Guided Response'), ('communicate', 'Verb not mapped')]</t>
+          <t>[('identify', 'Receiving'), ('manage', 'Organisation')]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[('describe', 'Perception'), ('identify', 'Perception'), ('differentiate', 'Perception'), ('work', 'Guided Response'), ('construct', 'Mechanism')]</t>
+          <t>[('organise', 'Organisation'), ('plan', 'Organisation'), ('respond', 'Responding'), ('query', 'Valuing'), ('agree', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Apply project evaluation techniques including the triple bottom line against the overall business model.</t>
+          <t>Discuss professional responsibility, occupational health and safety and ethical conduct.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1146,63 +1170,64 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Adaptation</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[('apply', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('discuss', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('design', 'Origination')]</t>
+          <t>[('perform', 'Complex Overt Response'), ('respond', 'Guided Response'), ('trace', 'Guided Response'), ('formulate', 'Origination'), ('prepare', 'Set')]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Identify the elements of the project life cycle, including plan, control, and organise and allocate resources.</t>
+          <t xml:space="preserve">
+Describe the operation of computer arithmetic, assemblers and compilers, a RISC processor datapath and solve related problems.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Complex Overt Response</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[('identify', 'Perception'), ('include', 'Verb not mapped'), ('plan', 'Verb not mapped'), ('control', 'Verb not mapped'), ('organise', 'Mechanism'), ('allocate', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving'), ('solve', 'Characterisation')]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[('organise', 'Mechanism'), ('respond', 'Guided Response'), ('trace', 'Guided Response'), ('heat', 'Mechanism'), ('state', 'Set')]</t>
+          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('generate', 'Organisation'), ('compare', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Evaluate and apply the basic tools and techniques to plan, organise and manage a project.</t>
+          <t>Solve real-world engineering problems by designing ladder logic diagrams for programmable logic controllers (PLC) using components such as normally open contacts, normally closed contacts, relays, timers and counters.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1212,7 +1237,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Characterisation, Organization</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1222,22 +1247,23 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Valuing'), ('apply', 'Verb not mapped'), ('plan', 'Organisation'), ('organise', 'Organisation'), ('manage', 'Organisation')]</t>
+          <t>[('solve', 'Characterisation'), ('design', 'Organisation'), ('use', 'Receiving')]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[('organise', 'Organisation'), ('manage', 'Organisation'), ('plan', 'Organisation'), ('respond', 'Responding'), ('query', 'Valuing')]</t>
+          <t>[('construct', 'Organisation'), ('explain', 'Valuing'), ('verify', 'Characterisation'), ('function', 'Characterisation'), ('relay', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Identify strategic constraints in managing the scope, time, cost and quality components.</t>
+          <t xml:space="preserve">
+Simulate cameras using projective and multi-view geometry to design model-based vision systems and algorithms that extract 3D and rotational information from images, alongside methods for image registration and stitching.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1247,64 +1273,68 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[('identify', 'Receiving'), ('manage', 'Organisation')]</t>
+          <t>[('simulate', 'Verb not mapped'), ('use', 'Receiving'), ('design', 'Organisation'), ('base', 'Verb not mapped'), ('extract', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[('organise', 'Organisation'), ('plan', 'Organisation'), ('respond', 'Responding'), ('query', 'Valuing'), ('agree', 'Responding')]</t>
+          <t>[('object', 'Characterisation'), ('relay', 'Responding'), ('consider', 'Organisation'), ('adopt', 'Valuing'), ('act', 'Characterisation')]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Discuss professional responsibility, occupational health and safety and ethical conduct.</t>
+          <t>Design ethical machine learning solutions to problems in computer vision, such as image classification, 3D reconstruction and pose estimation, object detection and semantic segmentation, by critically appraising information and publications.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Perception</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[('discuss', 'Verb not mapped')]</t>
+          <t>[('design', 'Organisation'), ('appraise', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[('respond', 'Guided Response'), ('trace', 'Guided Response'), ('organise', 'Mechanism'), ('differentiate', 'Perception'), ('state', 'Set')]</t>
+          <t>[('choose', 'Receiving'), ('change', 'Characterisation'), ('investigate', 'Organisation'), ('object', 'Characterisation'), ('verify', 'Characterisation')]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Describe the operation of computer arithmetic, assemblers and compilers, a RISC processor datapath and solve related problems.</t>
+Demonstrate the development, training and deployment of computer vision algorithms using a high-level programming language.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1324,22 +1354,23 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('solve', 'Characterisation')]</t>
+          <t>[('demonstrate', 'Valuing'), ('use', 'Receiving')]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('compare', 'Organisation'), ('object', 'Characterisation')]</t>
+          <t>[('construct', 'Organisation'), ('explain', 'Valuing'), ('verify', 'Characterisation'), ('function', 'Characterisation'), ('relay', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Solve real-world engineering problems by designing ladder logic diagrams for programmable logic controllers (PLC) using components such as normally open contacts, normally closed contacts, relays, timers and counters.</t>
+          <t xml:space="preserve">
+Identify the limits of human visual and aural perception, and how they can be exploited for bit rate reduction.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1349,33 +1380,33 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Characterisation, Organization</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[('solve', 'Characterisation'), ('design', 'Organisation'), ('use', 'Receiving')]</t>
+          <t>[('identify', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[('explain', 'Valuing'), ('verify', 'Characterisation'), ('relay', 'Responding'), ('change', 'Characterisation'), ('consider', 'Organisation')]</t>
+          <t>[('relay', 'Responding'), ('discuss', 'Responding'), ('agree', 'Responding'), ('monitor', 'Valuing'), ('guide', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Simulate cameras using projective and multi-view geometry to design model-based vision systems and algorithms that extract 3D and rotational information from images, alongside methods for image registration and stitching.</t>
+Describe the structure of modern multimedia compression systems, and how they exploit the characteristics of both the media itself and human consumers of the media.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1385,68 +1416,68 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[('simulate', 'Verb not mapped'), ('use', 'Receiving'), ('design', 'Organisation'), ('base', 'Verb not mapped'), ('extract', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[('object', 'Characterisation'), ('relay', 'Responding'), ('consider', 'Organisation'), ('adopt', 'Valuing'), ('act', 'Characterisation')]</t>
+          <t>[('relay', 'Responding'), ('discuss', 'Responding'), ('agree', 'Responding'), ('monitor', 'Valuing'), ('guide', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Design ethical machine learning solutions to problems in computer vision, such as image classification, 3D reconstruction and pose estimation, object detection and semantic segmentation, by critically appraising information and publications.</t>
+          <t xml:space="preserve">
+Explain how media can be characterised and described, including methods that allow similarities to be automatically identified (e.g. music matching services).</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[('design', 'Organisation'), ('appraise', 'Verb not mapped')]</t>
+          <t>[('explain', 'Set'), ('characterise', 'Verb not mapped'), ('describe', 'Perception'), ('include', 'Verb not mapped'), ('allow', 'Verb not mapped'), ('identify', 'Perception')]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[('choose', 'Receiving'), ('change', 'Characterisation'), ('investigate', 'Organisation'), ('object', 'Characterisation'), ('verify', 'Characterisation')]</t>
+          <t>[('perform', 'Complex Overt Response'), ('choose', 'Perception'), ('identify', 'Perception'), ('trace', 'Guided Response'), ('change', 'Adaptation')]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Demonstrate the development, training and deployment of computer vision algorithms using a high-level programming language.</t>
+          <t>Compute the end-to-end delay performance of modern Internet protocols supporting media streaming, and relate this to service requirements for on-demand and communicative multimedia services.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1456,29 +1487,33 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Valuing'), ('use', 'Receiving')]</t>
+          <t>[('compute', 'Verb not mapped'), ('support', 'Valuing'), ('relate', 'Organisation')]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[('explain', 'Valuing'), ('verify', 'Characterisation'), ('relay', 'Responding'), ('change', 'Characterisation'), ('consider', 'Organisation')]</t>
+          <t>[('establish', 'Organisation'), ('allow', 'Responding'), ('perform', 'Characterisation'), ('support', 'Valuing'), ('relate', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Identify the limits of human visual and aural perception, and how they can be exploited for bit rate reduction.</t>
+As part of a team, research and investigate an area of interest beyond lecture material, involving software simulations and analysis of results.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1488,33 +1523,33 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[('identify', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
+          <t>[('research', 'Verb not mapped'), ('investigate', 'Organisation'), ('involve', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('discuss', 'Responding'), ('agree', 'Responding'), ('monitor', 'Valuing'), ('guide', 'Valuing')]</t>
+          <t>[('guide', 'Valuing'), ('relay', 'Responding'), ('consider', 'Organisation'), ('study', 'Valuing'), ('complete', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Describe the structure of modern multimedia compression systems, and how they exploit the characteristics of both the media itself and human consumers of the media.</t>
+Describe concepts and fundamentals of deep learning, such as the backpropagation algorithm and adversarial learning.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1534,90 +1569,95 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving')]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('discuss', 'Responding'), ('agree', 'Responding'), ('monitor', 'Valuing'), ('guide', 'Valuing')]</t>
+          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('characterise', 'Characterisation')]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Explain how media can be characterised and described, including methods that allow similarities to be automatically identified (e.g. music matching services).</t>
+Design deep learning solutions to problems in computer vision, natural language processing and signal processing. Examples are image classification, object detection, sequence modelling and filter design.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[('explain', 'Set'), ('characterise', 'Verb not mapped'), ('describe', 'Perception'), ('include', 'Verb not mapped'), ('allow', 'Verb not mapped'), ('identify', 'Perception')]</t>
+          <t>[('design', 'Organisation')]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[('choose', 'Perception'), ('identify', 'Perception'), ('trace', 'Guided Response'), ('change', 'Adaptation'), ('organise', 'Mechanism')]</t>
+          <t>[('order', 'Organisation'), ('propose', 'Characterisation'), ('follow', 'Receiving'), ('describe', 'Receiving'), ('change', 'Characterisation')]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Compute the end-to-end delay performance of modern Internet protocols supporting media streaming, and relate this to service requirements for on-demand and communicative multimedia services.</t>
+          <t xml:space="preserve">
+Demonstrate the training and deployment of neural networks using a high level programming language.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Perception</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[('compute', 'Verb not mapped'), ('support', 'Verb not mapped'), ('relate', 'Perception')]</t>
+          <t>[('demonstrate', 'Valuing'), ('use', 'Receiving')]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[('relate', 'Perception'), ('trace', 'Guided Response'), ('differentiate', 'Perception'), ('follow', 'Guided Response'), ('heat', 'Mechanism')]</t>
+          <t>[('construct', 'Organisation'), ('explain', 'Valuing'), ('verify', 'Characterisation'), ('function', 'Characterisation'), ('relay', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">
-As part of a team, research and investigate an area of interest beyond lecture material, involving software simulations and analysis of results.</t>
+Appraise critically the sources of information and contents of scientific publications and choose relevant information.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1627,33 +1667,33 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[('research', 'Verb not mapped'), ('investigate', 'Organisation'), ('involve', 'Verb not mapped')]</t>
+          <t>[('appraise', 'Verb not mapped'), ('choose', 'Receiving')]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[('guide', 'Valuing'), ('relay', 'Responding'), ('consider', 'Organisation'), ('study', 'Valuing'), ('complete', 'Valuing')]</t>
+          <t>[('adopt', 'Valuing'), ('change', 'Characterisation'), ('agree', 'Responding'), ('monitor', 'Valuing'), ('generate', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Describe concepts and fundamentals of deep learning, such as the backpropagation algorithm and adversarial learning.</t>
+Design and develop simple MEMS devices, organic electronic devices (such as Organic Light Emitting Diode) and theoretical models involving multi physics</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1663,33 +1703,33 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving')]</t>
+          <t>[('design', 'Organisation'), ('develop', 'Organisation'), ('involve', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('compare', 'Organisation')]</t>
+          <t>[('guide', 'Valuing'), ('relay', 'Responding'), ('consider', 'Organisation'), ('study', 'Valuing'), ('complete', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Design deep learning solutions to problems in computer vision, natural language processing and signal processing. Examples are image classification, object detection, sequence modelling and filter design.</t>
+Select suitable electronic components and develop simple MEMS or Organic electronic device based systems, evaluate structural and material properties of Micro/Nano devices through simulation studies</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1699,33 +1739,33 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Responding, Valuing</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[('design', 'Organisation')]</t>
+          <t>[('select', 'Receiving'), ('develop', 'Organisation'), ('base', 'Verb not mapped'), ('evaluate', 'Valuing')]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[('order', 'Organisation'), ('propose', 'Characterisation'), ('follow', 'Receiving'), ('describe', 'Receiving'), ('change', 'Characterisation')]</t>
+          <t>[('compare', 'Organisation'), ('respond', 'Responding'), ('prepare', 'Organisation'), ('adopt', 'Valuing'), ('follow', 'Receiving')]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Demonstrate the training and deployment of neural networks using a high level programming language.</t>
+Summarise fundamentals of nanotechnology and propose research opportunities in designing Micro technologies</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1735,29 +1775,33 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Valuing'), ('use', 'Receiving')]</t>
+          <t>[('summarise', 'Verb not mapped'), ('propose', 'Characterisation'), ('design', 'Organisation')]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[('explain', 'Valuing'), ('verify', 'Characterisation'), ('relay', 'Responding'), ('change', 'Characterisation'), ('consider', 'Organisation')]</t>
+          <t>[('order', 'Organisation'), ('propose', 'Characterisation'), ('design', 'Organisation'), ('follow', 'Receiving'), ('describe', 'Receiving')]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Appraise critically the sources of information and contents of scientific publications and choose relevant information.</t>
+Design and implement a system to solve a given complex engineering problem in the field of Intelligent lighting control using the knowledge of SSL.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1767,7 +1811,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1777,23 +1821,23 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[('appraise', 'Verb not mapped'), ('choose', 'Receiving')]</t>
+          <t>[('design', 'Organisation'), ('implement', 'Verb not mapped'), ('solve', 'Characterisation'), ('give', 'Receiving'), ('use', 'Receiving')]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[('adopt', 'Valuing'), ('change', 'Characterisation'), ('agree', 'Responding'), ('monitor', 'Valuing'), ('compare', 'Organisation')]</t>
+          <t>[('construct', 'Organisation'), ('explain', 'Valuing'), ('verify', 'Characterisation'), ('function', 'Characterisation'), ('relay', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Design and develop simple MEMS devices, organic electronic devices (such as Organic Light Emitting Diode) and theoretical models involving multi physics</t>
+Conduct experiments to investigate various relationships in photometry, radiometry, colour quality, the energy consumption of light sources and the implementation of IoT-based lighting control.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1813,23 +1857,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[('design', 'Organisation'), ('develop', 'Verb not mapped'), ('involve', 'Verb not mapped')]</t>
+          <t>[('conduct', 'Verb not mapped'), ('investigate', 'Organisation'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[('guide', 'Valuing'), ('relay', 'Responding'), ('consider', 'Organisation'), ('study', 'Valuing'), ('complete', 'Valuing')]</t>
+          <t>[('change', 'Characterisation'), ('follow', 'Receiving'), ('consider', 'Organisation'), ('generate', 'Organisation'), ('challenge', 'Characterisation')]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Select suitable electronic components and develop simple MEMS or Organic electronic device based systems, evaluate structural and material properties of Micro/Nano devices through simulation studies</t>
+          <t>describe the concepts of EIA, ERA and EMS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1839,7 +1882,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Responding, Valuing</t>
+          <t>Recieving</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1849,23 +1892,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[('select', 'Receiving'), ('develop', 'Verb not mapped'), ('base', 'Verb not mapped'), ('evaluate', 'Valuing')]</t>
+          <t>[('describe', 'Receiving')]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[('compare', 'Organisation'), ('respond', 'Responding'), ('prepare', 'Organisation'), ('adopt', 'Valuing'), ('follow', 'Receiving')]</t>
+          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('characterise', 'Characterisation')]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Summarise fundamentals of nanotechnology and propose research opportunities in designing Micro technologies</t>
+          <t>determine the role of these assessments and management systems in society, especially the relevant environmental legislation, policies, codes of practice and local/international standards</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1875,33 +1917,28 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[('summarise', 'Verb not mapped'), ('propose', 'Characterisation'), ('design', 'Organisation')]</t>
+          <t>[('determine', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[('order', 'Organisation'), ('design', 'Organisation'), ('propose', 'Characterisation'), ('follow', 'Receiving'), ('describe', 'Receiving')]</t>
+          <t>[('lead', 'Organisation'), ('compare', 'Organisation'), ('agree', 'Responding'), ('discuss', 'Responding'), ('organise', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Design and implement a system to solve a given complex engineering problem in the field of Intelligent lighting control using the knowledge of SSL.</t>
+          <t>comprehend the government, industry and community perspectives on engineering projects</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1911,33 +1948,29 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[('design', 'Organisation'), ('implement', 'Verb not mapped'), ('solve', 'Characterisation'), ('give', 'Receiving'), ('use', 'Receiving')]</t>
+          <t>[('comprehend', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[('explain', 'Valuing'), ('verify', 'Characterisation'), ('relay', 'Responding'), ('change', 'Characterisation'), ('consider', 'Organisation')]</t>
+          <t>[('relay', 'Responding'), ('monitor', 'Valuing'), ('generate', 'Organisation'), ('act', 'Characterisation'), ('adopt', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Conduct experiments to investigate various relationships in photometry, radiometry, colour quality, the energy consumption of light sources and the implementation of IoT-based lighting control.</t>
+assess various types of environmental impact assessment, risk evaluation and environmental management system methodologies</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1947,32 +1980,28 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[('conduct', 'Verb not mapped'), ('investigate', 'Organisation'), ('base', 'Verb not mapped')]</t>
+          <t>[('assess', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[('change', 'Characterisation'), ('follow', 'Receiving'), ('consider', 'Organisation'), ('challenge', 'Characterisation'), ('compare', 'Organisation')]</t>
+          <t>[('change', 'Characterisation'), ('compare', 'Organisation'), ('agree', 'Responding'), ('respond', 'Responding'), ('investigate', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>describe the concepts of EIA, ERA and EMS</t>
+          <t>prepare and present a group project based on the knowledge derived in EIA/ERA and EMS.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1982,126 +2011,129 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving')]</t>
+          <t>[('prepare', 'Organisation'), ('present', 'Responding'), ('base', 'Verb not mapped'), ('derive', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('compare', 'Organisation')]</t>
+          <t>[('study', 'Valuing'), ('order', 'Organisation'), ('relay', 'Responding'), ('adopt', 'Valuing'), ('prepare', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>determine the role of these assessments and management systems in society, especially the relevant environmental legislation, policies, codes of practice and local/international standards</t>
+          <t>Apply theoretical engineering knowledge outside of the classroom.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[('determine', 'Verb not mapped')]</t>
+          <t>[('apply', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[('lead', 'Organisation'), ('compare', 'Organisation'), ('agree', 'Responding'), ('discuss', 'Responding'), ('organise', 'Organisation')]</t>
+          <t>[('create', 'Origination'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('describe', 'Perception'), ('respond', 'Guided Response')]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>comprehend the government, industry and community perspectives on engineering projects</t>
+          <t>Demonstrate understanding of engineering practice expectations and observe health and safety rules during professional practice experiences.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>Guided Response</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[('comprehend', 'Verb not mapped')]</t>
+          <t>[('demonstrate', 'Set'), ('observe', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('monitor', 'Valuing'), ('act', 'Characterisation'), ('adopt', 'Valuing'), ('complete', 'Valuing')]</t>
+          <t>[('respond', 'Guided Response'), ('trace', 'Guided Response'), ('perform', 'Complex Overt Response'), ('choose', 'Perception'), ('heat', 'Mechanism')]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-assess various types of environmental impact assessment, risk evaluation and environmental management system methodologies</t>
+          <t>Value engineering ethical principles and responsibilities and satisfy professional standards for assigned engineering tasks.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[('assess', 'Verb not mapped')]</t>
+          <t>[('value', 'Verb not mapped'), ('satisfy', 'Verb not mapped'), ('assign', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[('change', 'Characterisation'), ('compare', 'Organisation'), ('agree', 'Responding'), ('respond', 'Responding'), ('investigate', 'Organisation')]</t>
+          <t>[('prepare', 'Set'), ('trace', 'Guided Response'), ('change', 'Adaptation'), ('heat', 'Mechanism'), ('respond', 'Guided Response')]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Apply theoretical engineering knowledge outside of the classroom.</t>
+          <t>Demonstrate an ability to work independently and to collaborate with colleagues on common tasks effectively.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2111,226 +2143,242 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>Complete Overt Response</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Guided Response</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[('apply', 'Verb not mapped')]</t>
+          <t>[('demonstrate', 'Set'), ('work', 'Guided Response'), ('collaborate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[('create', 'Origination'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('describe', 'Perception'), ('respond', 'Guided Response')]</t>
+          <t>[('respond', 'Guided Response'), ('prepare', 'Set'), ('trace', 'Guided Response'), ('heat', 'Mechanism'), ('operate', 'Complex Overt Response')]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Demonstrate understanding of engineering practice expectations and observe health and safety rules during professional practice experiences.</t>
+          <t>Identify, select and derive fundamental mathematical techniques from linear algebra, multi-variable calculus and ordinary differential equations that are essential to engineering applications.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Guided Response</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>Remembering</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Verb not mapped'), ('observe', 'Verb not mapped')]</t>
+          <t>[('identify', 'Understanding'), ('select', 'Evaluating'), ('derive', 'Applying')]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[('respond', 'Guided Response'), ('trace', 'Guided Response'), ('choose', 'Perception'), ('heat', 'Mechanism'), ('create', 'Origination')]</t>
+          <t>[('study', 'Remembering'), ('sequence', 'Applying'), ('order', 'Remembering'), ('group', 'Analysing'), ('summarise', 'Understanding')]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Value engineering ethical principles and responsibilities and satisfy professional standards for assigned engineering tasks.</t>
+          <t>Apply mathematical techniques to solve engineering problems.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Guided Response</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[('value', 'Verb not mapped'), ('satisfy', 'Verb not mapped'), ('assign', 'Verb not mapped')]</t>
+          <t>[('apply', 'Relational'), ('solve', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('change', 'Adaptation'), ('heat', 'Mechanism'), ('respond', 'Guided Response'), ('choose', 'Perception')]</t>
+          <t>[('describe', 'Multistructural'), ('generate', 'Extended Abstract'), ('compare', 'Relational'), ('transfer', 'Relational'), ('value', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Demonstrate an ability to work independently and to collaborate with colleagues on common tasks effectively.</t>
+          <t>Discuss best practices in the presentation of written mathematical arguments.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Complete Overt Response</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Verb not mapped'), ('work', 'Guided Response'), ('collaborate', 'Verb not mapped')]</t>
+          <t>[('discuss', 'Relational'), ('write', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[('respond', 'Guided Response'), ('trace', 'Guided Response'), ('heat', 'Mechanism'), ('change', 'Adaptation'), ('work', 'Guided Response')]</t>
+          <t>[('generate', 'Extended Abstract'), ('conduct', 'Relational'), ('report', 'Multistructural'), ('reduce', 'Relational'), ('engage', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Identify, select and derive fundamental mathematical techniques from linear algebra, multi-variable calculus and ordinary differential equations that are essential to engineering applications.</t>
+          <t>Engage in team discussion on the application of mathematics.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Remembering</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('select', 'Evaluating'), ('derive', 'Verb not mapped')]</t>
+          <t>[('engage', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[('order', 'Remembering'), ('summarise', 'Understanding'), ('adopt', 'Evaluating'), ('prepare', 'Applying'), ('compute', 'Applying')]</t>
+          <t>[('generate', 'Extended Abstract'), ('value', 'Extended Abstract'), ('choose', 'Unistructural'), ('define', 'Multistructural'), ('satisfy', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Discuss best practices in the presentation of written mathematical arguments.</t>
+          <t>Determine reactions and internal member forces in simple truss and beam systems and carry out limit state design to select appropriately sized members.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[('discuss', 'Relational'), ('write', 'Unistructural')]</t>
+          <t>[('determine', 'Analysing'), ('carry', 'Verb not mapped'), ('select', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('conduct', 'Relational'), ('report', 'Multistructural'), ('reduce', 'Relational'), ('engage', 'Extended Abstract')]</t>
+          <t>[('collect', 'Applying'), ('conclude', 'Creating'), ('derive', 'Applying'), ('validate', 'Evaluating'), ('select', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Engage in team discussion on the application of mathematics.</t>
+          <t>Determine the strength of structural materials to inform engineering designs with considerations to performance, cost, sustainability and societal impact.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Multistructural</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[('engage', 'Extended Abstract')]</t>
+          <t>[('determine', 'Analysing'), ('inform', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('value', 'Extended Abstract'), ('define', 'Multistructural'), ('satisfy', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('lecture', 'Evaluating'), ('discuss', 'Understanding'), ('utilise', 'Applying'), ('assign', 'Applying'), ('validate', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Determine the strength of structural materials to inform engineering designs with considerations to performance, cost, sustainability and societal impact.</t>
+          <t>Determine the steady-state performance of simple systems involving levers, gears, springs and pulleys using appropriate engineering problem-solving methodologies.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2343,95 +2391,99 @@
           <t>Evaluating</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[('determine', 'Verb not mapped'), ('inform', 'Verb not mapped')]</t>
+          <t>[('determine', 'Analysing'), ('involve', 'Verb not mapped'), ('use', 'Applying'), ('solve', 'Applying')]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[('discuss', 'Understanding'), ('perform', 'Creating'), ('prepare', 'Applying'), ('adopt', 'Evaluating'), ('value', 'Evaluating')]</t>
+          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Determine the steady-state performance of simple systems involving levers, gears, springs and pulleys using appropriate engineering problem-solving methodologies.</t>
+          <t>Propose concept designs that solve engineering problems and justify finalised design with considerations of key variables, assumptions and system boundaries.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[('determine', 'Verb not mapped'), ('involve', 'Verb not mapped'), ('use', 'Applying'), ('solve', 'Applying')]</t>
+          <t>[('propose', 'Multistructural'), ('solve', 'Multistructural'), ('justify', 'Extended Abstract'), ('finalise', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[('translate', 'Understanding'), ('structure', 'Analysing'), ('explain', 'Understanding'), ('calculate', 'Applying'), ('list', 'Remembering')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('create', 'Extended Abstract'), ('simulate', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('define', 'Multistructural')]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Propose concept designs that solve engineering problems and justify finalised design with considerations of key variables, assumptions and system boundaries.</t>
+          <t>Identify appropriate engineering tools and techniques to develop, validate and convey designs and solutions.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[('propose', 'Multistructural'), ('solve', 'Verb not mapped'), ('justify', 'Extended Abstract'), ('finalise', 'Verb not mapped')]</t>
+          <t>[('identify', 'Understanding'), ('develop', 'Creating'), ('validate', 'Evaluating'), ('convey', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('create', 'Extended Abstract'), ('simulate', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('define', 'Multistructural')]</t>
+          <t>[('generate', 'Creating'), ('interface', 'Evaluating'), ('validate', 'Evaluating'), ('adopt', 'Evaluating'), ('lecture', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Identify appropriate engineering tools and techniques to develop, validate and convey designs and solutions.</t>
+          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2451,57 +2503,57 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('develop', 'Verb not mapped'), ('validate', 'Verb not mapped'), ('convey', 'Verb not mapped')]</t>
+          <t>[('identify', 'Unistructural'), ('reflect', 'Extended Abstract'), ('contribute', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('value', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('sequence', 'Multistructural'), ('order', 'Unistructural')]</t>
+          <t>[('conduct', 'Relational'), ('reflect', 'Extended Abstract'), ('identify', 'Unistructural'), ('satisfy', 'Relational'), ('determine', 'Multistructural')]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
+          <t>Discern fundamental chemical, materials, mechanical and environmental engineering knowledge, principles and concepts to propose solutions to a humanitarian engineering problem.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('reflect', 'Extended Abstract'), ('contribute', 'Verb not mapped')]</t>
+          <t>[('discern', 'Verb not mapped'), ('propose', 'Creating')]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[('conduct', 'Relational'), ('reflect', 'Extended Abstract'), ('identify', 'Unistructural'), ('satisfy', 'Relational'), ('determine', 'Multistructural')]</t>
+          <t>[('summarise', 'Understanding'), ('improve', 'Evaluating'), ('investigate', 'Analysing'), ('research', 'Analysing'), ('change', 'Applying')]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Discern fundamental chemical, materials, mechanical and environmental engineering knowledge, principles and concepts to propose solutions to a humanitarian engineering problem.</t>
+          <t>Identify design requirements from a provided brief and analyse potential solutions using first principles of mathematics and natural and engineering sciences.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2511,63 +2563,67 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Understanding</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[('discern', 'Verb not mapped'), ('propose', 'Verb not mapped')]</t>
+          <t>[('identify', 'Understanding'), ('provide', 'Applying'), ('analyse', 'Analysing'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[('summarise', 'Understanding'), ('research', 'Analysing'), ('change', 'Applying'), ('apply', 'Applying'), ('calculate', 'Applying')]</t>
+          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Identify design requirements from a provided brief and analyse potential solutions using first principles of mathematics and natural and engineering sciences.</t>
+          <t>Identify societal, health, safety, legal and cultural issues relevant to your project including the Indigenous context, and your consequent responsibilities as an engineer.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Remembering</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('provide', 'Verb not mapped'), ('analyse', 'Relational'), ('use', 'Relational')]</t>
+          <t>[('identify', 'Understanding'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Identify societal, health, safety, legal and cultural issues relevant to your project including the Indigenous context, and your consequent responsibilities as an engineer.</t>
+          <t>Determine appropriate principles of sustainable design and development, including embodied energy, renewable materials, availability, costs, etc, of a proposed solution using a systems approach to design.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2577,32 +2633,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Remembering</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('include', 'Verb not mapped')]</t>
+          <t>[('determine', 'Analysing'), ('include', 'Verb not mapped'), ('embody', 'Verb not mapped'), ('propose', 'Creating'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating'), ('discuss', 'Understanding')]</t>
+          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Determine appropriate principles of sustainable design and development, including embodied energy, renewable materials, availability, costs, etc, of a proposed solution using a systems approach to design.</t>
+          <t>Describe the principles of team norms, collaboration and dynamics, define your professional goals and discern the practices that lead to successful teamwork in a multicultural context.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2612,59 +2668,67 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
+          <t>Remembering</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[('determine', 'Verb not mapped'), ('include', 'Verb not mapped'), ('embody', 'Verb not mapped'), ('propose', 'Verb not mapped'), ('use', 'Applying')]</t>
+          <t>[('describe', 'Understanding'), ('define', 'Remembering'), ('discern', 'Verb not mapped'), ('lead', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[('construct', 'Creating'), ('translate', 'Understanding'), ('structure', 'Analysing'), ('explain', 'Understanding'), ('calculate', 'Applying')]</t>
+          <t>[('assign', 'Applying'), ('compare', 'Understanding'), ('lecture', 'Evaluating'), ('act', 'Applying'), ('value', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Discern the ethical considerations of working with diverse communities and stakeholders, and demonstrate your commitment to the Engineers Australia Code of Ethics and/or the Board of Engineers Malaysia Code of Professional Conduct, and established norms of professional conduct throughout your project.</t>
+          <t>Discuss requirements of a smart system from component to integrated perspective.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Applying</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[('discern', 'Verb not mapped'), ('work', 'Verb not mapped'), ('demonstrate', 'Applying'), ('establish', 'Verb not mapped')]</t>
+          <t>[('discuss', 'Relational'), ('integrate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[('define', 'Remembering'), ('discuss', 'Understanding'), ('produce', 'Creating'), ('generate', 'Creating'), ('prepare', 'Applying')]</t>
+          <t>[('discuss', 'Relational'), ('integrate', 'Extended Abstract'), ('define', 'Multistructural'), ('synthesise', 'Extended Abstract'), ('value', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Describe the principles of team norms, collaboration and dynamics, define your professional goals and discern the practices that lead to successful teamwork in a multicultural context.</t>
+          <t>Define programs using Python, discern problem-solving strategies in decomposing problems using algorithms and describe software engineering processes.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2674,98 +2738,102 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Remembering</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('define', 'Remembering'), ('discern', 'Verb not mapped'), ('lead', 'Verb not mapped')]</t>
+          <t>[('define', 'Remembering'), ('use', 'Applying'), ('discern', 'Verb not mapped'), ('solve', 'Applying'), ('decompose', 'Verb not mapped'), ('use', 'Applying'), ('describe', 'Understanding')]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[('compare', 'Understanding'), ('act', 'Applying'), ('value', 'Evaluating'), ('generate', 'Creating'), ('monitor', 'Evaluating')]</t>
+          <t>[('lecture', 'Evaluating'), ('interface', 'Evaluating'), ('simulate', 'Applying'), ('produce', 'Creating'), ('trace', 'Remembering')]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Discuss requirements of a smart system from component to integrated perspective.</t>
+          <t>Select fundamental circuit analysis techniques to solve problems in circuits that contain common electrical and electronic components.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Multistructural</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[('discuss', 'Relational'), ('integrate', 'Extended Abstract')]</t>
+          <t>[('select', 'Evaluating'), ('solve', 'Applying'), ('contain', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[('discuss', 'Relational'), ('integrate', 'Extended Abstract'), ('define', 'Multistructural'), ('synthesise', 'Extended Abstract'), ('value', 'Extended Abstract')]</t>
+          <t>[('order', 'Remembering'), ('compute', 'Applying'), ('study', 'Remembering'), ('derive', 'Applying'), ('summarise', 'Understanding')]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Select fundamental circuit analysis techniques to solve problems in circuits that contain common electrical and electronic components.</t>
+          <t>Propose a design solution in response to a given scenario through requirements and functional analysis, evaluate that solution from an integrated system perspective.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[('select', 'Evaluating'), ('solve', 'Applying'), ('contain', 'Verb not mapped')]</t>
+          <t>[('propose', 'Multistructural'), ('give', 'Verb not mapped'), ('evaluate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[('order', 'Remembering'), ('compute', 'Applying'), ('summarise', 'Understanding'), ('create', 'Creating'), ('characterise', 'Understanding')]</t>
+          <t>[('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('perform', 'Relational'), ('address', 'Relational'), ('satisfy', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Propose a design solution in response to a given scenario through requirements and functional analysis, evaluate that solution from an integrated system perspective.</t>
+          <t>Identify appropriate engineering tools and techniques to develop and validate a solution.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2775,22 +2843,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[('propose', 'Multistructural'), ('give', 'Verb not mapped'), ('evaluate', 'Extended Abstract')]</t>
+          <t>[('identify', 'Unistructural'), ('develop', 'Extended Abstract'), ('validate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('satisfy', 'Relational'), ('assess', 'Extended Abstract')]</t>
+          <t>[('calculate', 'Relational'), ('generate', 'Extended Abstract'), ('define', 'Multistructural'), ('integrate', 'Extended Abstract'), ('compare', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2928,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[('complete', 'Applying'), ('rate', 'Evaluating'), ('change', 'Applying'), ('compare', 'Understanding'), ('prepare', 'Applying')]</t>
+          <t>[('explore', 'Analysing'), ('complete', 'Applying'), ('rate', 'Evaluating'), ('change', 'Applying'), ('improve', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2953,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2895,7 +2963,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[('construct', 'Creating'), ('translate', 'Understanding'), ('structure', 'Analysing'), ('explain', 'Understanding'), ('calculate', 'Applying')]</t>
+          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
         </is>
       </c>
     </row>
@@ -2918,10 +2986,14 @@
           <t>Relational</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[('develop', 'Verb not mapped'), ('implement', 'Verb not mapped'), ('solve', 'Verb not mapped')]</t>
+          <t>[('develop', 'Extended Abstract'), ('implement', 'Relational'), ('solve', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2932,73 +3004,81 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Translate problem statements into algorithms and implement them in a high level programming language;</t>
+          <t>Determine appropriate basic abstract data types, including; stacks, queues, lists, binary trees, priority queues, heaps and hash tables; for specific contexts;</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Relational</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[('translate', 'Relational'), ('implement', 'Verb not mapped')]</t>
+          <t>[('determine', 'Analysing'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[('function', 'Relational'), ('engage', 'Extended Abstract'), ('report', 'Multistructural'), ('identify', 'Unistructural'), ('review', 'Extended Abstract')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Determine appropriate basic abstract data types, including; stacks, queues, lists, binary trees, priority queues, heaps and hash tables; for specific contexts;</t>
+          <t>Theoretically and experimentally evaluate different implementations of basic abstract data types;</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Extended Abstract</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[('determine', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('evaluate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating'), ('discuss', 'Understanding')]</t>
+          <t>[('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('perform', 'Relational'), ('address', 'Relational'), ('satisfy', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Theoretically and experimentally evaluate different implementations of basic abstract data types;</t>
+          <t>Analyse the efficiency of algorithms by determining their best-case and worst-case big-O time complexity;</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3013,27 +3093,27 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Extended Abstract')]</t>
+          <t>[('analyse', 'Relational'), ('determine', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('satisfy', 'Relational'), ('assess', 'Extended Abstract')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('contrast', 'Relational'), ('define', 'Multistructural'), ('compare', 'Relational'), ('state', 'Unistructural')]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Analyse the efficiency of algorithms by determining their best-case and worst-case big-O time complexity;</t>
+          <t>Work in teams to analyse algorithms and write programs.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3048,62 +3128,62 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[('analyse', 'Relational'), ('determine', 'Multistructural')]</t>
+          <t>[('work', 'Verb not mapped'), ('analyse', 'Relational'), ('write', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('contrast', 'Relational'), ('define', 'Multistructural'), ('compare', 'Relational'), ('sequence', 'Multistructural')]</t>
+          <t>[('generate', 'Extended Abstract'), ('report', 'Multistructural'), ('reduce', 'Relational'), ('engage', 'Extended Abstract'), ('implement', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Work in teams to analyse algorithms and write programs.</t>
+          <t>Iteratively apply object-oriented design principles to design small to medium-size software systems, using standard software engineering notations, namely UML class diagrams and UML interaction diagrams.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[('work', 'Verb not mapped'), ('analyse', 'Relational'), ('write', 'Unistructural')]</t>
+          <t>[('apply', 'Applying'), ('orient', 'Verb not mapped'), ('design', 'Creating'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('report', 'Multistructural'), ('reduce', 'Relational'), ('engage', 'Extended Abstract'), ('design', 'Extended Abstract')]</t>
+          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Iteratively apply object-oriented design principles to design small to medium-size software systems, using standard software engineering notations, namely UML class diagrams and UML interaction diagrams.</t>
+          <t>Describe the quality of object-oriented software designs, both in terms of meeting user requirements and the effective application of object-oriented design concepts and principles.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3113,22 +3193,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Remembering</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[('apply', 'Applying'), ('orient', 'Verb not mapped'), ('design', 'Creating'), ('use', 'Applying')]</t>
+          <t>[('describe', 'Understanding'), ('orient', 'Verb not mapped'), ('meet', 'Remembering'), ('orient', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[('construct', 'Creating'), ('translate', 'Understanding'), ('structure', 'Analysing'), ('explain', 'Understanding'), ('calculate', 'Applying')]</t>
+          <t>[('query', 'Analysing'), ('ensure', 'Analysing'), ('back', 'Applying'), ('produce', 'Creating'), ('generate', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -3186,10 +3266,14 @@
           <t>Multistructural</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[('perform', 'Verb not mapped'), ('use', 'Relational'), ('base', 'Verb not mapped'), ('base', 'Verb not mapped'), ('utilise', 'Verb not mapped'), ('automate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('perform', 'Relational'), ('use', 'Relational'), ('base', 'Verb not mapped'), ('base', 'Verb not mapped'), ('utilise', 'Verb not mapped'), ('automate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3217,15 +3301,19 @@
           <t>Multistructural</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[('perform', 'Verb not mapped'), ('use', 'Relational'), ('trace', 'Verb not mapped')]</t>
+          <t>[('perform', 'Relational'), ('use', 'Relational'), ('trace', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('sequence', 'Multistructural'), ('define', 'Multistructural'), ('transfer', 'Relational'), ('characterise', 'Relational')]</t>
+          <t>[('perform', 'Relational'), ('mitigate', 'Extended Abstract'), ('sequence', 'Multistructural'), ('define', 'Multistructural'), ('transfer', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -3320,7 +3408,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3330,7 +3418,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[('back', 'Applying'), ('perform', 'Creating'), ('compare', 'Understanding'), ('adopt', 'Evaluating'), ('produce', 'Creating')]</t>
+          <t>[('back', 'Applying'), ('trace', 'Remembering'), ('perform', 'Creating'), ('utilise', 'Applying'), ('lecture', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -3353,15 +3441,19 @@
           <t>Relational</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Extended Abstract</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[('take', 'Verb not mapped'), ('develop', 'Verb not mapped'), ('follow', 'Verb not mapped'), ('orient', 'Verb not mapped')]</t>
+          <t>[('take', 'Verb not mapped'), ('develop', 'Extended Abstract'), ('follow', 'Verb not mapped'), ('orient', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[('characterise', 'Relational'), ('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('integrate', 'Extended Abstract'), ('evaluate', 'Extended Abstract')]</t>
+          <t>[('characterise', 'Relational'), ('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('perform', 'Relational'), ('integrate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3488,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('change', 'Adaptation'), ('choose', 'Perception')]</t>
+          <t>[('trace', 'Guided Response'), ('perform', 'Complex Overt Response'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('prepare', 'Set')]</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3523,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[('summarise', 'Relational'), ('order', 'Unistructural'), ('propose', 'Multistructural'), ('design', 'Extended Abstract'), ('apply', 'Relational')]</t>
+          <t>[('summarise', 'Relational'), ('order', 'Unistructural'), ('propose', 'Multistructural'), ('apply', 'Relational'), ('design', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3589,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[('complete', 'Applying'), ('rate', 'Evaluating'), ('change', 'Applying'), ('compare', 'Understanding'), ('prepare', 'Applying')]</t>
+          <t>[('explore', 'Analysing'), ('complete', 'Applying'), ('rate', 'Evaluating'), ('change', 'Applying'), ('improve', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -3532,7 +3624,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[('complete', 'Applying'), ('rate', 'Evaluating'), ('change', 'Applying'), ('compare', 'Understanding'), ('prepare', 'Applying')]</t>
+          <t>[('explore', 'Analysing'), ('complete', 'Applying'), ('rate', 'Evaluating'), ('change', 'Applying'), ('improve', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -3547,23 +3639,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Relational</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[('use', 'Relational'), ('model', 'Verb not mapped')]</t>
+          <t>[('use', 'Applying'), ('model', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[('differentiate', 'Relational'), ('derive', 'Relational'), ('summarise', 'Relational'), ('function', 'Relational'), ('reduce', 'Relational')]</t>
+          <t>[('differentiate', 'Analysing'), ('specify', 'Evaluating'), ('derive', 'Applying'), ('summarise', 'Understanding'), ('example', 'Understanding')]</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3694,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('report', 'Multistructural'), ('formulate', 'Relational'), ('organise', 'Relational')]</t>
+          <t>[('choose', 'Unistructural'), ('generate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('report', 'Multistructural'), ('formulate', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3729,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('contrast', 'Relational'), ('define', 'Multistructural'), ('compare', 'Relational'), ('sequence', 'Multistructural')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('contrast', 'Relational'), ('define', 'Multistructural'), ('compare', 'Relational'), ('state', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -3683,27 +3779,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[('compare', 'Organisation'), ('analyse', 'Verb not mapped'), ('determine', 'Verb not mapped'), ('require', 'Verb not mapped'), ('support', 'Valuing')]</t>
+          <t>[('compare', 'Understanding'), ('analyse', 'Analysing'), ('determine', 'Analysing'), ('require', 'Verb not mapped'), ('support', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[('follow', 'Receiving'), ('support', 'Valuing'), ('agree', 'Responding'), ('perform', 'Characterisation'), ('test', 'Organisation')]</t>
+          <t>[('produce', 'Creating'), ('group', 'Analysing'), ('lecture', 'Evaluating'), ('support', 'Evaluating'), ('perform', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -3761,15 +3857,19 @@
           <t>None</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Extended Abstract</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[('develop', 'Verb not mapped')]</t>
+          <t>[('develop', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[('derive', 'Relational'), ('create', 'Extended Abstract'), ('define', 'Multistructural'), ('generate', 'Extended Abstract'), ('synthesise', 'Extended Abstract')]</t>
+          <t>[('validate', 'Extended Abstract'), ('derive', 'Relational'), ('create', 'Extended Abstract'), ('define', 'Multistructural'), ('generate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -3792,10 +3892,14 @@
           <t>None</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[('implement', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
+          <t>[('implement', 'Relational'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3841,42 +3945,46 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Develop programming structures within a database backend.</t>
+          <t>Design and implement a software system of a quality acceptable to an external client;</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[('develop', 'Verb not mapped')]</t>
+          <t>[('design', 'Creating'), ('implement', 'Applying')]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[('derive', 'Relational'), ('create', 'Extended Abstract'), ('define', 'Multistructural'), ('generate', 'Extended Abstract'), ('synthesise', 'Extended Abstract')]</t>
+          <t>[('design', 'Creating'), ('implement', 'Applying'), ('debug', 'Evaluating'), ('analyse', 'Analysing'), ('improve', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Design and implement a software system of a quality acceptable to an external client;</t>
+          <t>Select and use appropriate tools, techniques and strategies to manage project resources, including time and personnel;</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3886,67 +3994,67 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
           <t>Relational</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Extended Abstract</t>
-        </is>
-      </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[('design', 'Extended Abstract'), ('implement', 'Verb not mapped')]</t>
+          <t>[('select', 'Multistructural'), ('use', 'Relational'), ('manage', 'Relational'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[('function', 'Relational'), ('design', 'Extended Abstract'), ('analyse', 'Relational'), ('construct', 'Relational'), ('use', 'Relational')]</t>
+          <t>[('integrate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('discuss', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Select and use appropriate tools, techniques and strategies to manage project resources, including time and personnel;</t>
+          <t>Identify potential sources of risk, including ethical risk, and devise and adopt appropriate strategies to monitor and mitigate these risks;</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[('select', 'Receiving'), ('use', 'Receiving'), ('manage', 'Organisation'), ('include', 'Verb not mapped')]</t>
+          <t>[('identify', 'Unistructural'), ('include', 'Verb not mapped'), ('devise', 'Verb not mapped'), ('adopt', 'Verb not mapped'), ('monitor', 'Verb not mapped'), ('mitigate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('define', 'Multistructural'), ('satisfy', 'Relational'), ('perform', 'Relational'), ('compare', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Identify potential sources of risk, including ethical risk, and devise and adopt appropriate strategies to monitor and mitigate these risks;</t>
+          <t>Choose and follow a software development methodology that is appropriate to the team, project and client, and justify this methodology;</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3966,22 +4074,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('include', 'Verb not mapped'), ('devise', 'Verb not mapped'), ('adopt', 'Verb not mapped'), ('monitor', 'Verb not mapped'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('choose', 'Unistructural'), ('follow', 'Verb not mapped'), ('justify', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('define', 'Multistructural'), ('satisfy', 'Relational'), ('compare', 'Relational'), ('determine', 'Multistructural')]</t>
+          <t>[('generate', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('report', 'Multistructural'), ('order', 'Unistructural'), ('compare', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Choose and follow a software development methodology that is appropriate to the team, project and client, and justify this methodology;</t>
+          <t>Elicit functional and non-functional requirements, including human aspects requirements, from client representatives and ensure that these are communicated to team members and other stakeholders in an appropriate form</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3994,157 +4102,153 @@
           <t>Relational</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Extended Abstract</t>
-        </is>
-      </c>
+      <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[('choose', 'Verb not mapped'), ('follow', 'Verb not mapped'), ('justify', 'Extended Abstract')]</t>
+          <t>[('include', 'Verb not mapped'), ('ensure', 'Verb not mapped'), ('communicate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('report', 'Multistructural'), ('order', 'Unistructural'), ('compare', 'Relational')]</t>
+          <t>[('evaluate', 'Extended Abstract'), ('characterise', 'Relational'), ('appreciate', 'Relational'), ('assess', 'Extended Abstract'), ('differentiate', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Elicit functional and non-functional requirements, including human aspects requirements, from client representatives and ensure that these are communicated to team members and other stakeholders in an appropriate form</t>
+          <t>Produce internal documentation of a sufficient quality to support project development activities (including specification, analysis, design, testing) and address relevant security and other risks</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Relational</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
+          <t>Creating</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[('include', 'Verb not mapped'), ('ensure', 'Verb not mapped'), ('communicate', 'Verb not mapped')]</t>
+          <t>[('produce', 'Creating'), ('support', 'Evaluating'), ('include', 'Verb not mapped'), ('address', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Extended Abstract'), ('characterise', 'Relational'), ('appreciate', 'Relational'), ('assess', 'Extended Abstract'), ('differentiate', 'Relational')]</t>
+          <t>[('adopt', 'Evaluating'), ('monitor', 'Evaluating'), ('experiment', 'Analysing'), ('group', 'Analysing'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Produce internal documentation of a sufficient quality to support project development activities (including specification, analysis, design, testing) and address relevant security and other risks</t>
+          <t>Communicate effectively with a diverse range of project stakeholders, including clients, end users, and supervisors</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Creating</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[('produce', 'Creating'), ('support', 'Evaluating'), ('include', 'Verb not mapped'), ('address', 'Verb not mapped')]</t>
+          <t>[('communicate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[('adopt', 'Evaluating'), ('monitor', 'Evaluating'), ('devise', 'Evaluating'), ('perform', 'Creating'), ('choose', 'Applying')]</t>
+          <t>[('integrate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('discuss', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Communicate effectively with a diverse range of project stakeholders, including clients, end users, and supervisors</t>
+          <t>Set achievable and measurable goals;</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[('communicate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('set', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[('integrate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('discuss', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('trace', 'Guided Response'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('differentiate', 'Perception'), ('prepare', 'Set')]</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Verify systematically that internal and external project deliverables meet agreed quality standards, such as functionality, security and usability</t>
+          <t>Develop and practice professional skills and attitudes including: initiative, communication, time-management and teamwork skills in a business environment;</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Complete Overt Response</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[('verify', 'Verb not mapped'), ('meet', 'Verb not mapped'), ('agree', 'Verb not mapped')]</t>
+          <t>[('develop', 'Verb not mapped'), ('practice', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[('devise', 'Evaluating'), ('generate', 'Creating'), ('adopt', 'Evaluating'), ('discuss', 'Understanding'), ('rate', 'Evaluating')]</t>
+          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('operate', 'Complex Overt Response')]</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Set achievable and measurable goals;</t>
+          <t>Develop solutions to business problems using information technology and other techniques;</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4154,28 +4258,28 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Adaptation</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[('set', 'Verb not mapped')]</t>
+          <t>[('develop', 'Verb not mapped'), ('use', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('differentiate', 'Perception'), ('state', 'Set')]</t>
+          <t>[('trace', 'Guided Response'), ('construct', 'Mechanism'), ('explain', 'Set'), ('change', 'Adaptation'), ('describe', 'Perception')]</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Develop and practice professional skills and attitudes including: initiative, communication, time-management and teamwork skills in a business environment;</t>
+          <t>Prepare documentation and written reports of a professional standard;</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4185,28 +4289,32 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Complete Overt Response</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
+          <t>Guided Response</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[('develop', 'Verb not mapped'), ('practice', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('prepare', 'Set'), ('write', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('organise', 'Mechanism')]</t>
+          <t>[('prepare', 'Set'), ('operate', 'Complex Overt Response'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('trace', 'Guided Response')]</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Develop solutions to business problems using information technology and other techniques;</t>
+          <t>Address performance improvement opportunities identified by industry supervisors and self-assess opportunities for personal development;</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4216,28 +4324,32 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Adaptation</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
+          <t>Guided Response</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Perception</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[('develop', 'Verb not mapped'), ('use', 'Verb not mapped')]</t>
+          <t>[('address', 'Verb not mapped'), ('identify', 'Perception'), ('assess', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('construct', 'Mechanism'), ('explain', 'Set'), ('change', 'Adaptation'), ('describe', 'Perception')]</t>
+          <t>[('change', 'Adaptation'), ('respond', 'Guided Response'), ('identify', 'Perception'), ('perform', 'Complex Overt Response'), ('state', 'Set')]</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Prepare documentation and written reports of a professional standard;</t>
+          <t>Develop information technology skills (such as business process modelling, performance enhancement of installed software, updating current software and developing new software) in a complex, corporate business environment;</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4247,28 +4359,28 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Complete Overt Response</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[('prepare', 'Verb not mapped'), ('write', 'Verb not mapped')]</t>
+          <t>[('develop', 'Verb not mapped'), ('instal', 'Verb not mapped'), ('update', 'Verb not mapped'), ('develop', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[('respond', 'Guided Response'), ('change', 'Adaptation'), ('trace', 'Guided Response'), ('differentiate', 'Perception'), ('relate', 'Perception')]</t>
+          <t>[('trace', 'Guided Response'), ('change', 'Adaptation'), ('create', 'Origination'), ('operate', 'Complex Overt Response'), ('perform', 'Complex Overt Response')]</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Address performance improvement opportunities identified by industry supervisors and self-assess opportunities for personal development;</t>
+          <t>Apply engineering synthesis and design processes in a business and information technology environment;</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4278,32 +4390,28 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Guided Response</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Perception</t>
-        </is>
-      </c>
+          <t>Originiation</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[('address', 'Verb not mapped'), ('identify', 'Perception'), ('assess', 'Verb not mapped')]</t>
+          <t>[('apply', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[('change', 'Adaptation'), ('respond', 'Guided Response'), ('identify', 'Perception'), ('state', 'Set'), ('choose', 'Perception')]</t>
+          <t>[('create', 'Origination'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('describe', 'Perception'), ('respond', 'Guided Response')]</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Develop information technology skills (such as business process modelling, performance enhancement of installed software, updating current software and developing new software) in a complex, corporate business environment;</t>
+          <t>Evaluate and critique the engineering approaches undertaken during the conduct and management of the projects.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4313,90 +4421,98 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Complete Overt Response</t>
+          <t>Adaptation</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[('develop', 'Verb not mapped'), ('instal', 'Verb not mapped'), ('update', 'Verb not mapped'), ('develop', 'Verb not mapped')]</t>
+          <t>[('evaluate', 'Verb not mapped'), ('critique', 'Verb not mapped'), ('undertake', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('change', 'Adaptation'), ('create', 'Origination'), ('follow', 'Guided Response'), ('select', 'Perception')]</t>
+          <t>[('prepare', 'Set'), ('trace', 'Guided Response'), ('heat', 'Mechanism'), ('state', 'Set'), ('respond', 'Guided Response')]</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Apply engineering synthesis and design processes in a business and information technology environment;</t>
+          <t>Analyse critically and apply the ISO reference and Internet models;</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Originiation</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[('apply', 'Verb not mapped')]</t>
+          <t>[('analyse', 'Analysing'), ('apply', 'Applying')]</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[('create', 'Origination'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('describe', 'Perception'), ('respond', 'Guided Response')]</t>
+          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('derive', 'Applying'), ('query', 'Analysing'), ('order', 'Remembering')]</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Evaluate and critique the engineering approaches undertaken during the conduct and management of the projects.</t>
+          <t>Analyse critically and implement the fundamentals and technologies of the network layer, including packet-switching and queueing concepts;</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Adaptation</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Verb not mapped'), ('critique', 'Verb not mapped'), ('undertake', 'Verb not mapped')]</t>
+          <t>[('analyse', 'Analysing'), ('implement', 'Applying'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('heat', 'Mechanism'), ('state', 'Set'), ('respond', 'Guided Response'), ('choose', 'Perception')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Analyse critically and apply the ISO reference and Internet models;</t>
+          <t>Analyse critically and implement designs based on the functions and architectures of cabled and wireless LAN and WAN, including ALOHA and CSMA/CD/CA models;</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4416,53 +4532,57 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('apply', 'Applying')]</t>
+          <t>[('analyse', 'Analysing'), ('implement', 'Applying'), ('base', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('order', 'Remembering'), ('compute', 'Applying'), ('conclude', 'Creating')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Implement programs using internet working concepts, IP addressing, IPC and socket-level interface;</t>
+          <t>Implement and evaluate system level designs based on LAN architecture for organisational requirements.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Relational</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[('implement', 'Verb not mapped'), ('use', 'Relational'), ('work', 'Verb not mapped')]</t>
+          <t>[('implement', 'Applying'), ('evaluate', 'Evaluating'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[('satisfy', 'Relational'), ('engage', 'Extended Abstract'), ('define', 'Multistructural'), ('generate', 'Extended Abstract'), ('discern', 'Multistructural')]</t>
+          <t>[('experiment', 'Analysing'), ('compare', 'Understanding'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Analyse critically and implement the fundamentals and technologies of the network layer, including packet-switching and queueing concepts;</t>
+          <t>Research relevant and reliable literature to evaluate the state of the field.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4472,67 +4592,67 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
           <t>Analysing</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Applying</t>
-        </is>
-      </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('implement', 'Applying'), ('include', 'Verb not mapped')]</t>
+          <t>[('research', 'Analysing'), ('evaluate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating'), ('discuss', 'Understanding')]</t>
+          <t>[('experiment', 'Analysing'), ('compare', 'Understanding'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Analyse critically and implement designs based on the functions and architectures of cabled and wireless LAN and WAN, including ALOHA and CSMA/CD/CA models;</t>
+          <t>Analyse a problem and evaluate the potential of a solution or experiment.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t xml:space="preserve">Extended abstract </t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('implement', 'Applying'), ('base', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('analyse', 'Relational'), ('evaluate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating'), ('discuss', 'Understanding')]</t>
+          <t>[('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('perform', 'Relational'), ('address', 'Relational'), ('satisfy', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Implement and evaluate system level designs based on LAN architecture for organisational requirements.</t>
+          <t>Appraise a complex engineering problem and investigate it using appropriate research methods and techniques.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4542,7 +4662,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t xml:space="preserve">Extended abstract </t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4552,92 +4672,92 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[('implement', 'Verb not mapped'), ('evaluate', 'Extended Abstract'), ('base', 'Verb not mapped')]</t>
+          <t>[('appraise', 'Extended Abstract'), ('investigate', 'Verb not mapped'), ('use', 'Relational')]</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('satisfy', 'Relational'), ('assess', 'Extended Abstract')]</t>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Research relevant and reliable literature to evaluate the state of the field.</t>
+          <t>Integrate foundational and discipline-specific knowledge to solve complex open-ended problems.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Extended abstract</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[('research', 'Analysing'), ('evaluate', 'Evaluating')]</t>
+          <t>[('integrate', 'Extended Abstract'), ('solve', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[('compare', 'Understanding'), ('back', 'Applying'), ('prepare', 'Applying'), ('adopt', 'Evaluating'), ('change', 'Applying')]</t>
+          <t>[('discuss', 'Relational'), ('define', 'Multistructural'), ('value', 'Extended Abstract'), ('satisfy', 'Relational'), ('sequence', 'Multistructural')]</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Analyse a problem and evaluate the potential of a solution or experiment.</t>
+          <t>Plan the scope and requirements of a research project or experiment, responding to changing requirements and potential interdisciplinary inputs.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Extended abstract </t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[('analyse', 'Relational'), ('evaluate', 'Extended Abstract')]</t>
+          <t>[('plan', 'Creating'), ('respond', 'Understanding'), ('change', 'Applying')]</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('satisfy', 'Relational'), ('assess', 'Extended Abstract')]</t>
+          <t>[('experiment', 'Analysing'), ('improve', 'Evaluating'), ('interface', 'Evaluating'), ('generate', 'Creating'), ('lecture', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Appraise a complex engineering problem and investigate it using appropriate research methods and techniques.</t>
+          <t>Generate research and technical outputs by applying appropriate techniques, resources and modern engineering tools to a complex open-ended engineering problem.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4647,133 +4767,137 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Extended abstract </t>
+          <t>Extended abstract</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[('appraise', 'Extended Abstract'), ('investigate', 'Verb not mapped'), ('use', 'Relational')]</t>
+          <t>[('generate', 'Extended Abstract'), ('apply', 'Relational')]</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
+          <t>[('create', 'Extended Abstract'), ('summarise', 'Relational'), ('derive', 'Relational'), ('order', 'Unistructural'), ('compute', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Integrate foundational and discipline-specific knowledge to solve complex open-ended problems.</t>
+          <t>Demonstrate consideration of the ethics and norms which guide engineering practice, including professionalism, innovation and creativity.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[('integrate', 'Extended Abstract'), ('solve', 'Verb not mapped')]</t>
+          <t>[('demonstrate', 'Valuing'), ('guide', 'Valuing'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[('discuss', 'Relational'), ('define', 'Multistructural'), ('value', 'Extended Abstract'), ('satisfy', 'Relational'), ('sequence', 'Multistructural')]</t>
+          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Plan the scope and requirements of a research project or experiment, responding to changing requirements and potential interdisciplinary inputs.</t>
+          <t>Assess the social, health, safety, legal, cultural, commercial and political impacts of the identified project, as appropriate.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Extended abstract</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[('plan', 'Organisation'), ('respond', 'Responding'), ('change', 'Characterisation')]</t>
+          <t>[('assess', 'Extended Abstract'), ('identify', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[('change', 'Characterisation'), ('respond', 'Responding'), ('order', 'Organisation'), ('compare', 'Organisation'), ('prepare', 'Organisation')]</t>
+          <t>[('identify', 'Unistructural'), ('assess', 'Extended Abstract'), ('address', 'Relational'), ('review', 'Extended Abstract'), ('define', 'Multistructural')]</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Generate research and technical outputs by applying appropriate techniques, resources and modern engineering tools to a complex open-ended engineering problem.</t>
+          <t>Synthesise the progress and outputs of your project through professional engineering reports and presentations to a range of audiences including the community and industry.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('apply', 'Relational')]</t>
+          <t>[('synthesise', 'Organisation'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[('create', 'Extended Abstract'), ('summarise', 'Relational'), ('derive', 'Relational'), ('order', 'Unistructural'), ('compute', 'Relational')]</t>
+          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Demonstrate consideration of the ethics and norms which guide engineering practice, including professionalism, innovation and creativity.</t>
+          <t>Engage with project collaborators to achieve research outcomes using effective self and/or team management, review and improvement practices. (Applicable to the Clayton-based course)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4786,60 +4910,64 @@
           <t>Extended abstract</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Extended Abstract'), ('guide', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('engage', 'Extended Abstract'), ('achieve', 'Verb not mapped'), ('use', 'Relational'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[('integrate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('discuss', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Assess the social, health, safety, legal, cultural, commercial and political impacts of the identified project, as appropriate.</t>
+          <t>Describe the purpose of enterprise architectures and the underlying principles of their design;</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[('assess', 'Extended Abstract'), ('identify', 'Unistructural')]</t>
+          <t>[('describe', 'Receiving'), ('underlie', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('assess', 'Extended Abstract'), ('address', 'Relational'), ('review', 'Extended Abstract'), ('define', 'Multistructural')]</t>
+          <t>[('delay', 'Valuing'), ('establish', 'Organisation'), ('guide', 'Valuing'), ('follow', 'Receiving'), ('relay', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Synthesise the progress and outputs of your project through professional engineering reports and presentations to a range of audiences including the community and industry.</t>
+          <t>Describe into the need for sound data, information and technology governance strategies;</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4849,134 +4977,138 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Recieving</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[('synthesise', 'Organisation'), ('include', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving')]</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
+          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('characterise', 'Characterisation')]</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Engage with project collaborators to achieve research outcomes using effective self and/or team management, review and improvement practices. (Applicable to the Clayton-based course)</t>
+          <t xml:space="preserve">
+Explain the alignment of an organisation's IT strategy, platforms and systems with the overall organisational strategy and management functions</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
+          <t>Valuing, organisation</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[('engage', 'Extended Abstract'), ('achieve', 'Verb not mapped'), ('use', 'Relational'), ('base', 'Verb not mapped')]</t>
+          <t>[('explain', 'Valuing')]</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
+          <t>[('describe', 'Receiving'), ('characterise', 'Characterisation'), ('relay', 'Responding'), ('allow', 'Responding'), ('compare', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Describe the purpose of enterprise architectures and the underlying principles of their design;</t>
+          <t>identify and explain big data concepts and technologies;</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('underlie', 'Verb not mapped')]</t>
+          <t>[('identify', 'Unistructural'), ('explain', 'Relational')]</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[('delay', 'Valuing'), ('establish', 'Organisation'), ('guide', 'Valuing'), ('follow', 'Receiving'), ('relay', 'Responding')]</t>
+          <t>[('describe', 'Multistructural'), ('discern', 'Multistructural'), ('characterise', 'Relational'), ('simulate', 'Extended Abstract'), ('conduct', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Describe into the need for sound data, information and technology governance strategies;</t>
+          <t>write and interpret parallel database processing algorithms and methods;</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving')]</t>
+          <t>[('write', 'Unistructural'), ('interpret', 'Relational')]</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('compare', 'Organisation')]</t>
+          <t>[('summarise', 'Relational'), ('derive', 'Relational'), ('order', 'Unistructural'), ('compute', 'Relational'), ('conclude', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Explain the alignment of an organisation's IT strategy, platforms and systems with the overall organisational strategy and management functions</t>
+          <t>use big data streaming technologies.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4986,134 +5118,141 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Valuing, organisation</t>
+          <t>Recieving</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>[('explain', 'Valuing')]</t>
+          <t>[('use', 'Receiving'), ('stream', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('relay', 'Responding'), ('allow', 'Responding'), ('compare', 'Organisation'), ('object', 'Characterisation')]</t>
+          <t>[('construct', 'Organisation'), ('explain', 'Valuing'), ('verify', 'Characterisation'), ('function', 'Characterisation'), ('relay', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>identify and explain big data concepts and technologies;</t>
+          <t xml:space="preserve">
+Describe the steps involved in various manufacturing processes for production at scale, including their strengths and limitations.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('explain', 'Relational')]</t>
+          <t>[('describe', 'Receiving'), ('involve', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[('describe', 'Multistructural'), ('discern', 'Multistructural'), ('characterise', 'Relational'), ('simulate', 'Extended Abstract'), ('conduct', 'Relational')]</t>
+          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>write and interpret parallel database processing algorithms and methods;</t>
+          <t xml:space="preserve">
+Select appropriate part manufacturing processes while balancing functional requirements, performance, cost and sustainability.</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>[('write', 'Unistructural'), ('interpret', 'Relational')]</t>
+          <t>[('select', 'Receiving'), ('balance', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[('summarise', 'Relational'), ('derive', 'Relational'), ('order', 'Unistructural'), ('compute', 'Relational'), ('conclude', 'Relational')]</t>
+          <t>[('discuss', 'Responding'), ('agree', 'Responding'), ('choose', 'Receiving'), ('prepare', 'Organisation'), ('generate', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>use big data streaming technologies.</t>
+          <t xml:space="preserve">
+Identify and carry out the necessary steps to conduct a small-scale production run and then reflect on the outcomes.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Relational</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr"/>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[('use', 'Relational'), ('stream', 'Verb not mapped')]</t>
+          <t>[('identify', 'Receiving'), ('carry', 'Verb not mapped'), ('conduct', 'Verb not mapped'), ('reflect', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
+          <t>[('propose', 'Characterisation'), ('contribute', 'Valuing'), ('explain', 'Valuing'), ('design', 'Organisation'), ('construct', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Describe the steps involved in various manufacturing processes for production at scale, including their strengths and limitations.</t>
+Relate the capabilities and limitations of established NDT techniques to their respective basic working principles.</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5123,33 +5262,33 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('involve', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('relate', 'Organisation'), ('establish', 'Organisation')]</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
+          <t>[('guide', 'Valuing'), ('discuss', 'Responding'), ('collaborate', 'Organisation'), ('generate', 'Organisation'), ('delay', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Select appropriate part manufacturing processes while balancing functional requirements, performance, cost and sustainability.</t>
+Evaluate the various NDT methods for flaw detection and damage assessment and be able to identify the appropriate technique for a given scenario.</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5159,7 +5298,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Valuing, Responding</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5169,23 +5308,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>[('select', 'Receiving'), ('balance', 'Verb not mapped')]</t>
+          <t>[('evaluate', 'Valuing'), ('identify', 'Receiving'), ('give', 'Receiving')]</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[('discuss', 'Responding'), ('agree', 'Responding'), ('choose', 'Receiving'), ('prepare', 'Organisation'), ('delay', 'Valuing')]</t>
+          <t>[('allow', 'Responding'), ('follow', 'Receiving'), ('respond', 'Responding'), ('change', 'Characterisation'), ('select', 'Receiving')]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Identify and carry out the necessary steps to conduct a small-scale production run and then reflect on the outcomes.</t>
+          <t>Reflect on teamwork, project management, leadership and conflict resolution in the context of group projects and activities.</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5195,260 +5333,90 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[('identify', 'Receiving'), ('carry', 'Verb not mapped'), ('conduct', 'Verb not mapped'), ('reflect', 'Verb not mapped')]</t>
+          <t>[('reflect', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[('propose', 'Characterisation'), ('contribute', 'Valuing'), ('explain', 'Valuing'), ('design', 'Organisation'), ('observe', 'Receiving')]</t>
+          <t>[('contribute', 'Valuing'), ('lead', 'Organisation'), ('identify', 'Receiving'), ('relay', 'Responding'), ('discuss', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Relate the capabilities and limitations of established NDT techniques to their respective basic working principles.</t>
+Design, construct and debug a small microprocessor system that is capable of interfacing to a series of different inputs and outputs.</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Mechanism</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[('relate', 'Organisation'), ('establish', 'Organisation')]</t>
+          <t>[('design', 'Origination'), ('construct', 'Mechanism'), ('debug', 'Verb not mapped'), ('interface', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[('guide', 'Valuing'), ('discuss', 'Responding'), ('collaborate', 'Organisation'), ('delay', 'Valuing'), ('prepare', 'Organisation')]</t>
+          <t>[('change', 'Adaptation'), ('respond', 'Guided Response'), ('trace', 'Guided Response'), ('perform', 'Complex Overt Response'), ('formulate', 'Origination')]</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Evaluate the various NDT methods for flaw detection and damage assessment and be able to identify the appropriate technique for a given scenario.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Valuing, Responding</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>[('evaluate', 'Valuing'), ('identify', 'Receiving'), ('give', 'Receiving')]</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>[('allow', 'Responding'), ('follow', 'Receiving'), ('respond', 'Responding'), ('change', 'Characterisation'), ('select', 'Receiving')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Communicate the result and analysis both in oral and written form.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>[('communicate', 'Responding')]</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>[('justify', 'Valuing'), ('work', 'Valuing'), ('collaborate', 'Organisation'), ('demonstrate', 'Valuing'), ('report', 'Valuing')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Reflect on teamwork, project management, leadership and conflict resolution in the context of group projects and activities.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>[('reflect', 'Verb not mapped')]</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>[('contribute', 'Valuing'), ('lead', 'Organisation'), ('identify', 'Receiving'), ('relay', 'Responding'), ('discuss', 'Responding')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Demonstrate an understanding of smart manufacturing through project development.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>[('demonstrate', 'Valuing')]</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>[('collaborate', 'Organisation'), ('work', 'Valuing'), ('act', 'Characterisation'), ('monitor', 'Valuing'), ('adopt', 'Valuing')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Design, construct and debug a small microprocessor system that is capable of interfacing to a series of different inputs and outputs.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Psychomotor</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Origination</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Mechanism</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>[('design', 'Origination'), ('construct', 'Mechanism'), ('debug', 'Verb not mapped'), ('interface', 'Verb not mapped')]</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>[('change', 'Adaptation'), ('respond', 'Guided Response'), ('trace', 'Guided Response'), ('describe', 'Perception'), ('heat', 'Mechanism')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B149" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Construct appropriate software and test processes to produce industry-ready products.</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>Psychomotor</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>Guided Response</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>Mechanism</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>[('construct', 'Mechanism'), ('produce', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>[('follow', 'Guided Response'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('trace', 'Guided Response'), ('choose', 'Perception')]</t>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>[('prepare', 'Set'), ('follow', 'Guided Response'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('perform', 'Complex Overt Response')]</t>
         </is>
       </c>
     </row>

--- a/outputs/failed_lo_mappings.xlsx
+++ b/outputs/failed_lo_mappings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1029,12 +1029,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Adaptation</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1045,17 +1045,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('design', 'Origination')]</t>
+          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Identify the elements of the project life cycle, including plan, control, and organise and allocate resources.</t>
+          <t>Apply project evaluation techniques including the triple bottom line against the overall business model.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1065,67 +1065,63 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Complex Overt Response</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Mechanism</t>
-        </is>
-      </c>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[('identify', 'Perception'), ('include', 'Verb not mapped'), ('plan', 'Verb not mapped'), ('control', 'Verb not mapped'), ('organise', 'Mechanism'), ('allocate', 'Verb not mapped')]</t>
+          <t>[('apply', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[('organise', 'Mechanism'), ('respond', 'Guided Response'), ('operate', 'Complex Overt Response'), ('trace', 'Guided Response'), ('heat', 'Mechanism')]</t>
+          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('design', 'Origination')]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Evaluate and apply the basic tools and techniques to plan, organise and manage a project.</t>
+          <t>Identify the elements of the project life cycle, including plan, control, and organise and allocate resources.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Complex Overt Response</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Mechanism</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Valuing'), ('apply', 'Verb not mapped'), ('plan', 'Organisation'), ('organise', 'Organisation'), ('manage', 'Organisation')]</t>
+          <t>[('identify', 'Perception'), ('include', 'Verb not mapped'), ('plan', 'Verb not mapped'), ('control', 'Verb not mapped'), ('organise', 'Mechanism'), ('allocate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[('organise', 'Organisation'), ('manage', 'Organisation'), ('plan', 'Organisation'), ('respond', 'Responding'), ('query', 'Valuing')]</t>
+          <t>[('organise', 'Mechanism'), ('respond', 'Guided Response'), ('operate', 'Complex Overt Response'), ('trace', 'Guided Response'), ('heat', 'Mechanism')]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Identify strategic constraints in managing the scope, time, cost and quality components.</t>
+          <t>Evaluate and apply the basic tools and techniques to plan, organise and manage a project.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1135,810 +1131,814 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[('identify', 'Receiving'), ('manage', 'Organisation')]</t>
+          <t>[('evaluate', 'Valuing'), ('apply', 'Verb not mapped'), ('plan', 'Organisation'), ('organise', 'Organisation'), ('manage', 'Organisation')]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[('organise', 'Organisation'), ('plan', 'Organisation'), ('respond', 'Responding'), ('query', 'Valuing'), ('agree', 'Responding')]</t>
+          <t>[('organise', 'Organisation'), ('manage', 'Organisation'), ('plan', 'Organisation'), ('respond', 'Responding'), ('query', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Discuss professional responsibility, occupational health and safety and ethical conduct.</t>
+          <t>Identify strategic constraints in managing the scope, time, cost and quality components.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Perception</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>Recieving</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[('discuss', 'Verb not mapped')]</t>
+          <t>[('identify', 'Receiving'), ('manage', 'Organisation')]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[('perform', 'Complex Overt Response'), ('respond', 'Guided Response'), ('trace', 'Guided Response'), ('formulate', 'Origination'), ('prepare', 'Set')]</t>
+          <t>[('organise', 'Organisation'), ('plan', 'Organisation'), ('respond', 'Responding'), ('query', 'Valuing'), ('agree', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
+        <is>
+          <t>Discuss professional responsibility, occupational health and safety and ethical conduct.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[('discuss', 'Responding')]</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>[('agree', 'Responding'), ('guide', 'Valuing'), ('establish', 'Organisation'), ('integrate', 'Organisation'), ('relay', 'Responding')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Discuss professional responsibility, occupational health and safety and ethical conduct.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Perception</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[('discuss', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[('perform', 'Complex Overt Response'), ('respond', 'Guided Response'), ('trace', 'Guided Response'), ('formulate', 'Origination'), ('prepare', 'Set')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Describe the operation of computer arithmetic, assemblers and compilers, a RISC processor datapath and solve related problems.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Responding</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>[('describe', 'Receiving'), ('solve', 'Characterisation')]</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('generate', 'Organisation'), ('compare', 'Organisation')]</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B24" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Solve real-world engineering problems by designing ladder logic diagrams for programmable logic controllers (PLC) using components such as normally open contacts, normally closed contacts, relays, timers and counters.</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Characterisation, Organization</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>[('solve', 'Characterisation'), ('design', 'Organisation'), ('use', 'Receiving')]</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[('construct', 'Organisation'), ('explain', 'Valuing'), ('verify', 'Characterisation'), ('function', 'Characterisation'), ('relay', 'Responding')]</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Simulate cameras using projective and multi-view geometry to design model-based vision systems and algorithms that extract 3D and rotational information from images, alongside methods for image registration and stitching.</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>[('simulate', 'Verb not mapped'), ('use', 'Receiving'), ('design', 'Organisation'), ('base', 'Verb not mapped'), ('extract', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[('object', 'Characterisation'), ('relay', 'Responding'), ('consider', 'Organisation'), ('adopt', 'Valuing'), ('act', 'Characterisation')]</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B26" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Design ethical machine learning solutions to problems in computer vision, such as image classification, 3D reconstruction and pose estimation, object detection and semantic segmentation, by critically appraising information and publications.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>[('design', 'Organisation'), ('appraise', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[('choose', 'Receiving'), ('change', 'Characterisation'), ('investigate', 'Organisation'), ('object', 'Characterisation'), ('verify', 'Characterisation')]</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Demonstrate the development, training and deployment of computer vision algorithms using a high-level programming language.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Responding</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>[('demonstrate', 'Valuing'), ('use', 'Receiving')]</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[('construct', 'Organisation'), ('explain', 'Valuing'), ('verify', 'Characterisation'), ('function', 'Characterisation'), ('relay', 'Responding')]</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B28" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Identify the limits of human visual and aural perception, and how they can be exploited for bit rate reduction.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Responding</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>[('identify', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[('relay', 'Responding'), ('discuss', 'Responding'), ('agree', 'Responding'), ('monitor', 'Valuing'), ('guide', 'Valuing')]</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B29" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Describe the structure of modern multimedia compression systems, and how they exploit the characteristics of both the media itself and human consumers of the media.</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Responding</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>[('describe', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[('relay', 'Responding'), ('discuss', 'Responding'), ('agree', 'Responding'), ('monitor', 'Valuing'), ('guide', 'Valuing')]</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B30" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Explain how media can be characterised and described, including methods that allow similarities to be automatically identified (e.g. music matching services).</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Psychomotor</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Set</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Perception</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>[('explain', 'Set'), ('characterise', 'Verb not mapped'), ('describe', 'Perception'), ('include', 'Verb not mapped'), ('allow', 'Verb not mapped'), ('identify', 'Perception')]</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[('perform', 'Complex Overt Response'), ('choose', 'Perception'), ('identify', 'Perception'), ('trace', 'Guided Response'), ('change', 'Adaptation')]</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B31" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Compute the end-to-end delay performance of modern Internet protocols supporting media streaming, and relate this to service requirements for on-demand and communicative multimedia services.</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Valuing</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>[('compute', 'Verb not mapped'), ('support', 'Valuing'), ('relate', 'Organisation')]</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[('establish', 'Organisation'), ('allow', 'Responding'), ('perform', 'Characterisation'), ('support', 'Valuing'), ('relate', 'Organisation')]</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B32" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">
 As part of a team, research and investigate an area of interest beyond lecture material, involving software simulations and analysis of results.</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>[('research', 'Verb not mapped'), ('investigate', 'Organisation'), ('involve', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[('guide', 'Valuing'), ('relay', 'Responding'), ('consider', 'Organisation'), ('study', 'Valuing'), ('complete', 'Valuing')]</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B33" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Describe concepts and fundamentals of deep learning, such as the backpropagation algorithm and adversarial learning.</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Responding</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>[('describe', 'Receiving')]</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('characterise', 'Characterisation')]</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B34" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Design deep learning solutions to problems in computer vision, natural language processing and signal processing. Examples are image classification, object detection, sequence modelling and filter design.</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>[('design', 'Organisation')]</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[('order', 'Organisation'), ('propose', 'Characterisation'), ('follow', 'Receiving'), ('describe', 'Receiving'), ('change', 'Characterisation')]</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B35" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Demonstrate the training and deployment of neural networks using a high level programming language.</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Responding</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>[('demonstrate', 'Valuing'), ('use', 'Receiving')]</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[('construct', 'Organisation'), ('explain', 'Valuing'), ('verify', 'Characterisation'), ('function', 'Characterisation'), ('relay', 'Responding')]</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Appraise critically the sources of information and contents of scientific publications and choose relevant information.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Responding</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>[('appraise', 'Verb not mapped'), ('choose', 'Receiving')]</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[('adopt', 'Valuing'), ('change', 'Characterisation'), ('agree', 'Responding'), ('monitor', 'Valuing'), ('generate', 'Organisation')]</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B37" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Design and develop simple MEMS devices, organic electronic devices (such as Organic Light Emitting Diode) and theoretical models involving multi physics</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>[('design', 'Organisation'), ('develop', 'Organisation'), ('involve', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[('guide', 'Valuing'), ('relay', 'Responding'), ('consider', 'Organisation'), ('study', 'Valuing'), ('complete', 'Valuing')]</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B38" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Select suitable electronic components and develop simple MEMS or Organic electronic device based systems, evaluate structural and material properties of Micro/Nano devices through simulation studies</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Responding, Valuing</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>[('select', 'Receiving'), ('develop', 'Organisation'), ('base', 'Verb not mapped'), ('evaluate', 'Valuing')]</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[('compare', 'Organisation'), ('respond', 'Responding'), ('prepare', 'Organisation'), ('adopt', 'Valuing'), ('follow', 'Receiving')]</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B39" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Summarise fundamentals of nanotechnology and propose research opportunities in designing Micro technologies</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Valuing</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>[('summarise', 'Verb not mapped'), ('propose', 'Characterisation'), ('design', 'Organisation')]</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[('order', 'Organisation'), ('propose', 'Characterisation'), ('design', 'Organisation'), ('follow', 'Receiving'), ('describe', 'Receiving')]</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B40" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Design and implement a system to solve a given complex engineering problem in the field of Intelligent lighting control using the knowledge of SSL.</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>[('design', 'Organisation'), ('implement', 'Verb not mapped'), ('solve', 'Characterisation'), ('give', 'Receiving'), ('use', 'Receiving')]</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[('construct', 'Organisation'), ('explain', 'Valuing'), ('verify', 'Characterisation'), ('function', 'Characterisation'), ('relay', 'Responding')]</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B41" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Conduct experiments to investigate various relationships in photometry, radiometry, colour quality, the energy consumption of light sources and the implementation of IoT-based lighting control.</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>[('conduct', 'Verb not mapped'), ('investigate', 'Organisation'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[('change', 'Characterisation'), ('follow', 'Receiving'), ('consider', 'Organisation'), ('generate', 'Organisation'), ('challenge', 'Characterisation')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>describe the concepts of EIA, ERA and EMS</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Recieving</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>[('describe', 'Receiving')]</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('characterise', 'Characterisation')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>determine the role of these assessments and management systems in society, especially the relevant environmental legislation, policies, codes of practice and local/international standards</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>[('determine', 'Verb not mapped')]</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>[('lead', 'Organisation'), ('compare', 'Organisation'), ('agree', 'Responding'), ('discuss', 'Responding'), ('organise', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>comprehend the government, industry and community perspectives on engineering projects</t>
+          <t>describe the concepts of EIA, ERA and EMS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1948,161 +1948,161 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>Recieving</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[('comprehend', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving')]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('monitor', 'Valuing'), ('generate', 'Organisation'), ('act', 'Characterisation'), ('adopt', 'Valuing')]</t>
+          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('characterise', 'Characterisation')]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
+        <is>
+          <t>determine the role of these assessments and management systems in society, especially the relevant environmental legislation, policies, codes of practice and local/international standards</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[('determine', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>[('lead', 'Organisation'), ('compare', 'Organisation'), ('agree', 'Responding'), ('discuss', 'Responding'), ('organise', 'Organisation')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>comprehend the government, industry and community perspectives on engineering projects</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[('comprehend', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[('relay', 'Responding'), ('monitor', 'Valuing'), ('generate', 'Organisation'), ('act', 'Characterisation'), ('adopt', 'Valuing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">
 assess various types of environmental impact assessment, risk evaluation and environmental management system methodologies</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Valuing</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>[('assess', 'Verb not mapped')]</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>[('change', 'Characterisation'), ('compare', 'Organisation'), ('agree', 'Responding'), ('respond', 'Responding'), ('investigate', 'Organisation')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>prepare and present a group project based on the knowledge derived in EIA/ERA and EMS.</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>[('prepare', 'Organisation'), ('present', 'Responding'), ('base', 'Verb not mapped'), ('derive', 'Verb not mapped')]</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>[('study', 'Valuing'), ('order', 'Organisation'), ('relay', 'Responding'), ('adopt', 'Valuing'), ('prepare', 'Organisation')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Apply theoretical engineering knowledge outside of the classroom.</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Psychomotor</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Guided Response</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[('apply', 'Verb not mapped')]</t>
+          <t>[('assess', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[('create', 'Origination'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('describe', 'Perception'), ('respond', 'Guided Response')]</t>
+          <t>[('change', 'Characterisation'), ('compare', 'Organisation'), ('agree', 'Responding'), ('respond', 'Responding'), ('investigate', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Demonstrate understanding of engineering practice expectations and observe health and safety rules during professional practice experiences.</t>
+          <t>prepare and present a group project based on the knowledge derived in EIA/ERA and EMS.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Set'), ('observe', 'Verb not mapped')]</t>
+          <t>[('prepare', 'Organisation'), ('present', 'Responding'), ('base', 'Verb not mapped'), ('derive', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[('respond', 'Guided Response'), ('trace', 'Guided Response'), ('perform', 'Complex Overt Response'), ('choose', 'Perception'), ('heat', 'Mechanism')]</t>
+          <t>[('study', 'Valuing'), ('order', 'Organisation'), ('relay', 'Responding'), ('adopt', 'Valuing'), ('prepare', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Value engineering ethical principles and responsibilities and satisfy professional standards for assigned engineering tasks.</t>
+          <t>Apply theoretical engineering knowledge outside of the classroom.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2118,22 +2118,22 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[('value', 'Verb not mapped'), ('satisfy', 'Verb not mapped'), ('assign', 'Verb not mapped')]</t>
+          <t>[('apply', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[('prepare', 'Set'), ('trace', 'Guided Response'), ('change', 'Adaptation'), ('heat', 'Mechanism'), ('respond', 'Guided Response')]</t>
+          <t>[('create', 'Origination'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('describe', 'Perception'), ('respond', 'Guided Response')]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Demonstrate an ability to work independently and to collaborate with colleagues on common tasks effectively.</t>
+          <t>Demonstrate understanding of engineering practice expectations and observe health and safety rules during professional practice experiences.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2143,137 +2143,133 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Complete Overt Response</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Set'), ('work', 'Guided Response'), ('collaborate', 'Verb not mapped')]</t>
+          <t>[('demonstrate', 'Set'), ('observe', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[('respond', 'Guided Response'), ('prepare', 'Set'), ('trace', 'Guided Response'), ('heat', 'Mechanism'), ('operate', 'Complex Overt Response')]</t>
+          <t>[('respond', 'Guided Response'), ('trace', 'Guided Response'), ('perform', 'Complex Overt Response'), ('choose', 'Perception'), ('heat', 'Mechanism')]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Identify, select and derive fundamental mathematical techniques from linear algebra, multi-variable calculus and ordinary differential equations that are essential to engineering applications.</t>
+          <t>Value engineering ethical principles and responsibilities and satisfy professional standards for assigned engineering tasks.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Remembering</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Understanding</t>
-        </is>
-      </c>
+          <t>Guided Response</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('select', 'Evaluating'), ('derive', 'Applying')]</t>
+          <t>[('value', 'Verb not mapped'), ('satisfy', 'Verb not mapped'), ('assign', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[('study', 'Remembering'), ('sequence', 'Applying'), ('order', 'Remembering'), ('group', 'Analysing'), ('summarise', 'Understanding')]</t>
+          <t>[('prepare', 'Set'), ('trace', 'Guided Response'), ('change', 'Adaptation'), ('heat', 'Mechanism'), ('respond', 'Guided Response')]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Apply mathematical techniques to solve engineering problems.</t>
+          <t>Demonstrate an ability to work independently and to collaborate with colleagues on common tasks effectively.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Complete Overt Response</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[('apply', 'Relational'), ('solve', 'Multistructural')]</t>
+          <t>[('demonstrate', 'Set'), ('work', 'Guided Response'), ('collaborate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[('describe', 'Multistructural'), ('generate', 'Extended Abstract'), ('compare', 'Relational'), ('transfer', 'Relational'), ('value', 'Extended Abstract')]</t>
+          <t>[('respond', 'Guided Response'), ('prepare', 'Set'), ('trace', 'Guided Response'), ('heat', 'Mechanism'), ('operate', 'Complex Overt Response')]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Discuss best practices in the presentation of written mathematical arguments.</t>
+          <t>Identify, select and derive fundamental mathematical techniques from linear algebra, multi-variable calculus and ordinary differential equations that are essential to engineering applications.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Remembering</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[('discuss', 'Relational'), ('write', 'Unistructural')]</t>
+          <t>[('identify', 'Understanding'), ('select', 'Evaluating'), ('derive', 'Applying')]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('conduct', 'Relational'), ('report', 'Multistructural'), ('reduce', 'Relational'), ('engage', 'Extended Abstract')]</t>
+          <t>[('study', 'Remembering'), ('sequence', 'Applying'), ('order', 'Remembering'), ('group', 'Analysing'), ('summarise', 'Understanding')]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Engage in team discussion on the application of mathematics.</t>
+          <t>Apply mathematical techniques to solve engineering problems.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2283,32 +2279,32 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Multistructural</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Extended Abstract</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[('engage', 'Extended Abstract')]</t>
+          <t>[('apply', 'Relational'), ('solve', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('value', 'Extended Abstract'), ('choose', 'Unistructural'), ('define', 'Multistructural'), ('satisfy', 'Relational')]</t>
+          <t>[('describe', 'Multistructural'), ('generate', 'Extended Abstract'), ('compare', 'Relational'), ('transfer', 'Relational'), ('value', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Determine reactions and internal member forces in simple truss and beam systems and carry out limit state design to select appropriately sized members.</t>
+          <t>Discuss best practices in the presentation of written mathematical arguments.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2318,67 +2314,67 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[('determine', 'Analysing'), ('carry', 'Verb not mapped'), ('select', 'Evaluating')]</t>
+          <t>[('discuss', 'Understanding'), ('write', 'Applying')]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[('collect', 'Applying'), ('conclude', 'Creating'), ('derive', 'Applying'), ('validate', 'Evaluating'), ('select', 'Evaluating')]</t>
+          <t>[('detail', 'Understanding'), ('generate', 'Creating'), ('conduct', 'Applying'), ('prepare', 'Applying'), ('report', 'Understanding')]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Determine the strength of structural materials to inform engineering designs with considerations to performance, cost, sustainability and societal impact.</t>
+          <t>Discuss best practices in the presentation of written mathematical arguments.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[('determine', 'Analysing'), ('inform', 'Verb not mapped')]</t>
+          <t>[('discuss', 'Relational'), ('write', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[('lecture', 'Evaluating'), ('discuss', 'Understanding'), ('utilise', 'Applying'), ('assign', 'Applying'), ('validate', 'Evaluating')]</t>
+          <t>[('generate', 'Extended Abstract'), ('conduct', 'Relational'), ('report', 'Multistructural'), ('reduce', 'Relational'), ('engage', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Determine the steady-state performance of simple systems involving levers, gears, springs and pulleys using appropriate engineering problem-solving methodologies.</t>
+          <t>Engage in team discussion on the application of mathematics.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2388,32 +2384,28 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Applying</t>
-        </is>
-      </c>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[('determine', 'Analysing'), ('involve', 'Verb not mapped'), ('use', 'Applying'), ('solve', 'Applying')]</t>
+          <t>[('engage', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+          <t>[('generate', 'Creating'), ('monitor', 'Evaluating'), ('ensure', 'Analysing'), ('produce', 'Creating'), ('detail', 'Understanding')]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Propose concept designs that solve engineering problems and justify finalised design with considerations of key variables, assumptions and system boundaries.</t>
+          <t>Engage in team discussion on the application of mathematics.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2423,32 +2415,32 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Extended Abstract</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Multistructural</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[('propose', 'Multistructural'), ('solve', 'Multistructural'), ('justify', 'Extended Abstract'), ('finalise', 'Verb not mapped')]</t>
+          <t>[('engage', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('create', 'Extended Abstract'), ('simulate', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('define', 'Multistructural')]</t>
+          <t>[('generate', 'Extended Abstract'), ('value', 'Extended Abstract'), ('choose', 'Unistructural'), ('define', 'Multistructural'), ('satisfy', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Identify appropriate engineering tools and techniques to develop, validate and convey designs and solutions.</t>
+          <t>Determine reactions and internal member forces in simple truss and beam systems and carry out limit state design to select appropriately sized members.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2458,67 +2450,67 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('develop', 'Creating'), ('validate', 'Evaluating'), ('convey', 'Verb not mapped')]</t>
+          <t>[('determine', 'Analysing'), ('carry', 'Verb not mapped'), ('select', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[('generate', 'Creating'), ('interface', 'Evaluating'), ('validate', 'Evaluating'), ('adopt', 'Evaluating'), ('lecture', 'Evaluating')]</t>
+          <t>[('collect', 'Applying'), ('conclude', 'Creating'), ('derive', 'Applying'), ('validate', 'Evaluating'), ('select', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
+          <t>Determine the strength of structural materials to inform engineering designs with considerations to performance, cost, sustainability and societal impact.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('reflect', 'Extended Abstract'), ('contribute', 'Verb not mapped')]</t>
+          <t>[('determine', 'Analysing'), ('inform', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[('conduct', 'Relational'), ('reflect', 'Extended Abstract'), ('identify', 'Unistructural'), ('satisfy', 'Relational'), ('determine', 'Multistructural')]</t>
+          <t>[('lecture', 'Evaluating'), ('discuss', 'Understanding'), ('utilise', 'Applying'), ('assign', 'Applying'), ('validate', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Discern fundamental chemical, materials, mechanical and environmental engineering knowledge, principles and concepts to propose solutions to a humanitarian engineering problem.</t>
+          <t>Determine the steady-state performance of simple systems involving levers, gears, springs and pulleys using appropriate engineering problem-solving methodologies.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2528,67 +2520,67 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[('discern', 'Verb not mapped'), ('propose', 'Creating')]</t>
+          <t>[('determine', 'Analysing'), ('involve', 'Verb not mapped'), ('use', 'Applying'), ('solve', 'Applying')]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[('summarise', 'Understanding'), ('improve', 'Evaluating'), ('investigate', 'Analysing'), ('research', 'Analysing'), ('change', 'Applying')]</t>
+          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Identify design requirements from a provided brief and analyse potential solutions using first principles of mathematics and natural and engineering sciences.</t>
+          <t>Propose concept designs that solve engineering problems and justify finalised design with considerations of key variables, assumptions and system boundaries.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('provide', 'Applying'), ('analyse', 'Analysing'), ('use', 'Applying')]</t>
+          <t>[('propose', 'Multistructural'), ('solve', 'Multistructural'), ('justify', 'Extended Abstract'), ('finalise', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('create', 'Extended Abstract'), ('simulate', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('define', 'Multistructural')]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Identify societal, health, safety, legal and cultural issues relevant to your project including the Indigenous context, and your consequent responsibilities as an engineer.</t>
+          <t>Identify appropriate engineering tools and techniques to develop, validate and convey designs and solutions.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2598,7 +2590,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Remembering</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2608,22 +2600,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('include', 'Verb not mapped')]</t>
+          <t>[('identify', 'Understanding'), ('develop', 'Creating'), ('validate', 'Evaluating'), ('convey', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+          <t>[('generate', 'Creating'), ('interface', 'Evaluating'), ('validate', 'Evaluating'), ('adopt', 'Evaluating'), ('lecture', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Determine appropriate principles of sustainable design and development, including embodied energy, renewable materials, availability, costs, etc, of a proposed solution using a systems approach to design.</t>
+          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2638,97 +2630,97 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[('determine', 'Analysing'), ('include', 'Verb not mapped'), ('embody', 'Verb not mapped'), ('propose', 'Creating'), ('use', 'Applying')]</t>
+          <t>[('identify', 'Understanding'), ('reflect', 'Evaluating'), ('contribute', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+          <t>[('conduct', 'Applying'), ('reflect', 'Evaluating'), ('identify', 'Understanding'), ('factor', 'Understanding'), ('determine', 'Analysing')]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Describe the principles of team norms, collaboration and dynamics, define your professional goals and discern the practices that lead to successful teamwork in a multicultural context.</t>
+          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Remembering</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('define', 'Remembering'), ('discern', 'Verb not mapped'), ('lead', 'Verb not mapped')]</t>
+          <t>[('identify', 'Unistructural'), ('reflect', 'Extended Abstract'), ('contribute', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[('assign', 'Applying'), ('compare', 'Understanding'), ('lecture', 'Evaluating'), ('act', 'Applying'), ('value', 'Evaluating')]</t>
+          <t>[('conduct', 'Relational'), ('reflect', 'Extended Abstract'), ('identify', 'Unistructural'), ('satisfy', 'Relational'), ('determine', 'Multistructural')]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Discuss requirements of a smart system from component to integrated perspective.</t>
+          <t>Discern fundamental chemical, materials, mechanical and environmental engineering knowledge, principles and concepts to propose solutions to a humanitarian engineering problem.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[('discuss', 'Relational'), ('integrate', 'Extended Abstract')]</t>
+          <t>[('discern', 'Verb not mapped'), ('propose', 'Creating')]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[('discuss', 'Relational'), ('integrate', 'Extended Abstract'), ('define', 'Multistructural'), ('synthesise', 'Extended Abstract'), ('value', 'Extended Abstract')]</t>
+          <t>[('summarise', 'Understanding'), ('improve', 'Evaluating'), ('investigate', 'Analysing'), ('research', 'Analysing'), ('change', 'Applying')]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Define programs using Python, discern problem-solving strategies in decomposing problems using algorithms and describe software engineering processes.</t>
+          <t>Identify design requirements from a provided brief and analyse potential solutions using first principles of mathematics and natural and engineering sciences.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2738,7 +2730,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2748,22 +2740,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[('define', 'Remembering'), ('use', 'Applying'), ('discern', 'Verb not mapped'), ('solve', 'Applying'), ('decompose', 'Verb not mapped'), ('use', 'Applying'), ('describe', 'Understanding')]</t>
+          <t>[('identify', 'Understanding'), ('provide', 'Applying'), ('analyse', 'Analysing'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[('lecture', 'Evaluating'), ('interface', 'Evaluating'), ('simulate', 'Applying'), ('produce', 'Creating'), ('trace', 'Remembering')]</t>
+          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Select fundamental circuit analysis techniques to solve problems in circuits that contain common electrical and electronic components.</t>
+          <t>Identify societal, health, safety, legal and cultural issues relevant to your project including the Indigenous context, and your consequent responsibilities as an engineer.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2773,102 +2765,102 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>Remembering</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>Understanding</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Applying</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[('select', 'Evaluating'), ('solve', 'Applying'), ('contain', 'Verb not mapped')]</t>
+          <t>[('identify', 'Understanding'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[('order', 'Remembering'), ('compute', 'Applying'), ('study', 'Remembering'), ('derive', 'Applying'), ('summarise', 'Understanding')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Propose a design solution in response to a given scenario through requirements and functional analysis, evaluate that solution from an integrated system perspective.</t>
+          <t>Determine appropriate principles of sustainable design and development, including embodied energy, renewable materials, availability, costs, etc, of a proposed solution using a systems approach to design.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[('propose', 'Multistructural'), ('give', 'Verb not mapped'), ('evaluate', 'Extended Abstract')]</t>
+          <t>[('determine', 'Analysing'), ('include', 'Verb not mapped'), ('embody', 'Verb not mapped'), ('propose', 'Creating'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('perform', 'Relational'), ('address', 'Relational'), ('satisfy', 'Relational')]</t>
+          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Identify appropriate engineering tools and techniques to develop and validate a solution.</t>
+          <t>Describe the principles of team norms, collaboration and dynamics, define your professional goals and discern the practices that lead to successful teamwork in a multicultural context.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Remembering</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('develop', 'Extended Abstract'), ('validate', 'Extended Abstract')]</t>
+          <t>[('describe', 'Understanding'), ('define', 'Remembering'), ('discern', 'Verb not mapped'), ('lead', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[('calculate', 'Relational'), ('generate', 'Extended Abstract'), ('define', 'Multistructural'), ('integrate', 'Extended Abstract'), ('compare', 'Relational')]</t>
+          <t>[('assign', 'Applying'), ('compare', 'Understanding'), ('lecture', 'Evaluating'), ('act', 'Applying'), ('value', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
+          <t>Discuss requirements of a smart system from component to integrated perspective.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2878,32 +2870,32 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>Relational</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Unistructural</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('reflect', 'Extended Abstract'), ('contribute', 'Verb not mapped')]</t>
+          <t>[('discuss', 'Relational'), ('integrate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[('conduct', 'Relational'), ('reflect', 'Extended Abstract'), ('identify', 'Unistructural'), ('satisfy', 'Relational'), ('determine', 'Multistructural')]</t>
+          <t>[('discuss', 'Relational'), ('integrate', 'Extended Abstract'), ('define', 'Multistructural'), ('synthesise', 'Extended Abstract'), ('value', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Prove correctness of programs, analyse their space and time complexities;</t>
+          <t>Define programs using Python, discern problem-solving strategies in decomposing problems using algorithms and describe software engineering processes.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2913,32 +2905,32 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[('prove', 'Evaluating'), ('analyse', 'Analysing')]</t>
+          <t>[('define', 'Remembering'), ('use', 'Applying'), ('discern', 'Verb not mapped'), ('solve', 'Applying'), ('decompose', 'Verb not mapped'), ('use', 'Applying'), ('describe', 'Understanding')]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[('explore', 'Analysing'), ('complete', 'Applying'), ('rate', 'Evaluating'), ('change', 'Applying'), ('improve', 'Evaluating')]</t>
+          <t>[('lecture', 'Evaluating'), ('interface', 'Evaluating'), ('simulate', 'Applying'), ('produce', 'Creating'), ('trace', 'Remembering')]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Compare and contrast various abstract data types and use them appropriately;</t>
+          <t>Select fundamental circuit analysis techniques to solve problems in circuits that contain common electrical and electronic components.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2948,7 +2940,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2958,92 +2950,88 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[('compare', 'Understanding'), ('contrast', 'Analysing'), ('use', 'Applying')]</t>
+          <t>[('select', 'Evaluating'), ('solve', 'Applying'), ('contain', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+          <t>[('order', 'Remembering'), ('compute', 'Applying'), ('study', 'Remembering'), ('derive', 'Applying'), ('summarise', 'Understanding')]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Develop and implement algorithms to solve computational problems.</t>
+          <t>Propose a design solution in response to a given scenario through requirements and functional analysis, evaluate that solution from an integrated system perspective.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[('develop', 'Extended Abstract'), ('implement', 'Relational'), ('solve', 'Multistructural')]</t>
+          <t>[('propose', 'Creating'), ('give', 'Understanding'), ('evaluate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[('function', 'Relational'), ('interpret', 'Relational'), ('analyse', 'Relational'), ('use', 'Relational'), ('differentiate', 'Relational')]</t>
+          <t>[('experiment', 'Analysing'), ('compare', 'Understanding'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Determine appropriate basic abstract data types, including; stacks, queues, lists, binary trees, priority queues, heaps and hash tables; for specific contexts;</t>
+          <t>Propose a design solution in response to a given scenario through requirements and functional analysis, evaluate that solution from an integrated system perspective.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Analysing</t>
-        </is>
-      </c>
+          <t>Origination</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[('determine', 'Analysing'), ('include', 'Verb not mapped')]</t>
+          <t>[('propose', 'Verb not mapped'), ('give', 'Verb not mapped'), ('evaluate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+          <t>[('respond', 'Guided Response'), ('prepare', 'Set'), ('follow', 'Guided Response'), ('trace', 'Guided Response'), ('change', 'Adaptation')]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Theoretically and experimentally evaluate different implementations of basic abstract data types;</t>
+          <t>Propose a design solution in response to a given scenario through requirements and functional analysis, evaluate that solution from an integrated system perspective.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3058,12 +3046,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Extended Abstract')]</t>
+          <t>[('propose', 'Multistructural'), ('give', 'Verb not mapped'), ('evaluate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3074,11 +3062,11 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Analyse the efficiency of algorithms by determining their best-case and worst-case big-O time complexity;</t>
+          <t>Identify appropriate engineering tools and techniques to develop and validate a solution.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3088,102 +3076,102 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[('analyse', 'Relational'), ('determine', 'Multistructural')]</t>
+          <t>[('identify', 'Unistructural'), ('develop', 'Extended Abstract'), ('validate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('contrast', 'Relational'), ('define', 'Multistructural'), ('compare', 'Relational'), ('state', 'Unistructural')]</t>
+          <t>[('calculate', 'Relational'), ('generate', 'Extended Abstract'), ('define', 'Multistructural'), ('integrate', 'Extended Abstract'), ('compare', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Work in teams to analyse algorithms and write programs.</t>
+          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[('work', 'Verb not mapped'), ('analyse', 'Relational'), ('write', 'Unistructural')]</t>
+          <t>[('identify', 'Understanding'), ('reflect', 'Evaluating'), ('contribute', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('report', 'Multistructural'), ('reduce', 'Relational'), ('engage', 'Extended Abstract'), ('implement', 'Relational')]</t>
+          <t>[('conduct', 'Applying'), ('reflect', 'Evaluating'), ('identify', 'Understanding'), ('factor', 'Understanding'), ('determine', 'Analysing')]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Iteratively apply object-oriented design principles to design small to medium-size software systems, using standard software engineering notations, namely UML class diagrams and UML interaction diagrams.</t>
+          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[('apply', 'Applying'), ('orient', 'Verb not mapped'), ('design', 'Creating'), ('use', 'Applying')]</t>
+          <t>[('identify', 'Unistructural'), ('reflect', 'Extended Abstract'), ('contribute', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+          <t>[('conduct', 'Relational'), ('reflect', 'Extended Abstract'), ('identify', 'Unistructural'), ('satisfy', 'Relational'), ('determine', 'Multistructural')]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Describe the quality of object-oriented software designs, both in terms of meeting user requirements and the effective application of object-oriented design concepts and principles.</t>
+          <t>Prove correctness of programs, analyse their space and time complexities;</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3193,102 +3181,102 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Remembering</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('orient', 'Verb not mapped'), ('meet', 'Remembering'), ('orient', 'Verb not mapped')]</t>
+          <t>[('prove', 'Evaluating'), ('analyse', 'Analysing')]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[('query', 'Analysing'), ('ensure', 'Analysing'), ('back', 'Applying'), ('produce', 'Creating'), ('generate', 'Creating')]</t>
+          <t>[('explore', 'Analysing'), ('complete', 'Applying'), ('rate', 'Evaluating'), ('change', 'Applying'), ('improve', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Identify appropriate quality goals for a moderately-sized software development project, including human aspects and security concerns, select an appropriate quality assurance strategy to give confidence that these quality goals can be achieved, and document this strategy appropriately in the context of a software process model;</t>
+          <t>Compare and contrast various abstract data types and use them appropriately;</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('include', 'Verb not mapped'), ('select', 'Multistructural'), ('give', 'Verb not mapped'), ('achieve', 'Verb not mapped'), ('document', 'Verb not mapped')]</t>
+          <t>[('compare', 'Understanding'), ('contrast', 'Analysing'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('compare', 'Relational'), ('appreciate', 'Relational'), ('evaluate', 'Extended Abstract')]</t>
+          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Perform systematic, automated unit testing on source code modules, using both specification-based and code-based approaches, utilising automated testing frameworks, including faking and mocking tools;</t>
+          <t>Develop and implement algorithms to solve computational problems.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Characterisation</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[('perform', 'Relational'), ('use', 'Relational'), ('base', 'Verb not mapped'), ('base', 'Verb not mapped'), ('utilise', 'Verb not mapped'), ('automate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('develop', 'Organisation'), ('implement', 'Verb not mapped'), ('solve', 'Characterisation')]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[('integrate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('discuss', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('function', 'Characterisation'), ('use', 'Receiving'), ('differentiate', 'Valuing'), ('complete', 'Valuing'), ('prepare', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Perform integration and system testing on a moderately-sized software system, using continuous integration frameworks and tracing tests back to requirements;</t>
+          <t>Develop and implement algorithms to solve computational problems.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3298,67 +3286,67 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>Multistructural</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Relational</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[('perform', 'Relational'), ('use', 'Relational'), ('trace', 'Verb not mapped')]</t>
+          <t>[('develop', 'Extended Abstract'), ('implement', 'Relational'), ('solve', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[('perform', 'Relational'), ('mitigate', 'Extended Abstract'), ('sequence', 'Multistructural'), ('define', 'Multistructural'), ('transfer', 'Relational')]</t>
+          <t>[('function', 'Relational'), ('interpret', 'Relational'), ('analyse', 'Relational'), ('use', 'Relational'), ('differentiate', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Select appropriate tools to collect metrics, including test coverage, reliability, and design quality metrics, to analyse the quality of a software development project, and make recommendations based on the results;</t>
+          <t>Determine appropriate basic abstract data types, including; stacks, queues, lists, binary trees, priority queues, heaps and hash tables; for specific contexts;</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[('select', 'Multistructural'), ('collect', 'Verb not mapped'), ('include', 'Verb not mapped'), ('analyse', 'Relational'), ('make', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
+          <t>[('determine', 'Analysing'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[('appraise', 'Extended Abstract'), ('conclude', 'Relational'), ('interpret', 'Relational'), ('summarise', 'Relational'), ('partition', 'Relational')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Model and design flexible software at the architectural level using various tools and techniques from the requirements;</t>
+          <t>Theoretically and experimentally evaluate different implementations of basic abstract data types;</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3378,22 +3366,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[('model', 'Verb not mapped'), ('design', 'Extended Abstract'), ('use', 'Relational')]</t>
+          <t>[('evaluate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
+          <t>[('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('perform', 'Relational'), ('address', 'Relational'), ('satisfy', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Analyse, design, and refactor software systems taking into consideration various quality attributes and requirements</t>
+          <t>Analyse the efficiency of algorithms by determining their best-case and worst-case big-O time complexity;</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3403,32 +3391,32 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Analysis</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('design', 'Creating'), ('refactor', 'Verb not mapped'), ('take', 'Verb not mapped')]</t>
+          <t>[('analyse', 'Analysing'), ('determine', 'Analysing')]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[('back', 'Applying'), ('trace', 'Remembering'), ('perform', 'Creating'), ('utilise', 'Applying'), ('lecture', 'Evaluating')]</t>
+          <t>[('contrast', 'Analysing'), ('define', 'Remembering'), ('interface', 'Evaluating'), ('compare', 'Understanding'), ('lecture', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Take requirements for systems and develop software designs and architectures following object-oriented principles;</t>
+          <t>Analyse the efficiency of algorithms by determining their best-case and worst-case big-O time complexity;</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3443,62 +3431,62 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[('take', 'Verb not mapped'), ('develop', 'Extended Abstract'), ('follow', 'Verb not mapped'), ('orient', 'Verb not mapped')]</t>
+          <t>[('analyse', 'Relational'), ('determine', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[('characterise', 'Relational'), ('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('perform', 'Relational'), ('integrate', 'Extended Abstract')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('contrast', 'Relational'), ('define', 'Multistructural'), ('compare', 'Relational'), ('state', 'Unistructural')]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Select and use appropriate tools for iteratively incrementing the design and architecture of the system;</t>
+          <t>Work in teams to analyse algorithms and write programs.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Origination</t>
+          <t>Analysis</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[('select', 'Perception'), ('use', 'Verb not mapped'), ('incremente', 'Verb not mapped')]</t>
+          <t>[('work', 'Verb not mapped'), ('analyse', 'Analysing'), ('write', 'Applying')]</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('perform', 'Complex Overt Response'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('prepare', 'Set')]</t>
+          <t>[('detail', 'Understanding'), ('generate', 'Creating'), ('prepare', 'Applying'), ('report', 'Understanding'), ('query', 'Analysing')]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Evaluate and apply appropriate design patterns, frameworks and architectures in designing software;</t>
+          <t>Work in teams to analyse algorithms and write programs.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3513,58 +3501,62 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Extended Abstract'), ('apply', 'Relational'), ('design', 'Extended Abstract')]</t>
+          <t>[('work', 'Verb not mapped'), ('analyse', 'Relational'), ('write', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[('summarise', 'Relational'), ('order', 'Unistructural'), ('propose', 'Multistructural'), ('apply', 'Relational'), ('design', 'Extended Abstract')]</t>
+          <t>[('generate', 'Extended Abstract'), ('report', 'Multistructural'), ('reduce', 'Relational'), ('engage', 'Extended Abstract'), ('implement', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Justify design decisions in the context of a project and effectively communicate these decisions to project stakeholders</t>
+          <t>Iteratively apply object-oriented design principles to design small to medium-size software systems, using standard software engineering notations, namely UML class diagrams and UML interaction diagrams.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Origination</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[('justify', 'Verb not mapped'), ('communicate', 'Verb not mapped')]</t>
+          <t>[('apply', 'Applying'), ('orient', 'Verb not mapped'), ('design', 'Creating'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[('identify', 'Perception'), ('describe', 'Perception'), ('differentiate', 'Perception'), ('work', 'Guided Response'), ('make', 'Origination')]</t>
+          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Explain and analyse key processor components;</t>
+          <t>Describe the quality of object-oriented software designs, both in terms of meeting user requirements and the effective application of object-oriented design concepts and principles.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3574,32 +3566,32 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Remembering</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[('explain', 'Understanding'), ('analyse', 'Analysing')]</t>
+          <t>[('describe', 'Understanding'), ('orient', 'Verb not mapped'), ('meet', 'Remembering'), ('orient', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[('explore', 'Analysing'), ('complete', 'Applying'), ('rate', 'Evaluating'), ('change', 'Applying'), ('improve', 'Evaluating')]</t>
+          <t>[('query', 'Analysing'), ('ensure', 'Analysing'), ('back', 'Applying'), ('produce', 'Creating'), ('generate', 'Creating')]</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Explain and analyse computer organisation;</t>
+          <t>Identify appropriate quality goals for a moderately-sized software development project, including human aspects and security concerns, select an appropriate quality assurance strategy to give confidence that these quality goals can be achieved, and document this strategy appropriately in the context of a software process model;</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3609,7 +3601,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>evaluating</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3619,57 +3611,57 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[('explain', 'Understanding'), ('analyse', 'Analysing')]</t>
+          <t>[('identify', 'Understanding'), ('include', 'Verb not mapped'), ('select', 'Evaluating'), ('give', 'Understanding'), ('achieve', 'Verb not mapped'), ('document', 'Analysing')]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[('explore', 'Analysing'), ('complete', 'Applying'), ('rate', 'Evaluating'), ('change', 'Applying'), ('improve', 'Evaluating')]</t>
+          <t>[('adopt', 'Evaluating'), ('monitor', 'Evaluating'), ('respond', 'Understanding'), ('interface', 'Evaluating'), ('generate', 'Creating')]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Use simulator programs to model computer system components.</t>
+          <t>Identify appropriate quality goals for a moderately-sized software development project, including human aspects and security concerns, select an appropriate quality assurance strategy to give confidence that these quality goals can be achieved, and document this strategy appropriately in the context of a software process model;</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[('use', 'Applying'), ('model', 'Evaluating')]</t>
+          <t>[('identify', 'Receiving'), ('include', 'Verb not mapped'), ('select', 'Receiving'), ('give', 'Receiving'), ('achieve', 'Verb not mapped'), ('document', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[('differentiate', 'Analysing'), ('specify', 'Evaluating'), ('derive', 'Applying'), ('summarise', 'Understanding'), ('example', 'Understanding')]</t>
+          <t>[('adopt', 'Valuing'), ('monitor', 'Valuing'), ('respond', 'Responding'), ('generate', 'Organisation'), ('prepare', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Describe industry-standard team-based project management methodologies and apply them across a multi-functional team to achieve optimal project progress</t>
+          <t>Identify appropriate quality goals for a moderately-sized software development project, including human aspects and security concerns, select an appropriate quality assurance strategy to give confidence that these quality goals can be achieved, and document this strategy appropriately in the context of a software process model;</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3679,67 +3671,67 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[('describe', 'Multistructural'), ('base', 'Verb not mapped'), ('apply', 'Relational'), ('achieve', 'Verb not mapped')]</t>
+          <t>[('identify', 'Unistructural'), ('include', 'Verb not mapped'), ('select', 'Multistructural'), ('give', 'Verb not mapped'), ('achieve', 'Verb not mapped'), ('document', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[('choose', 'Unistructural'), ('generate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('report', 'Multistructural'), ('formulate', 'Relational')]</t>
+          <t>[('generate', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('compare', 'Relational'), ('appreciate', 'Relational'), ('evaluate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Apply soft skills when engaging stakeholders in a consistent and professional manner to determine functional and non-functional requirements</t>
+          <t>Perform systematic, automated unit testing on source code modules, using both specification-based and code-based approaches, utilising automated testing frameworks, including faking and mocking tools;</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Characterisation</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[('apply', 'Relational'), ('engage', 'Extended Abstract'), ('determine', 'Multistructural')]</t>
+          <t>[('perform', 'Characterisation'), ('use', 'Receiving'), ('base', 'Verb not mapped'), ('base', 'Verb not mapped'), ('utilise', 'Verb not mapped'), ('automate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('contrast', 'Relational'), ('define', 'Multistructural'), ('compare', 'Relational'), ('state', 'Unistructural')]</t>
+          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Plan and manage the full range of activities in a software engineering project in accordance with the development methodology</t>
+          <t>Perform systematic, automated unit testing on source code modules, using both specification-based and code-based approaches, utilising automated testing frameworks, including faking and mocking tools;</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3749,7 +3741,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3759,57 +3751,57 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[('plan', 'Extended Abstract'), ('manage', 'Relational')]</t>
+          <t>[('perform', 'Relational'), ('use', 'Relational'), ('base', 'Verb not mapped'), ('base', 'Verb not mapped'), ('utilise', 'Verb not mapped'), ('automate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[('organise', 'Relational'), ('plan', 'Extended Abstract'), ('manage', 'Relational'), ('generate', 'Extended Abstract'), ('discuss', 'Relational')]</t>
+          <t>[('integrate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('discuss', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Compare and analyse appropriate industry-standard technologies to determine the optimal combination of software required to support project development</t>
+          <t>Perform integration and system testing on a moderately-sized software system, using continuous integration frameworks and tracing tests back to requirements;</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Characterisation</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[('compare', 'Understanding'), ('analyse', 'Analysing'), ('determine', 'Analysing'), ('require', 'Verb not mapped'), ('support', 'Evaluating')]</t>
+          <t>[('perform', 'Characterisation'), ('use', 'Receiving'), ('trace', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[('produce', 'Creating'), ('group', 'Analysing'), ('lecture', 'Evaluating'), ('support', 'Evaluating'), ('perform', 'Creating')]</t>
+          <t>[('perform', 'Characterisation'), ('adopt', 'Valuing'), ('respond', 'Responding'), ('monitor', 'Valuing'), ('prepare', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Deliberate professional issues occurring within the development and deployment of software applications, and identify appropriate actions based on human factors, relevant law and industry codes of ethical behaviour.</t>
+          <t>Perform integration and system testing on a moderately-sized software system, using continuous integration frameworks and tracing tests back to requirements;</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3819,172 +3811,172 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[('deliberate', 'Extended Abstract'), ('occur', 'Verb not mapped'), ('identify', 'Unistructural'), ('base', 'Verb not mapped')]</t>
+          <t>[('perform', 'Relational'), ('use', 'Relational'), ('trace', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[('assess', 'Extended Abstract'), ('address', 'Relational'), ('identify', 'Unistructural'), ('review', 'Extended Abstract'), ('define', 'Multistructural')]</t>
+          <t>[('perform', 'Relational'), ('mitigate', 'Extended Abstract'), ('sequence', 'Multistructural'), ('define', 'Multistructural'), ('transfer', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Develop a sound relational database design;</t>
+          <t>Select appropriate tools to collect metrics, including test coverage, reliability, and design quality metrics, to analyse the quality of a software development project, and make recommendations based on the results;</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[('develop', 'Extended Abstract')]</t>
+          <t>[('select', 'Evaluating'), ('collect', 'Applying'), ('include', 'Verb not mapped'), ('analyse', 'Analysing'), ('make', 'Creating'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[('validate', 'Extended Abstract'), ('derive', 'Relational'), ('create', 'Extended Abstract'), ('define', 'Multistructural'), ('generate', 'Extended Abstract')]</t>
+          <t>[('appraise', 'Evaluating'), ('conclude', 'Creating'), ('interpret', 'Applying'), ('summarise', 'Understanding'), ('group', 'Analysing')]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Implement a relational database based on a sound database design;</t>
+          <t>Select appropriate tools to collect metrics, including test coverage, reliability, and design quality metrics, to analyse the quality of a software development project, and make recommendations based on the results;</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[('implement', 'Relational'), ('base', 'Verb not mapped')]</t>
+          <t>[('select', 'Receiving'), ('collect', 'Verb not mapped'), ('include', 'Verb not mapped'), ('analyse', 'Verb not mapped'), ('make', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[('construct', 'Relational'), ('use', 'Relational'), ('propose', 'Multistructural'), ('differentiate', 'Relational'), ('summarise', 'Relational')]</t>
+          <t>[('complete', 'Valuing'), ('synthesise', 'Organisation'), ('justify', 'Valuing'), ('explain', 'Valuing'), ('prepare', 'Organisation')]</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Manage data that meets user requirements, including queries and transactions;</t>
+          <t>Select appropriate tools to collect metrics, including test coverage, reliability, and design quality metrics, to analyse the quality of a software development project, and make recommendations based on the results;</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[('manage', 'Organisation'), ('meet', 'Receiving'), ('include', 'Verb not mapped')]</t>
+          <t>[('select', 'Perception'), ('collect', 'Verb not mapped'), ('include', 'Verb not mapped'), ('analyse', 'Verb not mapped'), ('make', 'Origination'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
+          <t>[('explain', 'Set'), ('prepare', 'Set'), ('change', 'Adaptation'), ('heat', 'Mechanism'), ('trace', 'Guided Response')]</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Design and implement a software system of a quality acceptable to an external client;</t>
+          <t>Select appropriate tools to collect metrics, including test coverage, reliability, and design quality metrics, to analyse the quality of a software development project, and make recommendations based on the results;</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[('design', 'Creating'), ('implement', 'Applying')]</t>
+          <t>[('select', 'Multistructural'), ('collect', 'Verb not mapped'), ('include', 'Verb not mapped'), ('analyse', 'Relational'), ('make', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[('design', 'Creating'), ('implement', 'Applying'), ('debug', 'Evaluating'), ('analyse', 'Analysing'), ('improve', 'Evaluating')]</t>
+          <t>[('appraise', 'Extended Abstract'), ('conclude', 'Relational'), ('interpret', 'Relational'), ('summarise', 'Relational'), ('partition', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Select and use appropriate tools, techniques and strategies to manage project resources, including time and personnel;</t>
+          <t>Model and design flexible software at the architectural level using various tools and techniques from the requirements;</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3994,67 +3986,67 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[('select', 'Multistructural'), ('use', 'Relational'), ('manage', 'Relational'), ('include', 'Verb not mapped')]</t>
+          <t>[('model', 'Verb not mapped'), ('design', 'Extended Abstract'), ('use', 'Relational')]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[('integrate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('discuss', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Identify potential sources of risk, including ethical risk, and devise and adopt appropriate strategies to monitor and mitigate these risks;</t>
+          <t>Analyse, design, and refactor software systems taking into consideration various quality attributes and requirements</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('include', 'Verb not mapped'), ('devise', 'Verb not mapped'), ('adopt', 'Verb not mapped'), ('monitor', 'Verb not mapped'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('analyse', 'Analysing'), ('design', 'Creating'), ('refactor', 'Verb not mapped'), ('take', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('define', 'Multistructural'), ('satisfy', 'Relational'), ('perform', 'Relational'), ('compare', 'Relational')]</t>
+          <t>[('back', 'Applying'), ('trace', 'Remembering'), ('perform', 'Creating'), ('utilise', 'Applying'), ('lecture', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Choose and follow a software development methodology that is appropriate to the team, project and client, and justify this methodology;</t>
+          <t>Take requirements for systems and develop software designs and architectures following object-oriented principles;</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4069,186 +4061,202 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[('choose', 'Unistructural'), ('follow', 'Verb not mapped'), ('justify', 'Extended Abstract')]</t>
+          <t>[('take', 'Verb not mapped'), ('develop', 'Extended Abstract'), ('follow', 'Verb not mapped'), ('orient', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('report', 'Multistructural'), ('order', 'Unistructural'), ('compare', 'Relational')]</t>
+          <t>[('characterise', 'Relational'), ('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('perform', 'Relational'), ('integrate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Elicit functional and non-functional requirements, including human aspects requirements, from client representatives and ensure that these are communicated to team members and other stakeholders in an appropriate form</t>
+          <t>Select and use appropriate tools for iteratively incrementing the design and architecture of the system;</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Relational</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[('include', 'Verb not mapped'), ('ensure', 'Verb not mapped'), ('communicate', 'Verb not mapped')]</t>
+          <t>[('select', 'Evaluating'), ('use', 'Applying'), ('incremente', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Extended Abstract'), ('characterise', 'Relational'), ('appreciate', 'Relational'), ('assess', 'Extended Abstract'), ('differentiate', 'Relational')]</t>
+          <t>[('lecture', 'Evaluating'), ('study', 'Remembering'), ('trace', 'Remembering'), ('produce', 'Creating'), ('consider', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Produce internal documentation of a sufficient quality to support project development activities (including specification, analysis, design, testing) and address relevant security and other risks</t>
+          <t>Select and use appropriate tools for iteratively incrementing the design and architecture of the system;</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[('produce', 'Creating'), ('support', 'Evaluating'), ('include', 'Verb not mapped'), ('address', 'Verb not mapped')]</t>
+          <t>[('select', 'Receiving'), ('use', 'Receiving'), ('incremente', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[('adopt', 'Evaluating'), ('monitor', 'Evaluating'), ('experiment', 'Analysing'), ('group', 'Analysing'), ('devise', 'Evaluating')]</t>
+          <t>[('relay', 'Responding'), ('study', 'Valuing'), ('consider', 'Organisation'), ('perform', 'Characterisation'), ('evaluate', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Communicate effectively with a diverse range of project stakeholders, including clients, end users, and supervisors</t>
+          <t>Select and use appropriate tools for iteratively incrementing the design and architecture of the system;</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Multistructural</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
+          <t>Origination</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Perception</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[('communicate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('select', 'Perception'), ('use', 'Verb not mapped'), ('incremente', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[('integrate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('discuss', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('trace', 'Guided Response'), ('perform', 'Complex Overt Response'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('prepare', 'Set')]</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Set achievable and measurable goals;</t>
+          <t>Evaluate and apply appropriate design patterns, frameworks and architectures in designing software;</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Set</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[('set', 'Verb not mapped')]</t>
+          <t>[('evaluate', 'Evaluating'), ('apply', 'Applying'), ('design', 'Creating')]</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('differentiate', 'Perception'), ('prepare', 'Set')]</t>
+          <t>[('summarise', 'Understanding'), ('order', 'Remembering'), ('propose', 'Creating'), ('apply', 'Applying'), ('design', 'Creating')]</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Develop and practice professional skills and attitudes including: initiative, communication, time-management and teamwork skills in a business environment;</t>
+          <t>Evaluate and apply appropriate design patterns, frameworks and architectures in designing software;</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Complete Overt Response</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Extended Abstract</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[('develop', 'Verb not mapped'), ('practice', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('evaluate', 'Extended Abstract'), ('apply', 'Relational'), ('design', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('operate', 'Complex Overt Response')]</t>
+          <t>[('summarise', 'Relational'), ('order', 'Unistructural'), ('propose', 'Multistructural'), ('apply', 'Relational'), ('design', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Develop solutions to business problems using information technology and other techniques;</t>
+          <t>Justify design decisions in the context of a project and effectively communicate these decisions to project stakeholders</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4258,261 +4266,273 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Adaptation</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[('develop', 'Verb not mapped'), ('use', 'Verb not mapped')]</t>
+          <t>[('justify', 'Verb not mapped'), ('communicate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('construct', 'Mechanism'), ('explain', 'Set'), ('change', 'Adaptation'), ('describe', 'Perception')]</t>
+          <t>[('identify', 'Perception'), ('describe', 'Perception'), ('differentiate', 'Perception'), ('work', 'Guided Response'), ('make', 'Origination')]</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Prepare documentation and written reports of a professional standard;</t>
+          <t>Explain and analyse key processor components;</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[('prepare', 'Set'), ('write', 'Verb not mapped')]</t>
+          <t>[('explain', 'Understanding'), ('analyse', 'Analysing')]</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[('prepare', 'Set'), ('operate', 'Complex Overt Response'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('trace', 'Guided Response')]</t>
+          <t>[('explore', 'Analysing'), ('complete', 'Applying'), ('rate', 'Evaluating'), ('change', 'Applying'), ('improve', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Address performance improvement opportunities identified by industry supervisors and self-assess opportunities for personal development;</t>
+          <t>Explain and analyse computer organisation;</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[('address', 'Verb not mapped'), ('identify', 'Perception'), ('assess', 'Verb not mapped')]</t>
+          <t>[('explain', 'Understanding'), ('analyse', 'Analysing')]</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[('change', 'Adaptation'), ('respond', 'Guided Response'), ('identify', 'Perception'), ('perform', 'Complex Overt Response'), ('state', 'Set')]</t>
+          <t>[('explore', 'Analysing'), ('complete', 'Applying'), ('rate', 'Evaluating'), ('change', 'Applying'), ('improve', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Develop information technology skills (such as business process modelling, performance enhancement of installed software, updating current software and developing new software) in a complex, corporate business environment;</t>
+          <t>Use simulator programs to model computer system components.</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Complete Overt Response</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[('develop', 'Verb not mapped'), ('instal', 'Verb not mapped'), ('update', 'Verb not mapped'), ('develop', 'Verb not mapped')]</t>
+          <t>[('use', 'Applying'), ('model', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('change', 'Adaptation'), ('create', 'Origination'), ('operate', 'Complex Overt Response'), ('perform', 'Complex Overt Response')]</t>
+          <t>[('differentiate', 'Analysing'), ('specify', 'Evaluating'), ('derive', 'Applying'), ('summarise', 'Understanding'), ('example', 'Understanding')]</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Apply engineering synthesis and design processes in a business and information technology environment;</t>
+          <t>Describe industry-standard team-based project management methodologies and apply them across a multi-functional team to achieve optimal project progress</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Originiation</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[('apply', 'Verb not mapped')]</t>
+          <t>[('describe', 'Understanding'), ('base', 'Verb not mapped'), ('apply', 'Applying'), ('achieve', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[('create', 'Origination'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('describe', 'Perception'), ('respond', 'Guided Response')]</t>
+          <t>[('document', 'Analysing'), ('ensure', 'Analysing'), ('choose', 'Applying'), ('group', 'Analysing'), ('adopt', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Evaluate and critique the engineering approaches undertaken during the conduct and management of the projects.</t>
+          <t>Describe industry-standard team-based project management methodologies and apply them across a multi-functional team to achieve optimal project progress</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Adaptation</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Verb not mapped'), ('critique', 'Verb not mapped'), ('undertake', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving'), ('base', 'Verb not mapped'), ('apply', 'Verb not mapped'), ('achieve', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[('prepare', 'Set'), ('trace', 'Guided Response'), ('heat', 'Mechanism'), ('state', 'Set'), ('respond', 'Guided Response')]</t>
+          <t>[('choose', 'Receiving'), ('adopt', 'Valuing'), ('generate', 'Organisation'), ('support', 'Valuing'), ('present', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Analyse critically and apply the ISO reference and Internet models;</t>
+          <t>Describe industry-standard team-based project management methodologies and apply them across a multi-functional team to achieve optimal project progress</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('apply', 'Applying')]</t>
+          <t>[('describe', 'Multistructural'), ('base', 'Verb not mapped'), ('apply', 'Relational'), ('achieve', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('derive', 'Applying'), ('query', 'Analysing'), ('order', 'Remembering')]</t>
+          <t>[('choose', 'Unistructural'), ('generate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('report', 'Multistructural'), ('formulate', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Analyse critically and implement the fundamentals and technologies of the network layer, including packet-switching and queueing concepts;</t>
+          <t>Apply soft skills when engaging stakeholders in a consistent and professional manner to determine functional and non-functional requirements</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('implement', 'Applying'), ('include', 'Verb not mapped')]</t>
+          <t>[('apply', 'Relational'), ('engage', 'Extended Abstract'), ('determine', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('contrast', 'Relational'), ('define', 'Multistructural'), ('compare', 'Relational'), ('state', 'Unistructural')]</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Analyse critically and implement designs based on the functions and architectures of cabled and wireless LAN and WAN, including ALOHA and CSMA/CD/CA models;</t>
+          <t>Plan and manage the full range of activities in a software engineering project in accordance with the development methodology</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4522,67 +4542,67 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
+          <t>Creating</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
           <t>Analysing</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Applying</t>
-        </is>
-      </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('implement', 'Applying'), ('base', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('plan', 'Creating'), ('manage', 'Analysing')]</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+          <t>[('organise', 'Evaluating'), ('plan', 'Creating'), ('manage', 'Analysing'), ('allocate', 'Applying'), ('ensure', 'Analysing')]</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Implement and evaluate system level designs based on LAN architecture for organisational requirements.</t>
+          <t>Plan and manage the full range of activities in a software engineering project in accordance with the development methodology</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Extended abstract</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[('implement', 'Applying'), ('evaluate', 'Evaluating'), ('base', 'Verb not mapped')]</t>
+          <t>[('plan', 'Extended Abstract'), ('manage', 'Relational')]</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('compare', 'Understanding'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
+          <t>[('organise', 'Relational'), ('plan', 'Extended Abstract'), ('manage', 'Relational'), ('generate', 'Extended Abstract'), ('discuss', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Research relevant and reliable literature to evaluate the state of the field.</t>
+          <t>Compare and analyse appropriate industry-standard technologies to determine the optimal combination of software required to support project development</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4602,92 +4622,92 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[('research', 'Analysing'), ('evaluate', 'Evaluating')]</t>
+          <t>[('compare', 'Understanding'), ('analyse', 'Analysing'), ('determine', 'Analysing'), ('require', 'Verb not mapped'), ('support', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('compare', 'Understanding'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
+          <t>[('produce', 'Creating'), ('group', 'Analysing'), ('lecture', 'Evaluating'), ('support', 'Evaluating'), ('perform', 'Creating')]</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Analyse a problem and evaluate the potential of a solution or experiment.</t>
+          <t>Deliberate professional issues occurring within the development and deployment of software applications, and identify appropriate actions based on human factors, relevant law and industry codes of ethical behaviour.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Extended abstract </t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[('analyse', 'Relational'), ('evaluate', 'Extended Abstract')]</t>
+          <t>[('deliberate', 'Verb not mapped'), ('occur', 'Verb not mapped'), ('identify', 'Understanding'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('perform', 'Relational'), ('address', 'Relational'), ('satisfy', 'Relational')]</t>
+          <t>[('factor', 'Understanding'), ('assess', 'Evaluating'), ('identify', 'Understanding'), ('review', 'Remembering'), ('group', 'Analysing')]</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Appraise a complex engineering problem and investigate it using appropriate research methods and techniques.</t>
+          <t>Deliberate professional issues occurring within the development and deployment of software applications, and identify appropriate actions based on human factors, relevant law and industry codes of ethical behaviour.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Extended abstract </t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[('appraise', 'Extended Abstract'), ('investigate', 'Verb not mapped'), ('use', 'Relational')]</t>
+          <t>[('deliberate', 'Verb not mapped'), ('occur', 'Verb not mapped'), ('identify', 'Receiving'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
+          <t>[('identify', 'Receiving'), ('agree', 'Responding'), ('adopt', 'Valuing'), ('characterise', 'Characterisation'), ('discuss', 'Responding')]</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Integrate foundational and discipline-specific knowledge to solve complex open-ended problems.</t>
+          <t>Deliberate professional issues occurring within the development and deployment of software applications, and identify appropriate actions based on human factors, relevant law and industry codes of ethical behaviour.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4702,27 +4722,27 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[('integrate', 'Extended Abstract'), ('solve', 'Multistructural')]</t>
+          <t>[('deliberate', 'Extended Abstract'), ('occur', 'Verb not mapped'), ('identify', 'Unistructural'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[('discuss', 'Relational'), ('define', 'Multistructural'), ('value', 'Extended Abstract'), ('satisfy', 'Relational'), ('sequence', 'Multistructural')]</t>
+          <t>[('assess', 'Extended Abstract'), ('address', 'Relational'), ('identify', 'Unistructural'), ('review', 'Extended Abstract'), ('define', 'Multistructural')]</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Plan the scope and requirements of a research project or experiment, responding to changing requirements and potential interdisciplinary inputs.</t>
+          <t>Develop a sound relational database design;</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4732,32 +4752,32 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
           <t>Creating</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[('plan', 'Creating'), ('respond', 'Understanding'), ('change', 'Applying')]</t>
+          <t>[('develop', 'Creating')]</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('improve', 'Evaluating'), ('interface', 'Evaluating'), ('generate', 'Creating'), ('lecture', 'Evaluating')]</t>
+          <t>[('validate', 'Evaluating'), ('lecture', 'Evaluating'), ('study', 'Remembering'), ('specify', 'Evaluating'), ('trace', 'Remembering')]</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Generate research and technical outputs by applying appropriate techniques, resources and modern engineering tools to a complex open-ended engineering problem.</t>
+          <t>Develop a sound relational database design;</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4767,102 +4787,102 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('apply', 'Relational')]</t>
+          <t>[('develop', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[('create', 'Extended Abstract'), ('summarise', 'Relational'), ('derive', 'Relational'), ('order', 'Unistructural'), ('compute', 'Relational')]</t>
+          <t>[('validate', 'Extended Abstract'), ('derive', 'Relational'), ('create', 'Extended Abstract'), ('define', 'Multistructural'), ('generate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Demonstrate consideration of the ethics and norms which guide engineering practice, including professionalism, innovation and creativity.</t>
+          <t>Implement a relational database based on a sound database design;</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Valuing'), ('guide', 'Valuing'), ('include', 'Verb not mapped')]</t>
+          <t>[('implement', 'Relational'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
+          <t>[('construct', 'Relational'), ('use', 'Relational'), ('propose', 'Multistructural'), ('differentiate', 'Relational'), ('summarise', 'Relational')]</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Assess the social, health, safety, legal, cultural, commercial and political impacts of the identified project, as appropriate.</t>
+          <t>Manage data that meets user requirements, including queries and transactions;</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Remembering</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[('assess', 'Extended Abstract'), ('identify', 'Unistructural')]</t>
+          <t>[('manage', 'Analysing'), ('meet', 'Remembering'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('assess', 'Extended Abstract'), ('address', 'Relational'), ('review', 'Extended Abstract'), ('define', 'Multistructural')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Synthesise the progress and outputs of your project through professional engineering reports and presentations to a range of audiences including the community and industry.</t>
+          <t>Manage data that meets user requirements, including queries and transactions;</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4872,17 +4892,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[('synthesise', 'Organisation'), ('include', 'Verb not mapped')]</t>
+          <t>[('manage', 'Organisation'), ('meet', 'Receiving'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -4893,81 +4913,81 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Engage with project collaborators to achieve research outcomes using effective self and/or team management, review and improvement practices. (Applicable to the Clayton-based course)</t>
+          <t>Design and implement a software system of a quality acceptable to an external client;</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[('engage', 'Extended Abstract'), ('achieve', 'Verb not mapped'), ('use', 'Relational'), ('base', 'Verb not mapped')]</t>
+          <t>[('design', 'Creating'), ('implement', 'Applying')]</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
+          <t>[('design', 'Creating'), ('implement', 'Applying'), ('debug', 'Evaluating'), ('analyse', 'Analysing'), ('improve', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Describe the purpose of enterprise architectures and the underlying principles of their design;</t>
+          <t>Select and use appropriate tools, techniques and strategies to manage project resources, including time and personnel;</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('underlie', 'Verb not mapped')]</t>
+          <t>[('select', 'Evaluating'), ('use', 'Applying'), ('manage', 'Analysing'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[('delay', 'Valuing'), ('establish', 'Organisation'), ('guide', 'Valuing'), ('follow', 'Receiving'), ('relay', 'Responding')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Describe into the need for sound data, information and technology governance strategies;</t>
+          <t>Select and use appropriate tools, techniques and strategies to manage project resources, including time and personnel;</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4977,7 +4997,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4987,434 +5007,1868 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving')]</t>
+          <t>[('select', 'Receiving'), ('use', 'Receiving'), ('manage', 'Organisation'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('characterise', 'Characterisation')]</t>
+          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
+        <is>
+          <t>Select and use appropriate tools, techniques and strategies to manage project resources, including time and personnel;</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>[('select', 'Multistructural'), ('use', 'Relational'), ('manage', 'Relational'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('discuss', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Identify potential sources of risk, including ethical risk, and devise and adopt appropriate strategies to monitor and mitigate these risks;</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Perception</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Guided Response</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>[('identify', 'Perception'), ('include', 'Verb not mapped'), ('devise', 'Verb not mapped'), ('adopt', 'Verb not mapped'), ('monitor', 'Verb not mapped'), ('mitigate', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>[('trace', 'Guided Response'), ('change', 'Adaptation'), ('perform', 'Complex Overt Response'), ('prepare', 'Set'), ('respond', 'Guided Response')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Identify potential sources of risk, including ethical risk, and devise and adopt appropriate strategies to monitor and mitigate these risks;</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Extended Abstract</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>[('identify', 'Unistructural'), ('include', 'Verb not mapped'), ('devise', 'Verb not mapped'), ('adopt', 'Verb not mapped'), ('monitor', 'Verb not mapped'), ('mitigate', 'Extended Abstract')]</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>[('mitigate', 'Extended Abstract'), ('define', 'Multistructural'), ('satisfy', 'Relational'), ('perform', 'Relational'), ('compare', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Choose and follow a software development methodology that is appropriate to the team, project and client, and justify this methodology;</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>[('choose', 'Applying'), ('follow', 'Verb not mapped'), ('justify', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>[('ensure', 'Analysing'), ('adopt', 'Evaluating'), ('detail', 'Understanding'), ('group', 'Analysing'), ('monitor', 'Evaluating')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Choose and follow a software development methodology that is appropriate to the team, project and client, and justify this methodology;</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Responding/Valuing</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>[('choose', 'Receiving'), ('follow', 'Receiving'), ('justify', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>[('adopt', 'Valuing'), ('monitor', 'Valuing'), ('collaborate', 'Organisation'), ('generate', 'Organisation'), ('report', 'Valuing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Choose and follow a software development methodology that is appropriate to the team, project and client, and justify this methodology;</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Unistructural</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>[('choose', 'Unistructural'), ('follow', 'Verb not mapped'), ('justify', 'Extended Abstract')]</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>[('generate', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('report', 'Multistructural'), ('order', 'Unistructural'), ('compare', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Elicit functional and non-functional requirements, including human aspects requirements, from client representatives and ensure that these are communicated to team members and other stakeholders in an appropriate form</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>[('include', 'Verb not mapped'), ('ensure', 'Verb not mapped'), ('communicate', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Extended Abstract'), ('characterise', 'Relational'), ('appreciate', 'Relational'), ('assess', 'Extended Abstract'), ('differentiate', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Produce internal documentation of a sufficient quality to support project development activities (including specification, analysis, design, testing) and address relevant security and other risks</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Creating</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>[('produce', 'Creating'), ('support', 'Evaluating'), ('include', 'Verb not mapped'), ('address', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>[('adopt', 'Evaluating'), ('monitor', 'Evaluating'), ('experiment', 'Analysing'), ('group', 'Analysing'), ('devise', 'Evaluating')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Communicate effectively with a diverse range of project stakeholders, including clients, end users, and supervisors</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>[('communicate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Communicate effectively with a diverse range of project stakeholders, including clients, end users, and supervisors</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>[('communicate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Extended Abstract'), ('review', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('discuss', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Set achievable and measurable goals;</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>[('set', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>[('trace', 'Guided Response'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('differentiate', 'Perception'), ('prepare', 'Set')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Develop and practice professional skills and attitudes including: initiative, communication, time-management and teamwork skills in a business environment;</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Complete Overt Response</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>[('develop', 'Verb not mapped'), ('practice', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>[('choose', 'Perception'), ('trace', 'Guided Response'), ('identify', 'Perception'), ('follow', 'Guided Response'), ('operate', 'Complex Overt Response')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Develop solutions to business problems using information technology and other techniques;</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>[('develop', 'Verb not mapped'), ('use', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>[('trace', 'Guided Response'), ('construct', 'Mechanism'), ('explain', 'Set'), ('change', 'Adaptation'), ('describe', 'Perception')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Prepare documentation and written reports of a professional standard;</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Guided Response</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>[('prepare', 'Set'), ('write', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>[('prepare', 'Set'), ('operate', 'Complex Overt Response'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('trace', 'Guided Response')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Address performance improvement opportunities identified by industry supervisors and self-assess opportunities for personal development;</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Guided Response</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Perception</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>[('address', 'Verb not mapped'), ('identify', 'Perception'), ('assess', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>[('change', 'Adaptation'), ('respond', 'Guided Response'), ('identify', 'Perception'), ('perform', 'Complex Overt Response'), ('state', 'Set')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Develop information technology skills (such as business process modelling, performance enhancement of installed software, updating current software and developing new software) in a complex, corporate business environment;</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Complete Overt Response</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>[('develop', 'Verb not mapped'), ('instal', 'Verb not mapped'), ('update', 'Verb not mapped'), ('develop', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>[('trace', 'Guided Response'), ('change', 'Adaptation'), ('create', 'Origination'), ('operate', 'Complex Overt Response'), ('perform', 'Complex Overt Response')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Apply engineering synthesis and design processes in a business and information technology environment;</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Originiation</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>[('apply', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>[('create', 'Origination'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('describe', 'Perception'), ('respond', 'Guided Response')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Evaluate and critique the engineering approaches undertaken during the conduct and management of the projects.</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Verb not mapped'), ('critique', 'Verb not mapped'), ('undertake', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>[('prepare', 'Set'), ('trace', 'Guided Response'), ('heat', 'Mechanism'), ('state', 'Set'), ('respond', 'Guided Response')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Analyse critically and apply the ISO reference and Internet models;</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Analysing'), ('apply', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('derive', 'Applying'), ('query', 'Analysing'), ('order', 'Remembering')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Analyse critically and implement the fundamentals and technologies of the network layer, including packet-switching and queueing concepts;</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Analysing'), ('implement', 'Applying'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Analyse critically and implement designs based on the functions and architectures of cabled and wireless LAN and WAN, including ALOHA and CSMA/CD/CA models;</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Analysing'), ('implement', 'Applying'), ('base', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Implement and evaluate system level designs based on LAN architecture for organisational requirements.</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>[('implement', 'Applying'), ('evaluate', 'Evaluating'), ('base', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>[('experiment', 'Analysing'), ('compare', 'Understanding'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Research relevant and reliable literature to evaluate the state of the field.</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>[('research', 'Analysing'), ('evaluate', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>[('experiment', 'Analysing'), ('compare', 'Understanding'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Analyse a problem and evaluate the potential of a solution or experiment.</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Analysing'), ('evaluate', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>[('experiment', 'Analysing'), ('compare', 'Understanding'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Analyse a problem and evaluate the potential of a solution or experiment.</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Extended abstract </t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Relational'), ('evaluate', 'Extended Abstract')]</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>[('compare', 'Relational'), ('mitigate', 'Extended Abstract'), ('perform', 'Relational'), ('address', 'Relational'), ('satisfy', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Appraise a complex engineering problem and investigate it using appropriate research methods and techniques.</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>[('appraise', 'Evaluating'), ('investigate', 'Analysing'), ('use', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Appraise a complex engineering problem and investigate it using appropriate research methods and techniques.</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Extended abstract </t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Extended Abstract</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>[('appraise', 'Extended Abstract'), ('investigate', 'Verb not mapped'), ('use', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Integrate foundational and discipline-specific knowledge to solve complex open-ended problems.</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Evaluating'), ('solve', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>[('back', 'Applying'), ('trace', 'Remembering'), ('discuss', 'Understanding'), ('act', 'Applying'), ('define', 'Remembering')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Integrate foundational and discipline-specific knowledge to solve complex open-ended problems.</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Organisation/Characterisation</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Characterisation</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Organisation'), ('solve', 'Characterisation')]</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>[('discuss', 'Responding'), ('act', 'Characterisation'), ('guide', 'Valuing'), ('relay', 'Responding'), ('monitor', 'Valuing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Integrate foundational and discipline-specific knowledge to solve complex open-ended problems.</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Extended abstract</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Extended Abstract'), ('solve', 'Multistructural')]</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>[('discuss', 'Relational'), ('define', 'Multistructural'), ('value', 'Extended Abstract'), ('satisfy', 'Relational'), ('sequence', 'Multistructural')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Plan the scope and requirements of a research project or experiment, responding to changing requirements and potential interdisciplinary inputs.</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Creating</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>[('plan', 'Creating'), ('respond', 'Understanding'), ('change', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>[('experiment', 'Analysing'), ('improve', 'Evaluating'), ('interface', 'Evaluating'), ('generate', 'Creating'), ('lecture', 'Evaluating')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Generate research and technical outputs by applying appropriate techniques, resources and modern engineering tools to a complex open-ended engineering problem.</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Creating</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>[('generate', 'Creating'), ('apply', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('derive', 'Applying'), ('query', 'Analysing'), ('order', 'Remembering')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Generate research and technical outputs by applying appropriate techniques, resources and modern engineering tools to a complex open-ended engineering problem.</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Extended abstract</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>[('generate', 'Extended Abstract'), ('apply', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>[('create', 'Extended Abstract'), ('summarise', 'Relational'), ('derive', 'Relational'), ('order', 'Unistructural'), ('compute', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Demonstrate consideration of the ethics and norms which guide engineering practice, including professionalism, innovation and creativity.</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>[('demonstrate', 'Valuing'), ('guide', 'Valuing'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Assess the social, health, safety, legal, cultural, commercial and political impacts of the identified project, as appropriate.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>[('assess', 'Evaluating'), ('identify', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>[('factor', 'Understanding'), ('identify', 'Understanding'), ('assess', 'Evaluating'), ('review', 'Remembering'), ('group', 'Analysing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Assess the social, health, safety, legal, cultural, commercial and political impacts of the identified project, as appropriate.</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Extended abstract</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Unistructural</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>[('assess', 'Extended Abstract'), ('identify', 'Unistructural')]</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>[('identify', 'Unistructural'), ('assess', 'Extended Abstract'), ('address', 'Relational'), ('review', 'Extended Abstract'), ('define', 'Multistructural')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Synthesise the progress and outputs of your project through professional engineering reports and presentations to a range of audiences including the community and industry.</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>[('synthesise', 'Organisation'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Engage with project collaborators to achieve research outcomes using effective self and/or team management, review and improvement practices. (Applicable to the Clayton-based course)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Extended abstract</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>[('engage', 'Extended Abstract'), ('achieve', 'Verb not mapped'), ('use', 'Relational'), ('base', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('translate', 'Relational'), ('discern', 'Multistructural'), ('explain', 'Relational')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Describe the purpose of enterprise architectures and the underlying principles of their design;</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>[('describe', 'Receiving'), ('underlie', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>[('delay', 'Valuing'), ('establish', 'Organisation'), ('guide', 'Valuing'), ('follow', 'Receiving'), ('relay', 'Responding')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Describe into the need for sound data, information and technology governance strategies;</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Recieving</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>[('describe', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>[('relay', 'Responding'), ('complete', 'Valuing'), ('serve', 'Characterisation'), ('follow', 'Receiving'), ('characterise', 'Characterisation')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Explain the alignment of an organisation's IT strategy, platforms and systems with the overall organisational strategy and management functions</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>Valuing, organisation</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>Valuing</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>[('explain', 'Valuing')]</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>[('describe', 'Receiving'), ('characterise', 'Characterisation'), ('relay', 'Responding'), ('allow', 'Responding'), ('compare', 'Organisation')]</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B134" t="inlineStr">
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
         <is>
           <t>identify and explain big data concepts and technologies;</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Creating</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('explain', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>[('describe', 'Understanding'), ('interface', 'Evaluating'), ('lecture', 'Evaluating'), ('characterise', 'Understanding'), ('simulate', 'Applying')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>identify and explain big data concepts and technologies;</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
         <is>
           <t>SOLO</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>Relational</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>Unistructural</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>[('identify', 'Unistructural'), ('explain', 'Relational')]</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>[('describe', 'Multistructural'), ('discern', 'Multistructural'), ('characterise', 'Relational'), ('simulate', 'Extended Abstract'), ('conduct', 'Relational')]</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B135" t="inlineStr">
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
         <is>
           <t>write and interpret parallel database processing algorithms and methods;</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>SOLO</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>Relational</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>Unistructural</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>[('write', 'Unistructural'), ('interpret', 'Relational')]</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>[('summarise', 'Relational'), ('derive', 'Relational'), ('order', 'Unistructural'), ('compute', 'Relational'), ('conclude', 'Relational')]</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B136" t="inlineStr">
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
         <is>
           <t>use big data streaming technologies.</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Appplying</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>[('use', 'Applying'), ('stream', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>use big data streaming technologies.</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>Recieving</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>[('use', 'Receiving'), ('stream', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>[('construct', 'Organisation'), ('explain', 'Valuing'), ('verify', 'Characterisation'), ('function', 'Characterisation'), ('relay', 'Responding')]</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B137" t="inlineStr">
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Describe the steps involved in various manufacturing processes for production at scale, including their strengths and limitations.</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>Responding</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>[('describe', 'Receiving'), ('involve', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B138" t="inlineStr">
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Select appropriate part manufacturing processes while balancing functional requirements, performance, cost and sustainability.</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>Responding</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>[('select', 'Receiving'), ('balance', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>[('discuss', 'Responding'), ('agree', 'Responding'), ('choose', 'Receiving'), ('prepare', 'Organisation'), ('generate', 'Organisation')]</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B139" t="inlineStr">
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Identify and carry out the necessary steps to conduct a small-scale production run and then reflect on the outcomes.</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>Responding</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>[('identify', 'Receiving'), ('carry', 'Verb not mapped'), ('conduct', 'Verb not mapped'), ('reflect', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>[('propose', 'Characterisation'), ('contribute', 'Valuing'), ('explain', 'Valuing'), ('design', 'Organisation'), ('construct', 'Organisation')]</t>
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B140" t="inlineStr">
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Relate the capabilities and limitations of established NDT techniques to their respective basic working principles.</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>[('relate', 'Organisation'), ('establish', 'Organisation')]</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>[('guide', 'Valuing'), ('discuss', 'Responding'), ('collaborate', 'Organisation'), ('generate', 'Organisation'), ('delay', 'Valuing')]</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B141" t="inlineStr">
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Evaluate the various NDT methods for flaw detection and damage assessment and be able to identify the appropriate technique for a given scenario.</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>Valuing, Responding</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>Receiving</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>[('evaluate', 'Valuing'), ('identify', 'Receiving'), ('give', 'Receiving')]</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>[('allow', 'Responding'), ('follow', 'Receiving'), ('respond', 'Responding'), ('change', 'Characterisation'), ('select', 'Receiving')]</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B142" t="inlineStr">
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
         <is>
           <t>Reflect on teamwork, project management, leadership and conflict resolution in the context of group projects and activities.</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>Affective</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
         <is>
           <t>[('reflect', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>[('contribute', 'Valuing'), ('lead', 'Organisation'), ('identify', 'Receiving'), ('relay', 'Responding'), ('discuss', 'Responding')]</t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B143" t="inlineStr">
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Design, construct and debug a small microprocessor system that is capable of interfacing to a series of different inputs and outputs.</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>Psychomotor</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>Origination</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>Mechanism</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>[('design', 'Origination'), ('construct', 'Mechanism'), ('debug', 'Verb not mapped'), ('interface', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>[('change', 'Adaptation'), ('respond', 'Guided Response'), ('trace', 'Guided Response'), ('perform', 'Complex Overt Response'), ('formulate', 'Origination')]</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B144" t="inlineStr">
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Construct appropriate software and test processes to produce industry-ready products.</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>Psychomotor</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>Guided Response</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>Mechanism</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>[('construct', 'Mechanism'), ('produce', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>[('prepare', 'Set'), ('follow', 'Guided Response'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('perform', 'Complex Overt Response')]</t>
         </is>

--- a/outputs/failed_lo_mappings.xlsx
+++ b/outputs/failed_lo_mappings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,17 +481,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('produce', 'Creating'), ('apply', 'Applying')]</t>
+          <t>[('produce', 'Creating'), ('apply', 'Analysing')]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('derive', 'Applying'), ('query', 'Analysing'), ('order', 'Remembering')]</t>
+          <t>[('create', 'Creating'), ('summarise', 'Applying'), ('derive', 'Analysing'), ('query', 'Analysing'), ('order', 'Applying')]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,17 +512,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('engage', 'Verb not mapped'), ('demonstrate', 'Applying'), ('act', 'Applying')]</t>
+          <t>[('engage', 'Creating'), ('demonstrate', 'Analysing'), ('act', 'Analysing')]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('monitor', 'Evaluating'), ('file', 'Analysing'), ('prepare', 'Applying'), ('point', 'Remembering'), ('generate', 'Creating')]</t>
+          <t>[('monitor', 'Evaluating'), ('file', 'Analysing'), ('prepare', 'Analysing'), ('point', 'Remembering'), ('generate', 'Creating')]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -543,17 +543,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Applying'), ('drive', 'Verb not mapped'), ('include', 'Verb not mapped'), ('limit', 'Verb not mapped'), ('serve', 'Verb not mapped')]</t>
+          <t>[('demonstrate', 'Analysing'), ('drive', 'Verb not mapped'), ('include', 'Verb not mapped'), ('limit', 'Verb not mapped'), ('serve', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('lecture', 'Evaluating'), ('value', 'Evaluating'), ('prepare', 'Applying'), ('discuss', 'Understanding'), ('generate', 'Creating')]</t>
+          <t>[('lecture', 'Evaluating'), ('value', 'Evaluating'), ('prepare', 'Analysing'), ('discuss', 'Applying'), ('satisfy', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -569,29 +569,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('understand', 'Verb not mapped'), ('test', 'Organisation'), ('relate', 'Organisation')]</t>
+          <t>[('understand', 'Verb not mapped'), ('test', 'Analysing'), ('relate', 'Applying')]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('establish', 'Organisation'), ('allow', 'Responding'), ('perform', 'Characterisation'), ('support', 'Valuing'), ('study', 'Valuing')]</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Valuing</t>
-        </is>
-      </c>
+          <t>[('provide', 'Applying'), ('establish', 'Analysing'), ('perform', 'Creating'), ('support', 'Evaluating'), ('produce', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -619,7 +615,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('collaborate', 'Organisation'), ('monitor', 'Valuing'), ('act', 'Characterisation'), ('generate', 'Organisation'), ('respond', 'Responding')]</t>
+          <t>[('collaborate', 'Organisation'), ('satisfy', 'Organisation'), ('monitor', 'Valuing'), ('engage', 'Characterisation'), ('define', 'Responding')]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -654,7 +650,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('characterise', 'Understanding'), ('transfer', 'Applying'), ('rate', 'Evaluating'), ('document', 'Analysing'), ('evaluate', 'Evaluating')]</t>
+          <t>[('characterise', 'Applying'), ('transfer', 'Analysing'), ('discern', 'Analysing'), ('rate', 'Evaluating'), ('document', 'Analysing')]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -670,29 +666,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('consider', 'Organisation'), ('create', 'Verb not mapped'), ('challenge', 'Characterisation'), ('integrate', 'Organisation'), ('accommodate', 'Verb not mapped'), ('differ', 'Verb not mapped')]</t>
+          <t>[('consider', 'Evaluating'), ('create', 'Creating'), ('challenge', 'Verb not mapped'), ('integrate', 'Evaluating'), ('accommodate', 'Verb not mapped'), ('differ', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('guide', 'Valuing'), ('establish', 'Organisation'), ('discuss', 'Responding'), ('perform', 'Characterisation'), ('monitor', 'Valuing')]</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Characterisation</t>
-        </is>
-      </c>
+          <t>[('establish', 'Analysing'), ('produce', 'Creating'), ('lecture', 'Evaluating'), ('discuss', 'Applying'), ('interface', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,17 +702,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Applying'), ('align', 'Verb not mapped'), ('deliver', 'Verb not mapped')]</t>
+          <t>[('demonstrate', 'Analysing'), ('align', 'Verb not mapped'), ('deliver', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('value', 'Evaluating'), ('point', 'Remembering'), ('produce', 'Creating'), ('improve', 'Evaluating'), ('act', 'Applying')]</t>
+          <t>[('value', 'Evaluating'), ('discern', 'Analysing'), ('point', 'Remembering'), ('produce', 'Creating'), ('improve', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -741,12 +733,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('understand', 'Verb not mapped'), ('apply', 'Applying'), ('enable', 'Verb not mapped')]</t>
+          <t>[('understand', 'Verb not mapped'), ('apply', 'Analysing'), ('enable', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -772,17 +764,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Remembering</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('relate', 'Remembering')]</t>
+          <t>[('relate', 'Applying')]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('provide', 'Applying'), ('establish', 'Applying'), ('perform', 'Creating'), ('support', 'Evaluating'), ('produce', 'Creating')]</t>
+          <t>[('provide', 'Applying'), ('establish', 'Analysing'), ('perform', 'Creating'), ('support', 'Evaluating'), ('produce', 'Creating')]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -803,17 +795,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('solve', 'Applying'), ('relate', 'Remembering')]</t>
+          <t>[('solve', 'Analysing'), ('relate', 'Applying')]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('provide', 'Applying'), ('establish', 'Applying'), ('perform', 'Creating'), ('support', 'Evaluating'), ('produce', 'Creating')]</t>
+          <t>[('provide', 'Applying'), ('establish', 'Analysing'), ('perform', 'Creating'), ('support', 'Evaluating'), ('produce', 'Creating')]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -834,17 +826,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('apply', 'Applying')]</t>
+          <t>[('apply', 'Analysing')]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('derive', 'Applying'), ('query', 'Analysing'), ('order', 'Remembering')]</t>
+          <t>[('create', 'Creating'), ('summarise', 'Applying'), ('derive', 'Analysing'), ('query', 'Analysing'), ('order', 'Applying')]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -865,17 +857,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('operate', 'Applying'), ('evaluate', 'Evaluating')]</t>
+          <t>[('operate', 'Analysing'), ('evaluate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('compare', 'Understanding'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
+          <t>[('experiment', 'Analysing'), ('compare', 'Applying'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -892,22 +884,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('address', 'Relational')]</t>
+          <t>[('address', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('perform', 'Relational'), ('choose', 'Unistructural'), ('characterise', 'Relational'), ('generate', 'Extended Abstract')]</t>
+          <t>[('adopt', 'Evaluating'), ('monitor', 'Evaluating'), ('experiment', 'Analysing'), ('group', 'Analysing'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -928,17 +920,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding')]</t>
+          <t>[('describe', 'Applying')]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('lecture', 'Evaluating'), ('interface', 'Evaluating'), ('simulate', 'Applying'), ('produce', 'Creating'), ('trace', 'Remembering')]</t>
+          <t>[('lecture', 'Evaluating'), ('interface', 'Evaluating'), ('simulate', 'Analysing'), ('produce', 'Creating'), ('trace', 'Remembering')]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -960,17 +952,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('apply', 'Applying'), ('learn', 'Verb not mapped'), ('design', 'Creating')]</t>
+          <t>[('apply', 'Analysing'), ('learn', 'Verb not mapped'), ('design', 'Creating')]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[('summarise', 'Understanding'), ('order', 'Remembering'), ('propose', 'Creating'), ('apply', 'Applying'), ('compute', 'Applying')]</t>
+          <t>[('summarise', 'Applying'), ('order', 'Applying'), ('propose', 'Evaluating'), ('apply', 'Analysing'), ('compute', 'Analysing')]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1001,7 +993,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Analysing'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1032,7 +1024,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[('explore', 'Analysing'), ('choose', 'Applying'), ('experiment', 'Analysing'), ('change', 'Applying'), ('extract', 'Analysing')]</t>
+          <t>[('explore', 'Analysing'), ('choose', 'Applying'), ('experiment', 'Analysing'), ('change', 'Analysing'), ('extract', 'Analysing')]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1063,7 +1055,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[('explore', 'Analysing'), ('choose', 'Applying'), ('experiment', 'Analysing'), ('change', 'Applying'), ('extract', 'Analysing')]</t>
+          <t>[('explore', 'Analysing'), ('choose', 'Applying'), ('experiment', 'Analysing'), ('change', 'Analysing'), ('extract', 'Analysing')]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1079,22 +1071,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[('generate', 'Organisation'), ('meet', 'Receiving')]</t>
+          <t>[('generate', 'Creating'), ('meet', 'Remembering')]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[('query', 'Valuing'), ('agree', 'Responding'), ('follow', 'Receiving'), ('meet', 'Receiving'), ('generate', 'Organisation')]</t>
+          <t>[('query', 'Analysing'), ('ensure', 'Analysing'), ('back', 'Applying'), ('produce', 'Creating'), ('generate', 'Creating')]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1125,7 +1117,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[('summarise', 'Understanding'), ('order', 'Remembering'), ('propose', 'Creating'), ('apply', 'Applying'), ('compute', 'Applying')]</t>
+          <t>[('summarise', 'Applying'), ('order', 'Applying'), ('propose', 'Evaluating'), ('apply', 'Analysing'), ('compute', 'Analysing')]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1146,17 +1138,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('construct', 'Creating')]</t>
+          <t>[('construct', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[('debug', 'Evaluating'), ('interface', 'Evaluating'), ('summarise', 'Understanding'), ('simulate', 'Applying'), ('improve', 'Evaluating')]</t>
+          <t>[('debug', 'Evaluating'), ('interface', 'Evaluating'), ('reduce', 'Evaluating'), ('summarise', 'Applying'), ('simulate', 'Analysing')]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1172,22 +1164,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('generate', 'Organisation')]</t>
+          <t>[('generate', 'Creating')]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[('prepare', 'Organisation'), ('monitor', 'Valuing'), ('agree', 'Responding'), ('adopt', 'Valuing'), ('relay', 'Responding')]</t>
+          <t>[('prepare', 'Analysing'), ('monitor', 'Evaluating'), ('lecture', 'Evaluating'), ('adopt', 'Evaluating'), ('operate', 'Analysing')]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1218,7 +1210,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[('discuss', 'Responding'), ('relay', 'Responding'), ('characterise', 'Characterisation'), ('agree', 'Responding'), ('monitor', 'Valuing')]</t>
+          <t>[('value', 'Characterisation'), ('mitigate', 'Characterisation'), ('define', 'Responding'), ('satisfy', 'Organisation'), ('discuss', 'Responding')]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1234,22 +1226,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('calculate', 'Applying'), ('subject', 'Verb not mapped'), ('accord', 'Verb not mapped')]</t>
+          <t>[('identify', 'Receiving'), ('calculate', 'Valuing'), ('subject', 'Verb not mapped'), ('accord', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('back', 'Applying'), ('adopt', 'Evaluating'), ('discuss', 'Understanding'), ('assign', 'Applying')]</t>
+          <t>[('guide', 'Valuing'), ('adopt', 'Valuing'), ('discuss', 'Responding'), ('agree', 'Responding'), ('prepare', 'Responding')]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1280,7 +1272,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+          <t>[('reduce', 'Evaluating'), ('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding')]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1311,7 +1303,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('derive', 'Applying'), ('improve', 'Evaluating'), ('lecture', 'Evaluating'), ('establish', 'Applying')]</t>
+          <t>[('experiment', 'Analysing'), ('derive', 'Analysing'), ('improve', 'Evaluating'), ('lecture', 'Evaluating'), ('establish', 'Analysing')]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1332,17 +1324,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('include', 'Verb not mapped')]</t>
+          <t>[('describe', 'Applying'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Analysing'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1363,17 +1355,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('discuss', 'Understanding'), ('include', 'Verb not mapped')]</t>
+          <t>[('discuss', 'Applying'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Analysing'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1404,7 +1396,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('characterise', 'Characterisation'), ('describe', 'Receiving'), ('identify', 'Receiving'), ('verify', 'Characterisation')]</t>
+          <t>[('discern', 'Valuing'), ('relay', 'Responding'), ('reduce', 'Organisation'), ('characterise', 'Valuing'), ('describe', 'Receiving')]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1425,17 +1417,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('apply', 'Applying'), ('include', 'Verb not mapped')]</t>
+          <t>[('apply', 'Analysing'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Analysing'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1461,7 +1453,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Valuing'), ('apply', 'Verb not mapped'), ('plan', 'Organisation'), ('organise', 'Organisation'), ('manage', 'Organisation')]</t>
+          <t>[('evaluate', 'Organisation'), ('apply', 'Valuing'), ('plan', 'Organisation'), ('organise', 'Organisation'), ('manage', 'Organisation')]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1522,12 +1514,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('discuss', 'Understanding')]</t>
+          <t>[('discuss', 'Applying')]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1559,12 +1551,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('construct', 'Creating'), ('deploy', 'Verb not mapped'), ('link', 'Verb not mapped')]</t>
+          <t>[('construct', 'Evaluating'), ('deploy', 'Verb not mapped'), ('link', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[('list', 'Remembering'), ('file', 'Analysing'), ('extract', 'Analysing'), ('utilise', 'Applying'), ('monitor', 'Evaluating')]</t>
+          <t>[('list', 'Applying'), ('file', 'Analysing'), ('extract', 'Analysing'), ('utilise', 'Applying'), ('monitor', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1581,22 +1573,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('construct', 'Relational'), ('target', 'Verb not mapped')]</t>
+          <t>[('construct', 'Evaluating'), ('target', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('sequence', 'Multistructural'), ('mitigate', 'Extended Abstract'), ('calculate', 'Relational'), ('simulate', 'Extended Abstract')]</t>
+          <t>[('reduce', 'Evaluating'), ('file', 'Analysing'), ('interface', 'Evaluating'), ('sequence', 'Applying'), ('extract', 'Analysing')]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1628,7 +1620,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+          <t>[('reduce', 'Evaluating'), ('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding')]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1645,22 +1637,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[('describe', 'Multistructural'), ('solve', 'Multistructural')]</t>
+          <t>[('describe', 'Applying'), ('solve', 'Analysing')]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[('discern', 'Multistructural'), ('appreciate', 'Relational'), ('translate', 'Relational'), ('mitigate', 'Extended Abstract'), ('generate', 'Extended Abstract')]</t>
+          <t>[('interface', 'Evaluating'), ('trace', 'Remembering'), ('complete', 'Applying'), ('document', 'Analysing'), ('utilise', 'Applying')]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1681,17 +1673,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[('solve', 'Applying'), ('design', 'Creating'), ('use', 'Applying')]</t>
+          <t>[('solve', 'Analysing'), ('design', 'Creating'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+          <t>[('reduce', 'Evaluating'), ('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding')]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1708,22 +1700,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('analyse', 'Relational'), ('partition', 'Relational'), ('interpret', 'Relational'), ('solve', 'Multistructural'), ('apply', 'Relational'), ('create', 'Extended Abstract')]</t>
+          <t>[('analyse', 'Analysing'), ('partition', 'Evaluating'), ('interpret', 'Analysing'), ('solve', 'Analysing'), ('apply', 'Analysing'), ('create', 'Creating')]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[('order', 'Unistructural'), ('value', 'Extended Abstract'), ('observe', 'Relational'), ('generate', 'Extended Abstract'), ('validate', 'Extended Abstract')]</t>
+          <t>[('order', 'Applying'), ('value', 'Evaluating'), ('lecture', 'Evaluating'), ('improve', 'Evaluating'), ('observe', 'Applying')]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1740,22 +1732,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('construct', 'Relational'), ('compute', 'Relational'), ('reflect', 'Extended Abstract'), ('conclude', 'Relational')]</t>
+          <t>[('construct', 'Organisation'), ('compute', 'Valuing'), ('reflect', 'Characterisation'), ('conclude', 'Organisation')]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[('compute', 'Relational'), ('select', 'Multistructural'), ('synthesise', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('order', 'Unistructural')]</t>
+          <t>[('compute', 'Valuing'), ('select', 'Responding'), ('prepare', 'Responding'), ('relay', 'Responding'), ('synthesise', 'Organisation')]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1787,7 +1779,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[('conclude', 'Creating'), ('research', 'Analysing'), ('interpret', 'Applying'), ('summarise', 'Understanding'), ('group', 'Analysing')]</t>
+          <t>[('issue', 'Analysing'), ('conclude', 'Creating'), ('research', 'Analysing'), ('interpret', 'Analysing'), ('summarise', 'Applying')]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1809,17 +1801,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('define', 'Remembering'), ('summarise', 'Understanding')]</t>
+          <t>[('describe', 'Applying'), ('define', 'Applying'), ('summarise', 'Applying')]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[('derive', 'Applying'), ('order', 'Remembering'), ('improve', 'Evaluating'), ('change', 'Applying'), ('lecture', 'Evaluating')]</t>
+          <t>[('derive', 'Analysing'), ('order', 'Applying'), ('improve', 'Evaluating'), ('change', 'Analysing'), ('lecture', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1840,17 +1832,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[('determine', 'Analysing'), ('compute', 'Applying'), ('make', 'Creating')]</t>
+          <t>[('determine', 'Analysing'), ('compute', 'Analysing'), ('make', 'Creating')]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[('order', 'Remembering'), ('compute', 'Applying'), ('make', 'Creating'), ('select', 'Evaluating'), ('conclude', 'Creating')]</t>
+          <t>[('order', 'Applying'), ('compute', 'Analysing'), ('make', 'Creating'), ('select', 'Applying'), ('conclude', 'Creating')]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1872,17 +1864,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('interpret', 'Applying'), ('apply', 'Applying'), ('supervise', 'Verb not mapped')]</t>
+          <t>[('interpret', 'Analysing'), ('apply', 'Analysing'), ('supervise', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('derive', 'Applying'), ('query', 'Analysing'), ('order', 'Remembering')]</t>
+          <t>[('create', 'Creating'), ('summarise', 'Applying'), ('derive', 'Analysing'), ('query', 'Analysing'), ('order', 'Applying')]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1899,22 +1891,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('simulate', 'Extended Abstract'), ('use', 'Relational'), ('design', 'Extended Abstract'), ('base', 'Verb not mapped'), ('extract', 'Verb not mapped')]</t>
+          <t>[('simulate', 'Analysing'), ('use', 'Applying'), ('design', 'Creating'), ('base', 'Verb not mapped'), ('extract', 'Analysing')]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('calculate', 'Relational'), ('sequence', 'Multistructural'), ('translate', 'Relational'), ('perform', 'Relational')]</t>
+          <t>[('trace', 'Remembering'), ('interface', 'Evaluating'), ('example', 'Understanding'), ('mitigate', 'Creating'), ('file', 'Analysing')]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1935,17 +1927,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('differentiate', 'Analysing'), ('reflect', 'Evaluating')]</t>
+          <t>[('differentiate', 'Applying'), ('reflect', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[('prepare', 'Applying'), ('generate', 'Creating'), ('sequence', 'Applying'), ('trace', 'Remembering'), ('specify', 'Evaluating')]</t>
+          <t>[('prepare', 'Analysing'), ('generate', 'Creating'), ('sequence', 'Applying'), ('trace', 'Remembering'), ('specify', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1961,29 +1953,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[('generate', 'Organisation'), ('document', 'Verb not mapped')]</t>
+          <t>[('generate', 'Creating'), ('document', 'Analysing')]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[('adopt', 'Valuing'), ('monitor', 'Valuing'), ('respond', 'Responding'), ('generate', 'Organisation'), ('prepare', 'Organisation')]</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>[('adopt', 'Evaluating'), ('monitor', 'Evaluating'), ('respond', 'Understanding'), ('interface', 'Evaluating'), ('generate', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1991,27 +1979,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Design ethical machine learning solutions to problems in computer vision, such as image classification, 3D reconstruction and pose estimation, object detection and semantic segmentation, by critically appraising information and publications.</t>
+          <t xml:space="preserve">
+Identify the limits of human visual and aural perception, and how they can be exploited for bit rate reduction.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('design', 'Extended Abstract'), ('appraise', 'Extended Abstract')]</t>
+          <t>[('identify', 'Understanding'), ('exploit', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[('choose', 'Unistructural'), ('assess', 'Extended Abstract'), ('verify', 'Relational'), ('calculate', 'Relational'), ('sequence', 'Multistructural')]</t>
+          <t>[('rate', 'Evaluating'), ('trace', 'Remembering'), ('factor', 'Understanding'), ('discuss', 'Applying'), ('sequence', 'Applying')]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2023,7 +2012,7 @@
       <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Demonstrate the development, training and deployment of computer vision algorithms using a high-level programming language.</t>
+Describe the structure of modern multimedia compression systems, and how they exploit the characteristics of both the media itself and human consumers of the media.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2038,12 +2027,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Applying'), ('use', 'Applying')]</t>
+          <t>[('describe', 'Applying'), ('exploit', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+          <t>[('rate', 'Evaluating'), ('trace', 'Remembering'), ('factor', 'Understanding'), ('discuss', 'Applying'), ('sequence', 'Applying')]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2055,27 +2044,27 @@
       <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Identify the limits of human visual and aural perception, and how they can be exploited for bit rate reduction.</t>
+Explain how media can be characterised and described, including methods that allow similarities to be automatically identified (e.g. music matching services).</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('exploit', 'Verb not mapped')]</t>
+          <t>[('explain', 'Unistructural'), ('characterise', 'Unistructural'), ('describe', 'Unistructural'), ('include', 'Verb not mapped'), ('allow', 'Verb not mapped'), ('identify', 'Unistructural')]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[('rate', 'Evaluating'), ('trace', 'Remembering'), ('factor', 'Understanding'), ('discuss', 'Understanding'), ('sequence', 'Applying')]</t>
+          <t>[('assess', 'Extended Abstract'), ('address', 'Relational'), ('review', 'Multistructural'), ('define', 'Unistructural'), ('characterise', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2086,31 +2075,34 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Describe the structure of modern multimedia compression systems, and how they exploit the characteristics of both the media itself and human consumers of the media.</t>
+          <t>Compute the end-to-end delay performance of modern Internet protocols supporting media streaming, and relate this to service requirements for on-demand and communicative multimedia services.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('exploit', 'Verb not mapped')]</t>
+          <t>[('compute', 'Valuing'), ('support', 'Valuing'), ('relate', 'Responding')]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[('rate', 'Evaluating'), ('trace', 'Remembering'), ('factor', 'Understanding'), ('discuss', 'Understanding'), ('sequence', 'Applying')]</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>[('establish', 'Valuing'), ('allow', 'Responding'), ('perform', 'Characterisation'), ('support', 'Valuing'), ('relate', 'Responding')]</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2119,7 +2111,7 @@
       <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Explain how media can be characterised and described, including methods that allow similarities to be automatically identified (e.g. music matching services).</t>
+Explain the methods of digital rights managements systems, including the role of encryption and key management, and the importance of such systems to enable high-value digital content retrieval services such as movies-on-demand.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2129,17 +2121,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('explain', 'Understanding'), ('characterise', 'Understanding'), ('describe', 'Understanding'), ('include', 'Verb not mapped'), ('allow', 'Verb not mapped'), ('identify', 'Understanding')]</t>
+          <t>[('explain', 'Applying'), ('include', 'Verb not mapped'), ('enable', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('assess', 'Evaluating'), ('review', 'Remembering'), ('group', 'Analysing'), ('define', 'Remembering')]</t>
+          <t>[('devise', 'Evaluating'), ('integrate', 'Evaluating'), ('adopt', 'Evaluating'), ('lecture', 'Evaluating'), ('improve', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2150,27 +2142,28 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Compute the end-to-end delay performance of modern Internet protocols supporting media streaming, and relate this to service requirements for on-demand and communicative multimedia services.</t>
+          <t xml:space="preserve">
+As part of a team, research and investigate an area of interest beyond lecture material, involving software simulations and analysis of results.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[('compute', 'Relational'), ('support', 'Verb not mapped'), ('relate', 'Relational')]</t>
+          <t>[('research', 'Analysing'), ('investigate', 'Analysing'), ('involve', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[('perform', 'Relational'), ('relate', 'Relational'), ('validate', 'Extended Abstract'), ('differentiate', 'Relational'), ('derive', 'Relational')]</t>
+          <t>[('lecture', 'Evaluating'), ('trace', 'Remembering'), ('specify', 'Evaluating'), ('consider', 'Evaluating'), ('derive', 'Analysing')]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2182,7 +2175,7 @@
       <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Explain the methods of digital rights managements systems, including the role of encryption and key management, and the importance of such systems to enable high-value digital content retrieval services such as movies-on-demand.</t>
+Describe concepts and fundamentals of deep learning, such as the backpropagation algorithm and adversarial learning.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2192,17 +2185,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[('explain', 'Understanding'), ('include', 'Verb not mapped'), ('enable', 'Verb not mapped')]</t>
+          <t>[('describe', 'Applying')]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[('devise', 'Evaluating'), ('integrate', 'Evaluating'), ('adopt', 'Evaluating'), ('lecture', 'Evaluating'), ('improve', 'Evaluating')]</t>
+          <t>[('lecture', 'Evaluating'), ('interface', 'Evaluating'), ('simulate', 'Analysing'), ('produce', 'Creating'), ('trace', 'Remembering')]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2213,8 +2206,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-As part of a team, research and investigate an area of interest beyond lecture material, involving software simulations and analysis of results.</t>
+          <t>Discern and appreciate various forms of deep neural networks, such as multilayer perceptrons, convolution neural networks and recurrent neural networks.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2229,12 +2221,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[('research', 'Analysing'), ('investigate', 'Analysing'), ('involve', 'Verb not mapped')]</t>
+          <t>[('discern', 'Analysing'), ('appreciate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[('lecture', 'Evaluating'), ('trace', 'Remembering'), ('specify', 'Evaluating'), ('consider', 'Evaluating'), ('derive', 'Applying')]</t>
+          <t>[('rate', 'Evaluating'), ('discern', 'Analysing'), ('appreciate', 'Evaluating'), ('act', 'Analysing'), ('trace', 'Remembering')]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2246,7 +2238,7 @@
       <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Describe concepts and fundamentals of deep learning, such as the backpropagation algorithm and adversarial learning.</t>
+Interpret and apply the mathematics of deep learning, such as stochastic optimisation.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2256,17 +2248,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding')]</t>
+          <t>[('interpret', 'Analysing'), ('apply', 'Analysing')]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[('lecture', 'Evaluating'), ('interface', 'Evaluating'), ('simulate', 'Applying'), ('produce', 'Creating'), ('trace', 'Remembering')]</t>
+          <t>[('create', 'Creating'), ('summarise', 'Applying'), ('derive', 'Analysing'), ('query', 'Analysing'), ('order', 'Applying')]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2277,27 +2269,28 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Discern and appreciate various forms of deep neural networks, such as multilayer perceptrons, convolution neural networks and recurrent neural networks.</t>
+          <t xml:space="preserve">
+Design deep learning solutions to problems in computer vision, natural language processing and signal processing. Examples are image classification, object detection, sequence modelling and filter design.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[('discern', 'Multistructural'), ('appreciate', 'Relational')]</t>
+          <t>[('design', 'Creating')]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[('discern', 'Multistructural'), ('appreciate', 'Relational'), ('sequence', 'Multistructural'), ('compare', 'Relational'), ('generate', 'Extended Abstract')]</t>
+          <t>[('summarise', 'Applying'), ('order', 'Applying'), ('propose', 'Evaluating'), ('apply', 'Analysing'), ('compute', 'Analysing')]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2309,7 +2302,7 @@
       <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Interpret and apply the mathematics of deep learning, such as stochastic optimisation.</t>
+Appraise critically the sources of information and contents of scientific publications and choose relevant information.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2324,12 +2317,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[('interpret', 'Applying'), ('apply', 'Applying')]</t>
+          <t>[('appraise', 'Evaluating'), ('choose', 'Applying')]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('derive', 'Applying'), ('query', 'Analysing'), ('order', 'Remembering')]</t>
+          <t>[('adopt', 'Evaluating'), ('devise', 'Evaluating'), ('lecture', 'Evaluating'), ('improve', 'Evaluating'), ('change', 'Analysing')]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2341,7 +2334,7 @@
       <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Design deep learning solutions to problems in computer vision, natural language processing and signal processing. Examples are image classification, object detection, sequence modelling and filter design.</t>
+Interpret and summarise the principles, instrumentation, theory, mathematical models, simulation techniques, fabrication and manufacturing techniques related to Microelectromechanical Systems (MEMS) and Organic electronics based devices</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2351,17 +2344,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[('design', 'Creating')]</t>
+          <t>[('interpret', 'Analysing'), ('summarise', 'Applying'), ('relate', 'Applying'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[('summarise', 'Understanding'), ('order', 'Remembering'), ('propose', 'Creating'), ('apply', 'Applying'), ('compute', 'Applying')]</t>
+          <t>[('provide', 'Applying'), ('establish', 'Analysing'), ('perform', 'Creating'), ('support', 'Evaluating'), ('produce', 'Creating')]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2373,7 +2366,7 @@
       <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Demonstrate the training and deployment of neural networks using a high level programming language.</t>
+Design and develop simple MEMS devices, organic electronic devices (such as Organic Light Emitting Diode) and theoretical models involving multi physics</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2383,17 +2376,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Applying'), ('use', 'Applying')]</t>
+          <t>[('design', 'Creating'), ('develop', 'Creating'), ('involve', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+          <t>[('lecture', 'Evaluating'), ('trace', 'Remembering'), ('specify', 'Evaluating'), ('consider', 'Evaluating'), ('derive', 'Analysing')]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2405,30 +2398,34 @@
       <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Appraise critically the sources of information and contents of scientific publications and choose relevant information.</t>
+Select suitable electronic components and develop simple MEMS or Organic electronic device based systems, evaluate structural and material properties of Micro/Nano devices through simulation studies</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[('appraise', 'Evaluating'), ('choose', 'Applying')]</t>
+          <t>[('select', 'Responding'), ('develop', 'Organisation'), ('base', 'Verb not mapped'), ('evaluate', 'Organisation')]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[('adopt', 'Evaluating'), ('devise', 'Evaluating'), ('lecture', 'Evaluating'), ('improve', 'Evaluating'), ('change', 'Applying')]</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>[('compare', 'Responding'), ('respond', 'Responding'), ('prepare', 'Responding'), ('adopt', 'Valuing'), ('mitigate', 'Characterisation')]</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Responding</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2437,27 +2434,27 @@
       <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Interpret and summarise the principles, instrumentation, theory, mathematical models, simulation techniques, fabrication and manufacturing techniques related to Microelectromechanical Systems (MEMS) and Organic electronics based devices</t>
+Summarise fundamentals of nanotechnology and propose research opportunities in designing Micro technologies</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[('interpret', 'Relational'), ('summarise', 'Relational'), ('relate', 'Relational'), ('base', 'Verb not mapped')]</t>
+          <t>[('summarise', 'Applying'), ('propose', 'Evaluating'), ('design', 'Creating')]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[('perform', 'Relational'), ('validate', 'Extended Abstract'), ('differentiate', 'Relational'), ('transfer', 'Relational'), ('test', 'Unistructural')]</t>
+          <t>[('summarise', 'Applying'), ('order', 'Applying'), ('design', 'Creating'), ('propose', 'Evaluating'), ('apply', 'Analysing')]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2468,8 +2465,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Design and develop simple MEMS devices, organic electronic devices (such as Organic Light Emitting Diode) and theoretical models involving multi physics</t>
+          <t>Apply appropriate theories to effectively design solid-state lighting or SSL systems, including the visual and non-visual effects, colour spaces, quality metrics, efficiency, LED characteristics and other aspects such as LED drivers, spectral sensors, smart lighting control and visible light communications of Li-Fi.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2479,17 +2475,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[('design', 'Creating'), ('develop', 'Creating'), ('involve', 'Verb not mapped')]</t>
+          <t>[('apply', 'Analysing'), ('design', 'Creating'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[('lecture', 'Evaluating'), ('trace', 'Remembering'), ('specify', 'Evaluating'), ('consider', 'Evaluating'), ('derive', 'Applying')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Analysing'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2501,7 +2497,7 @@
       <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Select suitable electronic components and develop simple MEMS or Organic electronic device based systems, evaluate structural and material properties of Micro/Nano devices through simulation studies</t>
+Assess the energy consumption of traditional versus SSL-based lighting approaches</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2516,12 +2512,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[('select', 'Evaluating'), ('develop', 'Creating'), ('base', 'Verb not mapped'), ('evaluate', 'Evaluating')]</t>
+          <t>[('assess', 'Evaluating'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('compare', 'Understanding'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
+          <t>[('experiment', 'Analysing'), ('calculate', 'Analysing'), ('file', 'Analysing'), ('change', 'Analysing'), ('compare', 'Applying')]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2533,7 +2529,7 @@
       <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Summarise fundamentals of nanotechnology and propose research opportunities in designing Micro technologies</t>
+Design and implement a system to solve a given complex engineering problem in the field of Intelligent lighting control using the knowledge of SSL.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2543,17 +2539,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[('summarise', 'Understanding'), ('propose', 'Creating'), ('design', 'Creating')]</t>
+          <t>[('design', 'Creating'), ('implement', 'Analysing'), ('solve', 'Analysing'), ('give', 'Understanding'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[('summarise', 'Understanding'), ('order', 'Remembering'), ('design', 'Creating'), ('propose', 'Creating'), ('apply', 'Applying')]</t>
+          <t>[('reduce', 'Evaluating'), ('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding')]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2564,7 +2560,8 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Apply appropriate theories to effectively design solid-state lighting or SSL systems, including the visual and non-visual effects, colour spaces, quality metrics, efficiency, LED characteristics and other aspects such as LED drivers, spectral sensors, smart lighting control and visible light communications of Li-Fi.</t>
+          <t xml:space="preserve">
+Conduct experiments to investigate various relationships in photometry, radiometry, colour quality, the energy consumption of light sources and the implementation of IoT-based lighting control.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2574,17 +2571,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[('apply', 'Applying'), ('design', 'Creating'), ('include', 'Verb not mapped')]</t>
+          <t>[('conduct', 'Analysing'), ('investigate', 'Analysing'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+          <t>[('experiment', 'Analysing'), ('change', 'Analysing'), ('improve', 'Evaluating'), ('assess', 'Evaluating'), ('collect', 'Applying')]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2596,7 +2593,7 @@
       <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Assess the energy consumption of traditional versus SSL-based lighting approaches</t>
+Assess critically the research literature in the field of solid-state lighting to evaluate recent findings and directions in SSL technology</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2611,12 +2608,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[('assess', 'Evaluating'), ('base', 'Verb not mapped')]</t>
+          <t>[('assess', 'Evaluating'), ('evaluate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('calculate', 'Applying'), ('file', 'Analysing'), ('change', 'Applying'), ('compare', 'Understanding')]</t>
+          <t>[('experiment', 'Analysing'), ('compare', 'Applying'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2627,8 +2624,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Design and implement a system to solve a given complex engineering problem in the field of Intelligent lighting control using the knowledge of SSL.</t>
+          <t>describe the concepts of EIA, ERA and EMS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2643,12 +2639,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[('design', 'Creating'), ('implement', 'Applying'), ('solve', 'Applying'), ('give', 'Understanding'), ('use', 'Applying')]</t>
+          <t>[('describe', 'Applying')]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+          <t>[('lecture', 'Evaluating'), ('interface', 'Evaluating'), ('simulate', 'Analysing'), ('produce', 'Creating'), ('trace', 'Remembering')]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2659,8 +2655,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Conduct experiments to investigate various relationships in photometry, radiometry, colour quality, the energy consumption of light sources and the implementation of IoT-based lighting control.</t>
+          <t>determine the role of these assessments and management systems in society, especially the relevant environmental legislation, policies, codes of practice and local/international standards</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2670,17 +2665,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[('conduct', 'Applying'), ('investigate', 'Analysing'), ('base', 'Verb not mapped')]</t>
+          <t>[('determine', 'Analysing')]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('change', 'Applying'), ('improve', 'Evaluating'), ('assess', 'Evaluating'), ('collect', 'Applying')]</t>
+          <t>[('mitigate', 'Creating'), ('contrast', 'Analysing'), ('define', 'Applying'), ('interface', 'Evaluating'), ('compare', 'Applying')]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2691,8 +2686,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Assess critically the research literature in the field of solid-state lighting to evaluate recent findings and directions in SSL technology</t>
+          <t>comprehend the government, industry and community perspectives on engineering projects</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2702,17 +2696,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[('assess', 'Evaluating'), ('evaluate', 'Evaluating')]</t>
+          <t>[('comprehend', 'Understanding')]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('compare', 'Understanding'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
+          <t>[('monitor', 'Evaluating'), ('trace', 'Remembering'), ('generate', 'Creating'), ('group', 'Analysing'), ('act', 'Analysing')]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2723,7 +2717,8 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>describe the concepts of EIA, ERA and EMS</t>
+          <t xml:space="preserve">
+apply key concepts of life cycle analysis, environmental auditing, waste prevention, cleaner production, community consultation, and economic analysis in engineering projects</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2733,17 +2728,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding')]</t>
+          <t>[('apply', 'Analysing')]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[('lecture', 'Evaluating'), ('interface', 'Evaluating'), ('simulate', 'Applying'), ('produce', 'Creating'), ('trace', 'Remembering')]</t>
+          <t>[('create', 'Creating'), ('summarise', 'Applying'), ('derive', 'Analysing'), ('query', 'Analysing'), ('order', 'Applying')]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2754,7 +2749,8 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>determine the role of these assessments and management systems in society, especially the relevant environmental legislation, policies, codes of practice and local/international standards</t>
+          <t xml:space="preserve">
+assess various types of environmental impact assessment, risk evaluation and environmental management system methodologies</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2764,17 +2760,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[('determine', 'Analysing')]</t>
+          <t>[('assess', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[('contrast', 'Analysing'), ('define', 'Remembering'), ('interface', 'Evaluating'), ('compare', 'Understanding'), ('lecture', 'Evaluating')]</t>
+          <t>[('experiment', 'Analysing'), ('calculate', 'Analysing'), ('file', 'Analysing'), ('change', 'Analysing'), ('compare', 'Applying')]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2785,7 +2781,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>comprehend the government, industry and community perspectives on engineering projects</t>
+          <t>Apply theoretical engineering knowledge outside of the classroom.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2795,17 +2791,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[('comprehend', 'Understanding')]</t>
+          <t>[('apply', 'Analysing')]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[('monitor', 'Evaluating'), ('trace', 'Remembering'), ('generate', 'Creating'), ('group', 'Analysing'), ('act', 'Applying')]</t>
+          <t>[('create', 'Creating'), ('summarise', 'Applying'), ('derive', 'Analysing'), ('query', 'Analysing'), ('order', 'Applying')]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2816,8 +2812,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-apply key concepts of life cycle analysis, environmental auditing, waste prevention, cleaner production, community consultation, and economic analysis in engineering projects</t>
+          <t>Value engineering ethical principles and responsibilities and satisfy professional standards for assigned engineering tasks.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2827,17 +2822,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[('apply', 'Applying')]</t>
+          <t>[('value', 'Evaluating'), ('satisfy', 'Evaluating'), ('assign', 'Applying')]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('derive', 'Applying'), ('query', 'Analysing'), ('order', 'Remembering')]</t>
+          <t>[('satisfy', 'Evaluating'), ('assign', 'Applying'), ('back', 'Applying'), ('prepare', 'Analysing'), ('act', 'Analysing')]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2848,28 +2843,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-assess various types of environmental impact assessment, risk evaluation and environmental management system methodologies</t>
+          <t>Demonstrate the ability to communicate engineering tasks to relevant parties and write professional quality technical reports.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[('assess', 'Evaluating')]</t>
+          <t>[('demonstrate', 'Responding'), ('communicate', 'Responding'), ('write', 'Responding')]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('calculate', 'Applying'), ('file', 'Analysing'), ('change', 'Applying'), ('compare', 'Understanding')]</t>
+          <t>[('generate', 'Organisation'), ('prepare', 'Responding'), ('report', 'Responding'), ('query', 'Valuing'), ('reduce', 'Organisation')]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2880,32 +2874,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>prepare and present a group project based on the knowledge derived in EIA/ERA and EMS.</t>
+          <t>Demonstrate an ability to work independently and to collaborate with colleagues on common tasks effectively.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[('prepare', 'Organisation'), ('present', 'Responding'), ('base', 'Verb not mapped'), ('derive', 'Verb not mapped')]</t>
+          <t>[('demonstrate', 'Guided Response'), ('work', 'Guided Response'), ('collaborate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[('study', 'Valuing'), ('order', 'Organisation'), ('relay', 'Responding'), ('adopt', 'Valuing'), ('prepare', 'Organisation')]</t>
+          <t>[('respond', 'Guided Response'), ('generate', 'Origination'), ('define', 'Guided Response'), ('prepare', 'Guided Response'), ('trace', 'Guided Response')]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Complete Overt Response</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2909,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Apply theoretical engineering knowledge outside of the classroom.</t>
+          <t>Demonstrate the willingness and ability to engage in life-long learning.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2925,17 +2919,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[('apply', 'Applying')]</t>
+          <t>[('demonstrate', 'Analysing'), ('engage', 'Creating')]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('derive', 'Applying'), ('query', 'Analysing'), ('order', 'Remembering')]</t>
+          <t>[('generate', 'Creating'), ('monitor', 'Evaluating'), ('ensure', 'Analysing'), ('produce', 'Creating'), ('detail', 'Understanding')]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2946,30 +2940,34 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Demonstrate understanding of engineering practice expectations and observe health and safety rules during professional practice experiences.</t>
+          <t>Identify, select and derive fundamental mathematical techniques from linear algebra, multi-variable calculus and ordinary differential equations that are essential to engineering applications.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Applying'), ('observe', 'Understanding')]</t>
+          <t>[('identify', 'Unistructural'), ('select', 'Multistructural'), ('derive', 'Multistructural')]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[('value', 'Evaluating'), ('discuss', 'Understanding'), ('improve', 'Evaluating'), ('act', 'Applying'), ('lecture', 'Evaluating')]</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
+          <t>[('sequence', 'Multistructural'), ('order', 'Unistructural'), ('summarise', 'Unistructural'), ('mitigate', 'Extended Abstract'), ('compute', 'Multistructural')]</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Unistructural</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2977,7 +2975,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Value engineering ethical principles and responsibilities and satisfy professional standards for assigned engineering tasks.</t>
+          <t>Apply mathematical techniques to solve engineering problems.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2987,20 +2985,24 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[('apply', 'Analysing'), ('solve', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>[('query', 'Analysing'), ('interface', 'Evaluating'), ('describe', 'Applying'), ('group', 'Analysing'), ('generate', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>Applying</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>[('value', 'Evaluating'), ('satisfy', 'Verb not mapped'), ('assign', 'Applying')]</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>[('assign', 'Applying'), ('back', 'Applying'), ('prepare', 'Applying'), ('act', 'Applying'), ('discuss', 'Understanding')]</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3008,7 +3010,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Demonstrate the ability to communicate engineering tasks to relevant parties and write professional quality technical reports.</t>
+          <t>Discuss best practices in the presentation of written mathematical arguments.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3023,15 +3025,19 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Applying'), ('communicate', 'Verb not mapped'), ('write', 'Applying')]</t>
+          <t>[('discuss', 'Applying'), ('write', 'Applying')]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[('detail', 'Understanding'), ('generate', 'Creating'), ('prepare', 'Applying'), ('report', 'Understanding'), ('query', 'Analysing')]</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+          <t>[('detail', 'Understanding'), ('generate', 'Creating'), ('conduct', 'Analysing'), ('prepare', 'Analysing'), ('report', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3039,30 +3045,34 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Demonstrate an ability to work independently and to collaborate with colleagues on common tasks effectively.</t>
+          <t>Engage in team discussion on the application of mathematics.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Valuing'), ('work', 'Valuing'), ('collaborate', 'Organisation')]</t>
+          <t>[('engage', 'Creating')]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[('guide', 'Valuing'), ('act', 'Characterisation'), ('respond', 'Responding'), ('monitor', 'Valuing'), ('generate', 'Organisation')]</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+          <t>[('generate', 'Creating'), ('monitor', 'Evaluating'), ('ensure', 'Analysing'), ('produce', 'Creating'), ('detail', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3070,30 +3080,34 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Demonstrate the willingness and ability to engage in life-long learning.</t>
+          <t>Determine the strength of structural materials to inform engineering designs with considerations to performance, cost, sustainability and societal impact.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Extended Abstract'), ('engage', 'Extended Abstract')]</t>
+          <t>[('determine', 'Analysing'), ('inform', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('value', 'Extended Abstract'), ('choose', 'Unistructural'), ('define', 'Multistructural'), ('satisfy', 'Relational')]</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
+          <t>[('lecture', 'Evaluating'), ('discuss', 'Applying'), ('utilise', 'Applying'), ('assign', 'Applying'), ('validate', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3101,30 +3115,34 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Identify, select and derive fundamental mathematical techniques from linear algebra, multi-variable calculus and ordinary differential equations that are essential to engineering applications.</t>
+          <t>Determine the steady-state performance of simple systems involving levers, gears, springs and pulleys using appropriate engineering problem-solving methodologies.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[('identify', 'Receiving'), ('select', 'Receiving'), ('derive', 'Verb not mapped')]</t>
+          <t>[('determine', 'Analysing'), ('involve', 'Verb not mapped'), ('use', 'Applying'), ('solve', 'Analysing')]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[('study', 'Valuing'), ('order', 'Organisation'), ('relay', 'Responding'), ('adopt', 'Valuing'), ('prepare', 'Organisation')]</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr"/>
+          <t>[('reduce', 'Evaluating'), ('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3132,30 +3150,34 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Discuss best practices in the presentation of written mathematical arguments.</t>
+          <t>Propose concept designs that solve engineering problems and justify finalised design with considerations of key variables, assumptions and system boundaries.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('discuss', 'Responding'), ('write', 'Responding')]</t>
+          <t>[('propose', 'Evaluating'), ('solve', 'Analysing'), ('justify', 'Evaluating'), ('finalise', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[('generate', 'Organisation'), ('prepare', 'Organisation'), ('report', 'Valuing'), ('query', 'Valuing'), ('act', 'Characterisation')]</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
+          <t>[('mitigate', 'Creating'), ('produce', 'Creating'), ('monitor', 'Evaluating'), ('improve', 'Evaluating'), ('create', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Creating</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3163,34 +3185,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Engage in team discussion on the application of mathematics.</t>
+          <t>Identify appropriate engineering tools and techniques to develop, validate and convey designs and solutions.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[('engage', 'Extended Abstract')]</t>
+          <t>[('identify', 'Perception'), ('develop', 'Origination'), ('validate', 'Origination'), ('convey', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('value', 'Extended Abstract'), ('choose', 'Unistructural'), ('define', 'Multistructural'), ('satisfy', 'Relational')]</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Multistructural</t>
-        </is>
-      </c>
+          <t>[('generate', 'Origination'), ('validate', 'Origination'), ('value', 'Origination'), ('trace', 'Guided Response'), ('mitigate', 'Origination')]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3198,7 +3216,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Determine the strength of structural materials to inform engineering designs with considerations to performance, cost, sustainability and societal impact.</t>
+          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3208,17 +3226,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('determine', 'Analysing'), ('inform', 'Verb not mapped')]</t>
+          <t>[('identify', 'Understanding'), ('reflect', 'Evaluating'), ('contribute', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[('lecture', 'Evaluating'), ('discuss', 'Understanding'), ('utilise', 'Applying'), ('assign', 'Applying'), ('validate', 'Evaluating')]</t>
+          <t>[('conduct', 'Analysing'), ('reflect', 'Evaluating'), ('identify', 'Understanding'), ('factor', 'Understanding'), ('satisfy', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3233,7 +3251,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
+          <t>Discern fundamental chemical, materials, mechanical and environmental engineering knowledge, principles and concepts to propose solutions to a humanitarian engineering problem.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3243,22 +3261,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>[('discern', 'Analysing'), ('propose', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>[('summarise', 'Applying'), ('improve', 'Evaluating'), ('investigate', 'Analysing'), ('research', 'Analysing'), ('change', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>Understanding</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>[('identify', 'Understanding'), ('reflect', 'Evaluating'), ('contribute', 'Verb not mapped')]</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>[('conduct', 'Applying'), ('reflect', 'Evaluating'), ('identify', 'Understanding'), ('factor', 'Understanding'), ('determine', 'Analysing')]</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Evaluating</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3306,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+          <t>[('reduce', 'Evaluating'), ('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding')]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3323,7 +3341,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Analysing'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3338,34 +3356,30 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Propose a design solution in response to a given scenario through requirements and functional analysis, evaluate that solution from an integrated system perspective.</t>
+          <t>Determine appropriate principles of sustainable design and development, including embodied energy, renewable materials, availability, costs, etc, of a proposed solution using a systems approach to design.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[('propose', 'Creating'), ('give', 'Understanding'), ('evaluate', 'Evaluating')]</t>
+          <t>[('determine', 'Mechanism'), ('include', 'Verb not mapped'), ('embody', 'Verb not mapped'), ('propose', 'Adaptation'), ('use', 'Guided Response')]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('compare', 'Understanding'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
+          <t>[('reduce', 'Adaptation'), ('trace', 'Guided Response'), ('construct', 'Adaptation'), ('translate', 'Guided Response'), ('discern', 'Mechanism')]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3373,34 +3387,30 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Identify appropriate engineering tools and techniques to develop and validate a solution.</t>
+          <t>Discern the ethical considerations of working with diverse communities and stakeholders, and demonstrate your commitment to the Engineers Australia Code of Ethics and/or the Board of Engineers Malaysia Code of Professional Conduct, and established norms of professional conduct throughout your project.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('develop', 'Extended Abstract'), ('validate', 'Extended Abstract')]</t>
+          <t>[('discern', 'Valuing'), ('work', 'Valuing'), ('demonstrate', 'Responding'), ('establish', 'Valuing')]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[('calculate', 'Relational'), ('generate', 'Extended Abstract'), ('define', 'Multistructural'), ('integrate', 'Extended Abstract'), ('compare', 'Relational')]</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Unistructural</t>
-        </is>
-      </c>
+          <t>[('define', 'Responding'), ('guide', 'Valuing'), ('discuss', 'Responding'), ('sequence', 'Valuing'), ('deliberate', 'Characterisation')]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3408,7 +3418,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
+          <t>Describe project progress and outputs to stakeholders verbally through pitches, in writing through professional engineering documentation, and graphically through drawings and visualisations.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3418,22 +3428,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>[('describe', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>[('lecture', 'Evaluating'), ('interface', 'Evaluating'), ('simulate', 'Analysing'), ('produce', 'Creating'), ('trace', 'Remembering')]</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>Understanding</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[('identify', 'Understanding'), ('reflect', 'Evaluating'), ('contribute', 'Verb not mapped')]</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>[('conduct', 'Applying'), ('reflect', 'Evaluating'), ('identify', 'Understanding'), ('factor', 'Understanding'), ('determine', 'Analysing')]</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Analysing</t>
         </is>
       </c>
     </row>
@@ -3443,7 +3453,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Determine appropriate basic abstract data types, including; stacks, queues, lists, binary trees, priority queues, heaps and hash tables; for specific contexts;</t>
+          <t>Describe the principles of team norms, collaboration and dynamics, define your professional goals and discern the practices that lead to successful teamwork in a multicultural context.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3453,22 +3463,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[('determine', 'Analysing'), ('include', 'Verb not mapped')]</t>
+          <t>[('describe', 'Applying'), ('define', 'Applying'), ('discern', 'Analysing'), ('lead', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+          <t>[('assign', 'Applying'), ('compare', 'Applying'), ('lecture', 'Evaluating'), ('act', 'Analysing'), ('satisfy', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Remembering</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3488,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Analyse the efficiency of algorithms by determining their best-case and worst-case big-O time complexity;</t>
+          <t>Discuss requirements of a smart system from component to integrated perspective.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3488,22 +3498,22 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('determine', 'Analysing')]</t>
+          <t>[('discuss', 'Applying'), ('integrate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[('contrast', 'Analysing'), ('define', 'Remembering'), ('interface', 'Evaluating'), ('compare', 'Understanding'), ('lecture', 'Evaluating')]</t>
+          <t>[('back', 'Applying'), ('trace', 'Remembering'), ('discuss', 'Applying'), ('integrate', 'Evaluating'), ('lecture', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Analysis</t>
+          <t>Understanding</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3523,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Work in teams to analyse algorithms and write programs.</t>
+          <t>Define programs using Python, discern problem-solving strategies in decomposing problems using algorithms and describe software engineering processes.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3528,17 +3538,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[('work', 'Verb not mapped'), ('analyse', 'Analysing'), ('write', 'Applying')]</t>
+          <t>[('define', 'Applying'), ('use', 'Applying'), ('discern', 'Analysing'), ('solve', 'Analysing'), ('decompose', 'Verb not mapped'), ('use', 'Applying'), ('describe', 'Applying')]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[('detail', 'Understanding'), ('generate', 'Creating'), ('prepare', 'Applying'), ('report', 'Understanding'), ('query', 'Analysing')]</t>
+          <t>[('lecture', 'Evaluating'), ('interface', 'Evaluating'), ('simulate', 'Analysing'), ('produce', 'Creating'), ('trace', 'Remembering')]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Analysis</t>
+          <t>Understanding</t>
         </is>
       </c>
     </row>
@@ -3548,32 +3558,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Iteratively apply object-oriented design principles to design small to medium-size software systems, using standard software engineering notations, namely UML class diagrams and UML interaction diagrams.</t>
+          <t>Identify appropriate engineering tools and techniques to develop and validate a solution.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[('apply', 'Applying'), ('orient', 'Verb not mapped'), ('design', 'Creating'), ('use', 'Applying')]</t>
+          <t>[('identify', 'Perception'), ('develop', 'Origination'), ('validate', 'Origination')]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+          <t>[('trace', 'Guided Response'), ('calculate', 'Mechanism'), ('generate', 'Origination'), ('define', 'Guided Response'), ('prepare', 'Guided Response')]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Perception</t>
         </is>
       </c>
     </row>
@@ -3583,30 +3593,34 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Describe the quality of object-oriented software designs, both in terms of meeting user requirements and the effective application of object-oriented design concepts and principles.</t>
+          <t>Describe project progress and outputs to stakeholders in review meetings, demonstrations and documentation.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('orient', 'Verb not mapped'), ('meet', 'Receiving'), ('orient', 'Verb not mapped')]</t>
+          <t>[('describe', 'Applying')]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[('query', 'Valuing'), ('agree', 'Responding'), ('follow', 'Receiving'), ('generate', 'Organisation'), ('prepare', 'Organisation')]</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
+          <t>[('lecture', 'Evaluating'), ('interface', 'Evaluating'), ('simulate', 'Analysing'), ('produce', 'Creating'), ('trace', 'Remembering')]</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3614,32 +3628,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Identify appropriate quality goals for a moderately-sized software development project, including human aspects and security concerns, select an appropriate quality assurance strategy to give confidence that these quality goals can be achieved, and document this strategy appropriately in the context of a software process model;</t>
+          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[('identify', 'Receiving'), ('include', 'Verb not mapped'), ('select', 'Receiving'), ('give', 'Receiving'), ('achieve', 'Verb not mapped'), ('document', 'Verb not mapped')]</t>
+          <t>[('identify', 'Understanding'), ('reflect', 'Evaluating'), ('contribute', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[('adopt', 'Valuing'), ('monitor', 'Valuing'), ('respond', 'Responding'), ('generate', 'Organisation'), ('prepare', 'Organisation')]</t>
+          <t>[('conduct', 'Analysing'), ('reflect', 'Evaluating'), ('identify', 'Understanding'), ('factor', 'Understanding'), ('satisfy', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Analysing</t>
         </is>
       </c>
     </row>
@@ -3649,32 +3663,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Perform integration and system testing on a moderately-sized software system, using continuous integration frameworks and tracing tests back to requirements;</t>
+          <t>Analyse general problem solving strategies and algorithmic paradigms, and apply them to solving new problems;</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[('perform', 'Relational'), ('use', 'Relational'), ('trace', 'Verb not mapped')]</t>
+          <t>[('analyse', 'Analysing'), ('apply', 'Analysing'), ('solve', 'Analysing')]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[('perform', 'Relational'), ('mitigate', 'Extended Abstract'), ('sequence', 'Multistructural'), ('define', 'Multistructural'), ('transfer', 'Relational')]</t>
+          <t>[('query', 'Analysing'), ('interface', 'Evaluating'), ('describe', 'Applying'), ('group', 'Analysing'), ('generate', 'Creating')]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Applying</t>
         </is>
       </c>
     </row>
@@ -3684,34 +3698,30 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Select appropriate tools to collect metrics, including test coverage, reliability, and design quality metrics, to analyse the quality of a software development project, and make recommendations based on the results;</t>
+          <t>Prove correctness of programs, analyse their space and time complexities;</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[('select', 'Evaluating'), ('collect', 'Applying'), ('include', 'Verb not mapped'), ('analyse', 'Analysing'), ('make', 'Creating'), ('base', 'Verb not mapped')]</t>
+          <t>[('prove', 'Organisation'), ('analyse', 'Organisation')]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[('appraise', 'Evaluating'), ('conclude', 'Creating'), ('interpret', 'Applying'), ('summarise', 'Understanding'), ('group', 'Analysing')]</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Creating</t>
-        </is>
-      </c>
+          <t>[('complete', 'Valuing'), ('function', 'Characterisation'), ('change', 'Valuing'), ('derive', 'Valuing'), ('compare', 'Responding')]</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3719,32 +3729,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Analyse, design, and refactor software systems taking into consideration various quality attributes and requirements</t>
+          <t>Compare and contrast various abstract data types and use them appropriately;</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('design', 'Creating'), ('refactor', 'Verb not mapped'), ('take', 'Verb not mapped')]</t>
+          <t>[('compare', 'Responding'), ('contrast', 'Organisation'), ('use', 'Responding')]</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[('back', 'Applying'), ('trace', 'Remembering'), ('perform', 'Creating'), ('utilise', 'Applying'), ('lecture', 'Evaluating')]</t>
+          <t>[('reduce', 'Organisation'), ('construct', 'Organisation'), ('translate', 'Responding'), ('discern', 'Valuing'), ('explain', 'Responding')]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Organisation</t>
         </is>
       </c>
     </row>
@@ -3754,32 +3764,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Take requirements for systems and develop software designs and architectures following object-oriented principles;</t>
+          <t>Develop and implement algorithms to solve computational problems.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[('take', 'Verb not mapped'), ('develop', 'Verb not mapped'), ('follow', 'Guided Response'), ('orient', 'Verb not mapped')]</t>
+          <t>[('develop', 'Creating'), ('implement', 'Analysing'), ('solve', 'Analysing')]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('perform', 'Complex Overt Response'), ('respond', 'Guided Response'), ('change', 'Adaptation'), ('prepare', 'Set')]</t>
+          <t>[('function', 'Evaluating'), ('debug', 'Evaluating'), ('interpret', 'Analysing'), ('analyse', 'Analysing'), ('example', 'Understanding')]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Applying</t>
         </is>
       </c>
     </row>
@@ -3789,32 +3799,32 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Select and use appropriate tools for iteratively incrementing the design and architecture of the system;</t>
+          <t>Translate problem statements into algorithms and implement them in a high level programming language;</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[('select', 'Receiving'), ('use', 'Receiving'), ('incremente', 'Verb not mapped')]</t>
+          <t>[('translate', 'Applying'), ('implement', 'Analysing')]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('study', 'Valuing'), ('consider', 'Organisation'), ('perform', 'Characterisation'), ('evaluate', 'Valuing')]</t>
+          <t>[('function', 'Evaluating'), ('engage', 'Creating'), ('report', 'Applying'), ('identify', 'Understanding'), ('review', 'Analysing')]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Applying</t>
         </is>
       </c>
     </row>
@@ -3824,32 +3834,32 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Evaluate and apply appropriate design patterns, frameworks and architectures in designing software;</t>
+          <t>Determine appropriate basic abstract data types, including; stacks, queues, lists, binary trees, priority queues, heaps and hash tables; for specific contexts;</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Extended Abstract'), ('apply', 'Relational'), ('design', 'Extended Abstract')]</t>
+          <t>[('determine', 'Analysing'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[('summarise', 'Relational'), ('order', 'Unistructural'), ('propose', 'Multistructural'), ('apply', 'Relational'), ('design', 'Extended Abstract')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Analysing'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3869,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Justify design decisions in the context of a project and effectively communicate these decisions to project stakeholders</t>
+          <t>Analyse the efficiency of algorithms by determining their best-case and worst-case big-O time complexity;</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3869,20 +3879,24 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[('justify', 'Creating'), ('communicate', 'Verb not mapped')]</t>
+          <t>[('analyse', 'Analysing'), ('determine', 'Analysing')]</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[('document', 'Analysing'), ('characterise', 'Understanding'), ('comprehend', 'Understanding'), ('identify', 'Understanding'), ('transfer', 'Applying')]</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
+          <t>[('mitigate', 'Creating'), ('contrast', 'Analysing'), ('define', 'Applying'), ('interface', 'Evaluating'), ('compare', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Analysis</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3890,34 +3904,30 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Use simulator programs to model computer system components.</t>
+          <t>Work in teams to analyse algorithms and write programs.</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[('use', 'Applying'), ('model', 'Evaluating')]</t>
+          <t>[('work', 'Guided Response'), ('analyse', 'Adaptation'), ('write', 'Guided Response')]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[('differentiate', 'Analysing'), ('specify', 'Evaluating'), ('derive', 'Applying'), ('summarise', 'Understanding'), ('example', 'Understanding')]</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Applying</t>
-        </is>
-      </c>
+          <t>[('generate', 'Origination'), ('prepare', 'Guided Response'), ('report', 'Guided Response'), ('reduce', 'Adaptation'), ('engage', 'Origination')]</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3925,7 +3935,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Describe industry-standard team-based project management methodologies and apply them across a multi-functional team to achieve optimal project progress</t>
+          <t>Iteratively apply object-oriented design principles to design small to medium-size software systems, using standard software engineering notations, namely UML class diagrams and UML interaction diagrams.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3935,22 +3945,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('base', 'Verb not mapped'), ('apply', 'Applying'), ('achieve', 'Verb not mapped')]</t>
+          <t>[('apply', 'Analysing'), ('orient', 'Verb not mapped'), ('design', 'Creating'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[('document', 'Analysing'), ('ensure', 'Analysing'), ('choose', 'Applying'), ('group', 'Analysing'), ('adopt', 'Evaluating')]</t>
+          <t>[('reduce', 'Evaluating'), ('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding')]</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Evaluating</t>
         </is>
       </c>
     </row>
@@ -3960,34 +3970,30 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Compare and analyse appropriate industry-standard technologies to determine the optimal combination of software required to support project development</t>
+          <t>Describe the quality of object-oriented software designs, both in terms of meeting user requirements and the effective application of object-oriented design concepts and principles.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[('compare', 'Understanding'), ('analyse', 'Analysing'), ('determine', 'Analysing'), ('require', 'Verb not mapped'), ('support', 'Evaluating')]</t>
+          <t>[('describe', 'Receiving'), ('orient', 'Verb not mapped'), ('meet', 'Receiving'), ('orient', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[('produce', 'Creating'), ('group', 'Analysing'), ('lecture', 'Evaluating'), ('support', 'Evaluating'), ('perform', 'Creating')]</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
+          <t>[('query', 'Valuing'), ('agree', 'Responding'), ('follow', 'Receiving'), ('generate', 'Organisation'), ('prepare', 'Responding')]</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3995,7 +4001,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Deliberate professional issues occurring within the development and deployment of software applications, and identify appropriate actions based on human factors, relevant law and industry codes of ethical behaviour.</t>
+          <t>Apply object-oriented programming constructs, such as abstraction, information hiding, inheritance, and polymorphism, to implement object-oriented designs using a programming language (namely, Java).</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4005,22 +4011,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[('deliberate', 'Verb not mapped'), ('occur', 'Verb not mapped'), ('identify', 'Understanding'), ('base', 'Verb not mapped')]</t>
+          <t>[('apply', 'Analysing'), ('orient', 'Verb not mapped'), ('implement', 'Analysing'), ('orient', 'Verb not mapped'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('assess', 'Evaluating'), ('identify', 'Understanding'), ('review', 'Remembering'), ('group', 'Analysing')]</t>
+          <t>[('reduce', 'Evaluating'), ('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding')]</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Applying</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4036,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Develop a sound relational database design;</t>
+          <t>Apply effective programming strategies to refactor and debug object-oriented implementations systematically and efficiently by using available programming language tools.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4040,17 +4046,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[('develop', 'Creating')]</t>
+          <t>[('apply', 'Analysing'), ('refactor', 'Verb not mapped'), ('debug', 'Evaluating'), ('orient', 'Verb not mapped'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[('validate', 'Evaluating'), ('lecture', 'Evaluating'), ('study', 'Remembering'), ('specify', 'Evaluating'), ('trace', 'Remembering')]</t>
+          <t>[('reduce', 'Evaluating'), ('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding')]</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4065,34 +4071,30 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Manage data that meets user requirements, including queries and transactions;</t>
+          <t>Apply principles of software engineering practice to create object-oriented systems with peers using tools including integrated development environments (IDEs), UML drawing tools, and version control systems.</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Remembering</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[('manage', 'Analysing'), ('meet', 'Remembering'), ('include', 'Verb not mapped')]</t>
+          <t>[('apply', 'Mechanism'), ('create', 'Origination'), ('orient', 'Verb not mapped'), ('use', 'Guided Response'), ('include', 'Verb not mapped'), ('integrate', 'Origination')]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
+          <t>[('trace', 'Guided Response'), ('discuss', 'Guided Response'), ('follow', 'Guided Response'), ('define', 'Guided Response'), ('synthesise', 'Origination')]</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4100,7 +4102,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Design and implement a software system of a quality acceptable to an external client;</t>
+          <t>Identify appropriate quality goals for a moderately-sized software development project, including human aspects and security concerns, select an appropriate quality assurance strategy to give confidence that these quality goals can be achieved, and document this strategy appropriately in the context of a software process model;</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4110,22 +4112,22 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[('design', 'Creating'), ('implement', 'Applying')]</t>
+          <t>[('identify', 'Understanding'), ('include', 'Verb not mapped'), ('select', 'Applying'), ('give', 'Understanding'), ('achieve', 'Verb not mapped'), ('document', 'Analysing')]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[('design', 'Creating'), ('implement', 'Applying'), ('debug', 'Evaluating'), ('analyse', 'Analysing'), ('improve', 'Evaluating')]</t>
+          <t>[('adopt', 'Evaluating'), ('monitor', 'Evaluating'), ('respond', 'Understanding'), ('interface', 'Evaluating'), ('generate', 'Creating')]</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>evaluating</t>
         </is>
       </c>
     </row>
@@ -4135,32 +4137,32 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Select and use appropriate tools, techniques and strategies to manage project resources, including time and personnel;</t>
+          <t>Apply quality assurance techniques such as modern code reviews to code development artefacts;</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[('select', 'Receiving'), ('use', 'Receiving'), ('manage', 'Organisation'), ('include', 'Verb not mapped')]</t>
+          <t>[('apply', 'Analysing')]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
+          <t>[('create', 'Creating'), ('summarise', 'Applying'), ('derive', 'Analysing'), ('query', 'Analysing'), ('order', 'Applying')]</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Applying</t>
         </is>
       </c>
     </row>
@@ -4170,34 +4172,30 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Choose and follow a software development methodology that is appropriate to the team, project and client, and justify this methodology;</t>
+          <t>Perform integration and system testing on a moderately-sized software system, using continuous integration frameworks and tracing tests back to requirements;</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[('choose', 'Receiving'), ('follow', 'Receiving'), ('justify', 'Valuing')]</t>
+          <t>[('perform', 'Complex Overt Response'), ('use', 'Guided Response'), ('trace', 'Guided Response')]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[('adopt', 'Valuing'), ('monitor', 'Valuing'), ('collaborate', 'Organisation'), ('generate', 'Organisation'), ('report', 'Valuing')]</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Responding/Valuing</t>
-        </is>
-      </c>
+          <t>[('perform', 'Complex Overt Response'), ('mitigate', 'Origination'), ('respond', 'Guided Response'), ('heat', 'Mechanism'), ('sequence', 'Mechanism')]</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4205,7 +4203,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Produce internal documentation of a sufficient quality to support project development activities (including specification, analysis, design, testing) and address relevant security and other risks</t>
+          <t>Select appropriate tools to collect metrics, including test coverage, reliability, and design quality metrics, to analyse the quality of a software development project, and make recommendations based on the results;</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4215,17 +4213,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[('produce', 'Creating'), ('support', 'Evaluating'), ('include', 'Verb not mapped'), ('address', 'Verb not mapped')]</t>
+          <t>[('select', 'Applying'), ('collect', 'Applying'), ('include', 'Verb not mapped'), ('analyse', 'Analysing'), ('make', 'Creating'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[('adopt', 'Evaluating'), ('monitor', 'Evaluating'), ('experiment', 'Analysing'), ('group', 'Analysing'), ('devise', 'Evaluating')]</t>
+          <t>[('appraise', 'Evaluating'), ('conclude', 'Creating'), ('interpret', 'Analysing'), ('summarise', 'Applying'), ('partition', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4240,34 +4238,30 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Verify systematically that internal and external project deliverables meet agreed quality standards, such as functionality, security and usability</t>
+          <t>Take requirements for systems and develop software designs and architectures following object-oriented principles;</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[('verify', 'Characterisation'), ('meet', 'Receiving'), ('agree', 'Responding')]</t>
+          <t>[('take', 'Verb not mapped'), ('develop', 'Origination'), ('follow', 'Guided Response'), ('orient', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('generate', 'Organisation'), ('adopt', 'Valuing'), ('discuss', 'Responding'), ('guide', 'Valuing')]</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>[('characterise', 'Guided Response'), ('trace', 'Guided Response'), ('compare', 'Guided Response'), ('mitigate', 'Origination'), ('perform', 'Complex Overt Response')]</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4275,30 +4269,34 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Set achievable and measurable goals;</t>
+          <t>Evaluate and apply appropriate design patterns, frameworks and architectures in designing software;</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[('set', 'Verb not mapped')]</t>
+          <t>[('evaluate', 'Organisation'), ('apply', 'Valuing'), ('design', 'Organisation')]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('simulate', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('calculate', 'Relational'), ('discuss', 'Relational')]</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr"/>
+          <t>[('summarise', 'Responding'), ('order', 'Responding'), ('propose', 'Characterisation'), ('design', 'Organisation'), ('apply', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4306,7 +4304,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Identify useful theoretical knowledge that has been covered in prior coursework and knowledge that has not yet been covered;</t>
+          <t>Justify design decisions in the context of a project and effectively communicate these decisions to project stakeholders</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4316,17 +4314,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('cover', 'Verb not mapped'), ('cover', 'Verb not mapped')]</t>
+          <t>[('justify', 'Evaluating'), ('communicate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[('lecture', 'Evaluating'), ('generate', 'Creating'), ('assign', 'Applying'), ('study', 'Remembering'), ('improve', 'Evaluating')]</t>
+          <t>[('document', 'Analysing'), ('characterise', 'Applying'), ('comprehend', 'Understanding'), ('identify', 'Understanding'), ('transfer', 'Analysing')]</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
@@ -4337,7 +4335,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Develop and practice professional skills and attitudes including: initiative, communication, time-management and teamwork skills in a business environment;</t>
+          <t>Explain and analyse key processor components;</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4347,20 +4345,24 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[('develop', 'Creating'), ('practice', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('explain', 'Applying'), ('analyse', 'Analysing')]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr"/>
+          <t>[('explore', 'Analysing'), ('complete', 'Applying'), ('function', 'Evaluating'), ('rate', 'Evaluating'), ('change', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4368,7 +4370,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Develop solutions to business problems using information technology and other techniques;</t>
+          <t>Explain and analyse computer organisation;</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4378,20 +4380,24 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[('develop', 'Creating'), ('use', 'Applying')]</t>
+          <t>[('explain', 'Applying'), ('analyse', 'Analysing')]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr"/>
+          <t>[('explore', 'Analysing'), ('complete', 'Applying'), ('function', 'Evaluating'), ('rate', 'Evaluating'), ('change', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4399,30 +4405,34 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Prepare documentation and written reports of a professional standard;</t>
+          <t>Use simulator programs to model computer system components.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[('prepare', 'Organisation'), ('write', 'Responding')]</t>
+          <t>[('use', 'Applying'), ('model', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[('generate', 'Organisation'), ('prepare', 'Organisation'), ('write', 'Responding'), ('report', 'Valuing'), ('query', 'Valuing')]</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr"/>
+          <t>[('differentiate', 'Applying'), ('specify', 'Evaluating'), ('derive', 'Analysing'), ('summarise', 'Applying'), ('example', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4430,7 +4440,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Address performance improvement opportunities identified by industry supervisors and self-assess opportunities for personal development;</t>
+          <t>Apply soft skills when engaging stakeholders in a consistent and professional manner to determine functional and non-functional requirements</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4440,20 +4450,24 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[('address', 'Verb not mapped'), ('identify', 'Understanding'), ('assess', 'Evaluating')]</t>
+          <t>[('apply', 'Analysing'), ('engage', 'Creating'), ('determine', 'Analysing')]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('calculate', 'Applying'), ('file', 'Analysing'), ('change', 'Applying'), ('compare', 'Understanding')]</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr"/>
+          <t>[('mitigate', 'Creating'), ('contrast', 'Analysing'), ('define', 'Applying'), ('interface', 'Evaluating'), ('compare', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4461,7 +4475,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Develop information technology skills (such as business process modelling, performance enhancement of installed software, updating current software and developing new software) in a complex, corporate business environment;</t>
+          <t>Compare and analyse appropriate industry-standard technologies to determine the optimal combination of software required to support project development</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4471,20 +4485,24 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[('develop', 'Creating'), ('instal', 'Verb not mapped'), ('update', 'Verb not mapped'), ('develop', 'Creating')]</t>
+          <t>[('compare', 'Applying'), ('analyse', 'Analysing'), ('determine', 'Analysing'), ('require', 'Verb not mapped'), ('support', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[('validate', 'Evaluating'), ('develop', 'Creating'), ('lecture', 'Evaluating'), ('study', 'Remembering'), ('specify', 'Evaluating')]</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
+          <t>[('produce', 'Creating'), ('group', 'Analysing'), ('lecture', 'Evaluating'), ('support', 'Evaluating'), ('perform', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4492,7 +4510,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Apply engineering synthesis and design processes in a business and information technology environment;</t>
+          <t>Deliberate professional issues occurring within the development and deployment of software applications, and identify appropriate actions based on human factors, relevant law and industry codes of ethical behaviour.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4502,20 +4520,24 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[('apply', 'Applying')]</t>
+          <t>[('deliberate', 'Creating'), ('occur', 'Verb not mapped'), ('identify', 'Understanding'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('derive', 'Applying'), ('query', 'Analysing'), ('order', 'Remembering')]</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr"/>
+          <t>[('factor', 'Understanding'), ('assess', 'Evaluating'), ('address', 'Evaluating'), ('identify', 'Understanding'), ('review', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4523,7 +4545,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Evaluate and critique the engineering approaches undertaken during the conduct and management of the projects.</t>
+          <t>Apply the theories of the relational database model;</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4533,20 +4555,24 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Evaluating'), ('critique', 'Creating'), ('undertake', 'Verb not mapped')]</t>
+          <t>[('apply', 'Analysing')]</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('group', 'Analysing'), ('investigate', 'Analysing'), ('monitor', 'Evaluating'), ('prepare', 'Applying')]</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr"/>
+          <t>[('create', 'Creating'), ('summarise', 'Applying'), ('derive', 'Analysing'), ('query', 'Analysing'), ('order', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4554,7 +4580,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Implement and evaluate system level designs based on LAN architecture for organisational requirements.</t>
+          <t>Develop a sound relational database design;</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4564,22 +4590,22 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
+          <t>Creating</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>[('develop', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>[('validate', 'Evaluating'), ('lecture', 'Evaluating'), ('study', 'Applying'), ('specify', 'Evaluating'), ('trace', 'Remembering')]</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
           <t>Applying</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>[('implement', 'Applying'), ('evaluate', 'Evaluating'), ('base', 'Verb not mapped')]</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>[('experiment', 'Analysing'), ('compare', 'Understanding'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Evaluating</t>
         </is>
       </c>
     </row>
@@ -4589,7 +4615,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Research relevant and reliable literature to evaluate the state of the field.</t>
+          <t>Implement a relational database based on a sound database design;</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4604,17 +4630,17 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[('research', 'Analysing'), ('evaluate', 'Evaluating')]</t>
+          <t>[('implement', 'Analysing'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('compare', 'Understanding'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
+          <t>[('debug', 'Evaluating'), ('improve', 'Evaluating'), ('construct', 'Evaluating'), ('example', 'Understanding'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Applying</t>
         </is>
       </c>
     </row>
@@ -4624,7 +4650,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Analyse a problem and evaluate the potential of a solution or experiment.</t>
+          <t>Manage data that meets user requirements, including queries and transactions;</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4634,17 +4660,17 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Remembering</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('evaluate', 'Evaluating')]</t>
+          <t>[('manage', 'Analysing'), ('meet', 'Remembering'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('compare', 'Understanding'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Analysing'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4659,7 +4685,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Appraise a complex engineering problem and investigate it using appropriate research methods and techniques.</t>
+          <t>Differentiate non-relational database model and the relational database model;</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4669,22 +4695,22 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[('appraise', 'Evaluating'), ('investigate', 'Analysing'), ('use', 'Applying')]</t>
+          <t>[('differentiate', 'Applying')]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
+          <t>[('prepare', 'Analysing'), ('generate', 'Creating'), ('sequence', 'Applying'), ('trace', 'Remembering'), ('lecture', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Analysing</t>
         </is>
       </c>
     </row>
@@ -4694,7 +4720,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Integrate foundational and discipline-specific knowledge to solve complex open-ended problems.</t>
+          <t>Design and implement a software system of a quality acceptable to an external client;</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4704,22 +4730,22 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[('integrate', 'Evaluating'), ('solve', 'Applying')]</t>
+          <t>[('design', 'Creating'), ('implement', 'Analysing')]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[('back', 'Applying'), ('trace', 'Remembering'), ('discuss', 'Understanding'), ('act', 'Applying'), ('define', 'Remembering')]</t>
+          <t>[('function', 'Evaluating'), ('design', 'Creating'), ('implement', 'Analysing'), ('debug', 'Evaluating'), ('analyse', 'Analysing')]</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Evaluating</t>
         </is>
       </c>
     </row>
@@ -4729,32 +4755,32 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Plan the scope and requirements of a research project or experiment, responding to changing requirements and potential interdisciplinary inputs.</t>
+          <t>Choose and follow a software development methodology that is appropriate to the team, project and client, and justify this methodology;</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[('plan', 'Creating'), ('respond', 'Understanding'), ('change', 'Applying')]</t>
+          <t>[('choose', 'Receiving'), ('follow', 'Receiving'), ('justify', 'Organisation')]</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[('experiment', 'Analysing'), ('improve', 'Evaluating'), ('interface', 'Evaluating'), ('generate', 'Creating'), ('lecture', 'Evaluating')]</t>
+          <t>[('adopt', 'Valuing'), ('monitor', 'Valuing'), ('collaborate', 'Organisation'), ('generate', 'Organisation'), ('mitigate', 'Characterisation')]</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Responding</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4790,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Generate research and technical outputs by applying appropriate techniques, resources and modern engineering tools to a complex open-ended engineering problem.</t>
+          <t>Produce internal documentation of a sufficient quality to support project development activities (including specification, analysis, design, testing) and address relevant security and other risks</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4774,17 +4800,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[('generate', 'Creating'), ('apply', 'Applying')]</t>
+          <t>[('produce', 'Creating'), ('support', 'Evaluating'), ('include', 'Verb not mapped'), ('address', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('derive', 'Applying'), ('query', 'Analysing'), ('order', 'Remembering')]</t>
+          <t>[('adopt', 'Evaluating'), ('monitor', 'Evaluating'), ('experiment', 'Analysing'), ('group', 'Analysing'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -4799,7 +4825,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Demonstrate consideration of the ethics and norms which guide engineering practice, including professionalism, innovation and creativity.</t>
+          <t>Verify systematically that internal and external project deliverables meet agreed quality standards, such as functionality, security and usability</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4809,24 +4835,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Valuing'), ('guide', 'Valuing'), ('include', 'Verb not mapped')]</t>
+          <t>[('verify', 'Characterisation'), ('meet', 'Receiving'), ('agree', 'Responding')]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>[('integrate', 'Organisation'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding'), ('adopt', 'Valuing')]</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
+          <t>[('relay', 'Responding'), ('mitigate', 'Characterisation'), ('generate', 'Organisation'), ('adopt', 'Valuing'), ('sequence', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4834,7 +4856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Assess the social, health, safety, legal, cultural, commercial and political impacts of the identified project, as appropriate.</t>
+          <t>Set achievable and measurable goals;</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4844,24 +4866,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[('assess', 'Evaluating'), ('identify', 'Understanding')]</t>
+          <t>[('set', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('identify', 'Understanding'), ('assess', 'Evaluating'), ('review', 'Remembering'), ('group', 'Analysing')]</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
+          <t>[('reduce', 'Evaluating'), ('file', 'Analysing'), ('interface', 'Evaluating'), ('lecture', 'Evaluating'), ('explore', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4869,7 +4887,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Describe the purpose of enterprise architectures and the underlying principles of their design;</t>
+          <t>Identify useful theoretical knowledge that has been covered in prior coursework and knowledge that has not yet been covered;</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4884,12 +4902,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('underlie', 'Verb not mapped')]</t>
+          <t>[('identify', 'Understanding'), ('cover', 'Verb not mapped'), ('cover', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>[('trace', 'Remembering'), ('establish', 'Applying'), ('utilise', 'Applying'), ('produce', 'Creating'), ('detail', 'Understanding')]</t>
+          <t>[('lecture', 'Evaluating'), ('generate', 'Creating'), ('assign', 'Applying'), ('mitigate', 'Creating'), ('study', 'Applying')]</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -4900,7 +4918,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Explain individual IT systems and services as interrelated components of an enterprise-wide platform;</t>
+          <t>Develop and practice professional skills and attitudes including: initiative, communication, time-management and teamwork skills in a business environment;</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4910,17 +4928,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[('explain', 'Understanding')]</t>
+          <t>[('develop', 'Creating'), ('practice', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('interface', 'Evaluating'), ('lecture', 'Evaluating'), ('characterise', 'Understanding'), ('simulate', 'Applying')]</t>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Analysing'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -4931,7 +4949,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Implement knowledge of industry-standard enterprise architecture models, approaches, frameworks and standards;</t>
+          <t>Develop solutions to business problems using information technology and other techniques;</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4941,17 +4959,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[('implement', 'Applying')]</t>
+          <t>[('develop', 'Creating'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[('design', 'Creating'), ('debug', 'Evaluating'), ('analyse', 'Analysing'), ('improve', 'Evaluating'), ('construct', 'Creating')]</t>
+          <t>[('reduce', 'Evaluating'), ('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding')]</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -4962,27 +4980,27 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Describe into the need for sound data, information and technology governance strategies;</t>
+          <t>Prepare documentation and written reports of a professional standard;</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding')]</t>
+          <t>[('prepare', 'Responding'), ('write', 'Responding')]</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>[('lecture', 'Evaluating'), ('interface', 'Evaluating'), ('simulate', 'Applying'), ('produce', 'Creating'), ('trace', 'Remembering')]</t>
+          <t>[('generate', 'Organisation'), ('prepare', 'Responding'), ('write', 'Responding'), ('report', 'Responding'), ('query', 'Valuing')]</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -4993,8 +5011,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Implement substantively to decisions regarding the design of an enterprise architecture for an organisation;</t>
+          <t>Address performance improvement opportunities identified by industry supervisors and self-assess opportunities for personal development;</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5004,17 +5021,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[('implement', 'Applying'), ('regard', 'Verb not mapped')]</t>
+          <t>[('address', 'Evaluating'), ('identify', 'Understanding'), ('assess', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>[('order', 'Remembering'), ('file', 'Analysing'), ('compute', 'Applying'), ('interface', 'Evaluating'), ('change', 'Applying')]</t>
+          <t>[('experiment', 'Analysing'), ('calculate', 'Analysing'), ('file', 'Analysing'), ('change', 'Analysing'), ('compare', 'Applying')]</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -5025,8 +5042,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Explain the alignment of an organisation's IT strategy, platforms and systems with the overall organisational strategy and management functions</t>
+          <t>Develop information technology skills (such as business process modelling, performance enhancement of installed software, updating current software and developing new software) in a complex, corporate business environment;</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5036,17 +5052,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[('explain', 'Understanding')]</t>
+          <t>[('develop', 'Creating'), ('instal', 'Verb not mapped'), ('update', 'Verb not mapped'), ('develop', 'Creating')]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('interface', 'Evaluating'), ('lecture', 'Evaluating'), ('characterise', 'Understanding'), ('simulate', 'Applying')]</t>
+          <t>[('validate', 'Evaluating'), ('develop', 'Creating'), ('issue', 'Analysing'), ('lecture', 'Evaluating'), ('study', 'Applying')]</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -5057,7 +5073,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>identify and explain big data concepts and technologies;</t>
+          <t>Apply engineering synthesis and design processes in a business and information technology environment;</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5067,24 +5083,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('explain', 'Understanding')]</t>
+          <t>[('apply', 'Analysing')]</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('interface', 'Evaluating'), ('lecture', 'Evaluating'), ('characterise', 'Understanding'), ('simulate', 'Applying')]</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Creating</t>
-        </is>
-      </c>
+          <t>[('create', 'Creating'), ('summarise', 'Applying'), ('derive', 'Analysing'), ('query', 'Analysing'), ('order', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5092,7 +5104,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>use big data streaming technologies.</t>
+          <t>Evaluate and critique the engineering approaches undertaken during the conduct and management of the projects.</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5102,24 +5114,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[('use', 'Applying'), ('stream', 'Verb not mapped')]</t>
+          <t>[('evaluate', 'Evaluating'), ('critique', 'Creating'), ('undertake', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding'), ('trace', 'Remembering')]</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>Appplying</t>
-        </is>
-      </c>
+          <t>[('experiment', 'Analysing'), ('mitigate', 'Creating'), ('group', 'Analysing'), ('investigate', 'Analysing'), ('monitor', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5127,28 +5135,27 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Describe the steps involved in various manufacturing processes for production at scale, including their strengths and limitations.</t>
+          <t>Implement programs using internet working concepts, IP addressing, IPC and socket-level interface;</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('involve', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('implement', 'Valuing'), ('use', 'Responding'), ('work', 'Valuing')]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Remembering'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+          <t>[('collaborate', 'Organisation'), ('satisfy', 'Organisation'), ('monitor', 'Valuing'), ('engage', 'Characterisation'), ('define', 'Responding')]</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -5159,8 +5166,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Select appropriate part manufacturing processes while balancing functional requirements, performance, cost and sustainability.</t>
+          <t>Implement and evaluate system level designs based on LAN architecture for organisational requirements.</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5170,20 +5176,24 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>[('implement', 'Analysing'), ('evaluate', 'Evaluating'), ('base', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>[('experiment', 'Analysing'), ('compare', 'Applying'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
           <t>Evaluating</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>[('select', 'Evaluating'), ('balance', 'Verb not mapped')]</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>[('discuss', 'Understanding'), ('utilise', 'Applying'), ('lecture', 'Evaluating'), ('devise', 'Evaluating'), ('improve', 'Evaluating')]</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5191,31 +5201,34 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Propose part design changes to improve suitability to given manufacturing processes.</t>
+          <t>Research relevant and reliable literature to evaluate the state of the field.</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Characterisation</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[('propose', 'Characterisation'), ('improve', 'Verb not mapped'), ('give', 'Receiving')]</t>
+          <t>[('research', 'Analysing'), ('evaluate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>[('allow', 'Responding'), ('follow', 'Receiving'), ('respond', 'Responding'), ('change', 'Characterisation'), ('select', 'Receiving')]</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
+          <t>[('experiment', 'Analysing'), ('compare', 'Applying'), ('file', 'Analysing'), ('respond', 'Understanding'), ('document', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5223,31 +5236,34 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Identify and carry out the necessary steps to conduct a small-scale production run and then reflect on the outcomes.</t>
+          <t>Analyse a problem and evaluate the potential of a solution or experiment.</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('carry', 'Verb not mapped'), ('conduct', 'Applying'), ('reflect', 'Evaluating')]</t>
+          <t>[('analyse', 'Organisation'), ('evaluate', 'Organisation')]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>[('propose', 'Creating'), ('analyse', 'Analysing'), ('explain', 'Understanding'), ('design', 'Creating'), ('construct', 'Creating')]</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
+          <t>[('compare', 'Responding'), ('respond', 'Responding'), ('prepare', 'Responding'), ('adopt', 'Valuing'), ('mitigate', 'Characterisation')]</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5255,7 +5271,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Apply principles and techniques of non-destructive testing (NDT), specifically dye penetration, magnetic particle, eddy current, ultrasonic radiography and optical inspection.</t>
+          <t>Appraise a complex engineering problem and investigate it using appropriate research methods and techniques.</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5265,20 +5281,24 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[('apply', 'Applying')]</t>
+          <t>[('appraise', 'Evaluating'), ('investigate', 'Analysing'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('derive', 'Applying'), ('query', 'Analysing'), ('order', 'Remembering')]</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr"/>
+          <t>[('reduce', 'Evaluating'), ('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5286,33 +5306,32 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Relate the capabilities and limitations of established NDT techniques to their respective basic working principles.</t>
+          <t>Plan the scope and requirements of a research project or experiment, responding to changing requirements and potential interdisciplinary inputs.</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[('relate', 'Organisation'), ('establish', 'Organisation')]</t>
+          <t>[('plan', 'Creating'), ('respond', 'Understanding'), ('change', 'Analysing')]</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>[('guide', 'Valuing'), ('discuss', 'Responding'), ('collaborate', 'Organisation'), ('generate', 'Organisation'), ('delay', 'Valuing')]</t>
+          <t>[('experiment', 'Analysing'), ('improve', 'Evaluating'), ('interface', 'Evaluating'), ('mitigate', 'Creating'), ('generate', 'Creating')]</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Creating</t>
         </is>
       </c>
     </row>
@@ -5322,8 +5341,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Evaluate the various NDT methods for flaw detection and damage assessment and be able to identify the appropriate technique for a given scenario.</t>
+          <t>Generate research and technical outputs by applying appropriate techniques, resources and modern engineering tools to a complex open-ended engineering problem.</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5333,20 +5351,24 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Evaluating'), ('identify', 'Understanding'), ('give', 'Understanding')]</t>
+          <t>[('generate', 'Creating'), ('apply', 'Analysing')]</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>[('provide', 'Applying'), ('respond', 'Understanding'), ('change', 'Applying'), ('select', 'Evaluating'), ('assess', 'Evaluating')]</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr"/>
+          <t>[('create', 'Creating'), ('summarise', 'Applying'), ('derive', 'Analysing'), ('query', 'Analysing'), ('order', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Creating</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5354,31 +5376,34 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Perform data acquisition and signal analysis related to NDT techniques and provide the solution of health and integrity of the test specimen.</t>
+          <t>Demonstrate consideration of the ethics and norms which guide engineering practice, including professionalism, innovation and creativity.</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[('perform', 'Relational'), ('relate', 'Relational'), ('provide', 'Verb not mapped')]</t>
+          <t>[('demonstrate', 'Responding'), ('guide', 'Valuing'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>[('order', 'Unistructural'), ('compare', 'Relational'), ('compute', 'Relational'), ('partition', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr"/>
+          <t>[('integrate', 'Organisation'), ('review', 'Valuing'), ('plan', 'Organisation'), ('discuss', 'Responding'), ('agree', 'Responding')]</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Responding</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5386,7 +5411,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Apply appropriate design methodology and engineering fundamentals such as mechanisms and electronics to design a mechatronics system that solves a manufacturing problem.</t>
+          <t>Assess the social, health, safety, legal, cultural, commercial and political impacts of the identified project, as appropriate.</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5396,20 +5421,24 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[('apply', 'Applying'), ('design', 'Creating'), ('solve', 'Applying')]</t>
+          <t>[('assess', 'Evaluating'), ('identify', 'Understanding')]</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>[('describe', 'Understanding'), ('implement', 'Applying'), ('interface', 'Evaluating'), ('interpret', 'Applying'), ('complete', 'Applying')]</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr"/>
+          <t>[('factor', 'Understanding'), ('assess', 'Evaluating'), ('identify', 'Understanding'), ('address', 'Evaluating'), ('review', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5417,7 +5446,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Use appropriate techniques, resources and modern engineering tools to achieve project goals.</t>
+          <t>Describe the purpose of enterprise architectures and the underlying principles of their design;</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5432,12 +5461,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[('use', 'Applying'), ('achieve', 'Verb not mapped')]</t>
+          <t>[('describe', 'Applying'), ('underlie', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>[('document', 'Analysing'), ('ensure', 'Analysing'), ('choose', 'Applying'), ('group', 'Analysing'), ('adopt', 'Evaluating')]</t>
+          <t>[('trace', 'Remembering'), ('establish', 'Analysing'), ('discern', 'Analysing'), ('utilise', 'Applying'), ('produce', 'Creating')]</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -5448,27 +5477,27 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Justify and communicate technical details of a mechatronics solution(s) in written and oral forms.</t>
+          <t>Explain individual IT systems and services as interrelated components of an enterprise-wide platform;</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[('justify', 'Valuing'), ('communicate', 'Responding'), ('write', 'Responding')]</t>
+          <t>[('explain', 'Applying')]</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>[('generate', 'Organisation'), ('prepare', 'Organisation'), ('report', 'Valuing'), ('query', 'Valuing'), ('act', 'Characterisation')]</t>
+          <t>[('describe', 'Applying'), ('discern', 'Analysing'), ('interface', 'Evaluating'), ('lecture', 'Evaluating'), ('characterise', 'Applying')]</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
@@ -5479,7 +5508,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Reflect on teamwork, project management, leadership and conflict resolution in the context of group projects and activities.</t>
+          <t>Implement knowledge of industry-standard enterprise architecture models, approaches, frameworks and standards;</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5489,17 +5518,17 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[('reflect', 'Evaluating')]</t>
+          <t>[('implement', 'Analysing')]</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>[('conduct', 'Applying'), ('conclude', 'Creating'), ('assign', 'Applying'), ('identify', 'Understanding'), ('compute', 'Applying')]</t>
+          <t>[('function', 'Evaluating'), ('design', 'Creating'), ('debug', 'Evaluating'), ('analyse', 'Analysing'), ('improve', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
@@ -5510,7 +5539,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Conduct and deliver projects in an organised and coherent manner using professional management tools within the given time frame.</t>
+          <t>Describe into the need for sound data, information and technology governance strategies;</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5525,12 +5554,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[('conduct', 'Applying'), ('deliver', 'Verb not mapped'), ('use', 'Applying'), ('give', 'Understanding')]</t>
+          <t>[('describe', 'Applying')]</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>[('provide', 'Applying'), ('respond', 'Understanding'), ('change', 'Applying'), ('select', 'Evaluating'), ('assess', 'Evaluating')]</t>
+          <t>[('lecture', 'Evaluating'), ('interface', 'Evaluating'), ('simulate', 'Analysing'), ('produce', 'Creating'), ('trace', 'Remembering')]</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
@@ -5541,7 +5570,8 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Demonstrate an understanding of smart manufacturing through project development.</t>
+          <t xml:space="preserve">
+Implement substantively to decisions regarding the design of an enterprise architecture for an organisation;</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5551,17 +5581,17 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Applying')]</t>
+          <t>[('implement', 'Analysing'), ('regard', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>[('ensure', 'Analysing'), ('detail', 'Understanding'), ('act', 'Applying'), ('monitor', 'Evaluating'), ('adopt', 'Evaluating')]</t>
+          <t>[('order', 'Applying'), ('file', 'Analysing'), ('compute', 'Analysing'), ('interface', 'Evaluating'), ('change', 'Analysing')]</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
@@ -5573,7 +5603,7 @@
       <c r="B159" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Appraise sensors in terms of their performance and characteristics, and apply transducer principles.</t>
+Explain the alignment of an organisation's IT strategy, platforms and systems with the overall organisational strategy and management functions</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5588,12 +5618,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[('appraise', 'Evaluating'), ('apply', 'Applying')]</t>
+          <t>[('explain', 'Applying')]</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('summarise', 'Understanding'), ('derive', 'Applying'), ('query', 'Analysing'), ('order', 'Remembering')]</t>
+          <t>[('describe', 'Applying'), ('discern', 'Analysing'), ('interface', 'Evaluating'), ('lecture', 'Evaluating'), ('characterise', 'Applying')]</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
@@ -5604,31 +5634,34 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Construct a complete sensory system including specifying the electronic components required.</t>
+          <t>identify and explain big data concepts and technologies;</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[('construct', 'Creating'), ('include', 'Verb not mapped'), ('specify', 'Evaluating'), ('require', 'Verb not mapped')]</t>
+          <t>[('identify', 'Unistructural'), ('explain', 'Unistructural')]</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>[('complete', 'Applying'), ('lecture', 'Evaluating'), ('specify', 'Evaluating'), ('characterise', 'Understanding'), ('back', 'Applying')]</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
+          <t>[('describe', 'Unistructural'), ('discern', 'Multistructural'), ('characterise', 'Unistructural'), ('simulate', 'Multistructural'), ('conduct', 'Multistructural')]</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5636,8 +5669,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Describe sensory techniques as used in robotics and implement these concepts.</t>
+          <t>apply common data analytics and machine learning algorithms in a big data environment;</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5647,20 +5679,24 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>[('apply', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>[('create', 'Creating'), ('summarise', 'Applying'), ('derive', 'Analysing'), ('query', 'Analysing'), ('order', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
           <t>Applying</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>[('describe', 'Understanding'), ('use', 'Applying'), ('implement', 'Applying')]</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>[('design', 'Creating'), ('debug', 'Evaluating'), ('analyse', 'Analysing'), ('improve', 'Evaluating'), ('construct', 'Creating')]</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5668,8 +5704,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Design, construct and debug a small microprocessor system that is capable of interfacing to a series of different inputs and outputs.</t>
+          <t>use big data streaming technologies.</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5679,20 +5714,24 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[('design', 'Creating'), ('construct', 'Creating'), ('debug', 'Evaluating'), ('interface', 'Evaluating')]</t>
+          <t>[('use', 'Applying'), ('stream', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>[('lecture', 'Evaluating'), ('sequence', 'Applying'), ('extract', 'Analysing'), ('change', 'Applying'), ('respond', 'Understanding')]</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr"/>
+          <t>[('reduce', 'Evaluating'), ('extract', 'Analysing'), ('interface', 'Evaluating'), ('file', 'Analysing'), ('example', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Appplying</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5701,30 +5740,599 @@
       <c r="B163" t="inlineStr">
         <is>
           <t xml:space="preserve">
+Describe the steps involved in various manufacturing processes for production at scale, including their strengths and limitations.</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>[('describe', 'Applying'), ('involve', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>[('factor', 'Understanding'), ('integrate', 'Evaluating'), ('review', 'Analysing'), ('plan', 'Creating'), ('devise', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Select appropriate part manufacturing processes while balancing functional requirements, performance, cost and sustainability.</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>[('select', 'Applying'), ('balance', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>[('discuss', 'Applying'), ('utilise', 'Applying'), ('lecture', 'Evaluating'), ('devise', 'Evaluating'), ('improve', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Propose part design changes to improve suitability to given manufacturing processes.</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>[('propose', 'Evaluating'), ('improve', 'Evaluating'), ('give', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>[('provide', 'Applying'), ('respond', 'Understanding'), ('address', 'Evaluating'), ('change', 'Analysing'), ('select', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Identify and carry out the necessary steps to conduct a small-scale production run and then reflect on the outcomes.</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('carry', 'Verb not mapped'), ('conduct', 'Analysing'), ('reflect', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>[('propose', 'Evaluating'), ('analyse', 'Analysing'), ('explain', 'Applying'), ('design', 'Creating'), ('construct', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Apply principles and techniques of non-destructive testing (NDT), specifically dye penetration, magnetic particle, eddy current, ultrasonic radiography and optical inspection.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>[('apply', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>[('create', 'Creating'), ('summarise', 'Applying'), ('derive', 'Analysing'), ('query', 'Analysing'), ('order', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Relate the capabilities and limitations of established NDT techniques to their respective basic working principles.</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>[('relate', 'Applying'), ('establish', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>[('define', 'Applying'), ('discuss', 'Applying'), ('interface', 'Evaluating'), ('sequence', 'Applying'), ('deliberate', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluate the various NDT methods for flaw detection and damage assessment and be able to identify the appropriate technique for a given scenario.</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Evaluating'), ('identify', 'Understanding'), ('give', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>[('provide', 'Applying'), ('respond', 'Understanding'), ('address', 'Evaluating'), ('change', 'Analysing'), ('select', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Perform data acquisition and signal analysis related to NDT techniques and provide the solution of health and integrity of the test specimen.</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>[('perform', 'Creating'), ('relate', 'Applying'), ('provide', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>[('experiment', 'Analysing'), ('order', 'Applying'), ('change', 'Analysing'), ('compare', 'Applying'), ('respond', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Apply appropriate design methodology and engineering fundamentals such as mechanisms and electronics to design a mechatronics system that solves a manufacturing problem.</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>[('apply', 'Analysing'), ('design', 'Creating'), ('solve', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>[('describe', 'Applying'), ('implement', 'Analysing'), ('interface', 'Evaluating'), ('interpret', 'Analysing'), ('complete', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Use appropriate techniques, resources and modern engineering tools to achieve project goals.</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>[('use', 'Applying'), ('achieve', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>[('document', 'Analysing'), ('ensure', 'Analysing'), ('choose', 'Applying'), ('group', 'Analysing'), ('adopt', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Justify and communicate technical details of a mechatronics solution(s) in written and oral forms.</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>[('justify', 'Organisation'), ('communicate', 'Responding'), ('write', 'Responding')]</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>[('generate', 'Organisation'), ('prepare', 'Responding'), ('report', 'Responding'), ('query', 'Valuing'), ('reduce', 'Organisation')]</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Reflect on teamwork, project management, leadership and conflict resolution in the context of group projects and activities.</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>[('reflect', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>[('conduct', 'Analysing'), ('conclude', 'Creating'), ('assign', 'Applying'), ('identify', 'Understanding'), ('compute', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Conduct and deliver projects in an organised and coherent manner using professional management tools within the given time frame.</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>[('conduct', 'Analysing'), ('deliver', 'Verb not mapped'), ('use', 'Applying'), ('give', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>[('provide', 'Applying'), ('respond', 'Understanding'), ('address', 'Evaluating'), ('change', 'Analysing'), ('select', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Demonstrate an understanding of smart manufacturing through project development.</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>[('demonstrate', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>[('engage', 'Creating'), ('ensure', 'Analysing'), ('detail', 'Understanding'), ('act', 'Analysing'), ('monitor', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Appraise sensors in terms of their performance and characteristics, and apply transducer principles.</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>[('appraise', 'Evaluating'), ('apply', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>[('create', 'Creating'), ('summarise', 'Applying'), ('derive', 'Analysing'), ('query', 'Analysing'), ('order', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Construct a complete sensory system including specifying the electronic components required.</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>[('construct', 'Evaluating'), ('include', 'Verb not mapped'), ('specify', 'Evaluating'), ('require', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>[('complete', 'Applying'), ('lecture', 'Evaluating'), ('specify', 'Evaluating'), ('characterise', 'Applying'), ('back', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Describe sensory techniques as used in robotics and implement these concepts.</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>[('describe', 'Applying'), ('use', 'Applying'), ('implement', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>[('function', 'Evaluating'), ('design', 'Creating'), ('debug', 'Evaluating'), ('analyse', 'Analysing'), ('improve', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Design, construct and debug a small microprocessor system that is capable of interfacing to a series of different inputs and outputs.</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>[('design', 'Creating'), ('construct', 'Evaluating'), ('debug', 'Evaluating'), ('interface', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>[('lecture', 'Evaluating'), ('sequence', 'Applying'), ('extract', 'Analysing'), ('change', 'Analysing'), ('respond', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Construct appropriate software and test processes to produce industry-ready products.</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Cognitive</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Creating</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>[('construct', 'Creating'), ('produce', 'Creating')]</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>[('attribute', 'Evaluating'), ('prepare', 'Applying'), ('experiment', 'Analysing'), ('respond', 'Understanding'), ('change', 'Applying')]</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>[('construct', 'Evaluating'), ('produce', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>[('attribute', 'Evaluating'), ('prepare', 'Analysing'), ('mitigate', 'Creating'), ('experiment', 'Analysing'), ('respond', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/failed_lo_mappings.xlsx
+++ b/outputs/failed_lo_mappings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G253"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('discuss', 'Responding'), ('prepare', 'Responding'), ('sequence', 'Valuing'), ('choose', 'Receiving')]</t>
+          <t>[('discuss', 'Responding'), ('allow', 'Responding'), ('adopt', 'Valuing'), ('delay', 'Valuing'), ('function', 'Characterisation')]</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[('guide', 'Valuing'), ('prepare', 'Responding'), ('discuss', 'Responding'), ('deliberate', 'Characterisation'), ('choose', 'Receiving')]</t>
+          <t>[('calculate', 'Valuing'), ('collaborate', 'Organisation'), ('delay', 'Valuing'), ('guide', 'Valuing'), ('perform', 'Characterisation')]</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[('establish', 'Valuing'), ('adopt', 'Valuing'), ('order', 'Responding'), ('monitor', 'Valuing'), ('mitigate', 'Characterisation')]</t>
+          <t>[('validate', 'Characterisation'), ('respond', 'Responding'), ('object', 'Characterisation'), ('change', 'Valuing'), ('summarise', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[('form', 'Valuing'), ('justify', 'Organisation'), ('collaborate', 'Organisation'), ('partition', 'Organisation'), ('discuss', 'Responding')]</t>
+          <t>[('select', 'Responding'), ('discern', 'Valuing'), ('engage', 'Characterisation'), ('consider', 'Organisation'), ('calculate', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>be an empathetic and global citizen who considers and creates value that is holistic and ethical, by challenging, integrating and accommodating differing world views</t>
+          <t>critically research and explore complex challenges to create and communicate innovative and informed ideas or solutions</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,22 +621,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Characterisation</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('consider', 'Organisation'), ('create', 'Characterisation'), ('challenge', 'Characterisation'), ('integrate', 'Organisation'), ('accommodate', 'Verb not mapped'), ('differ', 'Verb not mapped')]</t>
+          <t>[('research', 'Verb not mapped'), ('explore', 'Verb not mapped'), ('create', 'Characterisation'), ('communicate', 'Responding'), ('inform', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[('adopt', 'Valuing'), ('guide', 'Valuing'), ('relay', 'Responding'), ('act', 'Valuing'), ('discuss', 'Responding')]</t>
+          <t>[('challenge', 'Characterisation'), ('allow', 'Responding'), ('delay', 'Valuing'), ('respond', 'Responding'), ('investigate', 'Organisation')]</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>demonstrate broad technical and soft skills aligned to innovation, to deliver value to people, businesses and society</t>
+          <t>be an empathetic and global citizen who considers and creates value that is holistic and ethical, by challenging, integrating and accommodating differing world views</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,22 +656,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Characterisation</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Responding'), ('align', 'Verb not mapped'), ('deliver', 'Verb not mapped')]</t>
+          <t>[('consider', 'Organisation'), ('create', 'Characterisation'), ('challenge', 'Characterisation'), ('integrate', 'Organisation'), ('accommodate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[('value', 'Characterisation'), ('collaborate', 'Organisation'), ('discuss', 'Responding'), ('prepare', 'Responding'), ('monitor', 'Valuing')]</t>
+          <t>[('delay', 'Valuing'), ('choose', 'Receiving'), ('act', 'Valuing'), ('guide', 'Valuing'), ('challenge', 'Characterisation')]</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Relate bioprocess organisms and their nutrient requirement to bioprocess considerations.</t>
+          <t>demonstrate broad technical and soft skills aligned to innovation, to deliver value to people, businesses and society</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('relate', 'Responding')]</t>
+          <t>[('demonstrate', 'Responding'), ('align', 'Verb not mapped'), ('deliver', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[('establish', 'Valuing'), ('adopt', 'Valuing'), ('order', 'Responding'), ('monitor', 'Valuing'), ('mitigate', 'Characterisation')]</t>
+          <t>[('value', 'Characterisation'), ('guide', 'Valuing'), ('satisfy', 'Organisation'), ('sequence', 'Valuing'), ('establish', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Solve engineering problems related to design and operation of bioreactors.</t>
+          <t>Relate bioprocess organisms and their nutrient requirement to bioprocess considerations.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Characterisation</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('solve', 'Valuing'), ('relate', 'Responding')]</t>
+          <t>[('relate', 'Responding')]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[('establish', 'Valuing'), ('adopt', 'Valuing'), ('order', 'Responding'), ('monitor', 'Valuing'), ('mitigate', 'Characterisation')]</t>
+          <t>[('validate', 'Characterisation'), ('respond', 'Responding'), ('object', 'Characterisation'), ('change', 'Valuing'), ('summarise', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Operate bioreactor and evaluate the performance of cell growth under different operating conditions.</t>
+          <t>Solve engineering problems related to design and operation of bioreactors.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Responding, Valuing</t>
+          <t>Characterisation</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('operate', 'Verb not mapped'), ('evaluate', 'Organisation')]</t>
+          <t>[('solve', 'Valuing'), ('relate', 'Responding')]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[('compare', 'Responding'), ('simulate', 'Valuing'), ('reduce', 'Organisation'), ('contrast', 'Organisation'), ('appreciate', 'Organisation')]</t>
+          <t>[('validate', 'Characterisation'), ('respond', 'Responding'), ('object', 'Characterisation'), ('change', 'Valuing'), ('summarise', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Describe the overall architecture of an autonomous vehicle (AV) system.</t>
+          <t>Operate bioreactor and evaluate the performance of cell growth under different operating conditions.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,22 +796,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Responding, Valuing</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving')]</t>
+          <t>[('operate', 'Verb not mapped'), ('evaluate', 'Organisation')]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('synthesise', 'Organisation'), ('choose', 'Receiving'), ('prepare', 'Responding'), ('complete', 'Valuing')]</t>
+          <t>[('agree', 'Responding'), ('study', 'Responding'), ('simulate', 'Valuing'), ('perform', 'Characterisation'), ('respond', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -821,8 +821,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Apply learned concepts to design algorithms for different functionalities of the AV system, such as localisation, perception, planning and control.</t>
+          <t>Describe the overall architecture of an autonomous vehicle (AV) system.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -832,22 +831,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Recieving</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('apply', 'Valuing'), ('learn', 'Verb not mapped'), ('design', 'Organisation')]</t>
+          <t>[('describe', 'Receiving')]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[('prepare', 'Responding'), ('delay', 'Valuing'), ('generate', 'Organisation'), ('appreciate', 'Organisation'), ('discuss', 'Responding')]</t>
+          <t>[('mitigate', 'Characterisation'), ('appreciate', 'Organisation'), ('allow', 'Responding'), ('deliberate', 'Characterisation'), ('characterise', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -857,7 +856,8 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Integrate and evaluate the AV system including testing and validation of algorithms and decision-making of the system.</t>
+          <t xml:space="preserve">
+Apply learned concepts to design algorithms for different functionalities of the AV system, such as localisation, perception, planning and control.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -872,17 +872,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('integrate', 'Organisation'), ('evaluate', 'Organisation'), ('include', 'Verb not mapped')]</t>
+          <t>[('apply', 'Valuing'), ('learn', 'Verb not mapped'), ('design', 'Organisation')]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[('organise', 'Organisation'), ('adopt', 'Valuing'), ('query', 'Valuing'), ('deliberate', 'Characterisation'), ('plan', 'Organisation')]</t>
+          <t>[('propose', 'Characterisation'), ('summarise', 'Responding'), ('report', 'Responding'), ('follow', 'Receiving'), ('monitor', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -892,32 +892,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Identify and calculate the loads to which a bridge is subjected, according to first principles and relevant codes of practice.</t>
+          <t>Integrate and evaluate the AV system including testing and validation of algorithms and decision-making of the system.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mechanism</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('identify', 'Perception'), ('calculate', 'Mechanism'), ('subject', 'Verb not mapped'), ('accord', 'Verb not mapped')]</t>
+          <t>[('integrate', 'Organisation'), ('evaluate', 'Organisation'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[('respond', 'Guided Response'), ('calculate', 'Mechanism'), ('change', 'Mechanism'), ('mitigate', 'Origination'), ('appreciate', 'Adaptation')]</t>
+          <t>[('support', 'Valuing'), ('adopt', 'Valuing'), ('lead', 'Organisation'), ('monitor', 'Valuing'), ('query', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Guided Response'), ('review', 'Mechanism'), ('conduct', 'Mechanism'), ('report', 'Guided Response'), ('issue', 'Mechanism')]</t>
+          <t>[('engage', 'Origination'), ('demonstrate', 'Guided Response'), ('work', 'Guided Response'), ('design', 'Origination'), ('summarise', 'Guided Response')]</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[('choose', 'Perception'), ('generate', 'Origination'), ('mitigate', 'Origination'), ('respond', 'Guided Response'), ('define', 'Guided Response')]</t>
+          <t>[('partition', 'Adaptation'), ('satisfy', 'Adaptation'), ('perform', 'Complex Overt Response'), ('mitigate', 'Origination'), ('respond', 'Guided Response')]</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[('organise', 'Mechanism'), ('deliberate', 'Origination'), ('plan', 'Origination'), ('mitigate', 'Origination'), ('choose', 'Perception')]</t>
+          <t>[('perform', 'Complex Overt Response'), ('follow', 'Guided Response'), ('organise', 'Mechanism'), ('address', 'Adaptation'), ('mitigate', 'Origination')]</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[('organise', 'Mechanism'), ('deliberate', 'Origination'), ('plan', 'Origination'), ('mitigate', 'Origination'), ('choose', 'Perception')]</t>
+          <t>[('perform', 'Complex Overt Response'), ('follow', 'Guided Response'), ('organise', 'Mechanism'), ('address', 'Adaptation'), ('mitigate', 'Origination')]</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[('work', 'Guided Response'), ('reduce', 'Adaptation'), ('justify', 'Origination'), ('contrast', 'Adaptation'), ('describe', 'Perception')]</t>
+          <t>[('discuss', 'Guided Response'), ('compute', 'Mechanism'), ('formulate', 'Origination'), ('work', 'Guided Response'), ('respond', 'Guided Response')]</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[('organise', 'Organisation'), ('adopt', 'Valuing'), ('query', 'Valuing'), ('deliberate', 'Characterisation'), ('plan', 'Organisation')]</t>
+          <t>[('support', 'Valuing'), ('adopt', 'Valuing'), ('lead', 'Organisation'), ('monitor', 'Valuing'), ('query', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[('organise', 'Mechanism'), ('deliberate', 'Origination'), ('plan', 'Origination'), ('mitigate', 'Origination'), ('choose', 'Perception')]</t>
+          <t>[('perform', 'Complex Overt Response'), ('follow', 'Guided Response'), ('organise', 'Mechanism'), ('address', 'Adaptation'), ('mitigate', 'Origination')]</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mechanism</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[('organise', 'Mechanism'), ('compare', 'Guided Response'), ('prepare', 'Guided Response'), ('respond', 'Guided Response'), ('justify', 'Origination')]</t>
+          <t>[('simulate', 'Mechanism'), ('mitigate', 'Origination'), ('prove', 'Adaptation'), ('derive', 'Mechanism'), ('respond', 'Guided Response')]</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[('plan', 'Organisation'), ('manage', 'Organisation'), ('organise', 'Organisation'), ('agree', 'Responding'), ('query', 'Valuing')]</t>
+          <t>[('organise', 'Organisation'), ('manage', 'Organisation'), ('validate', 'Characterisation'), ('plan', 'Organisation'), ('mitigate', 'Characterisation')]</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[('plan', 'Organisation'), ('organise', 'Organisation'), ('agree', 'Responding'), ('query', 'Valuing'), ('adopt', 'Valuing')]</t>
+          <t>[('organise', 'Organisation'), ('validate', 'Characterisation'), ('plan', 'Organisation'), ('mitigate', 'Characterisation'), ('select', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Identify strategic constraints in managing the scope, time, cost and quality components.</t>
+          <t>Discuss professional responsibility, occupational health and safety and ethical conduct.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1292,17 +1292,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Adaptation</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[('identify', 'Perception'), ('manage', 'Adaptation')]</t>
+          <t>[('discuss', 'Guided Response')]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[('plan', 'Origination'), ('organise', 'Mechanism'), ('mitigate', 'Origination'), ('respond', 'Guided Response'), ('satisfy', 'Adaptation')]</t>
+          <t>[('sequence', 'Mechanism'), ('satisfy', 'Adaptation'), ('verify', 'Adaptation'), ('determine', 'Mechanism'), ('trace', 'Guided Response')]</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,8 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Discuss professional responsibility, occupational health and safety and ethical conduct.</t>
+          <t xml:space="preserve">
+Evaluate the functionality and performance of these programs using software development tools.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1332,12 +1333,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[('discuss', 'Responding')]</t>
+          <t>[('evaluate', 'Organisation'), ('use', 'Responding')]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('collaborate', 'Organisation'), ('act', 'Valuing'), ('guide', 'Valuing'), ('lead', 'Organisation')]</t>
+          <t>[('reduce', 'Organisation'), ('construct', 'Organisation'), ('state', 'Responding'), ('describe', 'Receiving'), ('agree', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -1347,32 +1348,33 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Discuss professional responsibility, occupational health and safety and ethical conduct.</t>
+          <t xml:space="preserve">
+Describe the operation of computer arithmetic, assemblers and compilers, a RISC processor datapath and solve related problems.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[('discuss', 'Guided Response')]</t>
+          <t>[('describe', 'Receiving'), ('solve', 'Valuing'), ('relate', 'Responding')]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[('observe', 'Guided Response'), ('value', 'Origination'), ('respond', 'Guided Response'), ('sequence', 'Mechanism'), ('characterise', 'Guided Response')]</t>
+          <t>[('validate', 'Characterisation'), ('review', 'Valuing'), ('respond', 'Responding'), ('object', 'Characterisation'), ('change', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -1382,8 +1384,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Evaluate the functionality and performance of these programs using software development tools.</t>
+          <t>Solve real-world engineering problems by designing ladder logic diagrams for programmable logic controllers (PLC) using components such as normally open contacts, normally closed contacts, relays, timers and counters.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1393,7 +1394,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Characterisation, Organization</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1403,12 +1404,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Organisation'), ('use', 'Responding')]</t>
+          <t>[('solve', 'Valuing'), ('design', 'Organisation'), ('use', 'Responding'), ('close', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[('reduce', 'Organisation'), ('evaluate', 'Organisation'), ('use', 'Responding'), ('formulate', 'Organisation'), ('compare', 'Responding')]</t>
+          <t>[('relay', 'Responding'), ('act', 'Valuing'), ('satisfy', 'Organisation'), ('simulate', 'Valuing'), ('delay', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -1418,33 +1419,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Describe the operation of computer arithmetic, assemblers and compilers, a RISC processor datapath and solve related problems.</t>
+          <t>Solve real-world engineering problems by designing ladder logic diagrams for programmable logic controllers (PLC) using components such as normally open contacts, normally closed contacts, relays, timers and counters.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('solve', 'Valuing')]</t>
+          <t>[('solve', 'Mechanism'), ('design', 'Origination'), ('use', 'Guided Response'), ('close', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('synthesise', 'Organisation'), ('choose', 'Receiving'), ('prepare', 'Responding'), ('complete', 'Valuing')]</t>
+          <t>[('satisfy', 'Adaptation'), ('simulate', 'Mechanism'), ('deliberate', 'Origination'), ('describe', 'Perception'), ('characterise', 'Guided Response')]</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,33 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Solve real-world engineering problems by designing ladder logic diagrams for programmable logic controllers (PLC) using components such as normally open contacts, normally closed contacts, relays, timers and counters.</t>
+          <t xml:space="preserve">
+Describe and define appropriate models for the behaviour of key semiconductor electronic components (diodes, transistors, operational amplifiers) in circuits and summarise their uses.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Characterisation, Organization</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[('solve', 'Valuing'), ('design', 'Organisation'), ('use', 'Responding'), ('close', 'Verb not mapped')]</t>
+          <t>[('describe', 'Perception'), ('define', 'Guided Response'), ('summarise', 'Guided Response')]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('discuss', 'Responding'), ('guide', 'Valuing'), ('collaborate', 'Organisation'), ('respond', 'Responding')]</t>
+          <t>[('generate', 'Origination'), ('respond', 'Guided Response'), ('perform', 'Complex Overt Response'), ('compute', 'Mechanism'), ('partition', 'Adaptation')]</t>
         </is>
       </c>
     </row>
@@ -1489,32 +1490,33 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Solve real-world engineering problems by designing ladder logic diagrams for programmable logic controllers (PLC) using components such as normally open contacts, normally closed contacts, relays, timers and counters.</t>
+          <t xml:space="preserve">
+Simulate cameras using projective and multi-view geometry to design model-based vision systems and algorithms that extract 3D and rotational information from images, alongside methods for image registration and stitching.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Origination</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[('solve', 'Mechanism'), ('design', 'Origination'), ('use', 'Guided Response'), ('close', 'Verb not mapped')]</t>
+          <t>[('simulate', 'Valuing'), ('use', 'Responding'), ('design', 'Organisation'), ('base', 'Verb not mapped'), ('extract', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[('discuss', 'Guided Response'), ('respond', 'Guided Response'), ('characterise', 'Guided Response'), ('reduce', 'Adaptation'), ('mitigate', 'Origination')]</t>
+          <t>[('object', 'Characterisation'), ('sequence', 'Valuing'), ('choose', 'Receiving'), ('perform', 'Characterisation'), ('simulate', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1527,7 @@
       <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Describe and define appropriate models for the behaviour of key semiconductor electronic components (diodes, transistors, operational amplifiers) in circuits and summarise their uses.</t>
+Simulate cameras using projective and multi-view geometry to design model-based vision systems and algorithms that extract 3D and rotational information from images, alongside methods for image registration and stitching.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1535,22 +1537,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Mechanism</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[('describe', 'Perception'), ('define', 'Guided Response'), ('summarise', 'Guided Response')]</t>
+          <t>[('simulate', 'Mechanism'), ('use', 'Guided Response'), ('design', 'Origination'), ('base', 'Verb not mapped'), ('extract', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[('order', 'Guided Response'), ('derive', 'Mechanism'), ('prepare', 'Guided Response'), ('partition', 'Adaptation'), ('prove', 'Adaptation')]</t>
+          <t>[('sequence', 'Mechanism'), ('choose', 'Perception'), ('perform', 'Complex Overt Response'), ('simulate', 'Mechanism'), ('operate', 'Mechanism')]</t>
         </is>
       </c>
     </row>
@@ -1560,33 +1562,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Simulate cameras using projective and multi-view geometry to design model-based vision systems and algorithms that extract 3D and rotational information from images, alongside methods for image registration and stitching.</t>
+          <t>Differentiate between elements of the human visual system and computer vision pipelines, and reflect on the consequences for the design of algorithms for scene understanding.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Mechanism</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[('simulate', 'Valuing'), ('use', 'Responding'), ('design', 'Organisation'), ('base', 'Verb not mapped'), ('extract', 'Verb not mapped')]</t>
+          <t>[('differentiate', 'Mechanism'), ('reflect', 'Origination')]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[('sequence', 'Valuing'), ('mitigate', 'Characterisation'), ('relay', 'Responding'), ('reduce', 'Organisation'), ('object', 'Characterisation')]</t>
+          <t>[('simulate', 'Mechanism'), ('perform', 'Complex Overt Response'), ('sequence', 'Mechanism'), ('reduce', 'Adaptation'), ('summarise', 'Guided Response')]</t>
         </is>
       </c>
     </row>
@@ -1596,33 +1597,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Simulate cameras using projective and multi-view geometry to design model-based vision systems and algorithms that extract 3D and rotational information from images, alongside methods for image registration and stitching.</t>
+          <t>Design ethical machine learning solutions to problems in computer vision, such as image classification, 3D reconstruction and pose estimation, object detection and semantic segmentation, by critically appraising information and publications.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Origination</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[('simulate', 'Mechanism'), ('use', 'Guided Response'), ('design', 'Origination'), ('base', 'Verb not mapped'), ('extract', 'Verb not mapped')]</t>
+          <t>[('design', 'Organisation'), ('appraise', 'Characterisation')]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[('sequence', 'Mechanism'), ('trace', 'Guided Response'), ('mitigate', 'Origination'), ('reduce', 'Adaptation'), ('compare', 'Guided Response')]</t>
+          <t>[('object', 'Characterisation'), ('sequence', 'Valuing'), ('describe', 'Receiving'), ('simulate', 'Valuing'), ('monitor', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,8 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Differentiate between elements of the human visual system and computer vision pipelines, and reflect on the consequences for the design of algorithms for scene understanding.</t>
+          <t xml:space="preserve">
+Identify the limits of human visual and aural perception, and how they can be exploited for bit rate reduction.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1642,22 +1643,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>valuing</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Characterisation</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[('differentiate', 'Valuing'), ('reflect', 'Characterisation')]</t>
+          <t>[('identify', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('mitigate', 'Characterisation'), ('generate', 'Organisation'), ('collaborate', 'Organisation'), ('object', 'Characterisation')]</t>
+          <t>[('lead', 'Organisation'), ('appreciate', 'Organisation'), ('perform', 'Characterisation'), ('allow', 'Responding'), ('sequence', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -1667,32 +1668,33 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Differentiate between elements of the human visual system and computer vision pipelines, and reflect on the consequences for the design of algorithms for scene understanding.</t>
+          <t xml:space="preserve">
+Describe the structure of modern multimedia compression systems, and how they exploit the characteristics of both the media itself and human consumers of the media.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Origination</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[('differentiate', 'Mechanism'), ('reflect', 'Origination')]</t>
+          <t>[('describe', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Origination'), ('heat', 'Mechanism'), ('generate', 'Origination'), ('trace', 'Guided Response'), ('operate', 'Mechanism')]</t>
+          <t>[('lead', 'Organisation'), ('appreciate', 'Organisation'), ('perform', 'Characterisation'), ('allow', 'Responding'), ('sequence', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -1702,32 +1704,33 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Design ethical machine learning solutions to problems in computer vision, such as image classification, 3D reconstruction and pose estimation, object detection and semantic segmentation, by critically appraising information and publications.</t>
+          <t xml:space="preserve">
+Explain how media can be characterised and described, including methods that allow similarities to be automatically identified (e.g. music matching services).</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[('design', 'Organisation'), ('appraise', 'Characterisation')]</t>
+          <t>[('explain', 'Set'), ('characterise', 'Guided Response'), ('describe', 'Perception'), ('include', 'Verb not mapped'), ('allow', 'Verb not mapped'), ('identify', 'Perception')]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[('summarise', 'Responding'), ('object', 'Characterisation'), ('choose', 'Receiving'), ('prove', 'Organisation'), ('sequence', 'Valuing')]</t>
+          <t>[('address', 'Adaptation'), ('mitigate', 'Origination'), ('discuss', 'Guided Response'), ('observe', 'Guided Response'), ('identify', 'Perception')]</t>
         </is>
       </c>
     </row>
@@ -1737,8 +1740,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Identify the limits of human visual and aural perception, and how they can be exploited for bit rate reduction.</t>
+          <t>Compute the end-to-end delay performance of modern Internet protocols supporting media streaming, and relate this to service requirements for on-demand and communicative multimedia services.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1748,22 +1750,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[('identify', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
+          <t>[('compute', 'Valuing'), ('support', 'Valuing'), ('relate', 'Responding')]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[('agree', 'Responding'), ('act', 'Valuing'), ('differentiate', 'Valuing'), ('relay', 'Responding'), ('collaborate', 'Organisation')]</t>
+          <t>[('validate', 'Characterisation'), ('review', 'Valuing'), ('respond', 'Responding'), ('object', 'Characterisation'), ('change', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1776,7 @@
       <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Describe the structure of modern multimedia compression systems, and how they exploit the characteristics of both the media itself and human consumers of the media.</t>
+As part of a team, research and investigate an area of interest beyond lecture material, involving software simulations and analysis of results.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1784,22 +1786,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('exploit', 'Verb not mapped')]</t>
+          <t>[('research', 'Verb not mapped'), ('investigate', 'Organisation'), ('involve', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[('agree', 'Responding'), ('act', 'Valuing'), ('differentiate', 'Valuing'), ('relay', 'Responding'), ('collaborate', 'Organisation')]</t>
+          <t>[('allow', 'Responding'), ('perform', 'Characterisation'), ('act', 'Valuing'), ('guide', 'Valuing'), ('investigate', 'Organisation')]</t>
         </is>
       </c>
     </row>
@@ -1810,32 +1812,32 @@
       <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Explain how media can be characterised and described, including methods that allow similarities to be automatically identified (e.g. music matching services).</t>
+Describe concepts and fundamentals of deep learning, such as the backpropagation algorithm and adversarial learning.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[('explain', 'Set'), ('characterise', 'Guided Response'), ('describe', 'Perception'), ('include', 'Verb not mapped'), ('allow', 'Verb not mapped'), ('identify', 'Perception')]</t>
+          <t>[('describe', 'Receiving')]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[('validate', 'Origination'), ('respond', 'Guided Response'), ('discuss', 'Guided Response'), ('address', 'Adaptation'), ('issue', 'Mechanism')]</t>
+          <t>[('mitigate', 'Characterisation'), ('appreciate', 'Organisation'), ('allow', 'Responding'), ('deliberate', 'Characterisation'), ('characterise', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1847,8 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Compute the end-to-end delay performance of modern Internet protocols supporting media streaming, and relate this to service requirements for on-demand and communicative multimedia services.</t>
+          <t xml:space="preserve">
+Design deep learning solutions to problems in computer vision, natural language processing and signal processing. Examples are image classification, object detection, sequence modelling and filter design.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1860,17 +1863,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[('compute', 'Valuing'), ('support', 'Valuing'), ('relate', 'Responding')]</t>
+          <t>[('design', 'Organisation')]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[('establish', 'Valuing'), ('adopt', 'Valuing'), ('order', 'Responding'), ('monitor', 'Valuing'), ('mitigate', 'Characterisation')]</t>
+          <t>[('propose', 'Characterisation'), ('summarise', 'Responding'), ('follow', 'Receiving'), ('monitor', 'Valuing'), ('apply', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1884,7 @@
       <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-As part of a team, research and investigate an area of interest beyond lecture material, involving software simulations and analysis of results.</t>
+Appraise critically the sources of information and contents of scientific publications and choose relevant information.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1891,22 +1894,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[('research', 'Verb not mapped'), ('investigate', 'Organisation'), ('involve', 'Verb not mapped')]</t>
+          <t>[('appraise', 'Characterisation'), ('choose', 'Receiving')]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[('study', 'Responding'), ('compute', 'Valuing'), ('investigate', 'Organisation'), ('complete', 'Valuing'), ('summarise', 'Responding')]</t>
+          <t>[('sequence', 'Valuing'), ('monitor', 'Valuing'), ('guide', 'Valuing'), ('delay', 'Valuing'), ('follow', 'Receiving')]</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1920,7 @@
       <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Describe concepts and fundamentals of deep learning, such as the backpropagation algorithm and adversarial learning.</t>
+Design and develop simple MEMS devices, organic electronic devices (such as Organic Light Emitting Diode) and theoretical models involving multi physics</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1927,22 +1930,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving')]</t>
+          <t>[('design', 'Organisation'), ('develop', 'Organisation'), ('emit', 'Verb not mapped'), ('involve', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('synthesise', 'Organisation'), ('choose', 'Receiving'), ('prepare', 'Responding'), ('complete', 'Valuing')]</t>
+          <t>[('allow', 'Responding'), ('perform', 'Characterisation'), ('act', 'Valuing'), ('guide', 'Valuing'), ('investigate', 'Organisation')]</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1956,7 @@
       <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Design deep learning solutions to problems in computer vision, natural language processing and signal processing. Examples are image classification, object detection, sequence modelling and filter design.</t>
+Select suitable electronic components and develop simple MEMS or Organic electronic device based systems, evaluate structural and material properties of Micro/Nano devices through simulation studies</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1963,7 +1966,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Responding, Valuing</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1973,12 +1976,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[('design', 'Organisation')]</t>
+          <t>[('develop', 'Organisation'), ('base', 'Verb not mapped'), ('evaluate', 'Organisation')]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[('develop', 'Organisation'), ('propose', 'Characterisation'), ('follow', 'Receiving'), ('apply', 'Valuing'), ('order', 'Responding')]</t>
+          <t>[('agree', 'Responding'), ('study', 'Responding'), ('simulate', 'Valuing'), ('perform', 'Characterisation'), ('respond', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -1989,32 +1992,32 @@
       <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Appraise critically the sources of information and contents of scientific publications and choose relevant information.</t>
+Select suitable electronic components and develop simple MEMS or Organic electronic device based systems, evaluate structural and material properties of Micro/Nano devices through simulation studies</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[('appraise', 'Characterisation'), ('choose', 'Receiving')]</t>
+          <t>[('develop', 'Origination'), ('base', 'Verb not mapped'), ('evaluate', 'Adaptation')]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[('adopt', 'Valuing'), ('act', 'Valuing'), ('collaborate', 'Organisation'), ('relay', 'Responding'), ('monitor', 'Valuing')]</t>
+          <t>[('simulate', 'Mechanism'), ('perform', 'Complex Overt Response'), ('respond', 'Guided Response'), ('validate', 'Origination'), ('compare', 'Guided Response')]</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2028,7 @@
       <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Design and develop simple MEMS devices, organic electronic devices (such as Organic Light Emitting Diode) and theoretical models involving multi physics</t>
+Summarise fundamentals of nanotechnology and propose research opportunities in designing Micro technologies</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2035,22 +2038,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[('design', 'Organisation'), ('develop', 'Organisation'), ('involve', 'Verb not mapped')]</t>
+          <t>[('summarise', 'Responding'), ('propose', 'Characterisation'), ('design', 'Organisation')]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[('study', 'Responding'), ('compute', 'Valuing'), ('investigate', 'Organisation'), ('complete', 'Valuing'), ('summarise', 'Responding')]</t>
+          <t>[('design', 'Organisation'), ('propose', 'Characterisation'), ('summarise', 'Responding'), ('follow', 'Receiving'), ('monitor', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2064,7 @@
       <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Select suitable electronic components and develop simple MEMS or Organic electronic device based systems, evaluate structural and material properties of Micro/Nano devices through simulation studies</t>
+Design and implement a system to solve a given complex engineering problem in the field of Intelligent lighting control using the knowledge of SSL.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2071,22 +2074,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Responding, Valuing</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[('select', 'Responding'), ('develop', 'Organisation'), ('base', 'Verb not mapped'), ('evaluate', 'Organisation')]</t>
+          <t>[('design', 'Organisation'), ('implement', 'Valuing'), ('solve', 'Valuing'), ('give', 'Receiving'), ('use', 'Responding')]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[('compare', 'Responding'), ('simulate', 'Valuing'), ('reduce', 'Organisation'), ('contrast', 'Organisation'), ('appreciate', 'Organisation')]</t>
+          <t>[('reduce', 'Organisation'), ('construct', 'Organisation'), ('state', 'Responding'), ('describe', 'Receiving'), ('agree', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2100,7 @@
       <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Select suitable electronic components and develop simple MEMS or Organic electronic device based systems, evaluate structural and material properties of Micro/Nano devices through simulation studies</t>
+Design and implement a system to solve a given complex engineering problem in the field of Intelligent lighting control using the knowledge of SSL.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2107,22 +2110,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Mechanism</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[('select', 'Guided Response'), ('develop', 'Origination'), ('base', 'Verb not mapped'), ('evaluate', 'Adaptation')]</t>
+          <t>[('design', 'Origination'), ('implement', 'Mechanism'), ('solve', 'Mechanism'), ('give', 'Verb not mapped'), ('use', 'Guided Response')]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[('compare', 'Guided Response'), ('simulate', 'Mechanism'), ('reduce', 'Adaptation'), ('contrast', 'Adaptation'), ('appreciate', 'Adaptation')]</t>
+          <t>[('reduce', 'Adaptation'), ('construct', 'Adaptation'), ('state', 'Set'), ('describe', 'Perception'), ('contrast', 'Adaptation')]</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2136,7 @@
       <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Summarise fundamentals of nanotechnology and propose research opportunities in designing Micro technologies</t>
+Conduct experiments to investigate various relationships in photometry, radiometry, colour quality, the energy consumption of light sources and the implementation of IoT-based lighting control.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2143,22 +2146,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Valuing</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[('summarise', 'Responding'), ('propose', 'Characterisation'), ('design', 'Organisation')]</t>
+          <t>[('conduct', 'Valuing'), ('investigate', 'Organisation'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[('generate', 'Organisation'), ('write', 'Responding'), ('challenge', 'Characterisation'), ('develop', 'Organisation'), ('design', 'Organisation')]</t>
+          <t>[('plan', 'Organisation'), ('organise', 'Organisation'), ('engage', 'Characterisation'), ('synthesise', 'Organisation'), ('create', 'Characterisation')]</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2172,7 @@
       <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Design and implement a system to solve a given complex engineering problem in the field of Intelligent lighting control using the knowledge of SSL.</t>
+Assess critically the research literature in the field of solid-state lighting to evaluate recent findings and directions in SSL technology</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2179,22 +2182,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Characterisation</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[('design', 'Organisation'), ('implement', 'Valuing'), ('solve', 'Valuing'), ('give', 'Receiving'), ('use', 'Responding')]</t>
+          <t>[('assess', 'Characterisation'), ('evaluate', 'Organisation')]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[('reduce', 'Organisation'), ('evaluate', 'Organisation'), ('formulate', 'Organisation'), ('compare', 'Responding'), ('function', 'Characterisation')]</t>
+          <t>[('agree', 'Responding'), ('study', 'Responding'), ('simulate', 'Valuing'), ('perform', 'Characterisation'), ('respond', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -2204,33 +2207,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Design and implement a system to solve a given complex engineering problem in the field of Intelligent lighting control using the knowledge of SSL.</t>
+          <t>describe the concepts of EIA, ERA and EMS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Origination</t>
+          <t>Recieving</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Mechanism</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[('design', 'Origination'), ('implement', 'Mechanism'), ('solve', 'Mechanism'), ('give', 'Verb not mapped'), ('use', 'Guided Response')]</t>
+          <t>[('describe', 'Receiving')]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[('reduce', 'Adaptation'), ('evaluate', 'Adaptation'), ('formulate', 'Origination'), ('compare', 'Guided Response'), ('function', 'Adaptation')]</t>
+          <t>[('mitigate', 'Characterisation'), ('appreciate', 'Organisation'), ('allow', 'Responding'), ('deliberate', 'Characterisation'), ('characterise', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -2240,8 +2242,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Conduct experiments to investigate various relationships in photometry, radiometry, colour quality, the energy consumption of light sources and the implementation of IoT-based lighting control.</t>
+          <t>determine the role of these assessments and management systems in society, especially the relevant environmental legislation, policies, codes of practice and local/international standards</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2261,12 +2262,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[('conduct', 'Valuing'), ('investigate', 'Organisation'), ('base', 'Verb not mapped')]</t>
+          <t>[('determine', 'Valuing')]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[('adopt', 'Valuing'), ('allow', 'Responding'), ('discern', 'Valuing'), ('organise', 'Organisation'), ('propose', 'Characterisation')]</t>
+          <t>[('allow', 'Responding'), ('adopt', 'Valuing'), ('monitor', 'Valuing'), ('discuss', 'Responding'), ('respond', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -2276,8 +2277,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Assess critically the research literature in the field of solid-state lighting to evaluate recent findings and directions in SSL technology</t>
+          <t>comprehend the government, industry and community perspectives on engineering projects</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2290,19 +2290,15 @@
           <t>Valuing</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[('assess', 'Characterisation'), ('evaluate', 'Organisation')]</t>
+          <t>[('comprehend', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[('compare', 'Responding'), ('simulate', 'Valuing'), ('reduce', 'Organisation'), ('contrast', 'Organisation'), ('appreciate', 'Organisation')]</t>
+          <t>[('choose', 'Receiving'), ('collaborate', 'Organisation'), ('delay', 'Valuing'), ('object', 'Characterisation'), ('calculate', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2308,8 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>describe the concepts of EIA, ERA and EMS</t>
+          <t xml:space="preserve">
+assess various types of environmental impact assessment, risk evaluation and environmental management system methodologies</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2322,22 +2319,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Characterisation</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving')]</t>
+          <t>[('assess', 'Characterisation')]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('synthesise', 'Organisation'), ('choose', 'Receiving'), ('prepare', 'Responding'), ('complete', 'Valuing')]</t>
+          <t>[('adopt', 'Valuing'), ('lead', 'Organisation'), ('mitigate', 'Characterisation'), ('prepare', 'Responding'), ('collaborate', 'Organisation')]</t>
         </is>
       </c>
     </row>
@@ -2347,32 +2344,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>determine the role of these assessments and management systems in society, especially the relevant environmental legislation, policies, codes of practice and local/international standards</t>
+          <t>Apply theoretical engineering knowledge outside of the classroom.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Mechanism</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[('determine', 'Valuing')]</t>
+          <t>[('apply', 'Mechanism')]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[('monitor', 'Valuing'), ('compare', 'Responding'), ('contrast', 'Organisation'), ('appreciate', 'Organisation'), ('state', 'Responding')]</t>
+          <t>[('validate', 'Origination'), ('create', 'Origination'), ('summarise', 'Guided Response'), ('design', 'Origination'), ('heat', 'Mechanism')]</t>
         </is>
       </c>
     </row>
@@ -2382,28 +2379,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>comprehend the government, industry and community perspectives on engineering projects</t>
+          <t>Value engineering ethical principles and responsibilities and satisfy professional standards for assigned engineering tasks.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>Guided Response</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[('comprehend', 'Verb not mapped')]</t>
+          <t>[('value', 'Origination'), ('satisfy', 'Adaptation'), ('assign', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[('choose', 'Receiving'), ('address', 'Organisation'), ('guide', 'Valuing'), ('monitor', 'Valuing'), ('act', 'Valuing')]</t>
+          <t>[('sequence', 'Mechanism'), ('satisfy', 'Adaptation'), ('discuss', 'Guided Response'), ('deliberate', 'Origination'), ('perform', 'Complex Overt Response')]</t>
         </is>
       </c>
     </row>
@@ -2413,33 +2414,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-assess various types of environmental impact assessment, risk evaluation and environmental management system methodologies</t>
+          <t>Demonstrate an ability to work independently and to collaborate with colleagues on common tasks effectively.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Complete Overt Response</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Characterisation</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[('assess', 'Characterisation')]</t>
+          <t>[('demonstrate', 'Guided Response'), ('work', 'Guided Response'), ('collaborate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[('monitor', 'Valuing'), ('prove', 'Organisation'), ('appreciate', 'Organisation'), ('contrast', 'Organisation'), ('respond', 'Responding')]</t>
+          <t>[('sequence', 'Mechanism'), ('address', 'Adaptation'), ('calculate', 'Mechanism'), ('prepare', 'Guided Response'), ('discuss', 'Guided Response')]</t>
         </is>
       </c>
     </row>
@@ -2449,32 +2449,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Apply theoretical engineering knowledge outside of the classroom.</t>
+          <t>Identify, select and derive fundamental mathematical techniques from linear algebra, multi-variable calculus and ordinary differential equations that are essential to engineering applications.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Remembering</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Mechanism</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[('apply', 'Mechanism')]</t>
+          <t>[('identify', 'Understanding'), ('select', 'Applying'), ('derive', 'Analysing')]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[('create', 'Origination'), ('propose', 'Adaptation'), ('summarise', 'Guided Response'), ('follow', 'Guided Response'), ('integrate', 'Origination')]</t>
+          <t>[('interface', 'Evaluating'), ('factor', 'Understanding'), ('group', 'Analysing'), ('critique', 'Creating'), ('perform', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -2484,32 +2484,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Value engineering ethical principles and responsibilities and satisfy professional standards for assigned engineering tasks.</t>
+          <t>Identify, select and derive fundamental mathematical techniques from linear algebra, multi-variable calculus and ordinary differential equations that are essential to engineering applications.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Adaptation</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[('value', 'Origination'), ('satisfy', 'Adaptation'), ('assign', 'Verb not mapped')]</t>
+          <t>[('identify', 'Unistructural'), ('select', 'Multistructural'), ('derive', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[('derive', 'Mechanism'), ('generate', 'Origination'), ('discuss', 'Guided Response'), ('satisfy', 'Adaptation'), ('mitigate', 'Origination')]</t>
+          <t>[('perform', 'Relational'), ('validate', 'Extended Abstract'), ('address', 'Relational'), ('simulate', 'Multistructural'), ('summarise', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -2519,32 +2519,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Demonstrate an ability to work independently and to collaborate with colleagues on common tasks effectively.</t>
+          <t>Apply mathematical techniques to solve engineering problems.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Complete Overt Response</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Guided Response'), ('work', 'Guided Response'), ('collaborate', 'Verb not mapped')]</t>
+          <t>[('apply', 'Analysing'), ('solve', 'Analysing')]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[('discuss', 'Guided Response'), ('respond', 'Guided Response'), ('choose', 'Perception'), ('observe', 'Guided Response'), ('heat', 'Mechanism')]</t>
+          <t>[('validate', 'Evaluating'), ('create', 'Creating'), ('summarise', 'Applying'), ('transfer', 'Analysing'), ('mitigate', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -2554,32 +2554,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Identify, select and derive fundamental mathematical techniques from linear algebra, multi-variable calculus and ordinary differential equations that are essential to engineering applications.</t>
+          <t>Apply mathematical techniques to solve engineering problems.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Remembering</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('select', 'Applying'), ('derive', 'Analysing')]</t>
+          <t>[('apply', 'Multistructural'), ('solve', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[('summarise', 'Applying'), ('factor', 'Understanding'), ('lecture', 'Evaluating'), ('order', 'Applying'), ('establish', 'Analysing')]</t>
+          <t>[('validate', 'Extended Abstract'), ('create', 'Extended Abstract'), ('summarise', 'Unistructural'), ('transfer', 'Multistructural'), ('mitigate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -2589,32 +2589,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Identify, select and derive fundamental mathematical techniques from linear algebra, multi-variable calculus and ordinary differential equations that are essential to engineering applications.</t>
+          <t>Discuss best practices in the presentation of written mathematical arguments.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('select', 'Multistructural'), ('derive', 'Multistructural')]</t>
+          <t>[('discuss', 'Applying'), ('write', 'Applying')]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[('summarise', 'Unistructural'), ('order', 'Unistructural'), ('characterise', 'Unistructural'), ('mitigate', 'Extended Abstract'), ('deliberate', 'Extended Abstract')]</t>
+          <t>[('evaluate', 'Evaluating'), ('report', 'Applying'), ('detail', 'Understanding'), ('generate', 'Creating'), ('prepare', 'Analysing')]</t>
         </is>
       </c>
     </row>
@@ -2624,32 +2624,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Apply mathematical techniques to solve engineering problems.</t>
+          <t>Discuss best practices in the presentation of written mathematical arguments.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[('apply', 'Analysing'), ('solve', 'Analysing')]</t>
+          <t>[('discuss', 'Unistructural'), ('write', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[('produce', 'Creating'), ('adopt', 'Evaluating'), ('provide', 'Applying'), ('explore', 'Analysing'), ('integrate', 'Evaluating')]</t>
+          <t>[('evaluate', 'Relational'), ('report', 'Unistructural'), ('generate', 'Extended Abstract'), ('engage', 'Extended Abstract'), ('sequence', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -2659,32 +2659,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Apply mathematical techniques to solve engineering problems.</t>
+          <t>Engage in team discussion on the application of mathematics.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[('apply', 'Multistructural'), ('solve', 'Multistructural')]</t>
+          <t>[('engage', 'Creating')]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[('integrate', 'Extended Abstract'), ('partition', 'Relational'), ('generate', 'Extended Abstract'), ('choose', 'Unistructural'), ('validate', 'Extended Abstract')]</t>
+          <t>[('prepare', 'Analysing'), ('report', 'Applying'), ('choose', 'Applying'), ('demonstrate', 'Analysing'), ('detail', 'Understanding')]</t>
         </is>
       </c>
     </row>
@@ -2694,32 +2694,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Discuss best practices in the presentation of written mathematical arguments.</t>
+          <t>Engage in team discussion on the application of mathematics.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[('discuss', 'Applying'), ('write', 'Applying')]</t>
+          <t>[('engage', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[('report', 'Applying'), ('detail', 'Understanding'), ('synthesise', 'Creating'), ('prepare', 'Analysing'), ('observe', 'Applying')]</t>
+          <t>[('report', 'Unistructural'), ('choose', 'Unistructural'), ('demonstrate', 'Multistructural'), ('value', 'Extended Abstract'), ('calculate', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -2729,32 +2729,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Discuss best practices in the presentation of written mathematical arguments.</t>
+          <t>Determine reactions and internal member forces in simple truss and beam systems and carry out limit state design to select appropriately sized members.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[('discuss', 'Unistructural'), ('write', 'Unistructural')]</t>
+          <t>[('determine', 'Analysing'), ('carry', 'Verb not mapped'), ('select', 'Applying'), ('size', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[('report', 'Unistructural'), ('synthesise', 'Extended Abstract'), ('observe', 'Unistructural'), ('demonstrate', 'Multistructural'), ('generate', 'Extended Abstract')]</t>
+          <t>[('utilise', 'Applying'), ('sequence', 'Applying'), ('collect', 'Applying'), ('monitor', 'Evaluating'), ('devise', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Engage in team discussion on the application of mathematics.</t>
+          <t>Determine the strength of structural materials to inform engineering designs with considerations to performance, cost, sustainability and societal impact.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2774,22 +2774,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[('engage', 'Creating')]</t>
+          <t>[('determine', 'Analysing'), ('inform', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Analysing'), ('observe', 'Applying'), ('discuss', 'Applying'), ('value', 'Evaluating'), ('detail', 'Understanding')]</t>
+          <t>[('lecture', 'Evaluating'), ('explore', 'Analysing'), ('operate', 'Analysing'), ('respond', 'Understanding'), ('produce', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -2799,32 +2799,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Engage in team discussion on the application of mathematics.</t>
+          <t>Determine the steady-state performance of simple systems involving levers, gears, springs and pulleys using appropriate engineering problem-solving methodologies.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[('engage', 'Extended Abstract')]</t>
+          <t>[('determine', 'Analysing'), ('involve', 'Verb not mapped'), ('use', 'Applying'), ('solve', 'Analysing')]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Multistructural'), ('observe', 'Unistructural'), ('discuss', 'Unistructural'), ('value', 'Extended Abstract'), ('generate', 'Extended Abstract')]</t>
+          <t>[('reduce', 'Evaluating'), ('engage', 'Creating'), ('construct', 'Evaluating'), ('debug', 'Evaluating'), ('critique', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Determine reactions and internal member forces in simple truss and beam systems and carry out limit state design to select appropriately sized members.</t>
+          <t>Propose concept designs that solve engineering problems and justify finalised design with considerations of key variables, assumptions and system boundaries.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2844,22 +2844,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>Creating</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>Evaluating</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Applying</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[('determine', 'Analysing'), ('carry', 'Verb not mapped'), ('select', 'Applying')]</t>
+          <t>[('propose', 'Evaluating'), ('solve', 'Analysing'), ('justify', 'Evaluating'), ('finalise', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[('validate', 'Evaluating'), ('give', 'Understanding'), ('provide', 'Applying'), ('collect', 'Applying'), ('mitigate', 'Creating')]</t>
+          <t>[('monitor', 'Evaluating'), ('devise', 'Evaluating'), ('perform', 'Creating'), ('mitigate', 'Creating'), ('improve', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -2869,32 +2869,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Determine the strength of structural materials to inform engineering designs with considerations to performance, cost, sustainability and societal impact.</t>
+          <t>Propose concept designs that solve engineering problems and justify finalised design with considerations of key variables, assumptions and system boundaries.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[('determine', 'Analysing'), ('inform', 'Verb not mapped')]</t>
+          <t>[('propose', 'Relational'), ('solve', 'Multistructural'), ('justify', 'Extended Abstract'), ('finalise', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[('lecture', 'Evaluating'), ('change', 'Analysing'), ('mitigate', 'Creating'), ('compare', 'Applying'), ('establish', 'Analysing')]</t>
+          <t>[('perform', 'Relational'), ('mitigate', 'Extended Abstract'), ('simulate', 'Multistructural'), ('summarise', 'Unistructural'), ('satisfy', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Determine the steady-state performance of simple systems involving levers, gears, springs and pulleys using appropriate engineering problem-solving methodologies.</t>
+          <t>Identify appropriate engineering tools and techniques to develop, validate and convey designs and solutions.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2914,22 +2914,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[('determine', 'Analysing'), ('involve', 'Verb not mapped'), ('use', 'Applying'), ('solve', 'Analysing')]</t>
+          <t>[('identify', 'Understanding'), ('develop', 'Creating'), ('validate', 'Evaluating'), ('convey', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[('reduce', 'Evaluating'), ('evaluate', 'Evaluating'), ('collect', 'Applying'), ('debug', 'Evaluating'), ('formulate', 'Creating')]</t>
+          <t>[('interface', 'Evaluating'), ('extract', 'Analysing'), ('rate', 'Evaluating'), ('perform', 'Creating'), ('factor', 'Understanding')]</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Propose concept designs that solve engineering problems and justify finalised design with considerations of key variables, assumptions and system boundaries.</t>
+          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2949,22 +2949,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[('propose', 'Evaluating'), ('solve', 'Analysing'), ('justify', 'Evaluating'), ('finalise', 'Verb not mapped')]</t>
+          <t>[('identify', 'Understanding'), ('reflect', 'Evaluating'), ('contribute', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[('improve', 'Evaluating'), ('adopt', 'Evaluating'), ('mitigate', 'Creating'), ('detail', 'Understanding'), ('change', 'Analysing')]</t>
+          <t>[('conduct', 'Analysing'), ('reflect', 'Evaluating'), ('compute', 'Analysing'), ('group', 'Analysing'), ('respond', 'Understanding')]</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Propose concept designs that solve engineering problems and justify finalised design with considerations of key variables, assumptions and system boundaries.</t>
+          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2989,17 +2989,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[('propose', 'Relational'), ('solve', 'Multistructural'), ('justify', 'Extended Abstract'), ('finalise', 'Verb not mapped')]</t>
+          <t>[('identify', 'Unistructural'), ('reflect', 'Extended Abstract'), ('contribute', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('perform', 'Relational'), ('characterise', 'Unistructural'), ('derive', 'Multistructural'), ('summarise', 'Unistructural')]</t>
+          <t>[('conduct', 'Multistructural'), ('reflect', 'Extended Abstract'), ('compute', 'Multistructural'), ('define', 'Unistructural'), ('engage', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Identify appropriate engineering tools and techniques to develop, validate and convey designs and solutions.</t>
+          <t>Discern fundamental chemical, materials, mechanical and environmental engineering knowledge, principles and concepts to propose solutions to a humanitarian engineering problem.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3019,22 +3019,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('develop', 'Creating'), ('validate', 'Evaluating'), ('convey', 'Verb not mapped')]</t>
+          <t>[('discern', 'Analysing'), ('propose', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[('improve', 'Evaluating'), ('compare', 'Applying'), ('mitigate', 'Creating'), ('respond', 'Understanding'), ('trace', 'Remembering')]</t>
+          <t>[('change', 'Analysing'), ('validate', 'Evaluating'), ('demonstrate', 'Analysing'), ('summarise', 'Applying'), ('improve', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Discern fundamental chemical, materials, mechanical and environmental engineering knowledge, principles and concepts to propose solutions to a humanitarian engineering problem.</t>
+          <t>Identify design requirements from a provided brief and analyse potential solutions using first principles of mathematics and natural and engineering sciences.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3054,22 +3054,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[('discern', 'Analysing'), ('propose', 'Evaluating')]</t>
+          <t>[('identify', 'Understanding'), ('provide', 'Applying'), ('analyse', 'Analysing'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[('change', 'Analysing'), ('summarise', 'Applying'), ('investigate', 'Analysing'), ('apply', 'Analysing'), ('provide', 'Applying')]</t>
+          <t>[('reduce', 'Evaluating'), ('issue', 'Analysing'), ('construct', 'Evaluating'), ('debug', 'Evaluating'), ('critique', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -3084,27 +3084,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('provide', 'Applying'), ('analyse', 'Analysing'), ('use', 'Applying')]</t>
+          <t>[('identify', 'Unistructural'), ('provide', 'Verb not mapped'), ('analyse', 'Relational'), ('use', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[('reduce', 'Evaluating'), ('issue', 'Analysing'), ('evaluate', 'Evaluating'), ('collect', 'Applying'), ('debug', 'Evaluating')]</t>
+          <t>[('reduce', 'Relational'), ('issue', 'Multistructural'), ('construct', 'Relational'), ('state', 'Unistructural'), ('describe', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -3114,32 +3114,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Identify design requirements from a provided brief and analyse potential solutions using first principles of mathematics and natural and engineering sciences.</t>
+          <t>Identify societal, health, safety, legal and cultural issues relevant to your project including the Indigenous context, and your consequent responsibilities as an engineer.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Remembering</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('provide', 'Verb not mapped'), ('analyse', 'Relational'), ('use', 'Unistructural')]</t>
+          <t>[('identify', 'Understanding'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('issue', 'Multistructural'), ('evaluate', 'Relational'), ('formulate', 'Relational'), ('compare', 'Unistructural')]</t>
+          <t>[('support', 'Evaluating'), ('adopt', 'Evaluating'), ('collect', 'Applying'), ('ensure', 'Analysing'), ('factor', 'Understanding')]</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Identify societal, health, safety, legal and cultural issues relevant to your project including the Indigenous context, and your consequent responsibilities as an engineer.</t>
+          <t>Determine appropriate principles of sustainable design and development, including embodied energy, renewable materials, availability, costs, etc, of a proposed solution using a systems approach to design.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3159,22 +3159,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Remembering</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('include', 'Verb not mapped')]</t>
+          <t>[('determine', 'Analysing'), ('include', 'Verb not mapped'), ('embody', 'Verb not mapped'), ('propose', 'Evaluating'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[('organise', 'Evaluating'), ('back', 'Applying'), ('adopt', 'Evaluating'), ('query', 'Analysing'), ('deliberate', 'Creating')]</t>
+          <t>[('reduce', 'Evaluating'), ('construct', 'Evaluating'), ('demonstrate', 'Analysing'), ('debug', 'Evaluating'), ('critique', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -3189,27 +3189,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[('determine', 'Analysing'), ('include', 'Verb not mapped'), ('propose', 'Evaluating'), ('use', 'Applying')]</t>
+          <t>[('determine', 'Multistructural'), ('include', 'Verb not mapped'), ('embody', 'Verb not mapped'), ('propose', 'Relational'), ('use', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[('reduce', 'Evaluating'), ('evaluate', 'Evaluating'), ('collect', 'Applying'), ('debug', 'Evaluating'), ('research', 'Analysing')]</t>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('demonstrate', 'Multistructural'), ('state', 'Unistructural'), ('describe', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -3219,32 +3219,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Determine appropriate principles of sustainable design and development, including embodied energy, renewable materials, availability, costs, etc, of a proposed solution using a systems approach to design.</t>
+          <t>Discern the ethical considerations of working with diverse communities and stakeholders, and demonstrate your commitment to the Engineers Australia Code of Ethics and/or the Board of Engineers Malaysia Code of Professional Conduct, and established norms of professional conduct throughout your project.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[('determine', 'Multistructural'), ('include', 'Verb not mapped'), ('propose', 'Relational'), ('use', 'Unistructural')]</t>
+          <t>[('discern', 'Analysing'), ('work', 'Verb not mapped'), ('demonstrate', 'Analysing'), ('establish', 'Analysing')]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('evaluate', 'Relational'), ('formulate', 'Relational'), ('compare', 'Unistructural'), ('function', 'Relational')]</t>
+          <t>[('satisfy', 'Evaluating'), ('factor', 'Understanding'), ('produce', 'Creating'), ('improve', 'Evaluating'), ('trace', 'Remembering')]</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Discern the ethical considerations of working with diverse communities and stakeholders, and demonstrate your commitment to the Engineers Australia Code of Ethics and/or the Board of Engineers Malaysia Code of Professional Conduct, and established norms of professional conduct throughout your project.</t>
+          <t>Describe project progress and outputs to stakeholders verbally through pitches, in writing through professional engineering documentation, and graphically through drawings and visualisations.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3264,22 +3264,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>Applying</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Analysing</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[('discern', 'Analysing'), ('work', 'Verb not mapped'), ('demonstrate', 'Analysing'), ('establish', 'Analysing')]</t>
+          <t>[('describe', 'Applying')]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[('monitor', 'Evaluating'), ('adopt', 'Evaluating'), ('mitigate', 'Creating'), ('lecture', 'Evaluating'), ('compare', 'Applying')]</t>
+          <t>[('mitigate', 'Creating'), ('appreciate', 'Evaluating'), ('deliberate', 'Creating'), ('characterise', 'Applying'), ('partition', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -3294,27 +3294,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[('describe', 'Applying')]</t>
+          <t>[('describe', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[('structure', 'Analysing'), ('improve', 'Evaluating'), ('synthesise', 'Creating'), ('choose', 'Applying'), ('prepare', 'Analysing')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('appreciate', 'Relational'), ('deliberate', 'Extended Abstract'), ('characterise', 'Unistructural'), ('partition', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -3324,32 +3324,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Describe project progress and outputs to stakeholders verbally through pitches, in writing through professional engineering documentation, and graphically through drawings and visualisations.</t>
+          <t>Describe the principles of team norms, collaboration and dynamics, define your professional goals and discern the practices that lead to successful teamwork in a multicultural context.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Remembering</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[('describe', 'Unistructural')]</t>
+          <t>[('describe', 'Applying'), ('define', 'Applying'), ('discern', 'Analysing'), ('lead', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[('synthesise', 'Extended Abstract'), ('choose', 'Unistructural'), ('summarise', 'Unistructural'), ('define', 'Unistructural'), ('conclude', 'Relational')]</t>
+          <t>[('factor', 'Understanding'), ('devise', 'Evaluating'), ('mitigate', 'Creating'), ('adopt', 'Evaluating'), ('group', 'Analysing')]</t>
         </is>
       </c>
     </row>
@@ -3364,27 +3364,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Remembering</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[('describe', 'Applying'), ('define', 'Applying'), ('discern', 'Analysing'), ('lead', 'Verb not mapped')]</t>
+          <t>[('describe', 'Unistructural'), ('define', 'Unistructural'), ('discern', 'Multistructural'), ('lead', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[('define', 'Applying'), ('establish', 'Analysing'), ('factor', 'Understanding'), ('discuss', 'Applying'), ('discern', 'Analysing')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('observe', 'Unistructural'), ('define', 'Unistructural'), ('synthesise', 'Extended Abstract'), ('sequence', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -3394,32 +3394,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Describe the principles of team norms, collaboration and dynamics, define your professional goals and discern the practices that lead to successful teamwork in a multicultural context.</t>
+          <t>Discuss requirements of a smart system from component to integrated perspective.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[('describe', 'Unistructural'), ('define', 'Unistructural'), ('discern', 'Multistructural'), ('lead', 'Verb not mapped')]</t>
+          <t>[('discuss', 'Applying'), ('integrate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[('define', 'Unistructural'), ('discuss', 'Unistructural'), ('discern', 'Multistructural'), ('address', 'Relational'), ('characterise', 'Unistructural')]</t>
+          <t>[('back', 'Applying'), ('assign', 'Applying'), ('lecture', 'Evaluating'), ('study', 'Applying'), ('produce', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -3434,27 +3434,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[('discuss', 'Applying'), ('integrate', 'Evaluating')]</t>
+          <t>[('discuss', 'Unistructural'), ('integrate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[('adopt', 'Evaluating'), ('interface', 'Evaluating'), ('perform', 'Creating'), ('trace', 'Remembering'), ('rate', 'Evaluating')]</t>
+          <t>[('simulate', 'Multistructural'), ('create', 'Extended Abstract'), ('discuss', 'Unistructural'), ('integrate', 'Extended Abstract'), ('sequence', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -3464,32 +3464,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Discuss requirements of a smart system from component to integrated perspective.</t>
+          <t>Define programs using Python, discern problem-solving strategies in decomposing problems using algorithms and describe software engineering processes.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[('discuss', 'Unistructural'), ('integrate', 'Extended Abstract')]</t>
+          <t>[('define', 'Applying'), ('use', 'Applying'), ('discern', 'Analysing'), ('solve', 'Analysing'), ('decompose', 'Verb not mapped'), ('use', 'Applying'), ('describe', 'Applying')]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[('perform', 'Relational'), ('generate', 'Extended Abstract'), ('organise', 'Relational'), ('choose', 'Unistructural'), ('discuss', 'Unistructural')]</t>
+          <t>[('mitigate', 'Creating'), ('appreciate', 'Evaluating'), ('deliberate', 'Creating'), ('characterise', 'Applying'), ('partition', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -3504,27 +3504,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[('define', 'Applying'), ('use', 'Applying'), ('discern', 'Analysing'), ('solve', 'Analysing'), ('decompose', 'Verb not mapped'), ('use', 'Applying'), ('describe', 'Applying')]</t>
+          <t>[('define', 'Guided Response'), ('use', 'Guided Response'), ('discern', 'Mechanism'), ('solve', 'Mechanism'), ('decompose', 'Verb not mapped'), ('use', 'Guided Response'), ('describe', 'Perception')]</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[('structure', 'Analysing'), ('improve', 'Evaluating'), ('synthesise', 'Creating'), ('choose', 'Applying'), ('prepare', 'Analysing')]</t>
+          <t>[('mitigate', 'Origination'), ('appreciate', 'Adaptation'), ('deliberate', 'Origination'), ('characterise', 'Guided Response'), ('partition', 'Adaptation')]</t>
         </is>
       </c>
     </row>
@@ -3539,27 +3539,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[('define', 'Guided Response'), ('use', 'Guided Response'), ('discern', 'Mechanism'), ('solve', 'Mechanism'), ('decompose', 'Verb not mapped'), ('use', 'Guided Response'), ('describe', 'Perception')]</t>
+          <t>[('define', 'Unistructural'), ('use', 'Unistructural'), ('discern', 'Multistructural'), ('solve', 'Multistructural'), ('decompose', 'Verb not mapped'), ('use', 'Unistructural'), ('describe', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[('synthesise', 'Origination'), ('choose', 'Perception'), ('prepare', 'Guided Response'), ('summarise', 'Guided Response'), ('define', 'Guided Response')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('appreciate', 'Relational'), ('deliberate', 'Extended Abstract'), ('characterise', 'Unistructural'), ('partition', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -3569,32 +3569,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Define programs using Python, discern problem-solving strategies in decomposing problems using algorithms and describe software engineering processes.</t>
+          <t>Select fundamental circuit analysis techniques to solve problems in circuits that contain common electrical and electronic components.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[('define', 'Unistructural'), ('use', 'Unistructural'), ('discern', 'Multistructural'), ('solve', 'Multistructural'), ('decompose', 'Verb not mapped'), ('use', 'Unistructural'), ('describe', 'Unistructural')]</t>
+          <t>[('select', 'Applying'), ('solve', 'Analysing'), ('contain', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[('synthesise', 'Extended Abstract'), ('choose', 'Unistructural'), ('summarise', 'Unistructural'), ('define', 'Unistructural'), ('conclude', 'Relational')]</t>
+          <t>[('specify', 'Evaluating'), ('make', 'Creating'), ('summarise', 'Applying'), ('compute', 'Analysing'), ('order', 'Applying')]</t>
         </is>
       </c>
     </row>
@@ -3609,27 +3609,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[('select', 'Applying'), ('solve', 'Analysing'), ('contain', 'Verb not mapped')]</t>
+          <t>[('select', 'Guided Response'), ('solve', 'Mechanism'), ('contain', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[('order', 'Applying'), ('summarise', 'Applying'), ('create', 'Creating'), ('partition', 'Evaluating'), ('provide', 'Applying')]</t>
+          <t>[('make', 'Origination'), ('summarise', 'Guided Response'), ('compute', 'Mechanism'), ('order', 'Guided Response'), ('partition', 'Adaptation')]</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Select fundamental circuit analysis techniques to solve problems in circuits that contain common electrical and electronic components.</t>
+          <t>Propose a design solution in response to a given scenario through requirements and functional analysis, evaluate that solution from an integrated system perspective.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3649,22 +3649,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Adaptation</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[('select', 'Guided Response'), ('solve', 'Mechanism'), ('contain', 'Verb not mapped')]</t>
+          <t>[('propose', 'Adaptation'), ('give', 'Verb not mapped'), ('evaluate', 'Adaptation'), ('integrate', 'Origination')]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[('order', 'Guided Response'), ('summarise', 'Guided Response'), ('create', 'Origination'), ('partition', 'Adaptation'), ('make', 'Origination')]</t>
+          <t>[('trace', 'Guided Response'), ('simulate', 'Mechanism'), ('create', 'Origination'), ('follow', 'Guided Response'), ('discuss', 'Guided Response')]</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Propose a design solution in response to a given scenario through requirements and functional analysis, evaluate that solution from an integrated system perspective.</t>
+          <t>Identify appropriate engineering tools and techniques to develop and validate a solution.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3684,22 +3684,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>Perception</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t>Origination</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Adaptation</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[('propose', 'Adaptation'), ('give', 'Verb not mapped'), ('evaluate', 'Adaptation')]</t>
+          <t>[('identify', 'Perception'), ('develop', 'Origination'), ('validate', 'Origination')]</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[('compare', 'Guided Response'), ('simulate', 'Mechanism'), ('reduce', 'Adaptation'), ('contrast', 'Adaptation'), ('appreciate', 'Adaptation')]</t>
+          <t>[('derive', 'Mechanism'), ('change', 'Mechanism'), ('respond', 'Guided Response'), ('trace', 'Guided Response'), ('state', 'Set')]</t>
         </is>
       </c>
     </row>
@@ -3714,27 +3714,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('develop', 'Creating'), ('validate', 'Evaluating')]</t>
+          <t>[('identify', 'Unistructural'), ('develop', 'Extended Abstract'), ('validate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[('improve', 'Evaluating'), ('change', 'Analysing'), ('devise', 'Evaluating'), ('factor', 'Understanding'), ('present', 'Understanding')]</t>
+          <t>[('derive', 'Multistructural'), ('state', 'Unistructural'), ('characterise', 'Unistructural'), ('simulate', 'Multistructural'), ('mitigate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -3744,32 +3744,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Identify appropriate engineering tools and techniques to develop and validate a solution.</t>
+          <t>Describe project progress and outputs to stakeholders in review meetings, demonstrations and documentation.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Origination</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[('identify', 'Perception'), ('develop', 'Origination'), ('validate', 'Origination')]</t>
+          <t>[('describe', 'Applying')]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[('change', 'Mechanism'), ('mitigate', 'Origination'), ('identify', 'Perception'), ('respond', 'Guided Response'), ('discuss', 'Guided Response')]</t>
+          <t>[('mitigate', 'Creating'), ('appreciate', 'Evaluating'), ('deliberate', 'Creating'), ('characterise', 'Applying'), ('partition', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Identify appropriate engineering tools and techniques to develop and validate a solution.</t>
+          <t>Describe project progress and outputs to stakeholders in review meetings, demonstrations and documentation.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3789,22 +3789,22 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t>Unistructural</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Extended Abstract</t>
-        </is>
-      </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('develop', 'Extended Abstract'), ('validate', 'Extended Abstract')]</t>
+          <t>[('describe', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('identify', 'Unistructural'), ('discuss', 'Unistructural'), ('choose', 'Unistructural'), ('order', 'Unistructural')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('appreciate', 'Relational'), ('deliberate', 'Extended Abstract'), ('characterise', 'Unistructural'), ('partition', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Describe project progress and outputs to stakeholders in review meetings, demonstrations and documentation.</t>
+          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3824,22 +3824,22 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>Understanding</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Applying</t>
-        </is>
-      </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[('describe', 'Applying')]</t>
+          <t>[('identify', 'Understanding'), ('reflect', 'Evaluating'), ('contribute', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[('structure', 'Analysing'), ('improve', 'Evaluating'), ('synthesise', 'Creating'), ('choose', 'Applying'), ('prepare', 'Analysing')]</t>
+          <t>[('conduct', 'Analysing'), ('reflect', 'Evaluating'), ('compute', 'Analysing'), ('group', 'Analysing'), ('respond', 'Understanding')]</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Describe project progress and outputs to stakeholders in review meetings, demonstrations and documentation.</t>
+          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3869,12 +3869,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[('describe', 'Unistructural')]</t>
+          <t>[('identify', 'Unistructural'), ('reflect', 'Extended Abstract'), ('contribute', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[('synthesise', 'Extended Abstract'), ('choose', 'Unistructural'), ('summarise', 'Unistructural'), ('define', 'Unistructural'), ('conclude', 'Relational')]</t>
+          <t>[('conduct', 'Multistructural'), ('reflect', 'Extended Abstract'), ('compute', 'Multistructural'), ('define', 'Unistructural'), ('engage', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
+          <t>Analyse general problem solving strategies and algorithmic paradigms, and apply them to solving new problems;</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3894,22 +3894,22 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>Analysing</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('reflect', 'Evaluating'), ('contribute', 'Verb not mapped')]</t>
+          <t>[('analyse', 'Analysing'), ('solve', 'Analysing'), ('apply', 'Analysing'), ('solve', 'Analysing')]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[('conduct', 'Analysing'), ('reflect', 'Evaluating'), ('compute', 'Analysing'), ('group', 'Analysing'), ('factor', 'Understanding')]</t>
+          <t>[('validate', 'Evaluating'), ('create', 'Creating'), ('summarise', 'Applying'), ('explain', 'Applying'), ('transfer', 'Analysing')]</t>
         </is>
       </c>
     </row>
@@ -3919,32 +3919,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
+          <t>Analyse general problem solving strategies and algorithmic paradigms, and apply them to solving new problems;</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Origination</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[('identify', 'Perception'), ('reflect', 'Origination'), ('contribute', 'Verb not mapped')]</t>
+          <t>[('analyse', 'Relational'), ('solve', 'Multistructural'), ('apply', 'Multistructural'), ('solve', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[('conduct', 'Mechanism'), ('reflect', 'Origination'), ('compute', 'Mechanism'), ('review', 'Mechanism'), ('determine', 'Mechanism')]</t>
+          <t>[('validate', 'Extended Abstract'), ('create', 'Extended Abstract'), ('summarise', 'Unistructural'), ('explain', 'Unistructural'), ('transfer', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -3954,32 +3954,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
+          <t>Prove correctness of programs, analyse their space and time complexities;</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('reflect', 'Extended Abstract'), ('contribute', 'Verb not mapped')]</t>
+          <t>[('prove', 'Evaluating'), ('analyse', 'Analysing')]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[('conduct', 'Multistructural'), ('reflect', 'Extended Abstract'), ('compute', 'Multistructural'), ('review', 'Multistructural'), ('determine', 'Multistructural')]</t>
+          <t>[('function', 'Evaluating'), ('identify', 'Understanding'), ('monitor', 'Evaluating'), ('explain', 'Applying'), ('implement', 'Analysing')]</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Analyse general problem solving strategies and algorithmic paradigms, and apply them to solving new problems;</t>
+          <t>Compare and contrast various abstract data types and use them appropriately;</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3999,22 +3999,22 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
           <t>Applying</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Analysing</t>
-        </is>
-      </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('solve', 'Analysing'), ('apply', 'Analysing'), ('solve', 'Analysing')]</t>
+          <t>[('compare', 'Applying'), ('contrast', 'Analysing'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[('produce', 'Creating'), ('adopt', 'Evaluating'), ('provide', 'Applying'), ('explore', 'Analysing'), ('integrate', 'Evaluating')]</t>
+          <t>[('reduce', 'Evaluating'), ('construct', 'Evaluating'), ('debug', 'Evaluating'), ('engage', 'Creating'), ('critique', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -4024,32 +4024,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Analyse general problem solving strategies and algorithmic paradigms, and apply them to solving new problems;</t>
+          <t>Compare and contrast various abstract data types and use them appropriately;</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[('analyse', 'Relational'), ('solve', 'Multistructural'), ('apply', 'Multistructural'), ('solve', 'Multistructural')]</t>
+          <t>[('compare', 'Responding'), ('contrast', 'Organisation'), ('use', 'Responding')]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[('integrate', 'Extended Abstract'), ('partition', 'Relational'), ('generate', 'Extended Abstract'), ('choose', 'Unistructural'), ('validate', 'Extended Abstract')]</t>
+          <t>[('reduce', 'Organisation'), ('construct', 'Organisation'), ('engage', 'Characterisation'), ('state', 'Responding'), ('describe', 'Receiving')]</t>
         </is>
       </c>
     </row>
@@ -4059,32 +4059,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Prove correctness of programs, analyse their space and time complexities;</t>
+          <t>Compare and contrast various abstract data types and use them appropriately;</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[('prove', 'Evaluating'), ('analyse', 'Analysing')]</t>
+          <t>[('compare', 'Unistructural'), ('contrast', 'Relational'), ('use', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[('function', 'Evaluating'), ('implement', 'Analysing'), ('explore', 'Analysing'), ('summarise', 'Applying'), ('sequence', 'Applying')]</t>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('engage', 'Extended Abstract'), ('state', 'Unistructural'), ('describe', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Compare and contrast various abstract data types and use them appropriately;</t>
+          <t>Develop and implement algorithms to solve computational problems.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4104,22 +4104,22 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[('compare', 'Applying'), ('contrast', 'Analysing'), ('use', 'Applying')]</t>
+          <t>[('develop', 'Creating'), ('implement', 'Analysing'), ('solve', 'Analysing')]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[('reduce', 'Evaluating'), ('evaluate', 'Evaluating'), ('collect', 'Applying'), ('issue', 'Analysing'), ('debug', 'Evaluating')]</t>
+          <t>[('analyse', 'Analysing'), ('function', 'Evaluating'), ('describe', 'Applying'), ('debug', 'Evaluating'), ('summarise', 'Applying')]</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Compare and contrast various abstract data types and use them appropriately;</t>
+          <t>Develop and implement algorithms to solve computational problems.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4139,22 +4139,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Characterisation</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[('compare', 'Responding'), ('contrast', 'Organisation'), ('use', 'Responding')]</t>
+          <t>[('develop', 'Organisation'), ('implement', 'Valuing'), ('solve', 'Valuing')]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[('reduce', 'Organisation'), ('evaluate', 'Organisation'), ('issue', 'Valuing'), ('formulate', 'Organisation'), ('compare', 'Responding')]</t>
+          <t>[('analyse', 'Organisation'), ('function', 'Characterisation'), ('describe', 'Receiving'), ('summarise', 'Responding'), ('simulate', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Compare and contrast various abstract data types and use them appropriately;</t>
+          <t>Develop and implement algorithms to solve computational problems.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4179,17 +4179,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[('compare', 'Unistructural'), ('contrast', 'Relational'), ('use', 'Unistructural')]</t>
+          <t>[('develop', 'Extended Abstract'), ('implement', 'Multistructural'), ('solve', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('evaluate', 'Relational'), ('issue', 'Multistructural'), ('formulate', 'Relational'), ('compare', 'Unistructural')]</t>
+          <t>[('analyse', 'Relational'), ('function', 'Relational'), ('describe', 'Unistructural'), ('summarise', 'Unistructural'), ('simulate', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -4199,32 +4199,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Develop and implement algorithms to solve computational problems.</t>
+          <t>Translate problem statements into algorithms and implement them in a high level programming language;</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[('develop', 'Creating'), ('implement', 'Analysing'), ('solve', 'Analysing')]</t>
+          <t>[('translate', 'Unistructural'), ('implement', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('change', 'Analysing'), ('experiment', 'Analysing'), ('study', 'Applying'), ('mitigate', 'Creating')]</t>
+          <t>[('engage', 'Extended Abstract'), ('analyse', 'Relational'), ('design', 'Extended Abstract'), ('review', 'Multistructural'), ('justify', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -4234,32 +4234,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Develop and implement algorithms to solve computational problems.</t>
+          <t>Determine appropriate basic abstract data types, including; stacks, queues, lists, binary trees, priority queues, heaps and hash tables; for specific contexts;</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Characterisation</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[('develop', 'Organisation'), ('implement', 'Valuing'), ('solve', 'Valuing')]</t>
+          <t>[('determine', 'Analysing'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[('analyse', 'Organisation'), ('change', 'Valuing'), ('study', 'Responding'), ('mitigate', 'Characterisation'), ('define', 'Responding')]</t>
+          <t>[('support', 'Evaluating'), ('adopt', 'Evaluating'), ('collect', 'Applying'), ('ensure', 'Analysing'), ('factor', 'Understanding')]</t>
         </is>
       </c>
     </row>
@@ -4269,32 +4269,32 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Develop and implement algorithms to solve computational problems.</t>
+          <t>Analyse the efficiency of algorithms by determining their best-case and worst-case big-O time complexity;</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Analysis</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[('develop', 'Extended Abstract'), ('implement', 'Multistructural'), ('solve', 'Multistructural')]</t>
+          <t>[('analyse', 'Analysing'), ('determine', 'Analysing')]</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[('analyse', 'Relational'), ('mitigate', 'Extended Abstract'), ('define', 'Unistructural'), ('deliberate', 'Extended Abstract'), ('test', 'Multistructural')]</t>
+          <t>[('devise', 'Evaluating'), ('factor', 'Understanding'), ('improve', 'Evaluating'), ('adopt', 'Evaluating'), ('monitor', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Translate problem statements into algorithms and implement them in a high level programming language;</t>
+          <t>Analyse the efficiency of algorithms by determining their best-case and worst-case big-O time complexity;</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4319,17 +4319,17 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[('translate', 'Unistructural'), ('implement', 'Multistructural')]</t>
+          <t>[('analyse', 'Relational'), ('determine', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('discuss', 'Unistructural'), ('calculate', 'Multistructural'), ('address', 'Relational')]</t>
+          <t>[('discuss', 'Unistructural'), ('compare', 'Unistructural'), ('contrast', 'Relational'), ('formulate', 'Relational'), ('sequence', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Determine appropriate basic abstract data types, including; stacks, queues, lists, binary trees, priority queues, heaps and hash tables; for specific contexts;</t>
+          <t>Work in teams to analyse algorithms and write programs.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4349,22 +4349,22 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Analysis</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[('determine', 'Analysing'), ('include', 'Verb not mapped')]</t>
+          <t>[('work', 'Verb not mapped'), ('analyse', 'Analysing'), ('write', 'Applying')]</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[('organise', 'Evaluating'), ('back', 'Applying'), ('adopt', 'Evaluating'), ('query', 'Analysing'), ('deliberate', 'Creating')]</t>
+          <t>[('report', 'Applying'), ('detail', 'Understanding'), ('generate', 'Creating'), ('prepare', 'Analysing'), ('engage', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -4374,32 +4374,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Analyse the efficiency of algorithms by determining their best-case and worst-case big-O time complexity;</t>
+          <t>Work in teams to analyse algorithms and write programs.</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Analysis</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('determine', 'Analysing')]</t>
+          <t>[('work', 'Verb not mapped'), ('analyse', 'Relational'), ('write', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[('monitor', 'Evaluating'), ('compare', 'Applying'), ('contrast', 'Analysing'), ('appreciate', 'Evaluating'), ('state', 'Remembering')]</t>
+          <t>[('report', 'Unistructural'), ('generate', 'Extended Abstract'), ('engage', 'Extended Abstract'), ('implement', 'Multistructural'), ('sequence', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Work in teams to analyse algorithms and write programs.</t>
+          <t>Iteratively apply object-oriented design principles to design small to medium-size software systems, using standard software engineering notations, namely UML class diagrams and UML interaction diagrams.</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Analysis</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[('work', 'Verb not mapped'), ('analyse', 'Analysing'), ('write', 'Applying')]</t>
+          <t>[('apply', 'Analysing'), ('orient', 'Verb not mapped'), ('design', 'Creating'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[('report', 'Applying'), ('detail', 'Understanding'), ('synthesise', 'Creating'), ('prepare', 'Analysing'), ('implement', 'Analysing')]</t>
+          <t>[('reduce', 'Evaluating'), ('construct', 'Evaluating'), ('debug', 'Evaluating'), ('critique', 'Creating'), ('state', 'Remembering')]</t>
         </is>
       </c>
     </row>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Work in teams to analyse algorithms and write programs.</t>
+          <t>Iteratively apply object-oriented design principles to design small to medium-size software systems, using standard software engineering notations, namely UML class diagrams and UML interaction diagrams.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[('work', 'Verb not mapped'), ('analyse', 'Relational'), ('write', 'Unistructural')]</t>
+          <t>[('apply', 'Multistructural'), ('orient', 'Verb not mapped'), ('design', 'Extended Abstract'), ('use', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[('report', 'Unistructural'), ('synthesise', 'Extended Abstract'), ('implement', 'Multistructural'), ('observe', 'Unistructural'), ('demonstrate', 'Multistructural')]</t>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('state', 'Unistructural'), ('describe', 'Unistructural'), ('contrast', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Iteratively apply object-oriented design principles to design small to medium-size software systems, using standard software engineering notations, namely UML class diagrams and UML interaction diagrams.</t>
+          <t>Describe the quality of object-oriented software designs, both in terms of meeting user requirements and the effective application of object-oriented design concepts and principles.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4489,22 +4489,22 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Remembering</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[('apply', 'Analysing'), ('orient', 'Verb not mapped'), ('design', 'Creating'), ('use', 'Applying')]</t>
+          <t>[('describe', 'Applying'), ('orient', 'Verb not mapped'), ('meet', 'Remembering'), ('orient', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[('reduce', 'Evaluating'), ('evaluate', 'Evaluating'), ('collect', 'Applying'), ('research', 'Analysing'), ('debug', 'Evaluating')]</t>
+          <t>[('ensure', 'Analysing'), ('query', 'Analysing'), ('attribute', 'Evaluating'), ('document', 'Analysing'), ('act', 'Analysing')]</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Iteratively apply object-oriented design principles to design small to medium-size software systems, using standard software engineering notations, namely UML class diagrams and UML interaction diagrams.</t>
+          <t>Describe the quality of object-oriented software designs, both in terms of meeting user requirements and the effective application of object-oriented design concepts and principles.</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4534,12 +4534,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[('apply', 'Multistructural'), ('orient', 'Verb not mapped'), ('design', 'Extended Abstract'), ('use', 'Unistructural')]</t>
+          <t>[('describe', 'Unistructural'), ('orient', 'Verb not mapped'), ('meet', 'Verb not mapped'), ('orient', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('evaluate', 'Relational'), ('formulate', 'Relational'), ('compare', 'Unistructural'), ('function', 'Relational')]</t>
+          <t>[('verify', 'Relational'), ('mitigate', 'Extended Abstract'), ('implement', 'Multistructural'), ('assess', 'Extended Abstract'), ('demonstrate', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Describe the quality of object-oriented software designs, both in terms of meeting user requirements and the effective application of object-oriented design concepts and principles.</t>
+          <t>Apply object-oriented programming constructs, such as abstraction, information hiding, inheritance, and polymorphism, to implement object-oriented designs using a programming language (namely, Java).</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4559,22 +4559,22 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[('describe', 'Applying'), ('orient', 'Verb not mapped'), ('meet', 'Remembering'), ('orient', 'Verb not mapped')]</t>
+          <t>[('apply', 'Analysing'), ('orient', 'Verb not mapped'), ('implement', 'Analysing'), ('orient', 'Verb not mapped'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[('query', 'Analysing'), ('ensure', 'Analysing'), ('adopt', 'Evaluating'), ('attribute', 'Evaluating'), ('integrate', 'Evaluating')]</t>
+          <t>[('reduce', 'Evaluating'), ('construct', 'Evaluating'), ('debug', 'Evaluating'), ('critique', 'Creating'), ('state', 'Remembering')]</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Describe the quality of object-oriented software designs, both in terms of meeting user requirements and the effective application of object-oriented design concepts and principles.</t>
+          <t>Apply object-oriented programming constructs, such as abstraction, information hiding, inheritance, and polymorphism, to implement object-oriented designs using a programming language (namely, Java).</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4594,22 +4594,22 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
           <t>Multistructural</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Unistructural</t>
-        </is>
-      </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[('describe', 'Unistructural'), ('orient', 'Verb not mapped'), ('meet', 'Verb not mapped'), ('orient', 'Verb not mapped')]</t>
+          <t>[('apply', 'Multistructural'), ('orient', 'Verb not mapped'), ('implement', 'Multistructural'), ('orient', 'Verb not mapped'), ('use', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[('integrate', 'Extended Abstract'), ('assess', 'Extended Abstract'), ('manage', 'Relational'), ('organise', 'Relational'), ('plan', 'Extended Abstract')]</t>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('state', 'Unistructural'), ('describe', 'Unistructural'), ('contrast', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Apply object-oriented programming constructs, such as abstraction, information hiding, inheritance, and polymorphism, to implement object-oriented designs using a programming language (namely, Java).</t>
+          <t>Apply effective programming strategies to refactor and debug object-oriented implementations systematically and efficiently by using available programming language tools.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4634,17 +4634,17 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[('apply', 'Analysing'), ('orient', 'Verb not mapped'), ('implement', 'Analysing'), ('orient', 'Verb not mapped'), ('use', 'Applying')]</t>
+          <t>[('apply', 'Analysing'), ('refactor', 'Verb not mapped'), ('debug', 'Evaluating'), ('orient', 'Verb not mapped'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[('reduce', 'Evaluating'), ('evaluate', 'Evaluating'), ('collect', 'Applying'), ('research', 'Analysing'), ('debug', 'Evaluating')]</t>
+          <t>[('reduce', 'Evaluating'), ('construct', 'Evaluating'), ('debug', 'Evaluating'), ('use', 'Applying'), ('critique', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Apply object-oriented programming constructs, such as abstraction, information hiding, inheritance, and polymorphism, to implement object-oriented designs using a programming language (namely, Java).</t>
+          <t>Apply effective programming strategies to refactor and debug object-oriented implementations systematically and efficiently by using available programming language tools.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4669,17 +4669,17 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[('apply', 'Multistructural'), ('orient', 'Verb not mapped'), ('implement', 'Multistructural'), ('orient', 'Verb not mapped'), ('use', 'Unistructural')]</t>
+          <t>[('apply', 'Multistructural'), ('refactor', 'Verb not mapped'), ('debug', 'Verb not mapped'), ('orient', 'Verb not mapped'), ('use', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('evaluate', 'Relational'), ('formulate', 'Relational'), ('compare', 'Unistructural'), ('function', 'Relational')]</t>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('use', 'Unistructural'), ('engage', 'Extended Abstract'), ('state', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Apply effective programming strategies to refactor and debug object-oriented implementations systematically and efficiently by using available programming language tools.</t>
+          <t>Apply principles of software engineering practice to create object-oriented systems with peers using tools including integrated development environments (IDEs), UML drawing tools, and version control systems.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4704,17 +4704,17 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[('apply', 'Multistructural'), ('refactor', 'Verb not mapped'), ('debug', 'Verb not mapped'), ('orient', 'Verb not mapped'), ('use', 'Unistructural')]</t>
+          <t>[('apply', 'Multistructural'), ('create', 'Extended Abstract'), ('orient', 'Verb not mapped'), ('use', 'Unistructural'), ('include', 'Verb not mapped'), ('integrate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('evaluate', 'Relational'), ('use', 'Unistructural'), ('formulate', 'Relational'), ('compare', 'Unistructural')]</t>
+          <t>[('simulate', 'Multistructural'), ('create', 'Extended Abstract'), ('discuss', 'Unistructural'), ('sequence', 'Multistructural'), ('validate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -4724,32 +4724,32 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Apply principles of software engineering practice to create object-oriented systems with peers using tools including integrated development environments (IDEs), UML drawing tools, and version control systems.</t>
+          <t>Identify appropriate quality goals for a moderately-sized software development project, including human aspects and security concerns, select an appropriate quality assurance strategy to give confidence that these quality goals can be achieved, and document this strategy appropriately in the context of a software process model;</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>evaluating</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[('apply', 'Multistructural'), ('create', 'Extended Abstract'), ('orient', 'Verb not mapped'), ('use', 'Unistructural'), ('include', 'Verb not mapped')]</t>
+          <t>[('identify', 'Understanding'), ('size', 'Verb not mapped'), ('include', 'Verb not mapped'), ('select', 'Applying'), ('give', 'Understanding'), ('achieve', 'Verb not mapped'), ('document', 'Analysing')]</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[('organise', 'Relational'), ('deliberate', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('choose', 'Unistructural')]</t>
+          <t>[('interface', 'Evaluating'), ('produce', 'Creating'), ('collect', 'Applying'), ('devise', 'Evaluating'), ('monitor', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -4764,27 +4764,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>evaluating</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('include', 'Verb not mapped'), ('select', 'Applying'), ('give', 'Understanding'), ('achieve', 'Verb not mapped'), ('document', 'Analysing')]</t>
+          <t>[('identify', 'Receiving'), ('size', 'Verb not mapped'), ('include', 'Verb not mapped'), ('select', 'Responding'), ('give', 'Receiving'), ('achieve', 'Verb not mapped'), ('document', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[('generate', 'Creating'), ('improve', 'Evaluating'), ('monitor', 'Evaluating'), ('devise', 'Evaluating'), ('mitigate', 'Creating')]</t>
+          <t>[('lead', 'Organisation'), ('agree', 'Responding'), ('monitor', 'Valuing'), ('mitigate', 'Characterisation'), ('perform', 'Characterisation')]</t>
         </is>
       </c>
     </row>
@@ -4799,27 +4799,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[('identify', 'Receiving'), ('include', 'Verb not mapped'), ('select', 'Responding'), ('give', 'Receiving'), ('achieve', 'Verb not mapped'), ('document', 'Verb not mapped')]</t>
+          <t>[('identify', 'Unistructural'), ('size', 'Verb not mapped'), ('include', 'Verb not mapped'), ('select', 'Multistructural'), ('give', 'Verb not mapped'), ('achieve', 'Verb not mapped'), ('document', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[('generate', 'Organisation'), ('relay', 'Responding'), ('monitor', 'Valuing'), ('mitigate', 'Characterisation'), ('lead', 'Organisation')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('perform', 'Relational'), ('simulate', 'Multistructural'), ('sequence', 'Multistructural'), ('choose', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -4829,32 +4829,32 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Identify appropriate quality goals for a moderately-sized software development project, including human aspects and security concerns, select an appropriate quality assurance strategy to give confidence that these quality goals can be achieved, and document this strategy appropriately in the context of a software process model;</t>
+          <t>Apply quality assurance techniques such as modern code reviews to code development artefacts;</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[('identify', 'Perception'), ('include', 'Verb not mapped'), ('select', 'Guided Response'), ('give', 'Verb not mapped'), ('achieve', 'Verb not mapped'), ('document', 'Verb not mapped')]</t>
+          <t>[('apply', 'Analysing')]</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[('generate', 'Origination'), ('mitigate', 'Origination'), ('heat', 'Mechanism'), ('choose', 'Perception'), ('operate', 'Mechanism')]</t>
+          <t>[('validate', 'Evaluating'), ('create', 'Creating'), ('summarise', 'Applying'), ('design', 'Creating'), ('transfer', 'Analysing')]</t>
         </is>
       </c>
     </row>
@@ -4869,27 +4869,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[('apply', 'Analysing')]</t>
+          <t>[('apply', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('propose', 'Evaluating'), ('summarise', 'Applying'), ('produce', 'Creating'), ('adopt', 'Evaluating')]</t>
+          <t>[('validate', 'Extended Abstract'), ('create', 'Extended Abstract'), ('summarise', 'Unistructural'), ('design', 'Extended Abstract'), ('transfer', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -4899,32 +4899,32 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Apply quality assurance techniques such as modern code reviews to code development artefacts;</t>
+          <t>Perform systematic, automated unit testing on source code modules, using both specification-based and code-based approaches, utilising automated testing frameworks, including faking and mocking tools;</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Characterisation</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[('apply', 'Multistructural')]</t>
+          <t>[('perform', 'Characterisation'), ('automate', 'Verb not mapped'), ('use', 'Responding'), ('base', 'Verb not mapped'), ('base', 'Verb not mapped'), ('utilise', 'Verb not mapped'), ('automate', 'Verb not mapped'), ('include', 'Verb not mapped'), ('fake', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[('create', 'Extended Abstract'), ('propose', 'Relational'), ('summarise', 'Unistructural'), ('integrate', 'Extended Abstract'), ('partition', 'Relational')]</t>
+          <t>[('support', 'Valuing'), ('adopt', 'Valuing'), ('lead', 'Organisation'), ('monitor', 'Valuing'), ('query', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -4939,27 +4939,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Characterisation</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[('perform', 'Characterisation'), ('use', 'Responding'), ('base', 'Verb not mapped'), ('base', 'Verb not mapped'), ('utilise', 'Verb not mapped'), ('automate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('perform', 'Relational'), ('automate', 'Verb not mapped'), ('use', 'Unistructural'), ('base', 'Verb not mapped'), ('base', 'Verb not mapped'), ('utilise', 'Verb not mapped'), ('automate', 'Verb not mapped'), ('include', 'Verb not mapped'), ('fake', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[('organise', 'Organisation'), ('adopt', 'Valuing'), ('query', 'Valuing'), ('deliberate', 'Characterisation'), ('plan', 'Organisation')]</t>
+          <t>[('perform', 'Relational'), ('organise', 'Relational'), ('address', 'Relational'), ('mitigate', 'Extended Abstract'), ('state', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -4969,32 +4969,32 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Perform systematic, automated unit testing on source code modules, using both specification-based and code-based approaches, utilising automated testing frameworks, including faking and mocking tools;</t>
+          <t>Perform integration and system testing on a moderately-sized software system, using continuous integration frameworks and tracing tests back to requirements;</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Characterisation</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[('perform', 'Relational'), ('use', 'Unistructural'), ('base', 'Verb not mapped'), ('base', 'Verb not mapped'), ('utilise', 'Verb not mapped'), ('automate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('perform', 'Characterisation'), ('use', 'Responding'), ('trace', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[('organise', 'Relational'), ('deliberate', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('choose', 'Unistructural')]</t>
+          <t>[('perform', 'Characterisation'), ('mitigate', 'Characterisation'), ('choose', 'Receiving'), ('allow', 'Responding'), ('establish', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[('perform', 'Relational'), ('sequence', 'Multistructural'), ('mitigate', 'Extended Abstract'), ('order', 'Unistructural'), ('choose', 'Unistructural')]</t>
+          <t>[('perform', 'Relational'), ('mitigate', 'Extended Abstract'), ('choose', 'Unistructural'), ('sequence', 'Multistructural'), ('deliberate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[('implement', 'Analysing'), ('issue', 'Analysing'), ('appraise', 'Evaluating'), ('meet', 'Remembering'), ('develop', 'Creating')]</t>
+          <t>[('organise', 'Evaluating'), ('create', 'Creating'), ('ensure', 'Analysing'), ('manage', 'Analysing'), ('plan', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[('implement', 'Mechanism'), ('issue', 'Mechanism'), ('appraise', 'Origination'), ('develop', 'Origination'), ('derive', 'Mechanism')]</t>
+          <t>[('organise', 'Mechanism'), ('create', 'Origination'), ('manage', 'Adaptation'), ('plan', 'Origination'), ('justify', 'Origination')]</t>
         </is>
       </c>
     </row>
@@ -5134,7 +5134,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[('implement', 'Multistructural'), ('issue', 'Multistructural'), ('appraise', 'Extended Abstract'), ('develop', 'Extended Abstract'), ('derive', 'Multistructural')]</t>
+          <t>[('organise', 'Relational'), ('create', 'Extended Abstract'), ('manage', 'Relational'), ('plan', 'Extended Abstract'), ('justify', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[('reduce', 'Evaluating'), ('evaluate', 'Evaluating'), ('collect', 'Applying'), ('debug', 'Evaluating'), ('formulate', 'Creating')]</t>
+          <t>[('reduce', 'Evaluating'), ('construct', 'Evaluating'), ('debug', 'Evaluating'), ('critique', 'Creating'), ('state', 'Remembering')]</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[('reduce', 'Organisation'), ('evaluate', 'Organisation'), ('formulate', 'Organisation'), ('compare', 'Responding'), ('function', 'Characterisation')]</t>
+          <t>[('reduce', 'Organisation'), ('construct', 'Organisation'), ('state', 'Responding'), ('describe', 'Receiving'), ('agree', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[('reduce', 'Adaptation'), ('evaluate', 'Adaptation'), ('formulate', 'Origination'), ('compare', 'Guided Response'), ('function', 'Adaptation')]</t>
+          <t>[('reduce', 'Adaptation'), ('construct', 'Adaptation'), ('state', 'Set'), ('describe', 'Perception'), ('contrast', 'Adaptation')]</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('evaluate', 'Relational'), ('formulate', 'Relational'), ('compare', 'Unistructural'), ('function', 'Relational')]</t>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('state', 'Unistructural'), ('describe', 'Unistructural'), ('contrast', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -5289,27 +5289,27 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Adaptation</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('design', 'Creating'), ('refactor', 'Verb not mapped'), ('take', 'Verb not mapped')]</t>
+          <t>[('analyse', 'Adaptation'), ('design', 'Origination'), ('refactor', 'Verb not mapped'), ('take', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[('trace', 'Remembering'), ('attribute', 'Evaluating'), ('adopt', 'Evaluating'), ('interface', 'Evaluating'), ('respond', 'Understanding')]</t>
+          <t>[('trace', 'Guided Response'), ('perform', 'Complex Overt Response'), ('compare', 'Guided Response'), ('follow', 'Guided Response'), ('respond', 'Guided Response')]</t>
         </is>
       </c>
     </row>
@@ -5319,32 +5319,32 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Analyse, design, and refactor software systems taking into consideration various quality attributes and requirements</t>
+          <t>Take requirements for systems and develop software designs and architectures following object-oriented principles;</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Origination</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Adaptation</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>[('analyse', 'Adaptation'), ('design', 'Origination'), ('refactor', 'Verb not mapped'), ('take', 'Verb not mapped')]</t>
+          <t>[('take', 'Verb not mapped'), ('develop', 'Extended Abstract'), ('follow', 'Verb not mapped'), ('orient', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('follow', 'Guided Response'), ('heat', 'Mechanism'), ('respond', 'Guided Response'), ('choose', 'Perception')]</t>
+          <t>[('choose', 'Unistructural'), ('perform', 'Relational'), ('sequence', 'Multistructural'), ('discuss', 'Unistructural'), ('simulate', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -5354,32 +5354,32 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Take requirements for systems and develop software designs and architectures following object-oriented principles;</t>
+          <t>Select and use appropriate tools for iteratively incrementing the design and architecture of the system;</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>[('take', 'Verb not mapped'), ('develop', 'Extended Abstract'), ('follow', 'Verb not mapped'), ('orient', 'Verb not mapped')]</t>
+          <t>[('select', 'Responding'), ('use', 'Responding'), ('incremente', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[('choose', 'Unistructural'), ('mitigate', 'Extended Abstract'), ('address', 'Relational'), ('integrate', 'Extended Abstract'), ('deliberate', 'Extended Abstract')]</t>
+          <t>[('derive', 'Valuing'), ('follow', 'Receiving'), ('validate', 'Characterisation'), ('simulate', 'Valuing'), ('present', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -5394,27 +5394,27 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[('select', 'Responding'), ('use', 'Responding'), ('incremente', 'Verb not mapped')]</t>
+          <t>[('select', 'Guided Response'), ('use', 'Guided Response'), ('incremente', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[('act', 'Valuing'), ('reduce', 'Organisation'), ('derive', 'Valuing'), ('relay', 'Responding'), ('choose', 'Receiving')]</t>
+          <t>[('trace', 'Guided Response'), ('derive', 'Mechanism'), ('follow', 'Guided Response'), ('validate', 'Origination'), ('simulate', 'Mechanism')]</t>
         </is>
       </c>
     </row>
@@ -5429,27 +5429,27 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Origination</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[('select', 'Guided Response'), ('use', 'Guided Response'), ('incremente', 'Verb not mapped')]</t>
+          <t>[('select', 'Multistructural'), ('use', 'Unistructural'), ('incremente', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[('trace', 'Guided Response'), ('reduce', 'Adaptation'), ('derive', 'Mechanism'), ('choose', 'Perception'), ('formulate', 'Origination')]</t>
+          <t>[('derive', 'Multistructural'), ('validate', 'Extended Abstract'), ('simulate', 'Multistructural'), ('perform', 'Relational'), ('discuss', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -5459,32 +5459,32 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Select and use appropriate tools for iteratively incrementing the design and architecture of the system;</t>
+          <t>Evaluate and apply appropriate design patterns, frameworks and architectures in designing software;</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>[('select', 'Multistructural'), ('use', 'Unistructural'), ('incremente', 'Verb not mapped')]</t>
+          <t>[('evaluate', 'Evaluating'), ('apply', 'Analysing'), ('design', 'Creating')]</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('derive', 'Multistructural'), ('choose', 'Unistructural'), ('formulate', 'Relational'), ('validate', 'Extended Abstract')]</t>
+          <t>[('propose', 'Evaluating'), ('summarise', 'Applying'), ('abstract', 'Evaluating'), ('monitor', 'Evaluating'), ('specify', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -5499,27 +5499,27 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Evaluating'), ('apply', 'Analysing'), ('design', 'Creating')]</t>
+          <t>[('evaluate', 'Organisation'), ('apply', 'Valuing'), ('design', 'Organisation')]</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[('determine', 'Analysing'), ('research', 'Analysing'), ('generate', 'Creating'), ('prepare', 'Analysing'), ('value', 'Evaluating')]</t>
+          <t>[('propose', 'Characterisation'), ('summarise', 'Responding'), ('follow', 'Receiving'), ('monitor', 'Valuing'), ('apply', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -5534,27 +5534,27 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Organisation'), ('apply', 'Valuing'), ('design', 'Organisation')]</t>
+          <t>[('evaluate', 'Relational'), ('apply', 'Multistructural'), ('design', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[('determine', 'Valuing'), ('challenge', 'Characterisation'), ('generate', 'Organisation'), ('prepare', 'Responding'), ('value', 'Characterisation')]</t>
+          <t>[('propose', 'Relational'), ('summarise', 'Unistructural'), ('apply', 'Multistructural'), ('design', 'Extended Abstract'), ('implement', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -5564,32 +5564,32 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Evaluate and apply appropriate design patterns, frameworks and architectures in designing software;</t>
+          <t>Justify design decisions in the context of a project and effectively communicate these decisions to project stakeholders</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Relational'), ('apply', 'Multistructural'), ('design', 'Extended Abstract')]</t>
+          <t>[('justify', 'Organisation'), ('communicate', 'Responding')]</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[('determine', 'Multistructural'), ('generate', 'Extended Abstract'), ('value', 'Extended Abstract'), ('develop', 'Extended Abstract'), ('propose', 'Relational')]</t>
+          <t>[('choose', 'Receiving'), ('discuss', 'Responding'), ('adopt', 'Valuing'), ('guide', 'Valuing'), ('mitigate', 'Characterisation')]</t>
         </is>
       </c>
     </row>
@@ -5599,32 +5599,32 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Justify design decisions in the context of a project and effectively communicate these decisions to project stakeholders</t>
+          <t>Explain and analyse key processor components;</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>[('justify', 'Organisation'), ('communicate', 'Responding')]</t>
+          <t>[('explain', 'Applying'), ('analyse', 'Analysing')]</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[('validate', 'Characterisation'), ('reduce', 'Organisation'), ('evaluate', 'Organisation'), ('contrast', 'Organisation'), ('work', 'Valuing')]</t>
+          <t>[('function', 'Evaluating'), ('monitor', 'Evaluating'), ('explain', 'Applying'), ('analyse', 'Analysing'), ('implement', 'Analysing')]</t>
         </is>
       </c>
     </row>
@@ -5639,27 +5639,27 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>[('explain', 'Applying'), ('analyse', 'Analysing')]</t>
+          <t>[('explain', 'Responding'), ('analyse', 'Organisation')]</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[('function', 'Evaluating'), ('implement', 'Analysing'), ('explore', 'Analysing'), ('summarise', 'Applying'), ('sequence', 'Applying')]</t>
+          <t>[('function', 'Characterisation'), ('agree', 'Responding'), ('monitor', 'Valuing'), ('explain', 'Responding'), ('analyse', 'Organisation')]</t>
         </is>
       </c>
     </row>
@@ -5674,27 +5674,27 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>[('explain', 'Responding'), ('analyse', 'Organisation')]</t>
+          <t>[('explain', 'Unistructural'), ('analyse', 'Relational')]</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[('function', 'Characterisation'), ('implement', 'Valuing'), ('summarise', 'Responding'), ('sequence', 'Valuing'), ('derive', 'Valuing')]</t>
+          <t>[('function', 'Relational'), ('explain', 'Unistructural'), ('analyse', 'Relational'), ('implement', 'Multistructural'), ('translate', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -5704,32 +5704,32 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Explain and analyse key processor components;</t>
+          <t>Explain and analyse computer organisation;</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Adaptation</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>[('explain', 'Set'), ('analyse', 'Adaptation')]</t>
+          <t>[('explain', 'Applying'), ('analyse', 'Analysing')]</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>[('function', 'Adaptation'), ('implement', 'Mechanism'), ('summarise', 'Guided Response'), ('sequence', 'Mechanism'), ('derive', 'Mechanism')]</t>
+          <t>[('function', 'Evaluating'), ('monitor', 'Evaluating'), ('explain', 'Applying'), ('analyse', 'Analysing'), ('implement', 'Analysing')]</t>
         </is>
       </c>
     </row>
@@ -5744,27 +5744,27 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>[('explain', 'Applying'), ('analyse', 'Analysing')]</t>
+          <t>[('explain', 'Responding'), ('analyse', 'Organisation')]</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>[('function', 'Evaluating'), ('implement', 'Analysing'), ('explore', 'Analysing'), ('summarise', 'Applying'), ('sequence', 'Applying')]</t>
+          <t>[('function', 'Characterisation'), ('agree', 'Responding'), ('monitor', 'Valuing'), ('explain', 'Responding'), ('analyse', 'Organisation')]</t>
         </is>
       </c>
     </row>
@@ -5779,27 +5779,27 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>[('explain', 'Responding'), ('analyse', 'Organisation')]</t>
+          <t>[('explain', 'Unistructural'), ('analyse', 'Relational')]</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>[('function', 'Characterisation'), ('implement', 'Valuing'), ('summarise', 'Responding'), ('sequence', 'Valuing'), ('derive', 'Valuing')]</t>
+          <t>[('function', 'Relational'), ('explain', 'Unistructural'), ('analyse', 'Relational'), ('implement', 'Multistructural'), ('translate', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -5809,32 +5809,32 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Explain and analyse computer organisation;</t>
+          <t>Use simulator programs to model computer system components.</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Adaptation</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>[('explain', 'Set'), ('analyse', 'Adaptation')]</t>
+          <t>[('use', 'Responding'), ('model', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>[('function', 'Adaptation'), ('implement', 'Mechanism'), ('summarise', 'Guided Response'), ('sequence', 'Mechanism'), ('derive', 'Mechanism')]</t>
+          <t>[('differentiate', 'Valuing'), ('evaluate', 'Organisation'), ('select', 'Responding'), ('satisfy', 'Organisation'), ('give', 'Receiving')]</t>
         </is>
       </c>
     </row>
@@ -5849,27 +5849,27 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>[('use', 'Responding'), ('model', 'Verb not mapped')]</t>
+          <t>[('use', 'Unistructural'), ('model', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>[('differentiate', 'Valuing'), ('derive', 'Valuing'), ('summarise', 'Responding'), ('sequence', 'Valuing'), ('object', 'Characterisation')]</t>
+          <t>[('differentiate', 'Multistructural'), ('evaluate', 'Relational'), ('select', 'Multistructural'), ('satisfy', 'Relational'), ('plan', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -5879,32 +5879,32 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Use simulator programs to model computer system components.</t>
+          <t>Describe industry-standard team-based project management methodologies and apply them across a multi-functional team to achieve optimal project progress</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>[('use', 'Unistructural'), ('model', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving'), ('base', 'Verb not mapped'), ('apply', 'Valuing'), ('achieve', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>[('differentiate', 'Multistructural'), ('derive', 'Multistructural'), ('summarise', 'Unistructural'), ('sequence', 'Multistructural'), ('function', 'Relational')]</t>
+          <t>[('lead', 'Organisation'), ('review', 'Valuing'), ('synthesise', 'Organisation'), ('support', 'Valuing'), ('delay', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -5919,27 +5919,27 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('base', 'Verb not mapped'), ('apply', 'Valuing'), ('achieve', 'Verb not mapped')]</t>
+          <t>[('describe', 'Unistructural'), ('base', 'Verb not mapped'), ('apply', 'Multistructural'), ('achieve', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>[('review', 'Valuing'), ('agree', 'Responding'), ('support', 'Valuing'), ('manage', 'Organisation'), ('adopt', 'Valuing')]</t>
+          <t>[('review', 'Multistructural'), ('synthesise', 'Extended Abstract'), ('address', 'Relational'), ('mitigate', 'Extended Abstract'), ('organise', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -5949,32 +5949,32 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Describe industry-standard team-based project management methodologies and apply them across a multi-functional team to achieve optimal project progress</t>
+          <t>Apply soft skills when engaging stakeholders in a consistent and professional manner to determine functional and non-functional requirements</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>[('describe', 'Unistructural'), ('base', 'Verb not mapped'), ('apply', 'Multistructural'), ('achieve', 'Verb not mapped')]</t>
+          <t>[('apply', 'Analysing'), ('engage', 'Creating'), ('determine', 'Analysing')]</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>[('review', 'Multistructural'), ('manage', 'Relational'), ('discern', 'Multistructural'), ('generate', 'Extended Abstract'), ('justify', 'Extended Abstract')]</t>
+          <t>[('devise', 'Evaluating'), ('factor', 'Understanding'), ('improve', 'Evaluating'), ('adopt', 'Evaluating'), ('monitor', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -5989,27 +5989,27 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>[('apply', 'Analysing'), ('engage', 'Creating'), ('determine', 'Analysing')]</t>
+          <t>[('apply', 'Multistructural'), ('engage', 'Extended Abstract'), ('determine', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>[('monitor', 'Evaluating'), ('compare', 'Applying'), ('contrast', 'Analysing'), ('appreciate', 'Evaluating'), ('state', 'Remembering')]</t>
+          <t>[('discuss', 'Unistructural'), ('compare', 'Unistructural'), ('contrast', 'Relational'), ('formulate', 'Relational'), ('sequence', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -6019,32 +6019,32 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Apply soft skills when engaging stakeholders in a consistent and professional manner to determine functional and non-functional requirements</t>
+          <t>Plan and manage the full range of activities in a software engineering project in accordance with the development methodology</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>[('apply', 'Multistructural'), ('engage', 'Extended Abstract'), ('determine', 'Multistructural')]</t>
+          <t>[('plan', 'Creating'), ('manage', 'Analysing')]</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>[('compare', 'Unistructural'), ('contrast', 'Relational'), ('appreciate', 'Relational'), ('state', 'Unistructural'), ('compute', 'Multistructural')]</t>
+          <t>[('organise', 'Evaluating'), ('validate', 'Evaluating'), ('plan', 'Creating'), ('manage', 'Analysing'), ('mitigate', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -6059,27 +6059,27 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Extended abstract</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>[('plan', 'Creating'), ('manage', 'Analysing')]</t>
+          <t>[('plan', 'Extended Abstract'), ('manage', 'Relational')]</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>[('plan', 'Creating'), ('manage', 'Analysing'), ('organise', 'Evaluating'), ('allocate', 'Applying'), ('ensure', 'Analysing')]</t>
+          <t>[('organise', 'Relational'), ('validate', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('manage', 'Relational'), ('mitigate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -6089,32 +6089,32 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Plan and manage the full range of activities in a software engineering project in accordance with the development methodology</t>
+          <t>Compare and analyse appropriate industry-standard technologies to determine the optimal combination of software required to support project development</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>[('plan', 'Extended Abstract'), ('manage', 'Relational')]</t>
+          <t>[('compare', 'Applying'), ('analyse', 'Analysing'), ('determine', 'Analysing'), ('require', 'Verb not mapped'), ('support', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>[('plan', 'Extended Abstract'), ('manage', 'Relational'), ('organise', 'Relational'), ('mitigate', 'Extended Abstract'), ('satisfy', 'Relational')]</t>
+          <t>[('back', 'Applying'), ('produce', 'Creating'), ('devise', 'Evaluating'), ('attribute', 'Evaluating'), ('monitor', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -6129,27 +6129,27 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>[('compare', 'Applying'), ('analyse', 'Analysing'), ('determine', 'Analysing'), ('require', 'Verb not mapped'), ('support', 'Evaluating')]</t>
+          <t>[('compare', 'Responding'), ('analyse', 'Organisation'), ('determine', 'Valuing'), ('require', 'Verb not mapped'), ('support', 'Valuing')]</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>[('present', 'Understanding'), ('support', 'Evaluating'), ('monitor', 'Evaluating'), ('ensure', 'Analysing'), ('utilise', 'Applying')]</t>
+          <t>[('lead', 'Organisation'), ('allow', 'Responding'), ('delay', 'Valuing'), ('monitor', 'Valuing'), ('adopt', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -6164,27 +6164,27 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>[('compare', 'Responding'), ('analyse', 'Organisation'), ('determine', 'Valuing'), ('require', 'Verb not mapped'), ('support', 'Valuing')]</t>
+          <t>[('compare', 'Unistructural'), ('analyse', 'Relational'), ('determine', 'Multistructural'), ('require', 'Verb not mapped'), ('support', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>[('agree', 'Responding'), ('present', 'Responding'), ('support', 'Valuing'), ('monitor', 'Valuing'), ('choose', 'Receiving')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('compare', 'Unistructural'), ('simulate', 'Multistructural'), ('prove', 'Relational'), ('generate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -6194,32 +6194,32 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Compare and analyse appropriate industry-standard technologies to determine the optimal combination of software required to support project development</t>
+          <t>Deliberate professional issues occurring within the development and deployment of software applications, and identify appropriate actions based on human factors, relevant law and industry codes of ethical behaviour.</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>[('compare', 'Unistructural'), ('analyse', 'Relational'), ('determine', 'Multistructural'), ('require', 'Verb not mapped'), ('support', 'Verb not mapped')]</t>
+          <t>[('deliberate', 'Creating'), ('occur', 'Verb not mapped'), ('identify', 'Understanding'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[('choose', 'Unistructural'), ('address', 'Relational'), ('perform', 'Relational'), ('justify', 'Extended Abstract'), ('deliberate', 'Extended Abstract')]</t>
+          <t>[('issue', 'Analysing'), ('justify', 'Evaluating'), ('organise', 'Evaluating'), ('ensure', 'Analysing'), ('synthesise', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -6229,32 +6229,32 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Assess aspects of quality assurance that are relevant to the context of the project, and evaluate strategies for ensuring quality standards are met for end users</t>
+          <t>Deliberate professional issues occurring within the development and deployment of software applications, and identify appropriate actions based on human factors, relevant law and industry codes of ethical behaviour.</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>[('assess', 'Extended Abstract'), ('evaluate', 'Relational'), ('ensure', 'Verb not mapped'), ('meet', 'Verb not mapped')]</t>
+          <t>[('deliberate', 'Characterisation'), ('occur', 'Verb not mapped'), ('identify', 'Receiving'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>[('integrate', 'Extended Abstract'), ('assess', 'Extended Abstract'), ('manage', 'Relational'), ('organise', 'Relational'), ('plan', 'Extended Abstract')]</t>
+          <t>[('issue', 'Valuing'), ('justify', 'Organisation'), ('organise', 'Organisation'), ('synthesise', 'Organisation'), ('plan', 'Organisation')]</t>
         </is>
       </c>
     </row>
@@ -6269,27 +6269,27 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Extended abstract</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>[('deliberate', 'Creating'), ('occur', 'Verb not mapped'), ('identify', 'Understanding'), ('base', 'Verb not mapped')]</t>
+          <t>[('deliberate', 'Extended Abstract'), ('occur', 'Verb not mapped'), ('identify', 'Unistructural'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>[('issue', 'Analysing'), ('adopt', 'Evaluating'), ('organise', 'Evaluating'), ('review', 'Analysing'), ('discern', 'Analysing')]</t>
+          <t>[('issue', 'Multistructural'), ('justify', 'Extended Abstract'), ('organise', 'Relational'), ('synthesise', 'Extended Abstract'), ('plan', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -6299,32 +6299,32 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Deliberate professional issues occurring within the development and deployment of software applications, and identify appropriate actions based on human factors, relevant law and industry codes of ethical behaviour.</t>
+          <t>Apply the theories of the relational database model;</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Characterisation</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>[('deliberate', 'Characterisation'), ('occur', 'Verb not mapped'), ('identify', 'Receiving'), ('base', 'Verb not mapped')]</t>
+          <t>[('apply', 'Analysing')]</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>[('issue', 'Valuing'), ('adopt', 'Valuing'), ('organise', 'Organisation'), ('review', 'Valuing'), ('allow', 'Responding')]</t>
+          <t>[('validate', 'Evaluating'), ('create', 'Creating'), ('summarise', 'Applying'), ('design', 'Creating'), ('transfer', 'Analysing')]</t>
         </is>
       </c>
     </row>
@@ -6334,32 +6334,32 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Deliberate professional issues occurring within the development and deployment of software applications, and identify appropriate actions based on human factors, relevant law and industry codes of ethical behaviour.</t>
+          <t>Apply the theories of the relational database model;</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Origination</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>[('deliberate', 'Origination'), ('occur', 'Verb not mapped'), ('identify', 'Perception'), ('base', 'Verb not mapped')]</t>
+          <t>[('apply', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>[('issue', 'Mechanism'), ('organise', 'Mechanism'), ('review', 'Mechanism'), ('discern', 'Mechanism'), ('plan', 'Origination')]</t>
+          <t>[('validate', 'Extended Abstract'), ('create', 'Extended Abstract'), ('summarise', 'Unistructural'), ('design', 'Extended Abstract'), ('transfer', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Apply the theories of the relational database model;</t>
+          <t>Develop a sound relational database design;</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6384,17 +6384,17 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>[('apply', 'Analysing')]</t>
+          <t>[('develop', 'Creating')]</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('propose', 'Evaluating'), ('summarise', 'Applying'), ('produce', 'Creating'), ('adopt', 'Evaluating')]</t>
+          <t>[('trace', 'Remembering'), ('specify', 'Evaluating'), ('validate', 'Evaluating'), ('evaluate', 'Evaluating'), ('summarise', 'Applying')]</t>
         </is>
       </c>
     </row>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Apply the theories of the relational database model;</t>
+          <t>Develop a sound relational database design;</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6414,22 +6414,22 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>[('apply', 'Multistructural')]</t>
+          <t>[('develop', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>[('create', 'Extended Abstract'), ('propose', 'Relational'), ('summarise', 'Unistructural'), ('integrate', 'Extended Abstract'), ('partition', 'Relational')]</t>
+          <t>[('validate', 'Extended Abstract'), ('evaluate', 'Relational'), ('summarise', 'Unistructural'), ('derive', 'Multistructural'), ('partition', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -6439,7 +6439,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Develop a sound relational database design;</t>
+          <t>Implement a relational database based on a sound database design;</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6454,17 +6454,17 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>[('develop', 'Creating')]</t>
+          <t>[('implement', 'Analysing'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>[('specify', 'Evaluating'), ('improve', 'Evaluating'), ('complete', 'Applying'), ('compare', 'Applying'), ('differentiate', 'Applying')]</t>
+          <t>[('specify', 'Evaluating'), ('design', 'Creating'), ('summarise', 'Applying'), ('function', 'Evaluating'), ('develop', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Develop a sound relational database design;</t>
+          <t>Implement a relational database based on a sound database design;</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6489,17 +6489,17 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>[('develop', 'Extended Abstract')]</t>
+          <t>[('implement', 'Multistructural'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>[('compare', 'Unistructural'), ('differentiate', 'Multistructural'), ('validate', 'Extended Abstract'), ('choose', 'Unistructural'), ('characterise', 'Unistructural')]</t>
+          <t>[('design', 'Extended Abstract'), ('summarise', 'Unistructural'), ('function', 'Relational'), ('develop', 'Extended Abstract'), ('conclude', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Implement a relational database based on a sound database design;</t>
+          <t>Manage data that meets user requirements, including queries and transactions;</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6519,22 +6519,22 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Remembering</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>[('implement', 'Analysing'), ('base', 'Verb not mapped')]</t>
+          <t>[('manage', 'Analysing'), ('meet', 'Remembering'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>[('develop', 'Creating'), ('derive', 'Analysing'), ('make', 'Creating'), ('compute', 'Analysing'), ('specify', 'Evaluating')]</t>
+          <t>[('support', 'Evaluating'), ('adopt', 'Evaluating'), ('collect', 'Applying'), ('ensure', 'Analysing'), ('factor', 'Understanding')]</t>
         </is>
       </c>
     </row>
@@ -6544,32 +6544,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Implement a relational database based on a sound database design;</t>
+          <t>Manage data that meets user requirements, including queries and transactions;</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>[('implement', 'Multistructural'), ('base', 'Verb not mapped')]</t>
+          <t>[('manage', 'Organisation'), ('meet', 'Receiving'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>[('develop', 'Extended Abstract'), ('derive', 'Multistructural'), ('compute', 'Multistructural'), ('differentiate', 'Multistructural'), ('order', 'Unistructural')]</t>
+          <t>[('support', 'Valuing'), ('adopt', 'Valuing'), ('lead', 'Organisation'), ('monitor', 'Valuing'), ('query', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Manage data that meets user requirements, including queries and transactions;</t>
+          <t>Differentiate non-relational database model and the relational database model;</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6589,22 +6589,22 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>[('manage', 'Analysing'), ('meet', 'Remembering'), ('include', 'Verb not mapped')]</t>
+          <t>[('differentiate', 'Applying')]</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>[('organise', 'Evaluating'), ('back', 'Applying'), ('adopt', 'Evaluating'), ('query', 'Analysing'), ('deliberate', 'Creating')]</t>
+          <t>[('structure', 'Analysing'), ('simulate', 'Analysing'), ('complete', 'Applying'), ('utilise', 'Applying'), ('file', 'Analysing')]</t>
         </is>
       </c>
     </row>
@@ -6619,27 +6619,27 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Mechanism</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>[('differentiate', 'Applying')]</t>
+          <t>[('differentiate', 'Mechanism')]</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('mitigate', 'Creating'), ('specify', 'Evaluating'), ('back', 'Applying'), ('file', 'Analysing')]</t>
+          <t>[('simulate', 'Mechanism'), ('perform', 'Complex Overt Response'), ('sequence', 'Mechanism'), ('reduce', 'Adaptation'), ('summarise', 'Guided Response')]</t>
         </is>
       </c>
     </row>
@@ -6654,27 +6654,27 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Mechanism</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>[('differentiate', 'Mechanism')]</t>
+          <t>[('differentiate', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Origination'), ('heat', 'Mechanism'), ('generate', 'Origination'), ('derive', 'Mechanism'), ('deliberate', 'Origination')]</t>
+          <t>[('simulate', 'Multistructural'), ('perform', 'Relational'), ('sequence', 'Multistructural'), ('reduce', 'Relational'), ('summarise', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -6684,32 +6684,32 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Differentiate non-relational database model and the relational database model;</t>
+          <t>Design and implement a software system of a quality acceptable to an external client;</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>[('differentiate', 'Multistructural')]</t>
+          <t>[('design', 'Creating'), ('implement', 'Analysing')]</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('generate', 'Extended Abstract'), ('derive', 'Multistructural'), ('deliberate', 'Extended Abstract'), ('choose', 'Unistructural')]</t>
+          <t>[('analyse', 'Analysing'), ('design', 'Creating'), ('implement', 'Analysing'), ('create', 'Creating'), ('function', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -6724,27 +6724,27 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>[('design', 'Creating'), ('implement', 'Analysing')]</t>
+          <t>[('design', 'Organisation'), ('implement', 'Valuing')]</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('function', 'Evaluating'), ('propose', 'Evaluating'), ('extract', 'Analysing'), ('provide', 'Applying')]</t>
+          <t>[('analyse', 'Organisation'), ('design', 'Organisation'), ('implement', 'Valuing'), ('create', 'Characterisation'), ('function', 'Characterisation')]</t>
         </is>
       </c>
     </row>
@@ -6759,27 +6759,27 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Mechanism</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>[('design', 'Organisation'), ('implement', 'Valuing')]</t>
+          <t>[('design', 'Origination'), ('implement', 'Mechanism')]</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>[('analyse', 'Organisation'), ('function', 'Characterisation'), ('propose', 'Characterisation'), ('summarise', 'Responding'), ('give', 'Receiving')]</t>
+          <t>[('analyse', 'Adaptation'), ('design', 'Origination'), ('implement', 'Mechanism'), ('create', 'Origination'), ('function', 'Adaptation')]</t>
         </is>
       </c>
     </row>
@@ -6794,27 +6794,27 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Origination</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Mechanism</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>[('design', 'Origination'), ('implement', 'Mechanism')]</t>
+          <t>[('design', 'Extended Abstract'), ('implement', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>[('analyse', 'Adaptation'), ('function', 'Adaptation'), ('propose', 'Adaptation'), ('make', 'Origination'), ('summarise', 'Guided Response')]</t>
+          <t>[('analyse', 'Relational'), ('design', 'Extended Abstract'), ('implement', 'Multistructural'), ('create', 'Extended Abstract'), ('function', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -6824,32 +6824,32 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Design and implement a software system of a quality acceptable to an external client;</t>
+          <t>Select and use appropriate tools, techniques and strategies to manage project resources, including time and personnel;</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>[('design', 'Extended Abstract'), ('implement', 'Multistructural')]</t>
+          <t>[('select', 'Responding'), ('use', 'Responding'), ('manage', 'Organisation'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>[('analyse', 'Relational'), ('function', 'Relational'), ('propose', 'Relational'), ('summarise', 'Unistructural'), ('create', 'Extended Abstract')]</t>
+          <t>[('support', 'Valuing'), ('adopt', 'Valuing'), ('lead', 'Organisation'), ('monitor', 'Valuing'), ('query', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -6864,27 +6864,27 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>[('select', 'Responding'), ('use', 'Responding'), ('manage', 'Organisation'), ('include', 'Verb not mapped')]</t>
+          <t>[('select', 'Guided Response'), ('use', 'Guided Response'), ('manage', 'Adaptation'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>[('organise', 'Organisation'), ('adopt', 'Valuing'), ('query', 'Valuing'), ('deliberate', 'Characterisation'), ('plan', 'Organisation')]</t>
+          <t>[('perform', 'Complex Overt Response'), ('follow', 'Guided Response'), ('organise', 'Mechanism'), ('address', 'Adaptation'), ('mitigate', 'Origination')]</t>
         </is>
       </c>
     </row>
@@ -6899,27 +6899,27 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>[('select', 'Guided Response'), ('use', 'Guided Response'), ('manage', 'Adaptation'), ('include', 'Verb not mapped')]</t>
+          <t>[('select', 'Multistructural'), ('use', 'Unistructural'), ('manage', 'Relational'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>[('organise', 'Mechanism'), ('deliberate', 'Origination'), ('plan', 'Origination'), ('mitigate', 'Origination'), ('choose', 'Perception')]</t>
+          <t>[('perform', 'Relational'), ('organise', 'Relational'), ('address', 'Relational'), ('mitigate', 'Extended Abstract'), ('state', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -6929,32 +6929,32 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Select and use appropriate tools, techniques and strategies to manage project resources, including time and personnel;</t>
+          <t>Identify potential sources of risk, including ethical risk, and devise and adopt appropriate strategies to monitor and mitigate these risks;</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>[('select', 'Multistructural'), ('use', 'Unistructural'), ('manage', 'Relational'), ('include', 'Verb not mapped')]</t>
+          <t>[('identify', 'Perception'), ('include', 'Verb not mapped'), ('devise', 'Verb not mapped'), ('adopt', 'Verb not mapped'), ('monitor', 'Verb not mapped'), ('mitigate', 'Origination')]</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>[('organise', 'Relational'), ('deliberate', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('choose', 'Unistructural')]</t>
+          <t>[('mitigate', 'Origination'), ('satisfy', 'Adaptation'), ('address', 'Adaptation'), ('trace', 'Guided Response'), ('generate', 'Origination')]</t>
         </is>
       </c>
     </row>
@@ -6969,27 +6969,27 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Origination</t>
+          <t>Extended Abstract</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>[('identify', 'Perception'), ('include', 'Verb not mapped'), ('devise', 'Verb not mapped'), ('adopt', 'Verb not mapped'), ('monitor', 'Verb not mapped'), ('mitigate', 'Origination')]</t>
+          <t>[('identify', 'Unistructural'), ('include', 'Verb not mapped'), ('devise', 'Verb not mapped'), ('adopt', 'Verb not mapped'), ('monitor', 'Verb not mapped'), ('mitigate', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Origination'), ('change', 'Mechanism'), ('compare', 'Guided Response'), ('respond', 'Guided Response'), ('perform', 'Complex Overt Response')]</t>
+          <t>[('mitigate', 'Extended Abstract'), ('satisfy', 'Relational'), ('address', 'Relational'), ('generate', 'Extended Abstract'), ('sequence', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -6999,32 +6999,32 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Identify potential sources of risk, including ethical risk, and devise and adopt appropriate strategies to monitor and mitigate these risks;</t>
+          <t>Choose and follow a software development methodology that is appropriate to the team, project and client, and justify this methodology;</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('include', 'Verb not mapped'), ('devise', 'Verb not mapped'), ('adopt', 'Verb not mapped'), ('monitor', 'Verb not mapped'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('choose', 'Applying'), ('follow', 'Verb not mapped'), ('justify', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Extended Abstract'), ('compare', 'Unistructural'), ('perform', 'Relational'), ('generate', 'Extended Abstract'), ('contrast', 'Relational')]</t>
+          <t>[('group', 'Analysing'), ('address', 'Evaluating'), ('detail', 'Understanding'), ('present', 'Understanding'), ('choose', 'Applying')]</t>
         </is>
       </c>
     </row>
@@ -7039,27 +7039,27 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Responding/Valuing</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>[('choose', 'Applying'), ('follow', 'Verb not mapped'), ('justify', 'Evaluating')]</t>
+          <t>[('choose', 'Receiving'), ('follow', 'Receiving'), ('justify', 'Organisation')]</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>[('interface', 'Evaluating'), ('explore', 'Analysing'), ('ensure', 'Analysing'), ('allocate', 'Applying'), ('detail', 'Understanding')]</t>
+          <t>[('address', 'Organisation'), ('present', 'Responding'), ('choose', 'Receiving'), ('prepare', 'Responding'), ('discuss', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -7074,27 +7074,27 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Responding/Valuing</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>[('choose', 'Receiving'), ('follow', 'Receiving'), ('justify', 'Organisation')]</t>
+          <t>[('choose', 'Unistructural'), ('follow', 'Verb not mapped'), ('justify', 'Extended Abstract')]</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>[('collaborate', 'Organisation'), ('guide', 'Valuing'), ('challenge', 'Characterisation'), ('respond', 'Responding'), ('adopt', 'Valuing')]</t>
+          <t>[('address', 'Relational'), ('choose', 'Unistructural'), ('discuss', 'Unistructural'), ('mitigate', 'Extended Abstract'), ('assess', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Choose and follow a software development methodology that is appropriate to the team, project and client, and justify this methodology;</t>
+          <t>Elicit functional and non-functional requirements, including human aspects requirements, from client representatives and ensure that these are communicated to team members and other stakeholders in an appropriate form</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -7117,19 +7117,15 @@
           <t>Relational</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Unistructural</t>
-        </is>
-      </c>
+      <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>[('choose', 'Unistructural'), ('follow', 'Verb not mapped'), ('justify', 'Extended Abstract')]</t>
+          <t>[('elicit', 'Verb not mapped'), ('include', 'Verb not mapped'), ('ensure', 'Verb not mapped'), ('communicate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>[('organise', 'Relational'), ('choose', 'Unistructural'), ('discuss', 'Unistructural'), ('value', 'Extended Abstract'), ('deliberate', 'Extended Abstract')]</t>
+          <t>[('discuss', 'Unistructural'), ('verify', 'Relational'), ('mitigate', 'Extended Abstract'), ('choose', 'Unistructural'), ('assess', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -7139,28 +7135,32 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Elicit functional and non-functional requirements, including human aspects requirements, from client representatives and ensure that these are communicated to team members and other stakeholders in an appropriate form</t>
+          <t>Produce internal documentation of a sufficient quality to support project development activities (including specification, analysis, design, testing) and address relevant security and other risks</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Relational</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
+          <t>Creating</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>[('include', 'Verb not mapped'), ('ensure', 'Verb not mapped'), ('communicate', 'Verb not mapped')]</t>
+          <t>[('produce', 'Creating'), ('support', 'Evaluating'), ('include', 'Verb not mapped'), ('address', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>[('validate', 'Extended Abstract'), ('reduce', 'Relational'), ('contrast', 'Relational'), ('manage', 'Relational'), ('describe', 'Unistructural')]</t>
+          <t>[('interface', 'Evaluating'), ('monitor', 'Evaluating'), ('mitigate', 'Creating'), ('adopt', 'Evaluating'), ('factor', 'Understanding')]</t>
         </is>
       </c>
     </row>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Produce internal documentation of a sufficient quality to support project development activities (including specification, analysis, design, testing) and address relevant security and other risks</t>
+          <t>Communicate effectively with a diverse range of project stakeholders, including clients, end users, and supervisors</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7180,22 +7180,18 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Creating</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Evaluating</t>
-        </is>
-      </c>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>[('produce', 'Creating'), ('support', 'Evaluating'), ('include', 'Verb not mapped'), ('address', 'Evaluating')]</t>
+          <t>[('communicate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>[('devise', 'Evaluating'), ('adopt', 'Evaluating'), ('monitor', 'Evaluating'), ('factor', 'Understanding'), ('establish', 'Analysing')]</t>
+          <t>[('support', 'Evaluating'), ('adopt', 'Evaluating'), ('collect', 'Applying'), ('ensure', 'Analysing'), ('factor', 'Understanding')]</t>
         </is>
       </c>
     </row>
@@ -7205,32 +7201,28 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Produce internal documentation of a sufficient quality to support project development activities (including specification, analysis, design, testing) and address relevant security and other risks</t>
+          <t>Communicate effectively with a diverse range of project stakeholders, including clients, end users, and supervisors</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>[('produce', 'Verb not mapped'), ('support', 'Valuing'), ('include', 'Verb not mapped'), ('address', 'Organisation')]</t>
+          <t>[('communicate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>[('delay', 'Valuing'), ('adopt', 'Valuing'), ('monitor', 'Valuing'), ('establish', 'Valuing'), ('perform', 'Characterisation')]</t>
+          <t>[('perform', 'Relational'), ('organise', 'Relational'), ('address', 'Relational'), ('mitigate', 'Extended Abstract'), ('state', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -7240,28 +7232,32 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Communicate effectively with a diverse range of project stakeholders, including clients, end users, and supervisors</t>
+          <t>Set achievable and measurable goals;</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Applying</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr"/>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>[('communicate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('set', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>[('organise', 'Evaluating'), ('back', 'Applying'), ('adopt', 'Evaluating'), ('query', 'Analysing'), ('deliberate', 'Creating')]</t>
+          <t>[('reduce', 'Adaptation'), ('sequence', 'Mechanism'), ('perform', 'Complex Overt Response'), ('mitigate', 'Origination'), ('satisfy', 'Adaptation')]</t>
         </is>
       </c>
     </row>
@@ -7271,28 +7267,32 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Communicate effectively with a diverse range of project stakeholders, including clients, end users, and supervisors</t>
+          <t>Develop and practice professional skills and attitudes including: initiative, communication, time-management and teamwork skills in a business environment;</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Multistructural</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
+          <t>Complete Overt Response</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Origination</t>
+        </is>
+      </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>[('communicate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('develop', 'Origination'), ('practice', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>[('organise', 'Relational'), ('deliberate', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('choose', 'Unistructural')]</t>
+          <t>[('perform', 'Complex Overt Response'), ('follow', 'Guided Response'), ('organise', 'Mechanism'), ('address', 'Adaptation'), ('mitigate', 'Origination')]</t>
         </is>
       </c>
     </row>
@@ -7302,32 +7302,32 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Verify systematically that internal and external project deliverables meet agreed quality standards, such as functionality, security and usability</t>
+          <t>Develop solutions to business problems using information technology and other techniques;</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Adaptation</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>[('verify', 'Creating'), ('meet', 'Remembering'), ('agree', 'Verb not mapped')]</t>
+          <t>[('develop', 'Origination'), ('use', 'Guided Response')]</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>[('query', 'Analysing'), ('ensure', 'Analysing'), ('monitor', 'Evaluating'), ('adopt', 'Evaluating'), ('perform', 'Creating')]</t>
+          <t>[('reduce', 'Adaptation'), ('construct', 'Adaptation'), ('state', 'Set'), ('describe', 'Perception'), ('contrast', 'Adaptation')]</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Set achievable and measurable goals;</t>
+          <t>Address performance improvement opportunities identified by industry supervisors and self-assess opportunities for personal development;</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7347,18 +7347,22 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Set</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
+          <t>Guided Response</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Perception</t>
+        </is>
+      </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>[('set', 'Verb not mapped')]</t>
+          <t>[('address', 'Adaptation'), ('identify', 'Perception'), ('assess', 'Origination')]</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>[('reduce', 'Adaptation'), ('mitigate', 'Origination'), ('heat', 'Mechanism'), ('trace', 'Guided Response'), ('characterise', 'Guided Response')]</t>
+          <t>[('mitigate', 'Origination'), ('prepare', 'Guided Response'), ('compare', 'Guided Response'), ('sequence', 'Mechanism'), ('generate', 'Origination')]</t>
         </is>
       </c>
     </row>
@@ -7368,7 +7372,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Develop and practice professional skills and attitudes including: initiative, communication, time-management and teamwork skills in a business environment;</t>
+          <t>Develop information technology skills (such as business process modelling, performance enhancement of installed software, updating current software and developing new software) in a complex, corporate business environment;</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7388,12 +7392,12 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>[('develop', 'Origination'), ('practice', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('develop', 'Origination'), ('instal', 'Verb not mapped'), ('update', 'Verb not mapped'), ('develop', 'Origination')]</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>[('organise', 'Mechanism'), ('deliberate', 'Origination'), ('plan', 'Origination'), ('mitigate', 'Origination'), ('choose', 'Perception')]</t>
+          <t>[('trace', 'Guided Response'), ('validate', 'Origination'), ('develop', 'Origination'), ('evaluate', 'Adaptation'), ('report', 'Guided Response')]</t>
         </is>
       </c>
     </row>
@@ -7403,7 +7407,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Develop solutions to business problems using information technology and other techniques;</t>
+          <t>Apply engineering synthesis and design processes in a business and information technology environment;</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7413,22 +7417,22 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Adaptation</t>
+          <t>Originiation</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Mechanism</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>[('develop', 'Origination'), ('use', 'Guided Response')]</t>
+          <t>[('apply', 'Mechanism')]</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>[('reduce', 'Adaptation'), ('evaluate', 'Adaptation'), ('formulate', 'Origination'), ('compare', 'Guided Response'), ('function', 'Adaptation')]</t>
+          <t>[('validate', 'Origination'), ('create', 'Origination'), ('summarise', 'Guided Response'), ('design', 'Origination'), ('heat', 'Mechanism')]</t>
         </is>
       </c>
     </row>
@@ -7438,32 +7442,32 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Address performance improvement opportunities identified by industry supervisors and self-assess opportunities for personal development;</t>
+          <t>Analyse critically and apply the ISO reference and Internet models;</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Adaptation</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>[('address', 'Adaptation'), ('identify', 'Perception'), ('assess', 'Origination')]</t>
+          <t>[('analyse', 'Relational'), ('apply', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>[('prove', 'Adaptation'), ('appreciate', 'Adaptation'), ('contrast', 'Adaptation'), ('respond', 'Guided Response'), ('mitigate', 'Origination')]</t>
+          <t>[('validate', 'Extended Abstract'), ('create', 'Extended Abstract'), ('summarise', 'Unistructural'), ('explain', 'Unistructural'), ('design', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -7473,32 +7477,32 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Develop information technology skills (such as business process modelling, performance enhancement of installed software, updating current software and developing new software) in a complex, corporate business environment;</t>
+          <t>Implement programs using internet working concepts, IP addressing, IPC and socket-level interface;</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Complete Overt Response</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Origination</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>[('develop', 'Origination'), ('instal', 'Verb not mapped'), ('update', 'Verb not mapped'), ('develop', 'Origination')]</t>
+          <t>[('implement', 'Multistructural'), ('use', 'Unistructural'), ('work', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>[('compare', 'Guided Response'), ('differentiate', 'Mechanism'), ('validate', 'Origination'), ('develop', 'Origination'), ('follow', 'Guided Response')]</t>
+          <t>[('discern', 'Multistructural'), ('engage', 'Extended Abstract'), ('calculate', 'Multistructural'), ('address', 'Relational'), ('demonstrate', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -7508,32 +7512,32 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Apply engineering synthesis and design processes in a business and information technology environment;</t>
+          <t>Analyse critically and implement the fundamentals and technologies of the network layer, including packet-switching and queueing concepts;</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Originiation</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Mechanism</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>[('apply', 'Mechanism')]</t>
+          <t>[('analyse', 'Relational'), ('implement', 'Multistructural'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>[('create', 'Origination'), ('propose', 'Adaptation'), ('summarise', 'Guided Response'), ('follow', 'Guided Response'), ('integrate', 'Origination')]</t>
+          <t>[('perform', 'Relational'), ('organise', 'Relational'), ('address', 'Relational'), ('mitigate', 'Extended Abstract'), ('state', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -7543,7 +7547,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Analyse critically and apply the ISO reference and Internet models;</t>
+          <t>Analyse critically and implement designs based on the functions and architectures of cabled and wireless LAN and WAN, including ALOHA and CSMA/CD/CA models;</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7563,12 +7567,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>[('analyse', 'Relational'), ('apply', 'Multistructural')]</t>
+          <t>[('analyse', 'Relational'), ('implement', 'Multistructural'), ('base', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>[('create', 'Extended Abstract'), ('propose', 'Relational'), ('summarise', 'Unistructural'), ('integrate', 'Extended Abstract'), ('partition', 'Relational')]</t>
+          <t>[('perform', 'Relational'), ('organise', 'Relational'), ('address', 'Relational'), ('mitigate', 'Extended Abstract'), ('state', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -7578,32 +7582,32 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Implement programs using internet working concepts, IP addressing, IPC and socket-level interface;</t>
+          <t>Implement and evaluate system level designs based on LAN architecture for organisational requirements.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>[('implement', 'Multistructural'), ('use', 'Unistructural'), ('work', 'Verb not mapped')]</t>
+          <t>[('implement', 'Analysing'), ('evaluate', 'Evaluating'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>[('justify', 'Extended Abstract'), ('partition', 'Relational'), ('discuss', 'Unistructural'), ('demonstrate', 'Multistructural'), ('engage', 'Extended Abstract')]</t>
+          <t>[('plan', 'Creating'), ('organise', 'Evaluating'), ('provide', 'Applying'), ('abstract', 'Evaluating'), ('manage', 'Analysing')]</t>
         </is>
       </c>
     </row>
@@ -7613,7 +7617,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Analyse critically and implement the fundamentals and technologies of the network layer, including packet-switching and queueing concepts;</t>
+          <t>Implement and evaluate system level designs based on LAN architecture for organisational requirements.</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7633,12 +7637,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>[('analyse', 'Relational'), ('implement', 'Multistructural'), ('include', 'Verb not mapped')]</t>
+          <t>[('implement', 'Multistructural'), ('evaluate', 'Relational'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>[('organise', 'Relational'), ('deliberate', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('choose', 'Unistructural')]</t>
+          <t>[('plan', 'Extended Abstract'), ('organise', 'Relational'), ('manage', 'Relational'), ('create', 'Extended Abstract'), ('test', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -7648,32 +7652,32 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Analyse critically and implement designs based on the functions and architectures of cabled and wireless LAN and WAN, including ALOHA and CSMA/CD/CA models;</t>
+          <t>Research relevant and reliable literature to evaluate the state of the field.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>[('analyse', 'Relational'), ('implement', 'Multistructural'), ('base', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('research', 'Analysing'), ('evaluate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>[('organise', 'Relational'), ('deliberate', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('choose', 'Unistructural')]</t>
+          <t>[('study', 'Applying'), ('simulate', 'Analysing'), ('perform', 'Creating'), ('respond', 'Understanding'), ('validate', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -7683,32 +7687,32 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Implement and evaluate system level designs based on LAN architecture for organisational requirements.</t>
+          <t>Research relevant and reliable literature to evaluate the state of the field.</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>[('implement', 'Analysing'), ('evaluate', 'Evaluating'), ('base', 'Verb not mapped')]</t>
+          <t>[('research', 'Verb not mapped'), ('evaluate', 'Organisation')]</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>[('adopt', 'Evaluating'), ('organise', 'Evaluating'), ('example', 'Understanding'), ('plan', 'Creating'), ('discern', 'Analysing')]</t>
+          <t>[('agree', 'Responding'), ('study', 'Responding'), ('simulate', 'Valuing'), ('perform', 'Characterisation'), ('respond', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -7718,7 +7722,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Implement and evaluate system level designs based on LAN architecture for organisational requirements.</t>
+          <t>Research relevant and reliable literature to evaluate the state of the field.</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7728,22 +7732,22 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
+          <t>Extended abstract</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
           <t>Relational</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Multistructural</t>
-        </is>
-      </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>[('implement', 'Multistructural'), ('evaluate', 'Relational'), ('base', 'Verb not mapped')]</t>
+          <t>[('research', 'Verb not mapped'), ('evaluate', 'Relational')]</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>[('organise', 'Relational'), ('plan', 'Extended Abstract'), ('discern', 'Multistructural'), ('explain', 'Unistructural'), ('use', 'Unistructural')]</t>
+          <t>[('simulate', 'Multistructural'), ('perform', 'Relational'), ('validate', 'Extended Abstract'), ('compare', 'Unistructural'), ('derive', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -7753,32 +7757,32 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Research relevant and reliable literature to evaluate the state of the field.</t>
+          <t>Analyse a problem and evaluate the potential of a solution or experiment.</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>[('research', 'Verb not mapped'), ('evaluate', 'Organisation')]</t>
+          <t>[('analyse', 'Analysing'), ('evaluate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>[('compare', 'Responding'), ('simulate', 'Valuing'), ('reduce', 'Organisation'), ('contrast', 'Organisation'), ('appreciate', 'Organisation')]</t>
+          <t>[('study', 'Applying'), ('simulate', 'Analysing'), ('perform', 'Creating'), ('respond', 'Understanding'), ('validate', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -7788,32 +7792,32 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Research relevant and reliable literature to evaluate the state of the field.</t>
+          <t>Analyse a problem and evaluate the potential of a solution or experiment.</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>[('research', 'Verb not mapped'), ('evaluate', 'Relational')]</t>
+          <t>[('analyse', 'Organisation'), ('evaluate', 'Organisation')]</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>[('compare', 'Unistructural'), ('simulate', 'Multistructural'), ('reduce', 'Relational'), ('contrast', 'Relational'), ('appreciate', 'Relational')]</t>
+          <t>[('agree', 'Responding'), ('study', 'Responding'), ('simulate', 'Valuing'), ('perform', 'Characterisation'), ('respond', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -7828,27 +7832,27 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t xml:space="preserve">Extended abstract </t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>[('analyse', 'Analysing'), ('evaluate', 'Evaluating')]</t>
+          <t>[('analyse', 'Relational'), ('evaluate', 'Relational')]</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>[('compare', 'Applying'), ('simulate', 'Analysing'), ('reduce', 'Evaluating'), ('contrast', 'Analysing'), ('appreciate', 'Evaluating')]</t>
+          <t>[('simulate', 'Multistructural'), ('perform', 'Relational'), ('validate', 'Extended Abstract'), ('compare', 'Unistructural'), ('derive', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -7858,32 +7862,32 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Analyse a problem and evaluate the potential of a solution or experiment.</t>
+          <t>Appraise a complex engineering problem and investigate it using appropriate research methods and techniques.</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>[('analyse', 'Organisation'), ('evaluate', 'Organisation')]</t>
+          <t>[('appraise', 'Evaluating'), ('investigate', 'Analysing'), ('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>[('compare', 'Responding'), ('simulate', 'Valuing'), ('reduce', 'Organisation'), ('contrast', 'Organisation'), ('appreciate', 'Organisation')]</t>
+          <t>[('engage', 'Creating'), ('research', 'Analysing'), ('reduce', 'Evaluating'), ('construct', 'Evaluating'), ('debug', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -7893,32 +7897,32 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Analyse a problem and evaluate the potential of a solution or experiment.</t>
+          <t>Appraise a complex engineering problem and investigate it using appropriate research methods and techniques.</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Extended abstract </t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>[('analyse', 'Relational'), ('evaluate', 'Relational')]</t>
+          <t>[('appraise', 'Characterisation'), ('investigate', 'Organisation'), ('use', 'Responding')]</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>[('compare', 'Unistructural'), ('simulate', 'Multistructural'), ('reduce', 'Relational'), ('contrast', 'Relational'), ('appreciate', 'Relational')]</t>
+          <t>[('engage', 'Characterisation'), ('reduce', 'Organisation'), ('construct', 'Organisation'), ('issue', 'Valuing'), ('state', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -7933,27 +7937,27 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t xml:space="preserve">Extended abstract </t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>[('appraise', 'Evaluating'), ('investigate', 'Analysing'), ('use', 'Applying')]</t>
+          <t>[('appraise', 'Extended Abstract'), ('investigate', 'Verb not mapped'), ('use', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>[('research', 'Analysing'), ('reduce', 'Evaluating'), ('evaluate', 'Evaluating'), ('collect', 'Applying'), ('engage', 'Creating')]</t>
+          <t>[('engage', 'Extended Abstract'), ('reduce', 'Relational'), ('construct', 'Relational'), ('issue', 'Multistructural'), ('state', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -7963,7 +7967,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Appraise a complex engineering problem and investigate it using appropriate research methods and techniques.</t>
+          <t>Integrate foundational and discipline-specific knowledge to solve complex open-ended problems.</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7973,22 +7977,22 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Organisation/Characterisation</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>[('appraise', 'Characterisation'), ('investigate', 'Organisation'), ('use', 'Responding')]</t>
+          <t>[('integrate', 'Organisation'), ('solve', 'Valuing')]</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>[('reduce', 'Organisation'), ('evaluate', 'Organisation'), ('engage', 'Characterisation'), ('formulate', 'Organisation'), ('compare', 'Responding')]</t>
+          <t>[('study', 'Responding'), ('challenge', 'Characterisation'), ('simulate', 'Valuing'), ('create', 'Characterisation'), ('follow', 'Receiving')]</t>
         </is>
       </c>
     </row>
@@ -7998,7 +8002,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Appraise a complex engineering problem and investigate it using appropriate research methods and techniques.</t>
+          <t>Integrate foundational and discipline-specific knowledge to solve complex open-ended problems.</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -8008,22 +8012,22 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Extended abstract </t>
+          <t>Extended abstract</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>[('appraise', 'Extended Abstract'), ('investigate', 'Verb not mapped'), ('use', 'Unistructural')]</t>
+          <t>[('integrate', 'Extended Abstract'), ('solve', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>[('reduce', 'Relational'), ('evaluate', 'Relational'), ('engage', 'Extended Abstract'), ('formulate', 'Relational'), ('compare', 'Unistructural')]</t>
+          <t>[('simulate', 'Multistructural'), ('create', 'Extended Abstract'), ('discuss', 'Unistructural'), ('sequence', 'Multistructural'), ('validate', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -8033,32 +8037,32 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Integrate foundational and discipline-specific knowledge to solve complex open-ended problems.</t>
+          <t>Plan the scope and requirements of a research project or experiment, responding to changing requirements and potential interdisciplinary inputs.</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Organisation/Characterisation</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>[('integrate', 'Organisation'), ('solve', 'Valuing')]</t>
+          <t>[('plan', 'Creating'), ('respond', 'Understanding'), ('change', 'Analysing')]</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>[('adopt', 'Valuing'), ('perform', 'Characterisation'), ('guide', 'Valuing'), ('challenge', 'Characterisation'), ('act', 'Valuing')]</t>
+          <t>[('change', 'Analysing'), ('respond', 'Understanding'), ('experiment', 'Analysing'), ('improve', 'Evaluating'), ('investigate', 'Analysing')]</t>
         </is>
       </c>
     </row>
@@ -8068,32 +8072,32 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Integrate foundational and discipline-specific knowledge to solve complex open-ended problems.</t>
+          <t>Plan the scope and requirements of a research project or experiment, responding to changing requirements and potential interdisciplinary inputs.</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>[('integrate', 'Extended Abstract'), ('solve', 'Multistructural')]</t>
+          <t>[('plan', 'Organisation'), ('respond', 'Responding'), ('change', 'Valuing')]</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>[('perform', 'Relational'), ('generate', 'Extended Abstract'), ('organise', 'Relational'), ('choose', 'Unistructural'), ('discuss', 'Unistructural')]</t>
+          <t>[('respond', 'Responding'), ('change', 'Valuing'), ('investigate', 'Organisation'), ('monitor', 'Valuing'), ('act', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8107,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Plan the scope and requirements of a research project or experiment, responding to changing requirements and potential interdisciplinary inputs.</t>
+          <t>Generate research and technical outputs by applying appropriate techniques, resources and modern engineering tools to a complex open-ended engineering problem.</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -8123,12 +8127,12 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>[('plan', 'Creating'), ('respond', 'Understanding'), ('change', 'Analysing')]</t>
+          <t>[('generate', 'Creating'), ('apply', 'Analysing')]</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>[('change', 'Analysing'), ('respond', 'Understanding'), ('investigate', 'Analysing'), ('experiment', 'Analysing'), ('improve', 'Evaluating')]</t>
+          <t>[('validate', 'Evaluating'), ('create', 'Creating'), ('summarise', 'Applying'), ('explain', 'Applying'), ('design', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -8138,32 +8142,32 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Plan the scope and requirements of a research project or experiment, responding to changing requirements and potential interdisciplinary inputs.</t>
+          <t>Generate research and technical outputs by applying appropriate techniques, resources and modern engineering tools to a complex open-ended engineering problem.</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Extended abstract</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>[('plan', 'Organisation'), ('respond', 'Responding'), ('change', 'Valuing')]</t>
+          <t>[('generate', 'Extended Abstract'), ('apply', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>[('respond', 'Responding'), ('change', 'Valuing'), ('investigate', 'Organisation'), ('guide', 'Valuing'), ('mitigate', 'Characterisation')]</t>
+          <t>[('validate', 'Extended Abstract'), ('create', 'Extended Abstract'), ('summarise', 'Unistructural'), ('explain', 'Unistructural'), ('design', 'Extended Abstract')]</t>
         </is>
       </c>
     </row>
@@ -8173,7 +8177,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Generate research and technical outputs by applying appropriate techniques, resources and modern engineering tools to a complex open-ended engineering problem.</t>
+          <t>Demonstrate consideration of the ethics and norms which guide engineering practice, including professionalism, innovation and creativity.</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -8183,7 +8187,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -8193,12 +8197,12 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>[('generate', 'Creating'), ('apply', 'Analysing')]</t>
+          <t>[('demonstrate', 'Analysing'), ('guide', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('propose', 'Evaluating'), ('summarise', 'Applying'), ('produce', 'Creating'), ('determine', 'Analysing')]</t>
+          <t>[('support', 'Evaluating'), ('adopt', 'Evaluating'), ('collect', 'Applying'), ('ensure', 'Analysing'), ('factor', 'Understanding')]</t>
         </is>
       </c>
     </row>
@@ -8208,7 +8212,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Generate research and technical outputs by applying appropriate techniques, resources and modern engineering tools to a complex open-ended engineering problem.</t>
+          <t>Demonstrate consideration of the ethics and norms which guide engineering practice, including professionalism, innovation and creativity.</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -8228,12 +8232,12 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>[('generate', 'Extended Abstract'), ('apply', 'Multistructural')]</t>
+          <t>[('demonstrate', 'Multistructural'), ('guide', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>[('create', 'Extended Abstract'), ('propose', 'Relational'), ('summarise', 'Unistructural'), ('determine', 'Multistructural'), ('integrate', 'Extended Abstract')]</t>
+          <t>[('perform', 'Relational'), ('organise', 'Relational'), ('address', 'Relational'), ('mitigate', 'Extended Abstract'), ('state', 'Unistructural')]</t>
         </is>
       </c>
     </row>
@@ -8243,7 +8247,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Demonstrate consideration of the ethics and norms which guide engineering practice, including professionalism, innovation and creativity.</t>
+          <t>Assess the social, health, safety, legal, cultural, commercial and political impacts of the identified project, as appropriate.</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -8253,22 +8257,22 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Analysing'), ('guide', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('assess', 'Evaluating'), ('identify', 'Understanding')]</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>[('organise', 'Evaluating'), ('back', 'Applying'), ('adopt', 'Evaluating'), ('query', 'Analysing'), ('deliberate', 'Creating')]</t>
+          <t>[('devise', 'Evaluating'), ('factor', 'Understanding'), ('address', 'Evaluating'), ('adopt', 'Evaluating'), ('mitigate', 'Creating')]</t>
         </is>
       </c>
     </row>
@@ -8278,32 +8282,32 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Demonstrate consideration of the ethics and norms which guide engineering practice, including professionalism, innovation and creativity.</t>
+          <t>Assess the social, health, safety, legal, cultural, commercial and political impacts of the identified project, as appropriate.</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Extended abstract</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Responding'), ('guide', 'Valuing'), ('include', 'Verb not mapped')]</t>
+          <t>[('assess', 'Extended Abstract'), ('identify', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>[('organise', 'Organisation'), ('adopt', 'Valuing'), ('query', 'Valuing'), ('deliberate', 'Characterisation'), ('plan', 'Organisation')]</t>
+          <t>[('address', 'Relational'), ('mitigate', 'Extended Abstract'), ('discuss', 'Unistructural'), ('observe', 'Unistructural'), ('satisfy', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -8313,32 +8317,32 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Demonstrate consideration of the ethics and norms which guide engineering practice, including professionalism, innovation and creativity.</t>
+          <t>Synthesise the progress and outputs of your project through professional engineering reports and presentations to a range of audiences including the community and industry.</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Multistructural'), ('guide', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('synthesise', 'Organisation'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>[('organise', 'Relational'), ('deliberate', 'Extended Abstract'), ('plan', 'Extended Abstract'), ('mitigate', 'Extended Abstract'), ('choose', 'Unistructural')]</t>
+          <t>[('support', 'Valuing'), ('adopt', 'Valuing'), ('lead', 'Organisation'), ('monitor', 'Valuing'), ('query', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -8348,32 +8352,32 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Synthesise the progress and outputs of your project through professional engineering reports and presentations to a range of audiences including the community and industry.</t>
+          <t>Engage with project collaborators to achieve research outcomes using effective self and/or team management, review and improvement practices. (Applicable to the Clayton-based course)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Extended abstract</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>[('synthesise', 'Organisation'), ('include', 'Verb not mapped')]</t>
+          <t>[('engage', 'Extended Abstract'), ('achieve', 'Verb not mapped'), ('use', 'Unistructural'), ('base', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>[('organise', 'Organisation'), ('adopt', 'Valuing'), ('query', 'Valuing'), ('deliberate', 'Characterisation'), ('plan', 'Organisation')]</t>
+          <t>[('engage', 'Extended Abstract'), ('design', 'Extended Abstract'), ('summarise', 'Unistructural'), ('function', 'Relational'), ('organise', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -8383,32 +8387,32 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Engage with project collaborators to achieve research outcomes using effective self and/or team management, review and improvement practices. (Applicable to the Clayton-based course)</t>
+          <t>Describe the purpose of enterprise architectures and the underlying principles of their design;</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>[('engage', 'Extended Abstract'), ('achieve', 'Verb not mapped'), ('use', 'Unistructural'), ('base', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving'), ('underlie', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>[('review', 'Multistructural'), ('report', 'Unistructural'), ('issue', 'Multistructural'), ('demonstrate', 'Multistructural'), ('engage', 'Extended Abstract')]</t>
+          <t>[('sequence', 'Valuing'), ('present', 'Responding'), ('describe', 'Receiving'), ('characterise', 'Valuing'), ('agree', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -8418,7 +8422,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Describe the purpose of enterprise architectures and the underlying principles of their design;</t>
+          <t>Explain individual IT systems and services as interrelated components of an enterprise-wide platform;</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8428,22 +8432,22 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
           <t>Responding</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Receiving</t>
-        </is>
-      </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('underlie', 'Verb not mapped')]</t>
+          <t>[('explain', 'Responding'), ('interrelate', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>[('respond', 'Responding'), ('reduce', 'Organisation'), ('sequence', 'Valuing'), ('relay', 'Responding'), ('compare', 'Responding')]</t>
+          <t>[('study', 'Responding'), ('delay', 'Valuing'), ('agree', 'Responding'), ('sequence', 'Valuing'), ('respond', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -8453,7 +8457,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Explain individual IT systems and services as interrelated components of an enterprise-wide platform;</t>
+          <t>Describe into the need for sound data, information and technology governance strategies;</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8463,22 +8467,22 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Recieving</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>[('explain', 'Responding')]</t>
+          <t>[('describe', 'Receiving')]</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>[('sequence', 'Valuing'), ('allow', 'Responding'), ('perform', 'Characterisation'), ('object', 'Characterisation'), ('choose', 'Receiving')]</t>
+          <t>[('mitigate', 'Characterisation'), ('appreciate', 'Organisation'), ('allow', 'Responding'), ('deliberate', 'Characterisation'), ('characterise', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -8488,7 +8492,8 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Describe into the need for sound data, information and technology governance strategies;</t>
+          <t xml:space="preserve">
+Explain the alignment of an organisation's IT strategy, platforms and systems with the overall organisational strategy and management functions</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8498,22 +8503,22 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Valuing, organisation</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving')]</t>
+          <t>[('explain', 'Responding')]</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>[('relay', 'Responding'), ('synthesise', 'Organisation'), ('choose', 'Receiving'), ('prepare', 'Responding'), ('complete', 'Valuing')]</t>
+          <t>[('function', 'Characterisation'), ('allow', 'Responding'), ('simulate', 'Valuing'), ('compare', 'Responding'), ('characterise', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -8523,33 +8528,32 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Explain the alignment of an organisation's IT strategy, platforms and systems with the overall organisational strategy and management functions</t>
+          <t>identify and explain big data concepts and technologies;</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Valuing, organisation</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>[('explain', 'Responding')]</t>
+          <t>[('identify', 'Understanding'), ('explain', 'Applying')]</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>[('sequence', 'Valuing'), ('allow', 'Responding'), ('perform', 'Characterisation'), ('object', 'Characterisation'), ('choose', 'Receiving')]</t>
+          <t>[('function', 'Evaluating'), ('file', 'Analysing'), ('rate', 'Evaluating'), ('simulate', 'Analysing'), ('compare', 'Applying')]</t>
         </is>
       </c>
     </row>
@@ -8564,27 +8568,27 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Creating</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Understanding</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('explain', 'Applying')]</t>
+          <t>[('identify', 'Unistructural'), ('explain', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>[('extract', 'Analysing'), ('sequence', 'Applying'), ('structure', 'Analysing'), ('perform', 'Creating'), ('improve', 'Evaluating')]</t>
+          <t>[('function', 'Relational'), ('simulate', 'Multistructural'), ('compare', 'Unistructural'), ('characterise', 'Unistructural'), ('sequence', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -8594,7 +8598,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>identify and explain big data concepts and technologies;</t>
+          <t>write and interpret parallel database processing algorithms and methods;</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8614,12 +8618,12 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>[('identify', 'Unistructural'), ('explain', 'Unistructural')]</t>
+          <t>[('write', 'Unistructural'), ('interpret', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>[('sequence', 'Multistructural'), ('perform', 'Relational'), ('choose', 'Unistructural'), ('prove', 'Relational'), ('characterise', 'Unistructural')]</t>
+          <t>[('summarise', 'Unistructural'), ('order', 'Unistructural'), ('compute', 'Multistructural'), ('partition', 'Relational'), ('conclude', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -8629,32 +8633,32 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>write and interpret parallel database processing algorithms and methods;</t>
+          <t>apply common data analytics and machine learning algorithms in a big data environment;</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>[('write', 'Unistructural'), ('interpret', 'Multistructural')]</t>
+          <t>[('apply', 'Analysing')]</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>[('summarise', 'Unistructural'), ('report', 'Unistructural'), ('order', 'Unistructural'), ('partition', 'Relational'), ('derive', 'Multistructural')]</t>
+          <t>[('validate', 'Evaluating'), ('create', 'Creating'), ('summarise', 'Applying'), ('design', 'Creating'), ('transfer', 'Analysing')]</t>
         </is>
       </c>
     </row>
@@ -8669,27 +8673,27 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>[('apply', 'Analysing')]</t>
+          <t>[('apply', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>[('create', 'Creating'), ('propose', 'Evaluating'), ('summarise', 'Applying'), ('produce', 'Creating'), ('adopt', 'Evaluating')]</t>
+          <t>[('validate', 'Extended Abstract'), ('create', 'Extended Abstract'), ('summarise', 'Unistructural'), ('design', 'Extended Abstract'), ('transfer', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -8699,32 +8703,32 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>apply common data analytics and machine learning algorithms in a big data environment;</t>
+          <t>use and evaluate streaming methods in big data processing;</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Multistructural</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>[('apply', 'Multistructural')]</t>
+          <t>[('use', 'Applying'), ('evaluate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>[('create', 'Extended Abstract'), ('propose', 'Relational'), ('summarise', 'Unistructural'), ('integrate', 'Extended Abstract'), ('partition', 'Relational')]</t>
+          <t>[('study', 'Applying'), ('simulate', 'Analysing'), ('perform', 'Creating'), ('respond', 'Understanding'), ('validate', 'Evaluating')]</t>
         </is>
       </c>
     </row>
@@ -8739,27 +8743,27 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Evaluating</t>
+          <t>Extended abstract</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>[('use', 'Applying'), ('evaluate', 'Evaluating'), ('stream', 'Verb not mapped')]</t>
+          <t>[('use', 'Unistructural'), ('evaluate', 'Relational')]</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>[('lecture', 'Evaluating'), ('list', 'Applying'), ('respond', 'Understanding'), ('file', 'Analysing'), ('adopt', 'Evaluating')]</t>
+          <t>[('simulate', 'Multistructural'), ('perform', 'Relational'), ('validate', 'Extended Abstract'), ('compare', 'Unistructural'), ('derive', 'Multistructural')]</t>
         </is>
       </c>
     </row>
@@ -8769,32 +8773,32 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>use and evaluate streaming methods in big data processing;</t>
+          <t>use big data streaming technologies.</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Extended abstract</t>
+          <t>Appplying</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Applying</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>[('use', 'Unistructural'), ('evaluate', 'Relational'), ('stream', 'Verb not mapped')]</t>
+          <t>[('use', 'Applying')]</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>[('list', 'Unistructural'), ('reduce', 'Relational'), ('compare', 'Unistructural'), ('define', 'Unistructural'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('reduce', 'Evaluating'), ('construct', 'Evaluating'), ('debug', 'Evaluating'), ('critique', 'Creating'), ('state', 'Remembering')]</t>
         </is>
       </c>
     </row>
@@ -8809,27 +8813,27 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Appplying</t>
+          <t>Recieving</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>[('use', 'Applying'), ('stream', 'Verb not mapped')]</t>
+          <t>[('use', 'Responding')]</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>[('lecture', 'Evaluating'), ('list', 'Applying'), ('respond', 'Understanding'), ('file', 'Analysing'), ('adopt', 'Evaluating')]</t>
+          <t>[('reduce', 'Organisation'), ('construct', 'Organisation'), ('state', 'Responding'), ('describe', 'Receiving'), ('agree', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -8844,27 +8848,27 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Recieving</t>
+          <t>Relational</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Unistructural</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>[('use', 'Responding'), ('stream', 'Verb not mapped')]</t>
+          <t>[('use', 'Unistructural')]</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>[('list', 'Responding'), ('respond', 'Responding'), ('adopt', 'Valuing'), ('reduce', 'Organisation'), ('compare', 'Responding')]</t>
+          <t>[('reduce', 'Relational'), ('construct', 'Relational'), ('state', 'Unistructural'), ('describe', 'Unistructural'), ('contrast', 'Relational')]</t>
         </is>
       </c>
     </row>
@@ -8874,32 +8878,33 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>use big data streaming technologies.</t>
+          <t xml:space="preserve">
+Describe the steps involved in various manufacturing processes for production at scale, including their strengths and limitations.</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Unistructural</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>[('use', 'Unistructural'), ('stream', 'Verb not mapped')]</t>
+          <t>[('describe', 'Receiving'), ('involve', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>[('list', 'Unistructural'), ('reduce', 'Relational'), ('compare', 'Unistructural'), ('define', 'Unistructural'), ('mitigate', 'Extended Abstract')]</t>
+          <t>[('support', 'Valuing'), ('adopt', 'Valuing'), ('lead', 'Organisation'), ('monitor', 'Valuing'), ('query', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -8910,32 +8915,32 @@
       <c r="B243" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Describe the steps involved in various manufacturing processes for production at scale, including their strengths and limitations.</t>
+Select appropriate part manufacturing processes while balancing functional requirements, performance, cost and sustainability.</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Perception</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Guided Response</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>[('describe', 'Receiving'), ('involve', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('select', 'Guided Response'), ('manufacture', 'Verb not mapped'), ('balance', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>[('organise', 'Organisation'), ('adopt', 'Valuing'), ('query', 'Valuing'), ('deliberate', 'Characterisation'), ('plan', 'Organisation')]</t>
+          <t>[('mitigate', 'Origination'), ('compare', 'Guided Response'), ('discuss', 'Guided Response'), ('perform', 'Complex Overt Response'), ('characterise', 'Guided Response')]</t>
         </is>
       </c>
     </row>
@@ -8946,32 +8951,32 @@
       <c r="B244" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Select appropriate part manufacturing processes while balancing functional requirements, performance, cost and sustainability.</t>
+Identify and carry out the necessary steps to conduct a small-scale production run and then reflect on the outcomes.</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Guided Response</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>[('select', 'Guided Response'), ('balance', 'Verb not mapped')]</t>
+          <t>[('identify', 'Receiving'), ('carry', 'Verb not mapped'), ('conduct', 'Valuing'), ('reflect', 'Characterisation')]</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>[('mitigate', 'Origination'), ('change', 'Mechanism'), ('compare', 'Guided Response'), ('contrast', 'Adaptation'), ('prepare', 'Guided Response')]</t>
+          <t>[('function', 'Characterisation'), ('contribute', 'Valuing'), ('evaluate', 'Organisation'), ('explain', 'Responding'), ('integrate', 'Organisation')]</t>
         </is>
       </c>
     </row>
@@ -8982,7 +8987,7 @@
       <c r="B245" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Identify and carry out the necessary steps to conduct a small-scale production run and then reflect on the outcomes.</t>
+Relate the capabilities and limitations of established NDT techniques to their respective basic working principles.</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8992,22 +8997,22 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Responding</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Characterisation</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>[('identify', 'Receiving'), ('carry', 'Verb not mapped'), ('conduct', 'Valuing'), ('reflect', 'Characterisation')]</t>
+          <t>[('relate', 'Responding'), ('establish', 'Valuing')]</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>[('contribute', 'Valuing'), ('develop', 'Organisation'), ('select', 'Responding'), ('give', 'Receiving'), ('relate', 'Responding')]</t>
+          <t>[('delay', 'Valuing'), ('satisfy', 'Organisation'), ('agree', 'Responding'), ('lead', 'Organisation'), ('monitor', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -9018,32 +9023,32 @@
       <c r="B246" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Identify and carry out the necessary steps to conduct a small-scale production run and then reflect on the outcomes.</t>
+Evaluate the various NDT methods for flaw detection and damage assessment and be able to identify the appropriate technique for a given scenario.</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Psychomotor</t>
+          <t>Affective</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Perception</t>
+          <t>Valuing, Responding</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Origination</t>
+          <t>Receiving</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>[('identify', 'Perception'), ('carry', 'Verb not mapped'), ('conduct', 'Mechanism'), ('reflect', 'Origination')]</t>
+          <t>[('evaluate', 'Organisation'), ('identify', 'Receiving'), ('give', 'Receiving')]</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>[('develop', 'Origination'), ('select', 'Guided Response'), ('relate', 'Perception'), ('interpret', 'Mechanism'), ('reflect', 'Origination')]</t>
+          <t>[('change', 'Valuing'), ('investigate', 'Organisation'), ('monitor', 'Valuing'), ('validate', 'Characterisation'), ('select', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -9053,8 +9058,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Relate the capabilities and limitations of established NDT techniques to their respective basic working principles.</t>
+          <t>Reflect on teamwork, project management, leadership and conflict resolution in the context of group projects and activities.</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -9069,17 +9073,17 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Valuing</t>
+          <t>Characterisation</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>[('relate', 'Responding'), ('establish', 'Valuing')]</t>
+          <t>[('reflect', 'Characterisation')]</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>[('monitor', 'Valuing'), ('adopt', 'Valuing'), ('mitigate', 'Characterisation'), ('lead', 'Organisation'), ('compare', 'Responding')]</t>
+          <t>[('contribute', 'Valuing'), ('conduct', 'Valuing'), ('compute', 'Valuing'), ('work', 'Valuing'), ('prepare', 'Responding')]</t>
         </is>
       </c>
     </row>
@@ -9089,8 +9093,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Evaluate the various NDT methods for flaw detection and damage assessment and be able to identify the appropriate technique for a given scenario.</t>
+          <t>Demonstrate an understanding of smart manufacturing through project development.</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -9100,22 +9103,22 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Valuing, Responding</t>
+          <t>Valuing</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Responding</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>[('evaluate', 'Organisation'), ('identify', 'Receiving'), ('give', 'Receiving')]</t>
+          <t>[('demonstrate', 'Responding')]</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>[('validate', 'Characterisation'), ('choose', 'Receiving'), ('monitor', 'Valuing'), ('adopt', 'Valuing'), ('select', 'Responding')]</t>
+          <t>[('engage', 'Characterisation'), ('collaborate', 'Organisation'), ('form', 'Valuing'), ('challenge', 'Characterisation'), ('establish', 'Valuing')]</t>
         </is>
       </c>
     </row>
@@ -9125,32 +9128,33 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Reflect on teamwork, project management, leadership and conflict resolution in the context of group projects and activities.</t>
+          <t xml:space="preserve">
+Design, construct and debug a small microprocessor system that is capable of interfacing to a series of different inputs and outputs.</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Psychomotor</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Origination</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Characterisation</t>
+          <t>Adaptation</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>[('reflect', 'Characterisation')]</t>
+          <t>[('design', 'Origination'), ('construct', 'Adaptation'), ('debug', 'Verb not mapped'), ('interface', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>[('contribute', 'Valuing'), ('conduct', 'Valuing'), ('compute', 'Valuing'), ('review', 'Valuing'), ('conclude', 'Organisation')]</t>
+          <t>[('perform', 'Complex Overt Response'), ('derive', 'Mechanism'), ('address', 'Adaptation'), ('prove', 'Adaptation'), ('satisfy', 'Adaptation')]</t>
         </is>
       </c>
     </row>
@@ -9160,140 +9164,33 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Demonstrate an understanding of smart manufacturing through project development.</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Affective</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Valuing</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>Responding</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>[('demonstrate', 'Responding')]</t>
-        </is>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>[('engage', 'Characterisation'), ('observe', 'Receiving'), ('collaborate', 'Organisation'), ('report', 'Responding'), ('generate', 'Organisation')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Describe sensory techniques as used in robotics and implement these concepts.</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Psychomotor</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Perception</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>Guided Response</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>[('describe', 'Perception'), ('use', 'Guided Response'), ('implement', 'Mechanism')]</t>
-        </is>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>[('analyse', 'Adaptation'), ('report', 'Guided Response'), ('review', 'Mechanism'), ('list', 'Guided Response'), ('function', 'Adaptation')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Design, construct and debug a small microprocessor system that is capable of interfacing to a series of different inputs and outputs.</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Psychomotor</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Origination</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>Adaptation</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>[('design', 'Origination'), ('construct', 'Adaptation'), ('debug', 'Verb not mapped'), ('interface', 'Verb not mapped')]</t>
-        </is>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>[('heat', 'Mechanism'), ('order', 'Guided Response'), ('mitigate', 'Origination'), ('choose', 'Perception'), ('operate', 'Mechanism')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
           <t xml:space="preserve">
 Construct appropriate software and test processes to produce industry-ready products.</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>Psychomotor</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
+      <c r="D250" t="inlineStr">
         <is>
           <t>Guided Response</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr">
+      <c r="E250" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
+      <c r="F250" t="inlineStr">
         <is>
           <t>[('construct', 'Adaptation'), ('produce', 'Verb not mapped')]</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>[('generate', 'Origination'), ('choose', 'Perception'), ('mitigate', 'Origination'), ('change', 'Mechanism'), ('trace', 'Guided Response')]</t>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>[('mitigate', 'Origination'), ('generate', 'Origination'), ('heat', 'Mechanism'), ('trace', 'Guided Response'), ('respond', 'Guided Response')]</t>
         </is>
       </c>
     </row>

--- a/outputs/failed_lo_mappings.xlsx
+++ b/outputs/failed_lo_mappings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,28 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apply knowledge of mathematics, natural science, engineering fundamentals and specialization in Software Engineering to the solution of complex engineering problems;
-</t>
+          <t>describe the underlying theoretical basis of the relational database model and motivations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('apply', 'Relational')]</t>
+          <t>[('describe', 'Understanding'), ('underlie', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('organise', 'Relational'), ('explain', 'Relational'), ('define', 'Multistructural'), ('describe', 'Multistructural'), ('determine', 'Multistructural')]</t>
+          <t>[('evaluate', 'Evaluating'), ('model', 'Evaluating'), ('recognise', 'Understanding'), ('research', 'Analysing'), ('describe', 'Understanding')]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -503,8 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identify, formulate, survey research literature and analyze complex Software engineering problems reaching substantiated conclusions using first principles of mathematics, natural sciences and engineering sciences;
-</t>
+          <t>design a relational database model based on the underlying theoretical basis with the capability of evaluating different options</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,17 +512,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('identify', 'Understanding'), ('formulate', 'Creating'), ('survey', 'Analysing'), ('analyze', 'Verb not mapped'), ('reach', 'Verb not mapped'), ('substantiate', 'Evaluating'), ('use', 'Applying')]</t>
+          <t>[('design', 'Creating'), ('base', 'Verb not mapped'), ('underlie', 'Verb not mapped'), ('evaluate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('programme', 'Evaluating'), ('research', 'Analysing'), ('experiment', 'Analysing'), ('organise', 'Evaluating'), ('develop', 'Creating')]</t>
+          <t>[('recognise', 'Understanding'), ('analyse', 'Analysing'), ('compare', 'Understanding'), ('research', 'Analysing'), ('evaluate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -535,27 +533,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Design solutions for complex Software engineering problems and design systems, components or processes that meet specified needs;</t>
+          <t>implement a database based on a sound database design with constructing queries that meet user requirements</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Evaluating</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('design', 'Extended Abstract'), ('design', 'Extended Abstract'), ('meet', 'Verb not mapped'), ('specify', 'Verb not mapped')]</t>
+          <t>[('implement', 'Applying'), ('base', 'Verb not mapped'), ('construct', 'Creating'), ('meet', 'Remembering')]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('plan', 'Extended Abstract'), ('implement', 'Relational'), ('review', 'Extended Abstract'), ('evaluate', 'Extended Abstract'), ('process', 'Multistructural')]</t>
+          <t>[('evaluate', 'Evaluating'), ('produce', 'Creating'), ('design', 'Creating'), ('comprehend', 'Understanding'), ('support', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -566,7 +564,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conduct investigations of complex Software engineering problems using research-based knowledge and research methods including design of experiments, analysis and interpretation of data, and synthesis of information to provide valid conclusions;</t>
+          <t>contrast the differences between non-relational database models and the relational database model.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,17 +574,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('conduct', 'Applying'), ('use', 'Applying'), ('base', 'Verb not mapped'), ('include', 'Verb not mapped'), ('provide', 'Applying')]</t>
+          <t>[('contrast', 'Analysing')]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('explain', 'Understanding'), ('research', 'Analysing'), ('determine', 'Analysing'), ('demonstrate', 'Applying'), ('substantiate', 'Evaluating')]</t>
+          <t>[('evaluate', 'Evaluating'), ('analyse', 'Analysing'), ('compare', 'Understanding'), ('recognise', 'Understanding'), ('abstract', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -597,34 +595,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Create, select and apply appropriate techniques, resources, and modern engineering and IT tools, including prediction and modelling, to complex Software engineering problems, with an understanding of the limitations;</t>
+          <t>develop programming structures within a database backend.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Receiving</t>
+          <t>Creating</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('create', 'Verb not mapped'), ('select', 'Receiving'), ('apply', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+          <t>[('develop', 'Creating')]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('identify', 'Receiving'), ('support', 'Valuing'), ('manage', 'Organisation'), ('organise', 'Organisation'), ('justify', 'Valuing')]</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Valuing</t>
-        </is>
-      </c>
+          <t>[('design', 'Creating'), ('use', 'Applying'), ('debug', 'Evaluating'), ('document', 'Analysing'), ('analyse', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -632,7 +626,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Apply reasoning informed by contextual knowledge to assess societal, health, safety, legal and cultural issues and the consequent responsibilities relevant to professional engineering practice and solutions to complex Software engineering problems;</t>
+          <t>discuss requirements of a smart system from component to integrated perspective.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,17 +636,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Applying</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('apply', 'Applying'), ('inform', 'Verb not mapped'), ('assess', 'Evaluating')]</t>
+          <t>[('discuss', 'Understanding'), ('integrate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('assess', 'Evaluating'), ('support', 'Evaluating'), ('comprehend', 'Understanding'), ('explain', 'Understanding'), ('apply', 'Applying')]</t>
+          <t>[('research', 'Analysing'), ('give', 'Understanding'), ('substantiate', 'Evaluating'), ('translate', 'Understanding'), ('evaluate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -663,27 +657,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Understand and evaluate the sustainability and impact of professional engineering work in the solution of complex Software engineering problems in environmental contexts;</t>
+          <t>define programs using python, discern problem-solving strategies in decomposing problems using algorithms and describe software engineering processes.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cognitive</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Analysing</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('understand', 'Verb not mapped'), ('evaluate', 'Evaluating')]</t>
+          <t>[('define', 'Multistructural'), ('use', 'Relational'), ('discern', 'Multistructural'), ('solve', 'Multistructural'), ('decompose', 'Verb not mapped'), ('use', 'Relational'), ('describe', 'Multistructural')]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('recognise', 'Understanding'), ('analyse', 'Analysing'), ('compare', 'Understanding'), ('research', 'Analysing'), ('construct', 'Creating')]</t>
+          <t>[('write', 'Unistructural'), ('analyse', 'Relational'), ('identify', 'Unistructural'), ('recognise', 'Unistructural'), ('discern', 'Multistructural')]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -694,7 +688,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apply ethical principles and commit to professional ethics and responsibilities and norms of engineering practice;</t>
+          <t>select fundamental circuit analysis techniques to solve problems in circuits that contain common electrical and electronic components.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -704,17 +698,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multistructural</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('apply', 'Relational'), ('commit', 'Verb not mapped')]</t>
+          <t>[('select', 'Multistructural'), ('solve', 'Multistructural'), ('contain', 'Verb not mapped')]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('apply', 'Relational'), ('define', 'Multistructural'), ('discern', 'Multistructural'), ('explain', 'Relational'), ('engage', 'Extended Abstract')]</t>
+          <t>[('use', 'Relational'), ('discern', 'Multistructural'), ('analyse', 'Relational'), ('define', 'Multistructural'), ('explain', 'Relational')]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -725,28 +719,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Function effectively as an individual, and as a member or leader in diverse teams and in multi-disciplinary settings;
-</t>
+          <t>propose a design solution in response to a given scenario through requirements and functional analysis, evaluate that solution from an integrated system perspective.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Affective</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Characterisation</t>
+          <t>Analysing</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('function', 'Characterisation')]</t>
+          <t>[('propose', 'Creating'), ('give', 'Understanding'), ('evaluate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('communicate', 'Responding'), ('evaluate', 'Valuing'), ('identify', 'Receiving'), ('recognise', 'Receiving'), ('explain', 'Valuing')]</t>
+          <t>[('recognise', 'Understanding'), ('analyse', 'Analysing'), ('compare', 'Understanding'), ('research', 'Analysing'), ('construct', 'Creating')]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -757,27 +750,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Recognize the need for, and have the preparation and ability to engage in independent and life-long learning in the broadest context of technological change;</t>
+          <t>identify appropriate engineering tools and techniques to develop and validate a solution.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Cognitive</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Extended Abstract</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('recognize', 'Verb not mapped'), ('have', 'Verb not mapped'), ('engage', 'Extended Abstract')]</t>
+          <t>[('identify', 'Understanding'), ('develop', 'Creating'), ('validate', 'Evaluating')]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('demonstrate', 'Extended Abstract'), ('recognise', 'Unistructural'), ('determine', 'Multistructural'), ('identify', 'Unistructural'), ('review', 'Extended Abstract')]</t>
+          <t>[('identify', 'Understanding'), ('construct', 'Creating'), ('define', 'Remembering'), ('use', 'Applying'), ('support', 'Evaluating')]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -788,30 +781,2425 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Demonstrate knowledge and understanding of engineering management principles and economic decision-making and apply these to manage projects;</t>
+          <t>identify the ethical considerations of data collection and analysis in engineering designs that may impact the suitability of solutions.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('impact', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[('propose', 'Creating'), ('substantiate', 'Evaluating'), ('write', 'Applying'), ('evaluate', 'Evaluating'), ('research', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>describe project progress and outputs to stakeholders in review meetings, demonstrations and documentation.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[('describe', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[('write', 'Applying'), ('analyse', 'Analysing'), ('identify', 'Understanding'), ('research', 'Analysing'), ('recognise', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('reflect', 'Evaluating'), ('contribute', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[('reflect', 'Evaluating'), ('conduct', 'Applying'), ('describe', 'Understanding'), ('identify', 'Understanding'), ('ensure', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>discern fundamental chemical, materials, mechanical and environmental engineering knowledge, principles and concepts to propose solutions to a humanitarian engineering problem.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>SOLO</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[('discern', 'Multistructural'), ('propose', 'Multistructural')]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Relational'), ('design', 'Extended Abstract'), ('write', 'Unistructural'), ('select', 'Multistructural'), ('justify', 'Extended Abstract')]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>identify design requirements from a provided brief and analyse potential solutions using first principles of mathematics and natural and engineering sciences.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('provide', 'Applying'), ('analyse', 'Analysing'), ('use', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[('programme', 'Evaluating'), ('research', 'Analysing'), ('experiment', 'Analysing'), ('organise', 'Evaluating'), ('develop', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>identify societal, health, safety, legal and cultural issues relevant to your project including the indigenous context, and your consequent responsibilities as an engineer.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('support', 'Evaluating'), ('project', 'Applying'), ('utilise', 'Applying'), ('manage', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>determine appropriate principles of sustainable design and development, including embodied energy, renewable materials, availability, costs, etc, of a proposed solution using a systems approach to design.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[('determine', 'Analysing'), ('include', 'Verb not mapped'), ('propose', 'Creating'), ('use', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[('programme', 'Evaluating'), ('research', 'Analysing'), ('experiment', 'Analysing'), ('organise', 'Evaluating'), ('develop', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>discern the ethical considerations of working with diverse communities and stakeholders, and demonstrate your commitment to the engineers australia code of ethics and/or the board of engineers malaysia code of professional conduct, and established norms of professional conduct throughout your project.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[('discern', 'Multistructural'), ('work', 'Verb not mapped'), ('demonstrate', 'Extended Abstract'), ('establish', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[('organise', 'Relational'), ('report', 'Multistructural'), ('demonstrate', 'Extended Abstract'), ('define', 'Multistructural'), ('discern', 'Multistructural')]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>describe project progress and outputs to stakeholders verbally through pitches, in writing through professional engineering documentation, and graphically through drawings and visualisations.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[('describe', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[('write', 'Applying'), ('analyse', 'Analysing'), ('identify', 'Understanding'), ('research', 'Analysing'), ('recognise', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>describe the principles of team norms, collaboration and dynamics, define your professional practice goals and discern the practices that lead to successful teamwork in a multicultural context.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[('describe', 'Multistructural'), ('define', 'Multistructural'), ('discern', 'Multistructural'), ('lead', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[('engage', 'Extended Abstract'), ('define', 'Multistructural'), ('determine', 'Multistructural'), ('review', 'Extended Abstract'), ('demonstrate', 'Extended Abstract')]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>design and implement a software system of a quality acceptable to an external client</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[('design', 'Creating'), ('implement', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[('research', 'Analysing'), ('analyse', 'Analysing'), ('devise', 'Evaluating'), ('support', 'Evaluating'), ('ensure', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select and use appropriate tools, techniques and strategies to manage project resources, 
+including time and personnel </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[('select', 'Receiving'), ('use', 'Receiving'), ('manage', 'Organisation'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[('identify', 'Receiving'), ('support', 'Valuing'), ('manage', 'Organisation'), ('organise', 'Organisation'), ('justify', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>identify potential sources of risk, including ethical risk, and devise and adopt appropriate strategies to monitor and mitigate these risks</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('include', 'Verb not mapped'), ('devise', 'Evaluating'), ('adopt', 'Evaluating'), ('monitor', 'Evaluating'), ('mitigate', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[('devise', 'Evaluating'), ('determine', 'Analysing'), ('give', 'Understanding'), ('measure', 'Evaluating'), ('monitor', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>choose and follow a software development methodology that is appropriate to the team, project and client, and justify this methodology</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[('choose', 'Receiving'), ('follow', 'Receiving'), ('justify', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[('write', 'Responding'), ('form', 'Valuing'), ('report', 'Valuing'), ('give', 'Receiving'), ('support', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>elicit requirements from client representatives and ensure that these are communicated to team members and other stakeholders in an appropriate form</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[('elicit', 'Verb not mapped'), ('ensure', 'Analysing'), ('communicate', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[('demonstrate', 'Applying'), ('research', 'Analysing'), ('recognise', 'Understanding'), ('measure', 'Evaluating'), ('relate', 'Remembering')]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">produce internal documentation of a sufficient quality to support project development 
+activities (including specification, analysis, design, testing); </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[('produce', 'Creating'), ('support', 'Evaluating'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('support', 'Evaluating'), ('project', 'Applying'), ('utilise', 'Applying'), ('manage', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>communicate effectively with other project stakeholders, including clients, end users, and supervisors</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[('communicate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('support', 'Evaluating'), ('project', 'Applying'), ('utilise', 'Applying'), ('manage', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">verify systematically that internal and external project deliverables meet agreed quality 
+standards </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Remembering</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[('verify', 'Creating'), ('meet', 'Remembering'), ('agree', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Evaluating'), ('contrast', 'Analysing'), ('meet', 'Remembering'), ('research', 'Analysing'), ('diagram', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>produce external documentation of a sufficient quality to meet the needs of clients, end users, and client-site technical staff.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Remembering</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[('produce', 'Creating'), ('meet', 'Remembering')]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Evaluating'), ('produce', 'Creating'), ('meet', 'Remembering'), ('design', 'Creating'), ('comprehend', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>analyse general problem solving strategies and algorithmic paradigms</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Evaluating'), ('measure', 'Evaluating'), ('research', 'Analysing'), ('describe', 'Understanding'), ('determine', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>prove correctness of programs, analyse their space and time complexities.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[('prove', 'Evaluating'), ('analyse', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Evaluating'), ('measure', 'Evaluating'), ('research', 'Analysing'), ('describe', 'Understanding'), ('determine', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>compare and contrast various abstract data types and use them appropriately.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>Relational</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[('demonstrate', 'Extended Abstract'), ('apply', 'Relational'), ('manage', 'Relational')]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>[('organise', 'Relational'), ('plan', 'Extended Abstract'), ('identify', 'Unistructural'), ('describe', 'Multistructural'), ('manage', 'Relational')]</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[('compare', 'Relational'), ('contrast', 'Relational'), ('use', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[('organise', 'Relational'), ('develop', 'Extended Abstract'), ('apply', 'Relational'), ('discern', 'Multistructural'), ('propose', 'Multistructural')]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>develop and implement algorithms to solve computational problems.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[('develop', 'Creating'), ('implement', 'Applying'), ('solve', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[('network', 'Evaluating'), ('describe', 'Understanding'), ('research', 'Analysing'), ('solve', 'Applying'), ('implement', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>determine reactions and internal member forces in simple truss and beam systems and carry out limit state design to select appropriately sized members.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[('determine', 'Analysing'), ('carry', 'Verb not mapped'), ('select', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('state', 'Remembering'), ('measure', 'Evaluating'), ('propose', 'Creating'), ('document', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>determine the strength of structural materials to inform engineering designs with considerations to performance. cost, sustainability and societal impact.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[('determine', 'Analysing'), ('inform', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[('allocate', 'Applying'), ('utilise', 'Applying'), ('analyse', 'Analysing'), ('write', 'Applying'), ('determine', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>determine the steady-state performance of simple systems involving levers, gears, springs and pulleys using appropriate engineering problem-solving methodologies.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[('determine', 'Analysing'), ('involve', 'Verb not mapped'), ('use', 'Applying'), ('solve', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[('network', 'Evaluating'), ('describe', 'Understanding'), ('research', 'Analysing'), ('implement', 'Applying'), ('evaluate', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>analyse concept designs that solve engineering problems and justify finalised design with considerations of key variables, assumptions, and system boundaries.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Relational'), ('solve', 'Multistructural'), ('justify', 'Extended Abstract'), ('finalise', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Relational'), ('review', 'Extended Abstract'), ('evaluate', 'Extended Abstract'), ('process', 'Multistructural'), ('list', 'Multistructural')]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>propose concept designs and develop a final design which balances competing requirements.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Creating</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[('propose', 'Creating'), ('develop', 'Creating'), ('balance', 'Verb not mapped'), ('compete', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[('research', 'Analysing'), ('analyse', 'Analysing'), ('construct', 'Creating'), ('ensure', 'Analysing'), ('comprehend', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>identify appropriate engineering tools and techniques to develop, validate and convey designs and solutions.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('develop', 'Creating'), ('validate', 'Evaluating'), ('convey', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[('use', 'Applying'), ('provide', 'Applying'), ('propose', 'Creating'), ('explain', 'Understanding'), ('analyse', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>identify roles and responsibilities within a team and reflect on self and team behaviours that contribute to the successful conduct of a project.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('reflect', 'Evaluating'), ('contribute', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[('reflect', 'Evaluating'), ('conduct', 'Applying'), ('describe', 'Understanding'), ('identify', 'Understanding'), ('ensure', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>apply suitable mathematical techniques to solve problems involving linear algebra, multi-variable calculus and ordinary differential equations.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[('apply', 'Relational'), ('solve', 'Multistructural'), ('involve', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[('identify', 'Unistructural'), ('implement', 'Relational'), ('review', 'Extended Abstract'), ('analyse', 'Relational'), ('determine', 'Multistructural')]</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>design object-oriented solutions for small to medium-size systems using standard software engineering notations such as uml diagrams. (c5)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[('design', 'Creating'), ('orient', 'Verb not mapped'), ('use', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[('programme', 'Evaluating'), ('research', 'Analysing'), ('experiment', 'Analysing'), ('organise', 'Evaluating'), ('develop', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>develop object-oriented designs in an object-oriented programming language such as java, using object-oriented programming constructs such as classes, inheritance, abstract classes, and generics. (c5).</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[('develop', 'Creating'), ('orient', 'Verb not mapped'), ('orient', 'Verb not mapped'), ('use', 'Applying'), ('orient', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[('programme', 'Evaluating'), ('research', 'Analysing'), ('experiment', 'Analysing'), ('organise', 'Evaluating'), ('develop', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>apply available language tools, such as debuggers and profilers, and good programming practice to debug their implementations systematically and efficiently. (c3)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[('apply', 'Applying'), ('debug', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[('review', 'Remembering'), ('evaluate', 'Evaluating'), ('give', 'Understanding'), ('support', 'Evaluating'), ('recognise', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>evaluate the quality of object-oriented software designs both in terms of meeting user requirements and in terms of good design principles, using appropriate domain vocabulary. (c6)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Evaluating'), ('orient', 'Verb not mapped'), ('meet', 'Remembering'), ('use', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[('programme', 'Evaluating'), ('research', 'Analysing'), ('experiment', 'Analysing'), ('organise', 'Evaluating'), ('develop', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>apply knowledge of networking fundamentals, and advanced networking knowledge appropriate to solve complex networking problems and network design problems (c3)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[('apply', 'Applying'), ('solve', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[('network', 'Evaluating'), ('describe', 'Understanding'), ('research', 'Analysing'), ('implement', 'Applying'), ('evaluate', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>analyse the computer network problems from different layers of internet model using appropriate mechanism (c4)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Analysing'), ('use', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[('programme', 'Evaluating'), ('research', 'Analysing'), ('experiment', 'Analysing'), ('organise', 'Evaluating'), ('develop', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>design wired and/or wireless networks that can optimise network performance subject to various resource constraints (c6)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[('design', 'Creating'), ('optimise', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('determine', 'Analysing'), ('allocate', 'Applying'), ('organise', 'Evaluating'), ('network', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>select and use appropriate techniques and software tools to investigate complex computer networking related practical problems</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Psychomotor</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Perception</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>[('select', 'Perception'), ('use', 'Verb not mapped'), ('investigate', 'Verb not mapped'), ('relate', 'Perception')]</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[('state', 'Set'), ('identify', 'Perception'), ('describe', 'Perception'), ('recognise', 'Perception'), ('explain', 'Set')]</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>analyse simple logic circuits;</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Evaluating'), ('measure', 'Evaluating'), ('research', 'Analysing'), ('describe', 'Understanding'), ('determine', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>explain and analyse key processor components;</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[('explain', 'Understanding'), ('analyse', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Evaluating'), ('measure', 'Evaluating'), ('research', 'Analysing'), ('describe', 'Understanding'), ('determine', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>explain and analyse computer organisation;</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[('explain', 'Understanding'), ('analyse', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Evaluating'), ('measure', 'Evaluating'), ('research', 'Analysing'), ('describe', 'Understanding'), ('determine', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>write and debug simple assembly language programs;</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[('write', 'Responding'), ('debug', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Valuing'), ('give', 'Receiving'), ('support', 'Valuing'), ('recognise', 'Receiving'), ('identify', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>use simulator programs to model computer system components.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[('use', 'Applying'), ('model', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>[('recognise', 'Understanding'), ('evaluate', 'Evaluating'), ('describe', 'Understanding'), ('research', 'Analysing'), ('diagram', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>apply engineering fundamentals to design a mechatronics system.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[('apply', 'Verb not mapped'), ('design', 'Organisation')]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>[('develop', 'Organisation'), ('propose', 'Characterisation'), ('meet', 'Receiving'), ('evaluate', 'Valuing'), ('support', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Responding</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>design a complex mechatronics system that meets design requirements.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Extended Abstract</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[('design', 'Extended Abstract'), ('meet', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Extended Abstract'), ('design', 'Extended Abstract'), ('implement', 'Relational'), ('determine', 'Multistructural'), ('identify', 'Unistructural')]</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>propose an appropriate design methodology to achieve design requirements.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Multistructural</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[('propose', 'Multistructural'), ('achieve', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>[('determine', 'Multistructural'), ('justify', 'Extended Abstract'), ('describe', 'Multistructural'), ('select', 'Multistructural'), ('propose', 'Multistructural')]</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>identify and use appropriate techniques, resources and modern engineering tools to achieve the design requirements.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('use', 'Applying'), ('achieve', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>[('determine', 'Analysing'), ('give', 'Understanding'), ('project', 'Applying'), ('research', 'Analysing'), ('justify', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>justify technical details of a mechatronics solution(s) in written and oral forms.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[('justify', 'Valuing'), ('write', 'Responding')]</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>[('justify', 'Valuing'), ('write', 'Responding'), ('report', 'Valuing'), ('describe', 'Receiving'), ('form', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>demonstrate the ability to work effectively as a member or leader in a diverse team.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[('demonstrate', 'Valuing'), ('work', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>[('communicate', 'Responding'), ('demonstrate', 'Valuing'), ('work', 'Valuing'), ('establish', 'Organisation'), ('explain', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>manage a project and drive it to successful completion.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>[('manage', 'Organisation'), ('drive', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>[('identify', 'Receiving'), ('organise', 'Organisation'), ('give', 'Receiving'), ('propose', 'Characterisation'), ('recognise', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Responding</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>demonstrate an understanding of the motivation for engineers to carry out mechatronics design.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>[('demonstrate', 'Applying'), ('carry', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>[('comprehend', 'Understanding'), ('research', 'Analysing'), ('document', 'Analysing'), ('construct', 'Creating'), ('analyse', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>carry out investigations to identify suitable software quality and quality assurance measures, including human review and inspection of code and non-code artifacts, as well as execution-based testing</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>[('carry', 'Verb not mapped'), ('identify', 'Understanding'), ('include', 'Verb not mapped'), ('base', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>[('model', 'Evaluating'), ('plan', 'Creating'), ('recognise', 'Understanding'), ('identify', 'Understanding'), ('query', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>apply specific and appropriate quality goals for a moderately-sized software development project, select an appropriate quality assurance strategy to give confidence that these quality goals can be achieved, and document this strategy appropriately in the context of a software process model</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>[('apply', 'Applying'), ('select', 'Evaluating'), ('give', 'Understanding'), ('achieve', 'Verb not mapped'), ('document', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>[('state', 'Remembering'), ('give', 'Understanding'), ('analyse', 'Analysing'), ('allocate', 'Applying'), ('evaluate', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>perform systematic, automated unit testing on source code modules, using both specification-based and code-based approaches, utilising automated testing frameworks, including faking and mocking tools</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Applying</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>[('perform', 'Creating'), ('use', 'Applying'), ('base', 'Verb not mapped'), ('base', 'Verb not mapped'), ('utilise', 'Applying'), ('automate', 'Verb not mapped'), ('include', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('support', 'Evaluating'), ('project', 'Applying'), ('utilise', 'Applying'), ('manage', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>evaluate different strategies for solving and translating problem statements into algorithms and implement them in a high level programming language.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Extended Abstract'), ('solve', 'Multistructural'), ('translate', 'Relational'), ('implement', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Relational'), ('construct', 'Relational'), ('organise', 'Relational'), ('identify', 'Unistructural'), ('determine', 'Multistructural')]</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>summarise, compare, design, and theoretically and experimentally evaluate different algorithms and implementations of basic abstract data types such as stacks, queues, lists, trees, priority queues, heaps and hash tables.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>[('summarise', 'Relational'), ('compare', 'Relational'), ('design', 'Extended Abstract'), ('evaluate', 'Extended Abstract')]</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>[('recognise', 'Unistructural'), ('analyse', 'Relational'), ('compare', 'Relational'), ('construct', 'Relational'), ('contrast', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>analyse algorithms by determining their best/worst case big o time complexity and recognize their limitations, both theoretical and practical.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Analysing'), ('determine', 'Analysing'), ('recognize', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>[('support', 'Evaluating'), ('give', 'Understanding'), ('review', 'Remembering'), ('justify', 'Creating'), ('substantiate', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>deconstruct simple high-level code into assembly code such as mips r2000</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>[('deconstruct', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>[('code', 'Evaluating'), ('determine', 'Analysing'), ('review', 'Remembering'), ('justify', 'Creating'), ('identify', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>model and design flexible software at the architectural level using various tools and techniques;</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>[('model', 'Evaluating'), ('design', 'Creating'), ('use', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>[('programme', 'Evaluating'), ('research', 'Analysing'), ('experiment', 'Analysing'), ('organise', 'Evaluating'), ('develop', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>analyse and design software systems taking into consideration various quality attributes and requirements;</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Analysing'), ('design', 'Creating'), ('take', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Analysing'), ('state', 'Remembering'), ('give', 'Understanding'), ('review', 'Remembering'), ('determine', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>analyse, identify, and take requirements for simple systems and develop software architectures and designs at a high level</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Analysing'), ('identify', 'Understanding'), ('take', 'Verb not mapped'), ('develop', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>[('design', 'Creating'), ('use', 'Applying'), ('debug', 'Evaluating'), ('document', 'Analysing'), ('analyse', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>identify and use configuration management tools effectively</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[('identify', 'Receiving'), ('use', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>[('organise', 'Organisation'), ('develop', 'Organisation'), ('communicate', 'Responding'), ('propose', 'Characterisation'), ('establish', 'Organisation')]</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>apply a variety of design patterns, frameworks and architectures in designing software;</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>[('apply', 'Verb not mapped'), ('design', 'Organisation')]</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>[('develop', 'Organisation'), ('propose', 'Characterisation'), ('meet', 'Receiving'), ('evaluate', 'Valuing'), ('support', 'Valuing')]</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>identify, locate and use off-the-shelf components in the construction of software.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[('identify', 'Receiving'), ('locate', 'Receiving'), ('use', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>[('organise', 'Organisation'), ('develop', 'Organisation'), ('communicate', 'Responding'), ('propose', 'Characterisation'), ('establish', 'Organisation')]</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>describe industry-standard team-based project management methodologies and apply them across a multi-functional team to achieve optimal project progress</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Receiving</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>[('describe', 'Receiving'), ('base', 'Verb not mapped'), ('apply', 'Verb not mapped'), ('achieve', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>[('give', 'Receiving'), ('justify', 'Valuing'), ('describe', 'Receiving'), ('select', 'Receiving'), ('receive', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Recieving</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>plan and manage the full range of activities in a software engineering project in accordance with the development methodology</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>[('plan', 'Organisation'), ('manage', 'Organisation')]</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>[('organise', 'Organisation'), ('plan', 'Organisation'), ('manage', 'Organisation'), ('identify', 'Receiving'), ('describe', 'Receiving')]</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>apply soft skills when engaging stakeholders in a consistent and professional manner to determine functional and non-functional requirements</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Extended Abstract</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>[('apply', 'Relational'), ('engage', 'Extended Abstract'), ('determine', 'Multistructural')]</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>[('review', 'Extended Abstract'), ('justify', 'Extended Abstract'), ('engage', 'Extended Abstract'), ('determine', 'Multistructural'), ('analyse', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>identify aspects of quality that are important in the context of the project, and devise and implement strategies for ensuring quality goals are met;</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Evaluating</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[('identify', 'Understanding'), ('devise', 'Evaluating'), ('implement', 'Applying'), ('ensure', 'Analysing'), ('meet', 'Remembering')]</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Evaluating'), ('produce', 'Creating'), ('design', 'Creating'), ('comprehend', 'Understanding'), ('support', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>compare and analyse appropriate industry-standard technologies to determine the optimal combination of software required to support project development</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[('compare', 'Understanding'), ('analyse', 'Analysing'), ('determine', 'Analysing'), ('require', 'Verb not mapped'), ('support', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>[('make', 'Creating'), ('determine', 'Analysing'), ('support', 'Evaluating'), ('research', 'Analysing'), ('identify', 'Understanding')]</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>analyse and deliberate professional issues occurring within the development and deployment of software applications, and identify appropriate actions based on relevant law and industry codes of ethical behaviour</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Understanding</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[('analyse', 'Analysing'), ('deliberate', 'Verb not mapped'), ('occur', 'Verb not mapped'), ('identify', 'Understanding'), ('base', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>[('model', 'Evaluating'), ('plan', 'Creating'), ('recognise', 'Understanding'), ('identify', 'Understanding'), ('query', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>apply project evaluation techniques including the triple bottom line against the overall business model and identify the elements of the project life cycle, including planning, controlling, and organizing to allocate resources.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>[('apply', 'Applying'), ('include', 'Verb not mapped'), ('identify', 'Understanding'), ('include', 'Verb not mapped'), ('plan', 'Creating'), ('control', 'Verb not mapped'), ('organize', 'Verb not mapped'), ('allocate', 'Applying')]</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>[('measure', 'Evaluating'), ('optimise', 'Analysing'), ('determine', 'Analysing'), ('apply', 'Applying'), ('analyse', 'Analysing')]</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>evaluate and apply the basic tools and techniques to plan, organize, and manage a project and identify strategic constraints in managing the scope, time, cost and quality components.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Extended Abstract'), ('apply', 'Relational'), ('plan', 'Extended Abstract'), ('organize', 'Verb not mapped'), ('manage', 'Relational'), ('identify', 'Unistructural'), ('manage', 'Relational')]</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>[('organise', 'Relational'), ('plan', 'Extended Abstract'), ('identify', 'Unistructural'), ('manage', 'Relational'), ('describe', 'Multistructural')]</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>evaluate the interconnection of quality, heath, safety, risk and contract management and assess the consequent responsibilities relevant to professional engineering practice.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[('evaluate', 'Extended Abstract'), ('assess', 'Extended Abstract')]</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>[('issue', 'Multistructural'), ('explain', 'Relational'), ('apply', 'Relational'), ('write', 'Unistructural'), ('recognise', 'Unistructural')]</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>understand and evaluate the need for sustainability and the impact of professional engineering work in the solution of civil engineering problems in environmental context.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Cognitive</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Analysing</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>[('understand', 'Verb not mapped'), ('evaluate', 'Evaluating')]</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[('recognise', 'Understanding'), ('analyse', 'Analysing'), ('compare', 'Understanding'), ('research', 'Analysing'), ('construct', 'Creating')]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>explain the contract laws and apply ethical principles and commit to professional ethics and responsibilities and the norms of engineering practice.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>[('explain', 'Relational'), ('apply', 'Relational'), ('commit', 'Verb not mapped')]</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>[('apply', 'Relational'), ('define', 'Multistructural'), ('discern', 'Multistructural'), ('explain', 'Relational'), ('engage', 'Extended Abstract')]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>communicate effectively on complex civil engineering activities with the engineering community in both oral and written form.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Affective</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Responding</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[('communicate', 'Responding')]</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>[('demonstrate', 'Valuing'), ('form', 'Valuing'), ('recognise', 'Receiving'), ('relate', 'Organisation'), ('establish', 'Organisation')]</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
